--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB6893-5FA7-3F47-8D9E-DC4358E43C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2679002-E9E0-4A47-AF67-57C3D3138E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,13 +1432,16 @@
   </si>
   <si>
     <t>Solution Dekhna Pada</t>
+  </si>
+  <si>
+    <t>To be done in heaps section (Quick sort approach completed)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1500,8 +1503,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1523,6 +1533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1564,7 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,6 +1608,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1909,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B418" sqref="B418"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,20 +1936,20 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1942,34 +1960,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C8" s="15"/>
+      <c r="D8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1999,7 @@
       </c>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1987,7 +2008,7 @@
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2017,7 @@
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2026,7 @@
       </c>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2014,7 +2035,7 @@
       </c>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -2023,7 +2044,7 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +2053,7 @@
       </c>
       <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +2392,6 @@
     <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
@@ -2380,7 +2400,6 @@
       <c r="B56" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -2760,13 +2779,9 @@
       </c>
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="11"/>
-    </row>
     <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
@@ -3092,12 +3107,8 @@
       </c>
       <c r="C136" s="11"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C137" s="11"/>
-    </row>
     <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
-      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
@@ -3423,12 +3434,8 @@
       </c>
       <c r="C174" s="11"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C175" s="11"/>
-    </row>
     <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
-      <c r="C176" s="11"/>
     </row>
     <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -3748,12 +3755,10 @@
     <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="11"/>
     </row>
     <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="11"/>
     </row>
     <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
@@ -3955,11 +3960,9 @@
     </row>
     <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
-      <c r="C236" s="11"/>
     </row>
     <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
-      <c r="C237" s="11"/>
     </row>
     <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
@@ -4278,11 +4281,9 @@
     </row>
     <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
-      <c r="C273" s="11"/>
     </row>
     <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
-      <c r="C274" s="11"/>
     </row>
     <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
@@ -4457,11 +4458,9 @@
     </row>
     <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B294" s="7"/>
-      <c r="C294" s="11"/>
     </row>
     <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B295" s="7"/>
-      <c r="C295" s="11"/>
     </row>
     <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
@@ -4807,11 +4806,9 @@
     </row>
     <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B334" s="7"/>
-      <c r="C334" s="11"/>
     </row>
     <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B335" s="7"/>
-      <c r="C335" s="11"/>
     </row>
     <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
@@ -4977,11 +4974,9 @@
     </row>
     <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B354" s="7"/>
-      <c r="C354" s="11"/>
     </row>
     <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B355" s="7"/>
-      <c r="C355" s="11"/>
     </row>
     <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
@@ -5443,11 +5438,11 @@
     </row>
     <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B408" s="7"/>
-      <c r="C408" s="11"/>
+      <c r="C408" s="7"/>
     </row>
     <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B409" s="7"/>
-      <c r="C409" s="11"/>
+      <c r="C409" s="7"/>
     </row>
     <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
@@ -6006,12 +6001,10 @@
     </row>
     <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B471" s="7"/>
-      <c r="C471" s="11"/>
     </row>
     <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A472" s="8"/>
       <c r="B472" s="7"/>
-      <c r="C472" s="11"/>
     </row>
     <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2679002-E9E0-4A47-AF67-57C3D3138E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC79116-5754-9D45-A571-0D3B48714333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,12 @@
   </si>
   <si>
     <t>To be done in heaps section (Quick sort approach completed)</t>
+  </si>
+  <si>
+    <t>TO BE REVISED</t>
+  </si>
+  <si>
+    <t>Leet code wala isme dekhna hai medium level ka question hai ek</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1545,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,7 +1592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1610,6 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1927,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1997,7 +2010,10 @@
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2006,7 +2022,7 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2015,7 +2031,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="17"/>
+      <c r="D11" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -2024,7 +2043,7 @@
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -2033,7 +2052,7 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC79116-5754-9D45-A571-0D3B48714333}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8DE37-9CF0-F74A-8034-A268AF94A62E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,30 @@
   </si>
   <si>
     <t>Leet code wala isme dekhna hai medium level ka question hai ek</t>
+  </si>
+  <si>
+    <t>Meeting Room 1</t>
+  </si>
+  <si>
+    <t>Paid question on leetcode but solved</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>need to be revised</t>
+  </si>
+  <si>
+    <t>accp in one go</t>
+  </si>
+  <si>
+    <t>not able to solve yet</t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially submitted Intuition galat pakad liya tha </t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D567"/>
+  <dimension ref="A1:F569"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1952,17 +1976,17 @@
     <col min="4" max="4" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1981,8 +2005,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E6" s="17"/>
+      <c r="F6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1990,8 +2018,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E7" s="16"/>
+      <c r="F7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -2002,8 +2034,12 @@
       <c r="D8" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E8" s="11"/>
+      <c r="F8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -2015,7 +2051,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -2024,7 +2060,7 @@
       </c>
       <c r="C10" s="16"/>
     </row>
-    <row r="11" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2072,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2081,7 @@
       </c>
       <c r="C12" s="16"/>
     </row>
-    <row r="13" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2090,7 @@
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -2063,25 +2099,25 @@
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -2090,138 +2126,144 @@
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="11"/>
     </row>
-    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="11"/>
     </row>
-    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="11"/>
     </row>
@@ -2230,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="11"/>
     </row>
@@ -2239,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="11"/>
     </row>
@@ -2248,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="11"/>
     </row>
@@ -2257,7 +2299,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="11"/>
     </row>
@@ -2266,7 +2308,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -2275,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="11"/>
     </row>
@@ -2284,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="11"/>
     </row>
@@ -2293,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="11"/>
     </row>
@@ -2302,35 +2344,35 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
       <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B44" s="7"/>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2338,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="11"/>
     </row>
@@ -2347,7 +2389,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="11"/>
     </row>
@@ -2356,7 +2398,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -2365,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="11"/>
     </row>
@@ -2374,7 +2416,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="11"/>
     </row>
@@ -2383,7 +2425,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="11"/>
     </row>
@@ -2392,7 +2434,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="11"/>
     </row>
@@ -2401,49 +2443,49 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C57" s="11"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="11"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>56</v>
+      <c r="B59" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="11"/>
     </row>
@@ -2452,7 +2494,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="11"/>
     </row>
@@ -2460,8 +2502,8 @@
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>58</v>
+      <c r="B61" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C61" s="11"/>
     </row>
@@ -2470,7 +2512,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="11"/>
     </row>
@@ -2479,7 +2521,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="11"/>
     </row>
@@ -2488,7 +2530,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="11"/>
     </row>
@@ -2497,7 +2539,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="11"/>
     </row>
@@ -2506,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="11"/>
     </row>
@@ -2515,7 +2557,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="11"/>
     </row>
@@ -2524,7 +2566,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="11"/>
     </row>
@@ -2533,7 +2575,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="11"/>
     </row>
@@ -2542,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="11"/>
     </row>
@@ -2551,7 +2593,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="11"/>
     </row>
@@ -2560,7 +2602,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="11"/>
     </row>
@@ -2569,7 +2611,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="11"/>
     </row>
@@ -2578,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="11"/>
     </row>
@@ -2587,7 +2629,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="11"/>
     </row>
@@ -2596,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="11"/>
     </row>
@@ -2605,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="11"/>
     </row>
@@ -2614,7 +2656,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="11"/>
     </row>
@@ -2623,7 +2665,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="11"/>
     </row>
@@ -2632,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="11"/>
     </row>
@@ -2641,7 +2683,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="11"/>
     </row>
@@ -2650,7 +2692,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="11"/>
     </row>
@@ -2659,7 +2701,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="11"/>
     </row>
@@ -2668,7 +2710,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2677,7 +2719,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="11"/>
     </row>
@@ -2686,7 +2728,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="11"/>
     </row>
@@ -2695,7 +2737,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="11"/>
     </row>
@@ -2704,7 +2746,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="11"/>
     </row>
@@ -2713,7 +2755,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="11"/>
     </row>
@@ -2722,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="11"/>
     </row>
@@ -2731,7 +2773,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="11"/>
     </row>
@@ -2740,7 +2782,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="11"/>
     </row>
@@ -2749,7 +2791,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="11"/>
     </row>
@@ -2758,7 +2800,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="11"/>
     </row>
@@ -2767,7 +2809,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="11"/>
     </row>
@@ -2776,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="11"/>
     </row>
@@ -2785,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="11"/>
     </row>
@@ -2794,38 +2836,38 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="11"/>
+    </row>
+    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="11"/>
-    </row>
-    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
-    </row>
-    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="11"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="11"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="11"/>
     </row>
@@ -2834,7 +2876,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="11"/>
     </row>
@@ -2843,7 +2885,7 @@
         <v>96</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="11"/>
     </row>
@@ -2852,7 +2894,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="11"/>
     </row>
@@ -2861,7 +2903,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="11"/>
     </row>
@@ -2870,7 +2912,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="11"/>
     </row>
@@ -2879,7 +2921,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C109" s="11"/>
     </row>
@@ -2888,7 +2930,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" s="11"/>
     </row>
@@ -2897,7 +2939,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C111" s="11"/>
     </row>
@@ -2906,7 +2948,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" s="11"/>
     </row>
@@ -2915,7 +2957,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113" s="11"/>
     </row>
@@ -2924,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -2933,7 +2975,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C115" s="11"/>
     </row>
@@ -2942,7 +2984,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C116" s="11"/>
     </row>
@@ -2951,7 +2993,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -2960,7 +3002,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" s="11"/>
     </row>
@@ -2969,7 +3011,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C119" s="11"/>
     </row>
@@ -2978,7 +3020,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="11"/>
     </row>
@@ -2987,7 +3029,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C121" s="11"/>
     </row>
@@ -2996,7 +3038,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C122" s="11"/>
     </row>
@@ -3005,7 +3047,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="11"/>
     </row>
@@ -3014,7 +3056,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124" s="11"/>
     </row>
@@ -3023,7 +3065,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" s="11"/>
     </row>
@@ -3032,7 +3074,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" s="11"/>
     </row>
@@ -3041,7 +3083,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="11"/>
     </row>
@@ -3050,7 +3092,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C128" s="11"/>
     </row>
@@ -3059,7 +3101,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="11"/>
     </row>
@@ -3068,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130" s="11"/>
     </row>
@@ -3077,7 +3119,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C131" s="11"/>
     </row>
@@ -3086,7 +3128,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C132" s="11"/>
     </row>
@@ -3095,7 +3137,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C133" s="11"/>
     </row>
@@ -3104,7 +3146,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C134" s="11"/>
     </row>
@@ -3113,7 +3155,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" s="11"/>
     </row>
@@ -3122,37 +3164,37 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="11"/>
+    </row>
+    <row r="137" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="11"/>
+    </row>
+    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="11"/>
-    </row>
-    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
-    </row>
-    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="11"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C140" s="11"/>
+      <c r="B140" s="7"/>
     </row>
     <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" s="11"/>
     </row>
@@ -3161,7 +3203,7 @@
         <v>133</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" s="11"/>
     </row>
@@ -3170,7 +3212,7 @@
         <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="11"/>
     </row>
@@ -3179,7 +3221,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" s="11"/>
     </row>
@@ -3188,7 +3230,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" s="11"/>
     </row>
@@ -3197,7 +3239,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" s="11"/>
     </row>
@@ -3206,7 +3248,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C147" s="11"/>
     </row>
@@ -3215,7 +3257,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C148" s="11"/>
     </row>
@@ -3224,7 +3266,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C149" s="11"/>
     </row>
@@ -3233,7 +3275,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C150" s="11"/>
     </row>
@@ -3242,7 +3284,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C151" s="11"/>
     </row>
@@ -3251,7 +3293,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C152" s="11"/>
     </row>
@@ -3260,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C153" s="11"/>
     </row>
@@ -3269,7 +3311,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C154" s="11"/>
     </row>
@@ -3278,7 +3320,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C155" s="11"/>
     </row>
@@ -3287,7 +3329,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C156" s="11"/>
     </row>
@@ -3296,7 +3338,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C157" s="11"/>
     </row>
@@ -3305,7 +3347,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158" s="11"/>
     </row>
@@ -3314,7 +3356,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C159" s="11"/>
     </row>
@@ -3323,7 +3365,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" s="11"/>
     </row>
@@ -3332,7 +3374,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C161" s="11"/>
     </row>
@@ -3341,7 +3383,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C162" s="11"/>
     </row>
@@ -3350,7 +3392,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="11"/>
     </row>
@@ -3358,8 +3400,8 @@
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>159</v>
+      <c r="B164" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C164" s="11"/>
     </row>
@@ -3367,8 +3409,8 @@
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>160</v>
+      <c r="B165" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C165" s="11"/>
     </row>
@@ -3376,8 +3418,8 @@
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>161</v>
+      <c r="B166" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C166" s="11"/>
     </row>
@@ -3385,8 +3427,8 @@
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>162</v>
+      <c r="B167" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C167" s="11"/>
     </row>
@@ -3395,7 +3437,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168" s="11"/>
     </row>
@@ -3404,7 +3446,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C169" s="11"/>
     </row>
@@ -3413,7 +3455,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C170" s="11"/>
     </row>
@@ -3422,7 +3464,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="11"/>
     </row>
@@ -3431,7 +3473,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" s="11"/>
     </row>
@@ -3440,7 +3482,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="11"/>
     </row>
@@ -3449,37 +3491,37 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" s="11"/>
+    </row>
+    <row r="175" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="11"/>
+    </row>
+    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="11"/>
-    </row>
-    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B176" s="7"/>
-    </row>
-    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="11"/>
+      <c r="C176" s="11"/>
     </row>
     <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C178" s="11"/>
+      <c r="B178" s="7"/>
     </row>
     <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C179" s="11"/>
     </row>
@@ -3488,7 +3530,7 @@
         <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C180" s="11"/>
     </row>
@@ -3497,7 +3539,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C181" s="11"/>
     </row>
@@ -3506,7 +3548,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C182" s="11"/>
     </row>
@@ -3515,7 +3557,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" s="11"/>
     </row>
@@ -3524,7 +3566,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C184" s="11"/>
     </row>
@@ -3533,7 +3575,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C185" s="11"/>
     </row>
@@ -3542,7 +3584,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C186" s="11"/>
     </row>
@@ -3551,7 +3593,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C187" s="11"/>
     </row>
@@ -3560,7 +3602,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C188" s="11"/>
     </row>
@@ -3569,7 +3611,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C189" s="11"/>
     </row>
@@ -3578,7 +3620,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -3587,7 +3629,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C191" s="11"/>
     </row>
@@ -3596,7 +3638,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C192" s="11"/>
     </row>
@@ -3605,7 +3647,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C193" s="11"/>
     </row>
@@ -3614,7 +3656,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C194" s="11"/>
     </row>
@@ -3623,7 +3665,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" s="11"/>
     </row>
@@ -3632,7 +3674,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" s="11"/>
     </row>
@@ -3641,7 +3683,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C197" s="11"/>
     </row>
@@ -3650,7 +3692,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C198" s="11"/>
     </row>
@@ -3659,7 +3701,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C199" s="11"/>
     </row>
@@ -3668,7 +3710,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" s="11"/>
     </row>
@@ -3677,7 +3719,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" s="11"/>
     </row>
@@ -3686,7 +3728,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" s="11"/>
     </row>
@@ -3695,7 +3737,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C203" s="11"/>
     </row>
@@ -3704,7 +3746,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C204" s="11"/>
     </row>
@@ -3713,7 +3755,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C205" s="11"/>
     </row>
@@ -3722,7 +3764,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C206" s="11"/>
     </row>
@@ -3731,7 +3773,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C207" s="11"/>
     </row>
@@ -3740,7 +3782,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C208" s="11"/>
     </row>
@@ -3749,7 +3791,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C209" s="11"/>
     </row>
@@ -3758,7 +3800,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C210" s="11"/>
     </row>
@@ -3767,42 +3809,42 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" s="11"/>
+    </row>
+    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C212" s="11"/>
+    </row>
+    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C211" s="11"/>
-    </row>
-    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
-    </row>
-    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A214" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C214" s="11"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="7"/>
     </row>
     <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C215" s="11"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="7"/>
     </row>
     <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216" s="11"/>
     </row>
@@ -3811,7 +3853,7 @@
         <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C217" s="11"/>
     </row>
@@ -3820,7 +3862,7 @@
         <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C218" s="11"/>
     </row>
@@ -3829,7 +3871,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C219" s="11"/>
     </row>
@@ -3837,8 +3879,8 @@
       <c r="A220" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>213</v>
+      <c r="B220" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C220" s="11"/>
     </row>
@@ -3847,7 +3889,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C221" s="11"/>
     </row>
@@ -3855,8 +3897,8 @@
       <c r="A222" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>215</v>
+      <c r="B222" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C222" s="11"/>
     </row>
@@ -3865,7 +3907,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" s="11"/>
     </row>
@@ -3874,7 +3916,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C224" s="11"/>
     </row>
@@ -3883,7 +3925,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C225" s="11"/>
     </row>
@@ -3892,7 +3934,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226" s="11"/>
     </row>
@@ -3901,7 +3943,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C227" s="11"/>
     </row>
@@ -3910,7 +3952,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C228" s="11"/>
     </row>
@@ -3919,7 +3961,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C229" s="11"/>
     </row>
@@ -3928,7 +3970,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C230" s="11"/>
     </row>
@@ -3937,7 +3979,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C231" s="11"/>
     </row>
@@ -3946,7 +3988,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C232" s="11"/>
     </row>
@@ -3955,7 +3997,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C233" s="11"/>
     </row>
@@ -3964,7 +4006,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C234" s="11"/>
     </row>
@@ -3973,40 +4015,40 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C235" s="11"/>
+    </row>
+    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C236" s="11"/>
+    </row>
+    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A237" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C235" s="11"/>
-    </row>
-    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B236" s="7"/>
-    </row>
-    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B237" s="7"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C238" s="11"/>
+      <c r="B238" s="7"/>
     </row>
     <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A239" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C239" s="11"/>
+      <c r="B239" s="7"/>
     </row>
     <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C240" s="11"/>
     </row>
@@ -4015,7 +4057,7 @@
         <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C241" s="11"/>
     </row>
@@ -4024,7 +4066,7 @@
         <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C242" s="11"/>
     </row>
@@ -4033,7 +4075,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C243" s="11"/>
     </row>
@@ -4042,7 +4084,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C244" s="11"/>
     </row>
@@ -4051,7 +4093,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C245" s="11"/>
     </row>
@@ -4060,7 +4102,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C246" s="11"/>
     </row>
@@ -4069,7 +4111,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C247" s="11"/>
     </row>
@@ -4078,7 +4120,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C248" s="11"/>
     </row>
@@ -4087,7 +4129,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C249" s="11"/>
     </row>
@@ -4096,7 +4138,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C250" s="11"/>
     </row>
@@ -4105,7 +4147,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="11"/>
     </row>
@@ -4114,7 +4156,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C252" s="11"/>
     </row>
@@ -4123,7 +4165,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C253" s="11"/>
     </row>
@@ -4132,7 +4174,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C254" s="11"/>
     </row>
@@ -4141,7 +4183,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C255" s="11"/>
     </row>
@@ -4150,7 +4192,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C256" s="11"/>
     </row>
@@ -4159,7 +4201,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" s="11"/>
     </row>
@@ -4168,7 +4210,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C258" s="11"/>
     </row>
@@ -4177,7 +4219,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C259" s="11"/>
     </row>
@@ -4186,7 +4228,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C260" s="11"/>
     </row>
@@ -4195,7 +4237,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C261" s="11"/>
     </row>
@@ -4204,7 +4246,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C262" s="11"/>
     </row>
@@ -4213,7 +4255,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C263" s="11"/>
     </row>
@@ -4222,7 +4264,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C264" s="11"/>
     </row>
@@ -4231,7 +4273,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C265" s="11"/>
     </row>
@@ -4240,7 +4282,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C266" s="11"/>
     </row>
@@ -4249,7 +4291,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C267" s="11"/>
     </row>
@@ -4258,7 +4300,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C268" s="11"/>
     </row>
@@ -4267,7 +4309,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C269" s="11"/>
     </row>
@@ -4276,7 +4318,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C270" s="11"/>
     </row>
@@ -4285,7 +4327,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C271" s="11"/>
     </row>
@@ -4294,40 +4336,40 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C272" s="11"/>
+    </row>
+    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A273" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="11"/>
+    </row>
+    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C272" s="11"/>
-    </row>
-    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B273" s="7"/>
-    </row>
-    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B274" s="7"/>
+      <c r="C274" s="11"/>
     </row>
     <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A275" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C275" s="11"/>
+      <c r="B275" s="7"/>
     </row>
     <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A276" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C276" s="11"/>
+      <c r="B276" s="7"/>
     </row>
     <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C277" s="11"/>
     </row>
@@ -4336,7 +4378,7 @@
         <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C278" s="11"/>
     </row>
@@ -4345,7 +4387,7 @@
         <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C279" s="11"/>
     </row>
@@ -4354,7 +4396,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C280" s="11"/>
     </row>
@@ -4363,7 +4405,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C281" s="11"/>
     </row>
@@ -4372,7 +4414,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C282" s="11"/>
     </row>
@@ -4381,7 +4423,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C283" s="11"/>
     </row>
@@ -4390,7 +4432,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C284" s="11"/>
     </row>
@@ -4399,7 +4441,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C285" s="11"/>
     </row>
@@ -4408,7 +4450,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C286" s="11"/>
     </row>
@@ -4417,7 +4459,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C287" s="11"/>
     </row>
@@ -4426,7 +4468,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C288" s="11"/>
     </row>
@@ -4435,7 +4477,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C289" s="11"/>
     </row>
@@ -4444,7 +4486,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C290" s="11"/>
     </row>
@@ -4453,7 +4495,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C291" s="11"/>
     </row>
@@ -4462,7 +4504,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C292" s="11"/>
     </row>
@@ -4471,40 +4513,40 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C293" s="11"/>
+    </row>
+    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C294" s="11"/>
+    </row>
+    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A295" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C293" s="11"/>
-    </row>
-    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B294" s="7"/>
-    </row>
-    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B295" s="7"/>
+      <c r="C295" s="11"/>
     </row>
     <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C296" s="11"/>
+      <c r="B296" s="7"/>
     </row>
     <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C297" s="11"/>
+      <c r="B297" s="7"/>
     </row>
     <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C298" s="11"/>
     </row>
@@ -4513,7 +4555,7 @@
         <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C299" s="11"/>
     </row>
@@ -4522,7 +4564,7 @@
         <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C300" s="11"/>
     </row>
@@ -4531,7 +4573,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C301" s="11"/>
     </row>
@@ -4540,7 +4582,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C302" s="11"/>
     </row>
@@ -4549,7 +4591,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C303" s="11"/>
     </row>
@@ -4558,7 +4600,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C304" s="11"/>
     </row>
@@ -4567,7 +4609,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C305" s="11"/>
     </row>
@@ -4576,7 +4618,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C306" s="11"/>
     </row>
@@ -4585,7 +4627,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C307" s="11"/>
     </row>
@@ -4594,7 +4636,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C308" s="11"/>
     </row>
@@ -4602,8 +4644,8 @@
       <c r="A309" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="9" t="s">
-        <v>298</v>
+      <c r="B309" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C309" s="11"/>
     </row>
@@ -4612,7 +4654,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C310" s="11"/>
     </row>
@@ -4620,8 +4662,8 @@
       <c r="A311" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>300</v>
+      <c r="B311" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C311" s="11"/>
     </row>
@@ -4630,7 +4672,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C312" s="11"/>
     </row>
@@ -4639,7 +4681,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C313" s="11"/>
     </row>
@@ -4648,7 +4690,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C314" s="11"/>
     </row>
@@ -4657,7 +4699,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C315" s="11"/>
     </row>
@@ -4666,7 +4708,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C316" s="11"/>
     </row>
@@ -4675,7 +4717,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C317" s="11"/>
     </row>
@@ -4684,7 +4726,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C318" s="11"/>
     </row>
@@ -4693,7 +4735,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C319" s="11"/>
     </row>
@@ -4702,7 +4744,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C320" s="11"/>
     </row>
@@ -4711,7 +4753,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C321" s="11"/>
     </row>
@@ -4720,7 +4762,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C322" s="11"/>
     </row>
@@ -4729,7 +4771,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C323" s="11"/>
     </row>
@@ -4738,7 +4780,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C324" s="11"/>
     </row>
@@ -4747,7 +4789,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C325" s="11"/>
     </row>
@@ -4756,7 +4798,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C326" s="11"/>
     </row>
@@ -4765,7 +4807,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C327" s="11"/>
     </row>
@@ -4774,7 +4816,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C328" s="11"/>
     </row>
@@ -4783,7 +4825,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C329" s="11"/>
     </row>
@@ -4792,7 +4834,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C330" s="11"/>
     </row>
@@ -4801,7 +4843,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C331" s="11"/>
     </row>
@@ -4810,7 +4852,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C332" s="11"/>
     </row>
@@ -4819,40 +4861,40 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C333" s="11"/>
+    </row>
+    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C334" s="11"/>
+    </row>
+    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A335" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C333" s="11"/>
-    </row>
-    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B334" s="7"/>
-    </row>
-    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B335" s="7"/>
+      <c r="C335" s="11"/>
     </row>
     <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A336" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C336" s="11"/>
+      <c r="B336" s="7"/>
     </row>
     <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A337" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C337" s="11"/>
+      <c r="B337" s="7"/>
     </row>
     <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C338" s="11"/>
     </row>
@@ -4861,7 +4903,7 @@
         <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C339" s="11"/>
     </row>
@@ -4870,7 +4912,7 @@
         <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C340" s="11"/>
     </row>
@@ -4879,7 +4921,7 @@
         <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C341" s="11"/>
     </row>
@@ -4888,7 +4930,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C342" s="11"/>
     </row>
@@ -4897,7 +4939,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C343" s="11"/>
     </row>
@@ -4905,8 +4947,8 @@
       <c r="A344" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B344" s="9" t="s">
-        <v>332</v>
+      <c r="B344" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C344" s="11"/>
     </row>
@@ -4915,7 +4957,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C345" s="11"/>
     </row>
@@ -4923,8 +4965,8 @@
       <c r="A346" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B346" s="6" t="s">
-        <v>334</v>
+      <c r="B346" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C346" s="11"/>
     </row>
@@ -4933,7 +4975,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C347" s="11"/>
     </row>
@@ -4942,7 +4984,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C348" s="11"/>
     </row>
@@ -4951,7 +4993,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C349" s="11"/>
     </row>
@@ -4960,7 +5002,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C350" s="11"/>
     </row>
@@ -4969,7 +5011,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C351" s="11"/>
     </row>
@@ -4978,7 +5020,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C352" s="11"/>
     </row>
@@ -4987,40 +5029,45 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" s="11"/>
+    </row>
+    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A354" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C354" s="11"/>
+    </row>
+    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A355" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B355" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C353" s="11"/>
-    </row>
-    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B354" s="7"/>
-    </row>
-    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B355" s="7"/>
+      <c r="C355" s="11"/>
     </row>
     <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C356" s="11"/>
+        <v>472</v>
+      </c>
     </row>
     <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A357" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C357" s="11"/>
+      <c r="B357" s="7"/>
     </row>
     <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C358" s="11"/>
     </row>
@@ -5029,7 +5076,7 @@
         <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C359" s="11"/>
     </row>
@@ -5038,7 +5085,7 @@
         <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C360" s="11"/>
     </row>
@@ -5047,7 +5094,7 @@
         <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C361" s="11"/>
     </row>
@@ -5056,7 +5103,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C362" s="11"/>
     </row>
@@ -5065,7 +5112,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C363" s="11"/>
     </row>
@@ -5074,7 +5121,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C364" s="11"/>
     </row>
@@ -5083,7 +5130,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C365" s="11"/>
     </row>
@@ -5092,7 +5139,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C366" s="11"/>
     </row>
@@ -5101,7 +5148,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C367" s="11"/>
     </row>
@@ -5110,7 +5157,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C368" s="11"/>
     </row>
@@ -5119,7 +5166,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C369" s="11"/>
     </row>
@@ -5128,7 +5175,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C370" s="11"/>
     </row>
@@ -5137,7 +5184,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C371" s="11"/>
     </row>
@@ -5146,7 +5193,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C372" s="11"/>
     </row>
@@ -5155,7 +5202,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C373" s="11"/>
     </row>
@@ -5164,7 +5211,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C374" s="11"/>
     </row>
@@ -5173,7 +5220,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C375" s="11"/>
     </row>
@@ -5182,7 +5229,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C376" s="11"/>
     </row>
@@ -5191,7 +5238,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C377" s="11"/>
     </row>
@@ -5200,7 +5247,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C378" s="11"/>
     </row>
@@ -5209,7 +5256,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C379" s="11"/>
     </row>
@@ -5218,7 +5265,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C380" s="11"/>
     </row>
@@ -5227,7 +5274,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C381" s="11"/>
     </row>
@@ -5236,7 +5283,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C382" s="11"/>
     </row>
@@ -5245,7 +5292,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C383" s="11"/>
     </row>
@@ -5254,7 +5301,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C384" s="11"/>
     </row>
@@ -5263,7 +5310,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C385" s="11"/>
     </row>
@@ -5272,7 +5319,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C386" s="11"/>
     </row>
@@ -5281,7 +5328,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C387" s="11"/>
     </row>
@@ -5290,7 +5337,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C388" s="11"/>
     </row>
@@ -5299,7 +5346,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C389" s="11"/>
     </row>
@@ -5308,7 +5355,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C390" s="11"/>
     </row>
@@ -5317,7 +5364,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="11"/>
     </row>
@@ -5326,7 +5373,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C392" s="11"/>
     </row>
@@ -5335,7 +5382,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C393" s="11"/>
     </row>
@@ -5344,7 +5391,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C394" s="11"/>
     </row>
@@ -5353,7 +5400,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C395" s="11"/>
     </row>
@@ -5362,7 +5409,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C396" s="11"/>
     </row>
@@ -5371,7 +5418,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C397" s="11"/>
     </row>
@@ -5380,7 +5427,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C398" s="11"/>
     </row>
@@ -5389,179 +5436,179 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C399" s="11"/>
+    </row>
+    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A400" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C400" s="11"/>
+    </row>
+    <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B401" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C399" s="11"/>
-    </row>
-    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B400" s="7"/>
-      <c r="C400" s="11"/>
-    </row>
-    <row r="401" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B401" s="7"/>
       <c r="C401" s="11"/>
     </row>
-    <row r="402" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A402" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>387</v>
-      </c>
+    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B402" s="7"/>
       <c r="C402" s="11"/>
     </row>
-    <row r="403" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A403" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>388</v>
-      </c>
+    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B403" s="7"/>
       <c r="C403" s="11"/>
     </row>
-    <row r="404" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C404" s="11"/>
     </row>
-    <row r="405" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C405" s="11"/>
     </row>
-    <row r="406" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="11"/>
     </row>
-    <row r="407" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C407" s="11"/>
+    </row>
+    <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A408" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C408" s="11"/>
+    </row>
+    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B409" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C407" s="11"/>
-    </row>
-    <row r="408" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B408" s="7"/>
-      <c r="C408" s="7"/>
-    </row>
-    <row r="409" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B409" s="7"/>
-      <c r="C409" s="7"/>
-    </row>
-    <row r="410" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A410" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C410" s="13"/>
-    </row>
-    <row r="411" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A411" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C411" s="13"/>
-    </row>
-    <row r="412" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C409" s="11"/>
+    </row>
+    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B410" s="7"/>
+      <c r="C410" s="7"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B411" s="7"/>
+      <c r="C411" s="7"/>
+    </row>
+    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C412" s="11"/>
-    </row>
-    <row r="413" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="C412" s="13"/>
+    </row>
+    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C413" s="11"/>
-    </row>
-    <row r="414" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="C413" s="13"/>
+    </row>
+    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C414" s="11"/>
     </row>
-    <row r="415" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C415" s="11"/>
     </row>
-    <row r="416" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C416" s="13"/>
-      <c r="D416" t="s">
-        <v>464</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C416" s="11"/>
     </row>
     <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C417" s="13"/>
+        <v>398</v>
+      </c>
+      <c r="C417" s="11"/>
     </row>
     <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C418" s="11"/>
+        <v>399</v>
+      </c>
+      <c r="C418" s="13"/>
+      <c r="D418" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C419" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C419" s="13"/>
     </row>
     <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C420" s="11"/>
     </row>
@@ -5570,7 +5617,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C421" s="11"/>
     </row>
@@ -5579,7 +5626,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C422" s="11"/>
     </row>
@@ -5588,16 +5635,16 @@
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C423" s="13"/>
+        <v>403</v>
+      </c>
+      <c r="C423" s="11"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C424" s="11"/>
     </row>
@@ -5606,7 +5653,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C425" s="13"/>
     </row>
@@ -5615,7 +5662,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C426" s="11"/>
     </row>
@@ -5624,16 +5671,16 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C427" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C427" s="13"/>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C428" s="11"/>
     </row>
@@ -5642,46 +5689,46 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C429" s="14"/>
-      <c r="D429" t="s">
-        <v>466</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C429" s="11"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C430" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="C430" s="11"/>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C431" s="11"/>
+        <v>465</v>
+      </c>
+      <c r="C431" s="14"/>
+      <c r="D431" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C432" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="C432" s="13"/>
     </row>
     <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C433" s="11"/>
     </row>
@@ -5690,7 +5737,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C434" s="11"/>
     </row>
@@ -5699,7 +5746,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C435" s="11"/>
     </row>
@@ -5708,7 +5755,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C436" s="11"/>
     </row>
@@ -5717,7 +5764,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C437" s="11"/>
     </row>
@@ -5726,7 +5773,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C438" s="11"/>
     </row>
@@ -5735,7 +5782,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C439" s="11"/>
     </row>
@@ -5744,7 +5791,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C440" s="11"/>
     </row>
@@ -5753,7 +5800,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C441" s="11"/>
     </row>
@@ -5762,7 +5809,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C442" s="11"/>
     </row>
@@ -5771,7 +5818,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C443" s="11"/>
     </row>
@@ -5780,7 +5827,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C444" s="11"/>
     </row>
@@ -5789,7 +5836,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C445" s="11"/>
     </row>
@@ -5798,7 +5845,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C446" s="11"/>
     </row>
@@ -5807,7 +5854,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C447" s="11"/>
     </row>
@@ -5816,7 +5863,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C448" s="11"/>
     </row>
@@ -5825,7 +5872,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C449" s="11"/>
     </row>
@@ -5834,7 +5881,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C450" s="11"/>
     </row>
@@ -5843,7 +5890,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C451" s="11"/>
     </row>
@@ -5852,7 +5899,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C452" s="11"/>
     </row>
@@ -5861,7 +5908,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C453" s="11"/>
     </row>
@@ -5870,7 +5917,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C454" s="11"/>
     </row>
@@ -5879,7 +5926,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C455" s="11"/>
     </row>
@@ -5888,7 +5935,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C456" s="11"/>
     </row>
@@ -5897,7 +5944,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C457" s="11"/>
     </row>
@@ -5906,7 +5953,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C458" s="11"/>
     </row>
@@ -5915,7 +5962,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C459" s="11"/>
     </row>
@@ -5924,7 +5971,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C460" s="11"/>
     </row>
@@ -5933,7 +5980,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C461" s="11"/>
     </row>
@@ -5942,7 +5989,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C462" s="11"/>
     </row>
@@ -5951,7 +5998,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C463" s="11"/>
     </row>
@@ -5960,7 +6007,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C464" s="11"/>
     </row>
@@ -5969,7 +6016,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C465" s="11"/>
     </row>
@@ -5978,7 +6025,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C466" s="11"/>
     </row>
@@ -5987,7 +6034,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -5996,7 +6043,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C468" s="11"/>
     </row>
@@ -6005,7 +6052,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C469" s="11"/>
     </row>
@@ -6014,41 +6061,41 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C470" s="11"/>
+    </row>
+    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A471" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C471" s="11"/>
+    </row>
+    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A472" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C470" s="11"/>
-    </row>
-    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B471" s="7"/>
-    </row>
-    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A472" s="8"/>
-      <c r="B472" s="7"/>
+      <c r="C472" s="11"/>
     </row>
     <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A473" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C473" s="11"/>
+      <c r="B473" s="7"/>
     </row>
     <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A474" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B474" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C474" s="11"/>
+      <c r="A474" s="8"/>
+      <c r="B474" s="7"/>
     </row>
     <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C475" s="11"/>
     </row>
@@ -6057,7 +6104,7 @@
         <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C476" s="11"/>
     </row>
@@ -6066,7 +6113,7 @@
         <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C477" s="11"/>
     </row>
@@ -6075,7 +6122,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C478" s="11"/>
     </row>
@@ -6084,7 +6131,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C479" s="11"/>
     </row>
@@ -6093,7 +6140,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C480" s="11"/>
     </row>
@@ -6102,7 +6149,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C481" s="11"/>
     </row>
@@ -6111,18 +6158,30 @@
         <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C482" s="11"/>
+    </row>
+    <row r="483" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C483" s="11"/>
+    </row>
+    <row r="484" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B484" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C482" s="11"/>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C483" s="12"/>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C498" s="4"/>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C499" s="4"/>
+      <c r="C484" s="11"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C485" s="12"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C500" s="4"/>
@@ -6327,6 +6386,12 @@
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C567" s="4"/>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C568" s="4"/>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C569" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6344,439 +6409,442 @@
     <hyperlink ref="B17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
     <hyperlink ref="B18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
     <hyperlink ref="B19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B430" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B431" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B432" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B433" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B434" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B435" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B436" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B437" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B438" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B439" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B440" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B441" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B442" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B443" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B444" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B445" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B446" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B447" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B448" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B449" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B450" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B452" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B451" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B453" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B454" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B455" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B456" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B457" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B458" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B459" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B460" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B461" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B462" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B463" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B470" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B469" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B468" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B467" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B466" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B465" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B464" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B473" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B474" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B475" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B476" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B477" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B478" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B479" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B482" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B480" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B481" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="B24" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="B26" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="B27" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="B30" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="B32" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="B33" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="B34" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="B35" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="B36" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="B37" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="B38" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="B39" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="B40" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="B41" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B42" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B43" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B46" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B47" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B48" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B49" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B50" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B51" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B52" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B53" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B54" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B55" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B58" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B59" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B60" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B62" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B63" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B64" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B65" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B66" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B67" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B68" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B69" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B70" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B71" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B73" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B74" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B75" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B76" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B77" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B78" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B79" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B80" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B81" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B82" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B83" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B84" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B85" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B86" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B87" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B88" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B89" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B90" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B91" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B92" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B93" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B94" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B95" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B96" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B97" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B98" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B99" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B100" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B103" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B104" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B105" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B106" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B108" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B109" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B110" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B111" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B112" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B113" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B115" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B116" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B117" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B118" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B119" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B120" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B121" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B122" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B123" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B124" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B125" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B126" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B127" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B128" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B129" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B130" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B131" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B132" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B133" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B134" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B135" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B136" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B137" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B138" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B107" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B114" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B141" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B142" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B143" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B144" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B145" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B146" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B147" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B148" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B149" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B150" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B151" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B152" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B153" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B154" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B155" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B156" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B157" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B158" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B159" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B160" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B161" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B162" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B163" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B164" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B165" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B168" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B169" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B170" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B171" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B172" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B173" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B174" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B175" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B176" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B179" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B180" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B181" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B182" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B183" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B184" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B185" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B186" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B187" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B188" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B189" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B190" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B191" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B192" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B193" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B194" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B195" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B196" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B197" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B198" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B199" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B200" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B201" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B202" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B203" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B204" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B205" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B206" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B207" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B208" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B209" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B210" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B211" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B212" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B213" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B216" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B217" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B218" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B219" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B220" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B221" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B222" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B223" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B224" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B225" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B226" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B227" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B228" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B229" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B230" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B231" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B232" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B233" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B234" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B235" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B236" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B237" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B240" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B241" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B242" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B243" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B244" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B245" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B246" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B247" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B248" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B249" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B250" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B251" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B252" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B253" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B254" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B255" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B256" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B257" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B258" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B259" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B260" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B261" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B262" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B263" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B264" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B265" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B266" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B267" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B268" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B269" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B270" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B271" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B272" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B273" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B274" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B277" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B278" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B279" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B280" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B281" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B282" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B283" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B284" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B285" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B286" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B287" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B288" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B289" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B290" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B291" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B292" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B293" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B294" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B295" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B298" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B299" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B300" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B301" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B302" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B303" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B304" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B305" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B306" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B307" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B308" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B309" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B310" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B311" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B312" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B313" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B314" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B315" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B316" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B317" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B318" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B319" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B320" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B321" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B322" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B323" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B324" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B325" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B326" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B327" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B328" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B329" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B330" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B331" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B332" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B333" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B334" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B335" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B338" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B339" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B340" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B341" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B342" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B343" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B344" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B345" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B346" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B347" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B348" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B349" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B350" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B351" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B352" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B353" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B354" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B355" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B359" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B360" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B361" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B362" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B363" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B364" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B365" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B366" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B367" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B368" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B369" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B370" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B371" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B372" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B373" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B374" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B375" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B376" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B377" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B378" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B379" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B380" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B381" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B382" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B383" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B384" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B385" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B386" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B387" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B388" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B389" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B390" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B391" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B392" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B393" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B394" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B395" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B398" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B399" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B400" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B401" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B404" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B405" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B406" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B407" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B408" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B409" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B412" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B413" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B414" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B415" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B416" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B417" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B418" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B419" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B420" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B421" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B422" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B423" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B424" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B425" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B426" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B427" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B428" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B429" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B430" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B432" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B433" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B434" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B435" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B436" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B437" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B438" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B439" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B440" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B441" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B442" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B443" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B444" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B445" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B446" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B447" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B448" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B449" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B450" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B451" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B452" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B454" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B453" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B455" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B456" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B457" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B458" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B459" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B460" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B461" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B462" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B463" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B464" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B465" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B472" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B471" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B470" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B469" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B468" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B467" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B466" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B475" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B476" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B477" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B478" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B479" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B480" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B484" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B482" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B483" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B358" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B429" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B431" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
+    <hyperlink ref="B356" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B21" r:id="rId450" xr:uid="{F69CB341-73BF-C84B-AAF6-FBB89FEDCBA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8DE37-9CF0-F74A-8034-A268AF94A62E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE915F-ECC0-1D46-AF74-55E6680F57A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="479">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,6 +1465,9 @@
   </si>
   <si>
     <t xml:space="preserve">Partially submitted Intuition galat pakad liya tha </t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock 2</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1647,6 +1650,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1962,10 +1966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F569"/>
+  <dimension ref="A1:F570"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2160,7 +2164,7 @@
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="18" t="s">
         <v>476</v>
       </c>
       <c r="C21" s="17"/>
@@ -2193,41 +2197,41 @@
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="11"/>
+        <v>478</v>
+      </c>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="11"/>
     </row>
@@ -2236,16 +2240,16 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11"/>
     </row>
@@ -2254,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="11"/>
     </row>
@@ -2263,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11"/>
     </row>
@@ -2272,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="11"/>
     </row>
@@ -2281,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="11"/>
     </row>
@@ -2290,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="11"/>
     </row>
@@ -2299,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="11"/>
     </row>
@@ -2308,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="11"/>
     </row>
@@ -2317,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="11"/>
     </row>
@@ -2326,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="11"/>
     </row>
@@ -2335,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="11"/>
     </row>
@@ -2344,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="11"/>
     </row>
@@ -2353,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="11"/>
     </row>
@@ -2362,34 +2366,34 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="11"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="11"/>
     </row>
@@ -2398,7 +2402,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -2407,7 +2411,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="11"/>
     </row>
@@ -2416,7 +2420,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="11"/>
     </row>
@@ -2425,7 +2429,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="11"/>
     </row>
@@ -2434,7 +2438,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="11"/>
     </row>
@@ -2443,7 +2447,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="11"/>
     </row>
@@ -2452,7 +2456,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="11"/>
     </row>
@@ -2461,40 +2465,40 @@
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="11"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="11"/>
     </row>
@@ -2502,8 +2506,8 @@
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>56</v>
+      <c r="B61" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C61" s="11"/>
     </row>
@@ -2511,8 +2515,8 @@
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>57</v>
+      <c r="B62" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C62" s="11"/>
     </row>
@@ -2521,7 +2525,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="11"/>
     </row>
@@ -2530,7 +2534,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="11"/>
     </row>
@@ -2539,7 +2543,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="11"/>
     </row>
@@ -2548,7 +2552,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="11"/>
     </row>
@@ -2557,7 +2561,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="11"/>
     </row>
@@ -2566,7 +2570,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="11"/>
     </row>
@@ -2575,7 +2579,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="11"/>
     </row>
@@ -2584,7 +2588,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="11"/>
     </row>
@@ -2593,7 +2597,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="11"/>
     </row>
@@ -2602,7 +2606,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C72" s="11"/>
     </row>
@@ -2611,7 +2615,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="11"/>
     </row>
@@ -2620,7 +2624,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="11"/>
     </row>
@@ -2629,7 +2633,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="11"/>
     </row>
@@ -2638,7 +2642,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="11"/>
     </row>
@@ -2647,7 +2651,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="11"/>
     </row>
@@ -2656,7 +2660,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="11"/>
     </row>
@@ -2665,7 +2669,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="11"/>
     </row>
@@ -2674,7 +2678,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="11"/>
     </row>
@@ -2683,7 +2687,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="11"/>
     </row>
@@ -2692,7 +2696,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="11"/>
     </row>
@@ -2701,7 +2705,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="11"/>
     </row>
@@ -2710,7 +2714,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2719,7 +2723,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="11"/>
     </row>
@@ -2728,7 +2732,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="11"/>
     </row>
@@ -2737,7 +2741,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="11"/>
     </row>
@@ -2746,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="11"/>
     </row>
@@ -2755,7 +2759,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="11"/>
     </row>
@@ -2764,7 +2768,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="11"/>
     </row>
@@ -2773,7 +2777,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="11"/>
     </row>
@@ -2782,7 +2786,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="11"/>
     </row>
@@ -2791,7 +2795,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="11"/>
     </row>
@@ -2800,7 +2804,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="11"/>
     </row>
@@ -2809,7 +2813,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="11"/>
     </row>
@@ -2818,7 +2822,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="11"/>
     </row>
@@ -2827,7 +2831,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="11"/>
     </row>
@@ -2836,7 +2840,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="11"/>
     </row>
@@ -2845,7 +2849,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="11"/>
     </row>
@@ -2854,29 +2858,29 @@
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="7"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C103" s="11"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C104" s="11"/>
     </row>
@@ -2885,7 +2889,7 @@
         <v>96</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="11"/>
     </row>
@@ -2894,7 +2898,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C106" s="11"/>
     </row>
@@ -2903,7 +2907,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C107" s="11"/>
     </row>
@@ -2912,7 +2916,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C108" s="11"/>
     </row>
@@ -2921,7 +2925,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C109" s="11"/>
     </row>
@@ -2930,7 +2934,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C110" s="11"/>
     </row>
@@ -2939,7 +2943,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C111" s="11"/>
     </row>
@@ -2948,7 +2952,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112" s="11"/>
     </row>
@@ -2957,7 +2961,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C113" s="11"/>
     </row>
@@ -2966,7 +2970,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -2975,7 +2979,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C115" s="11"/>
     </row>
@@ -2984,7 +2988,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="11"/>
     </row>
@@ -2993,7 +2997,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -3002,7 +3006,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C118" s="11"/>
     </row>
@@ -3011,7 +3015,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C119" s="11"/>
     </row>
@@ -3020,7 +3024,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C120" s="11"/>
     </row>
@@ -3029,7 +3033,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C121" s="11"/>
     </row>
@@ -3038,7 +3042,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C122" s="11"/>
     </row>
@@ -3047,7 +3051,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123" s="11"/>
     </row>
@@ -3056,7 +3060,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="11"/>
     </row>
@@ -3065,7 +3069,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C125" s="11"/>
     </row>
@@ -3074,7 +3078,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C126" s="11"/>
     </row>
@@ -3083,7 +3087,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="11"/>
     </row>
@@ -3092,7 +3096,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="11"/>
     </row>
@@ -3101,7 +3105,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="11"/>
     </row>
@@ -3110,7 +3114,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="11"/>
     </row>
@@ -3119,7 +3123,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" s="11"/>
     </row>
@@ -3128,7 +3132,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C132" s="11"/>
     </row>
@@ -3137,7 +3141,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" s="11"/>
     </row>
@@ -3146,7 +3150,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="11"/>
     </row>
@@ -3155,7 +3159,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" s="11"/>
     </row>
@@ -3164,7 +3168,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="11"/>
     </row>
@@ -3173,7 +3177,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C137" s="11"/>
     </row>
@@ -3182,28 +3186,28 @@
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="11"/>
+    </row>
+    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C138" s="11"/>
-    </row>
-    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C141" s="11"/>
+      <c r="B141" s="7"/>
     </row>
     <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="11"/>
     </row>
@@ -3212,7 +3216,7 @@
         <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143" s="11"/>
     </row>
@@ -3221,7 +3225,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144" s="11"/>
     </row>
@@ -3230,7 +3234,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145" s="11"/>
     </row>
@@ -3239,7 +3243,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146" s="11"/>
     </row>
@@ -3248,7 +3252,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C147" s="11"/>
     </row>
@@ -3257,7 +3261,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C148" s="11"/>
     </row>
@@ -3266,7 +3270,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C149" s="11"/>
     </row>
@@ -3275,7 +3279,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C150" s="11"/>
     </row>
@@ -3284,7 +3288,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151" s="11"/>
     </row>
@@ -3293,7 +3297,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152" s="11"/>
     </row>
@@ -3302,7 +3306,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153" s="11"/>
     </row>
@@ -3311,7 +3315,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C154" s="11"/>
     </row>
@@ -3320,7 +3324,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C155" s="11"/>
     </row>
@@ -3329,7 +3333,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C156" s="11"/>
     </row>
@@ -3338,7 +3342,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157" s="11"/>
     </row>
@@ -3347,7 +3351,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C158" s="11"/>
     </row>
@@ -3356,7 +3360,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159" s="11"/>
     </row>
@@ -3365,7 +3369,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C160" s="11"/>
     </row>
@@ -3374,7 +3378,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C161" s="11"/>
     </row>
@@ -3383,7 +3387,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C162" s="11"/>
     </row>
@@ -3392,7 +3396,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C163" s="11"/>
     </row>
@@ -3401,7 +3405,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C164" s="11"/>
     </row>
@@ -3410,7 +3414,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165" s="11"/>
     </row>
@@ -3418,8 +3422,8 @@
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>159</v>
+      <c r="B166" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C166" s="11"/>
     </row>
@@ -3428,7 +3432,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C167" s="11"/>
     </row>
@@ -3436,8 +3440,8 @@
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>161</v>
+      <c r="B168" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C168" s="11"/>
     </row>
@@ -3446,7 +3450,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C169" s="11"/>
     </row>
@@ -3455,7 +3459,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170" s="11"/>
     </row>
@@ -3464,7 +3468,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C171" s="11"/>
     </row>
@@ -3473,7 +3477,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C172" s="11"/>
     </row>
@@ -3482,7 +3486,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C173" s="11"/>
     </row>
@@ -3491,7 +3495,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C174" s="11"/>
     </row>
@@ -3500,7 +3504,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C175" s="11"/>
     </row>
@@ -3509,28 +3513,28 @@
         <v>133</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" s="11"/>
+    </row>
+    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C176" s="11"/>
-    </row>
-    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B178" s="7"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C179" s="11"/>
+      <c r="B179" s="7"/>
     </row>
     <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C180" s="11"/>
     </row>
@@ -3539,7 +3543,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C181" s="11"/>
     </row>
@@ -3548,7 +3552,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C182" s="11"/>
     </row>
@@ -3557,7 +3561,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C183" s="11"/>
     </row>
@@ -3566,7 +3570,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C184" s="11"/>
     </row>
@@ -3575,7 +3579,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C185" s="11"/>
     </row>
@@ -3584,7 +3588,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C186" s="11"/>
     </row>
@@ -3593,7 +3597,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C187" s="11"/>
     </row>
@@ -3602,7 +3606,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C188" s="11"/>
     </row>
@@ -3611,7 +3615,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C189" s="11"/>
     </row>
@@ -3620,7 +3624,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -3629,7 +3633,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C191" s="11"/>
     </row>
@@ -3638,7 +3642,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C192" s="11"/>
     </row>
@@ -3647,7 +3651,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C193" s="11"/>
     </row>
@@ -3656,7 +3660,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C194" s="11"/>
     </row>
@@ -3665,7 +3669,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C195" s="11"/>
     </row>
@@ -3674,7 +3678,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C196" s="11"/>
     </row>
@@ -3683,7 +3687,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C197" s="11"/>
     </row>
@@ -3692,7 +3696,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C198" s="11"/>
     </row>
@@ -3701,7 +3705,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C199" s="11"/>
     </row>
@@ -3710,7 +3714,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C200" s="11"/>
     </row>
@@ -3719,7 +3723,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C201" s="11"/>
     </row>
@@ -3728,7 +3732,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C202" s="11"/>
     </row>
@@ -3737,7 +3741,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C203" s="11"/>
     </row>
@@ -3746,7 +3750,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C204" s="11"/>
     </row>
@@ -3755,7 +3759,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C205" s="11"/>
     </row>
@@ -3764,7 +3768,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C206" s="11"/>
     </row>
@@ -3773,7 +3777,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C207" s="11"/>
     </row>
@@ -3782,7 +3786,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C208" s="11"/>
     </row>
@@ -3791,7 +3795,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C209" s="11"/>
     </row>
@@ -3800,7 +3804,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C210" s="11"/>
     </row>
@@ -3809,7 +3813,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C211" s="11"/>
     </row>
@@ -3818,7 +3822,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C212" s="11"/>
     </row>
@@ -3827,33 +3831,33 @@
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C213" s="11"/>
+    </row>
+    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C213" s="11"/>
-    </row>
-    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A214" s="8"/>
-      <c r="B214" s="7"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="7"/>
     </row>
     <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C216" s="11"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="7"/>
     </row>
     <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C217" s="11"/>
     </row>
@@ -3862,7 +3866,7 @@
         <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C218" s="11"/>
     </row>
@@ -3871,7 +3875,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C219" s="11"/>
     </row>
@@ -3880,7 +3884,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C220" s="11"/>
     </row>
@@ -3889,7 +3893,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C221" s="11"/>
     </row>
@@ -3897,8 +3901,8 @@
       <c r="A222" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>213</v>
+      <c r="B222" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C222" s="11"/>
     </row>
@@ -3906,8 +3910,8 @@
       <c r="A223" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B223" s="6" t="s">
-        <v>214</v>
+      <c r="B223" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C223" s="11"/>
     </row>
@@ -3916,7 +3920,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C224" s="11"/>
     </row>
@@ -3925,7 +3929,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C225" s="11"/>
     </row>
@@ -3934,7 +3938,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C226" s="11"/>
     </row>
@@ -3943,7 +3947,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C227" s="11"/>
     </row>
@@ -3952,7 +3956,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C228" s="11"/>
     </row>
@@ -3961,7 +3965,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C229" s="11"/>
     </row>
@@ -3970,7 +3974,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C230" s="11"/>
     </row>
@@ -3979,7 +3983,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C231" s="11"/>
     </row>
@@ -3988,7 +3992,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C232" s="11"/>
     </row>
@@ -3997,7 +4001,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C233" s="11"/>
     </row>
@@ -4006,7 +4010,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C234" s="11"/>
     </row>
@@ -4015,7 +4019,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C235" s="11"/>
     </row>
@@ -4024,7 +4028,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C236" s="11"/>
     </row>
@@ -4033,31 +4037,31 @@
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C237" s="11"/>
+    </row>
+    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C237" s="11"/>
-    </row>
-    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B238" s="7"/>
+      <c r="C238" s="11"/>
     </row>
     <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
     </row>
     <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A240" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C240" s="11"/>
+      <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C241" s="11"/>
     </row>
@@ -4066,7 +4070,7 @@
         <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="11"/>
     </row>
@@ -4075,7 +4079,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C243" s="11"/>
     </row>
@@ -4084,7 +4088,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C244" s="11"/>
     </row>
@@ -4093,7 +4097,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C245" s="11"/>
     </row>
@@ -4102,7 +4106,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C246" s="11"/>
     </row>
@@ -4111,7 +4115,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C247" s="11"/>
     </row>
@@ -4120,7 +4124,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C248" s="11"/>
     </row>
@@ -4129,7 +4133,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C249" s="11"/>
     </row>
@@ -4138,7 +4142,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C250" s="11"/>
     </row>
@@ -4147,7 +4151,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C251" s="11"/>
     </row>
@@ -4156,7 +4160,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C252" s="11"/>
     </row>
@@ -4165,7 +4169,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C253" s="11"/>
     </row>
@@ -4174,7 +4178,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C254" s="11"/>
     </row>
@@ -4183,7 +4187,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C255" s="11"/>
     </row>
@@ -4192,7 +4196,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C256" s="11"/>
     </row>
@@ -4201,7 +4205,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C257" s="11"/>
     </row>
@@ -4210,7 +4214,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C258" s="11"/>
     </row>
@@ -4219,7 +4223,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C259" s="11"/>
     </row>
@@ -4228,7 +4232,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C260" s="11"/>
     </row>
@@ -4237,7 +4241,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C261" s="11"/>
     </row>
@@ -4246,7 +4250,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C262" s="11"/>
     </row>
@@ -4255,7 +4259,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C263" s="11"/>
     </row>
@@ -4264,7 +4268,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C264" s="11"/>
     </row>
@@ -4273,7 +4277,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C265" s="11"/>
     </row>
@@ -4282,7 +4286,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C266" s="11"/>
     </row>
@@ -4291,7 +4295,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C267" s="11"/>
     </row>
@@ -4300,7 +4304,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C268" s="11"/>
     </row>
@@ -4309,7 +4313,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C269" s="11"/>
     </row>
@@ -4318,7 +4322,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C270" s="11"/>
     </row>
@@ -4327,7 +4331,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C271" s="11"/>
     </row>
@@ -4336,7 +4340,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C272" s="11"/>
     </row>
@@ -4345,7 +4349,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C273" s="11"/>
     </row>
@@ -4354,31 +4358,31 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C274" s="11"/>
+    </row>
+    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A275" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C274" s="11"/>
-    </row>
-    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B275" s="7"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B276" s="7"/>
     </row>
     <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A277" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C277" s="11"/>
+      <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C278" s="11"/>
     </row>
@@ -4387,7 +4391,7 @@
         <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C279" s="11"/>
     </row>
@@ -4396,7 +4400,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C280" s="11"/>
     </row>
@@ -4405,7 +4409,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C281" s="11"/>
     </row>
@@ -4414,7 +4418,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C282" s="11"/>
     </row>
@@ -4423,7 +4427,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C283" s="11"/>
     </row>
@@ -4432,7 +4436,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C284" s="11"/>
     </row>
@@ -4441,7 +4445,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C285" s="11"/>
     </row>
@@ -4450,7 +4454,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C286" s="11"/>
     </row>
@@ -4459,7 +4463,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C287" s="11"/>
     </row>
@@ -4468,7 +4472,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C288" s="11"/>
     </row>
@@ -4477,7 +4481,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C289" s="11"/>
     </row>
@@ -4486,7 +4490,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C290" s="11"/>
     </row>
@@ -4495,7 +4499,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C291" s="11"/>
     </row>
@@ -4504,7 +4508,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C292" s="11"/>
     </row>
@@ -4513,7 +4517,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C293" s="11"/>
     </row>
@@ -4522,7 +4526,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C294" s="11"/>
     </row>
@@ -4531,31 +4535,31 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C295" s="11"/>
+    </row>
+    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A296" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C295" s="11"/>
-    </row>
-    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B296" s="7"/>
+      <c r="C296" s="11"/>
     </row>
     <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B297" s="7"/>
     </row>
     <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B298" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C298" s="11"/>
+      <c r="B298" s="7"/>
     </row>
     <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C299" s="11"/>
     </row>
@@ -4564,7 +4568,7 @@
         <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C300" s="11"/>
     </row>
@@ -4573,7 +4577,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C301" s="11"/>
     </row>
@@ -4582,7 +4586,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C302" s="11"/>
     </row>
@@ -4591,7 +4595,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C303" s="11"/>
     </row>
@@ -4600,7 +4604,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C304" s="11"/>
     </row>
@@ -4609,7 +4613,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C305" s="11"/>
     </row>
@@ -4618,7 +4622,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C306" s="11"/>
     </row>
@@ -4627,7 +4631,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C307" s="11"/>
     </row>
@@ -4636,7 +4640,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C308" s="11"/>
     </row>
@@ -4645,7 +4649,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C309" s="11"/>
     </row>
@@ -4654,7 +4658,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C310" s="11"/>
     </row>
@@ -4662,8 +4666,8 @@
       <c r="A311" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="9" t="s">
-        <v>298</v>
+      <c r="B311" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C311" s="11"/>
     </row>
@@ -4671,8 +4675,8 @@
       <c r="A312" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B312" s="6" t="s">
-        <v>299</v>
+      <c r="B312" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C312" s="11"/>
     </row>
@@ -4681,7 +4685,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C313" s="11"/>
     </row>
@@ -4690,7 +4694,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C314" s="11"/>
     </row>
@@ -4699,7 +4703,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C315" s="11"/>
     </row>
@@ -4708,7 +4712,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C316" s="11"/>
     </row>
@@ -4717,7 +4721,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C317" s="11"/>
     </row>
@@ -4726,7 +4730,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C318" s="11"/>
     </row>
@@ -4735,7 +4739,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C319" s="11"/>
     </row>
@@ -4744,7 +4748,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C320" s="11"/>
     </row>
@@ -4753,7 +4757,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C321" s="11"/>
     </row>
@@ -4762,7 +4766,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C322" s="11"/>
     </row>
@@ -4771,7 +4775,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C323" s="11"/>
     </row>
@@ -4780,7 +4784,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C324" s="11"/>
     </row>
@@ -4789,7 +4793,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C325" s="11"/>
     </row>
@@ -4798,7 +4802,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C326" s="11"/>
     </row>
@@ -4807,7 +4811,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C327" s="11"/>
     </row>
@@ -4816,7 +4820,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C328" s="11"/>
     </row>
@@ -4825,7 +4829,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C329" s="11"/>
     </row>
@@ -4834,7 +4838,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C330" s="11"/>
     </row>
@@ -4843,7 +4847,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C331" s="11"/>
     </row>
@@ -4852,7 +4856,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C332" s="11"/>
     </row>
@@ -4861,7 +4865,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C333" s="11"/>
     </row>
@@ -4870,7 +4874,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C334" s="11"/>
     </row>
@@ -4879,31 +4883,31 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C335" s="11"/>
+    </row>
+    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C335" s="11"/>
-    </row>
-    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B336" s="7"/>
+      <c r="C336" s="11"/>
     </row>
     <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B337" s="7"/>
     </row>
     <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A338" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B338" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C338" s="11"/>
+      <c r="B338" s="7"/>
     </row>
     <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C339" s="11"/>
     </row>
@@ -4912,7 +4916,7 @@
         <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C340" s="11"/>
     </row>
@@ -4921,7 +4925,7 @@
         <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C341" s="11"/>
     </row>
@@ -4930,7 +4934,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C342" s="11"/>
     </row>
@@ -4939,7 +4943,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C343" s="11"/>
     </row>
@@ -4948,7 +4952,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C344" s="11"/>
     </row>
@@ -4957,7 +4961,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C345" s="11"/>
     </row>
@@ -4965,8 +4969,8 @@
       <c r="A346" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B346" s="9" t="s">
-        <v>332</v>
+      <c r="B346" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C346" s="11"/>
     </row>
@@ -4974,8 +4978,8 @@
       <c r="A347" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B347" s="6" t="s">
-        <v>333</v>
+      <c r="B347" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C347" s="11"/>
     </row>
@@ -4984,7 +4988,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C348" s="11"/>
     </row>
@@ -4993,7 +4997,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C349" s="11"/>
     </row>
@@ -5002,7 +5006,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C350" s="11"/>
     </row>
@@ -5011,7 +5015,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C351" s="11"/>
     </row>
@@ -5020,7 +5024,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C352" s="11"/>
     </row>
@@ -5029,7 +5033,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C353" s="11"/>
     </row>
@@ -5038,7 +5042,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C354" s="11"/>
     </row>
@@ -5047,7 +5051,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C355" s="11"/>
     </row>
@@ -5056,27 +5060,27 @@
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C356" s="11"/>
+    </row>
+    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A357" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B357" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B357" s="7"/>
-    </row>
     <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A358" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B358" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C358" s="11"/>
+      <c r="B358" s="7"/>
     </row>
     <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C359" s="11"/>
     </row>
@@ -5085,7 +5089,7 @@
         <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C360" s="11"/>
     </row>
@@ -5094,7 +5098,7 @@
         <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C361" s="11"/>
     </row>
@@ -5103,7 +5107,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C362" s="11"/>
     </row>
@@ -5112,7 +5116,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C363" s="11"/>
     </row>
@@ -5121,7 +5125,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C364" s="11"/>
     </row>
@@ -5130,7 +5134,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C365" s="11"/>
     </row>
@@ -5139,7 +5143,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C366" s="11"/>
     </row>
@@ -5148,7 +5152,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C367" s="11"/>
     </row>
@@ -5157,7 +5161,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C368" s="11"/>
     </row>
@@ -5166,7 +5170,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C369" s="11"/>
     </row>
@@ -5175,7 +5179,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C370" s="11"/>
     </row>
@@ -5184,7 +5188,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C371" s="11"/>
     </row>
@@ -5193,7 +5197,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C372" s="11"/>
     </row>
@@ -5202,7 +5206,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C373" s="11"/>
     </row>
@@ -5211,7 +5215,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C374" s="11"/>
     </row>
@@ -5220,7 +5224,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C375" s="11"/>
     </row>
@@ -5229,7 +5233,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C376" s="11"/>
     </row>
@@ -5238,7 +5242,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C377" s="11"/>
     </row>
@@ -5247,7 +5251,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C378" s="11"/>
     </row>
@@ -5256,7 +5260,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C379" s="11"/>
     </row>
@@ -5265,7 +5269,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C380" s="11"/>
     </row>
@@ -5274,7 +5278,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C381" s="11"/>
     </row>
@@ -5283,7 +5287,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C382" s="11"/>
     </row>
@@ -5292,7 +5296,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C383" s="11"/>
     </row>
@@ -5301,7 +5305,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C384" s="11"/>
     </row>
@@ -5310,7 +5314,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C385" s="11"/>
     </row>
@@ -5319,7 +5323,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C386" s="11"/>
     </row>
@@ -5328,7 +5332,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C387" s="11"/>
     </row>
@@ -5337,7 +5341,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C388" s="11"/>
     </row>
@@ -5346,7 +5350,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C389" s="11"/>
     </row>
@@ -5355,7 +5359,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C390" s="11"/>
     </row>
@@ -5364,7 +5368,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C391" s="11"/>
     </row>
@@ -5382,7 +5386,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C393" s="11"/>
     </row>
@@ -5391,7 +5395,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C394" s="11"/>
     </row>
@@ -5400,7 +5404,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C395" s="11"/>
     </row>
@@ -5409,7 +5413,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C396" s="11"/>
     </row>
@@ -5418,7 +5422,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C397" s="11"/>
     </row>
@@ -5427,7 +5431,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C398" s="11"/>
     </row>
@@ -5436,7 +5440,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C399" s="11"/>
     </row>
@@ -5445,7 +5449,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C400" s="11"/>
     </row>
@@ -5454,12 +5458,17 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C401" s="11"/>
+    </row>
+    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A402" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C401" s="11"/>
-    </row>
-    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B402" s="7"/>
       <c r="C402" s="11"/>
     </row>
     <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5467,12 +5476,7 @@
       <c r="C403" s="11"/>
     </row>
     <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A404" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B404" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="B404" s="7"/>
       <c r="C404" s="11"/>
     </row>
     <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5480,7 +5484,7 @@
         <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C405" s="11"/>
     </row>
@@ -5489,7 +5493,7 @@
         <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C406" s="11"/>
     </row>
@@ -5498,7 +5502,7 @@
         <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C407" s="11"/>
     </row>
@@ -5507,7 +5511,7 @@
         <v>386</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C408" s="11"/>
     </row>
@@ -5516,33 +5520,33 @@
         <v>386</v>
       </c>
       <c r="B409" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C409" s="11"/>
+    </row>
+    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C409" s="11"/>
-    </row>
-    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B410" s="7"/>
-      <c r="C410" s="7"/>
+      <c r="C410" s="11"/>
     </row>
     <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
     </row>
     <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A412" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C412" s="13"/>
+      <c r="B412" s="7"/>
+      <c r="C412" s="7"/>
     </row>
     <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C413" s="13"/>
     </row>
@@ -5551,16 +5555,16 @@
         <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C414" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="C414" s="13"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C415" s="11"/>
     </row>
@@ -5569,7 +5573,7 @@
         <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C416" s="11"/>
     </row>
@@ -5578,7 +5582,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C417" s="11"/>
     </row>
@@ -5587,37 +5591,37 @@
         <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C418" s="13"/>
-      <c r="D418" t="s">
-        <v>464</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C418" s="11"/>
     </row>
     <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C419" s="13"/>
+      <c r="D419" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C420" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C420" s="13"/>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C421" s="11"/>
     </row>
@@ -5626,7 +5630,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C422" s="11"/>
     </row>
@@ -5635,7 +5639,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C423" s="11"/>
     </row>
@@ -5644,7 +5648,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C424" s="11"/>
     </row>
@@ -5653,43 +5657,43 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C425" s="13"/>
+        <v>404</v>
+      </c>
+      <c r="C425" s="11"/>
     </row>
     <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C426" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="C426" s="13"/>
     </row>
     <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C427" s="13"/>
+        <v>406</v>
+      </c>
+      <c r="C427" s="11"/>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C428" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C428" s="13"/>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C429" s="11"/>
     </row>
@@ -5698,7 +5702,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C430" s="11"/>
     </row>
@@ -5707,37 +5711,37 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C431" s="14"/>
-      <c r="D431" t="s">
-        <v>466</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C431" s="11"/>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C432" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="C432" s="14"/>
+      <c r="D432" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C433" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="C433" s="13"/>
     </row>
     <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C434" s="11"/>
     </row>
@@ -5746,7 +5750,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C435" s="11"/>
     </row>
@@ -5755,7 +5759,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C436" s="11"/>
     </row>
@@ -5764,7 +5768,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C437" s="11"/>
     </row>
@@ -5773,7 +5777,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C438" s="11"/>
     </row>
@@ -5782,7 +5786,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C439" s="11"/>
     </row>
@@ -5791,7 +5795,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C440" s="11"/>
     </row>
@@ -5800,7 +5804,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C441" s="11"/>
     </row>
@@ -5809,7 +5813,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C442" s="11"/>
     </row>
@@ -5818,7 +5822,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C443" s="11"/>
     </row>
@@ -5827,7 +5831,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C444" s="11"/>
     </row>
@@ -5836,7 +5840,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C445" s="11"/>
     </row>
@@ -5845,7 +5849,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C446" s="11"/>
     </row>
@@ -5854,7 +5858,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C447" s="11"/>
     </row>
@@ -5863,7 +5867,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C448" s="11"/>
     </row>
@@ -5872,7 +5876,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C449" s="11"/>
     </row>
@@ -5881,7 +5885,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C450" s="11"/>
     </row>
@@ -5890,7 +5894,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C451" s="11"/>
     </row>
@@ -5899,7 +5903,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C452" s="11"/>
     </row>
@@ -5908,7 +5912,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C453" s="11"/>
     </row>
@@ -5917,7 +5921,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C454" s="11"/>
     </row>
@@ -5926,7 +5930,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C455" s="11"/>
     </row>
@@ -5935,7 +5939,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C456" s="11"/>
     </row>
@@ -5944,7 +5948,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C457" s="11"/>
     </row>
@@ -5953,7 +5957,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C458" s="11"/>
     </row>
@@ -5962,7 +5966,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C459" s="11"/>
     </row>
@@ -5971,7 +5975,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C460" s="11"/>
     </row>
@@ -5980,7 +5984,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C461" s="11"/>
     </row>
@@ -5989,7 +5993,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C462" s="11"/>
     </row>
@@ -5998,7 +6002,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C463" s="11"/>
     </row>
@@ -6007,7 +6011,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C464" s="11"/>
     </row>
@@ -6016,7 +6020,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C465" s="11"/>
     </row>
@@ -6025,7 +6029,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C466" s="11"/>
     </row>
@@ -6034,7 +6038,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -6043,7 +6047,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C468" s="11"/>
     </row>
@@ -6052,7 +6056,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C469" s="11"/>
     </row>
@@ -6061,7 +6065,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C470" s="11"/>
     </row>
@@ -6070,7 +6074,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C471" s="11"/>
     </row>
@@ -6079,32 +6083,32 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C472" s="11"/>
+    </row>
+    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A473" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B473" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C472" s="11"/>
-    </row>
-    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B473" s="7"/>
+      <c r="C473" s="11"/>
     </row>
     <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A474" s="8"/>
       <c r="B474" s="7"/>
     </row>
     <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A475" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B475" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C475" s="11"/>
+      <c r="A475" s="8"/>
+      <c r="B475" s="7"/>
     </row>
     <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C476" s="11"/>
     </row>
@@ -6113,7 +6117,7 @@
         <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C477" s="11"/>
     </row>
@@ -6122,7 +6126,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C478" s="11"/>
     </row>
@@ -6131,7 +6135,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C479" s="11"/>
     </row>
@@ -6140,7 +6144,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C480" s="11"/>
     </row>
@@ -6149,7 +6153,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C481" s="11"/>
     </row>
@@ -6158,7 +6162,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C482" s="11"/>
     </row>
@@ -6167,7 +6171,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C483" s="11"/>
     </row>
@@ -6176,15 +6180,21 @@
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C484" s="11"/>
+    </row>
+    <row r="485" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B485" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C484" s="11"/>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C485" s="12"/>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C500" s="4"/>
+      <c r="C485" s="11"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C486" s="12"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C501" s="4"/>
@@ -6392,6 +6402,9 @@
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C569" s="4"/>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C570" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6412,439 +6425,440 @@
     <hyperlink ref="B22" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
     <hyperlink ref="B23" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
     <hyperlink ref="B24" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="B25" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="B26" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="B27" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="B28" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="B29" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="B30" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B31" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B32" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="B33" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="B34" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="B35" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="B36" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="B37" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B38" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B39" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B40" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B41" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B42" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B43" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B46" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B47" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B48" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B49" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B50" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B51" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B52" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B53" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B54" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B55" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B58" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B59" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B60" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B62" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B63" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B64" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B65" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B66" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B67" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B68" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B69" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B70" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B71" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B72" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B73" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B74" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B75" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B76" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B77" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B78" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B79" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B80" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B81" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B82" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B83" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B84" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B85" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B86" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B87" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B88" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B89" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B90" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B91" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B92" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B93" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B94" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B95" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B96" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B97" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B98" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B99" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B100" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B103" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B104" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B105" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B106" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B108" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B109" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B110" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B111" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B112" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B113" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B115" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B116" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B117" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B118" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B119" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B120" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B121" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B122" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B123" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B124" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B125" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B126" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B127" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B128" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B129" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B130" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B131" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B132" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B133" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B134" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B135" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B136" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B137" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B138" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B107" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B114" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B141" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B142" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B143" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B144" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B145" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B146" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B147" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B148" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B149" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B150" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B151" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B152" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B153" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B154" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B155" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B156" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B157" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B158" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B159" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B160" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B161" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B162" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B163" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B164" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B165" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B168" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B169" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B170" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B171" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B172" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B173" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B174" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B175" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B176" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B179" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B180" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B181" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B182" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B183" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B184" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B185" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B186" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B187" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B188" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B189" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B190" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B191" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B192" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B193" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B194" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B195" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B196" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B197" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B198" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B199" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B200" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B201" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B202" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B203" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B204" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B205" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B206" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B207" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B208" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B209" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B210" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B211" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B212" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B213" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B216" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B217" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B218" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B219" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B220" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B221" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B222" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B223" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B224" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B225" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B226" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B227" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B228" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B229" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B230" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B231" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B232" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B233" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B234" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B235" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B236" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B237" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B240" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B241" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B242" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B243" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B244" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B245" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B246" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B247" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B248" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B249" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B250" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B251" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B252" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B253" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B254" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B255" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B256" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B257" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B258" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B259" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B260" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B261" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B262" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B263" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B264" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B265" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B266" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B267" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B268" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B269" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B270" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B271" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B272" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B273" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B274" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B277" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B278" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B279" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B280" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B281" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B282" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B283" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B284" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B285" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B286" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B287" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B288" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B289" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B290" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B291" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B292" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B293" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B294" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B295" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B298" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B299" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B300" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B301" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B302" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B303" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B304" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B305" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B306" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B307" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B308" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B309" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B310" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B311" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B312" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B313" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B314" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B315" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B316" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B317" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B318" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B319" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B320" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B321" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B322" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B323" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B324" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B325" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B326" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B327" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B328" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B329" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B330" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B331" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B332" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B333" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B334" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B335" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B338" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B339" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B340" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B341" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B342" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B343" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B344" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B345" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B346" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B347" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B348" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B349" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B350" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B351" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B352" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B353" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B354" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B355" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B359" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B360" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B361" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B362" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B363" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B364" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B365" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B366" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B367" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B368" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B369" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B370" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B371" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B372" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B373" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B374" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B375" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B376" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B377" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B378" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B379" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B380" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B381" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B382" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B383" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B384" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B385" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B386" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B387" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B388" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B389" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B390" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B391" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B392" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B393" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B394" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B395" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B396" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B398" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B397" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B399" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B400" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B401" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B404" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B405" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B406" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B407" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B408" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B409" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B412" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B413" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B414" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B415" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B416" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B417" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B418" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B419" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B420" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B421" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B422" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B423" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B424" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B425" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B426" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B427" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B428" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B429" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B430" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B432" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B433" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B434" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B435" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B436" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B437" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B438" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B439" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B440" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B441" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B442" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B443" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B444" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B445" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B446" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B447" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B448" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B449" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B450" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B451" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B452" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B454" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B453" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B455" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B456" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B457" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B458" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B459" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B460" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B461" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B462" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B463" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B464" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B465" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B472" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B471" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B470" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B469" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B468" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B467" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B466" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B475" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B476" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B477" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B478" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B479" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B480" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B481" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B484" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B482" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B483" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B358" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="B27" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="B28" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="B29" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="B30" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="B31" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="B32" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="B33" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="B34" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="B35" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="B36" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="B37" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="B38" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="B39" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="B40" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="B41" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B47" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B48" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B49" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B50" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B51" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B52" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B53" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B54" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B55" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B56" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B59" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B60" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B61" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B63" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B64" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B65" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B66" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B67" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B68" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B69" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B70" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B71" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B72" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B73" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B74" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B75" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B76" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B77" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B78" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B79" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B80" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B81" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B82" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B83" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B84" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B85" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B86" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B87" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B88" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B89" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B90" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B91" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B92" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B93" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B94" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B95" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B96" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B97" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B98" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B99" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B100" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B101" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B104" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B105" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B106" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B107" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B109" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B110" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B111" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B112" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B113" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B114" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B116" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B117" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B118" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B119" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B120" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B121" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B122" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B123" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B124" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B125" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B126" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B127" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B128" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B129" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B130" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B131" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B132" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B133" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B134" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B135" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B136" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B137" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B138" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B139" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B108" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B115" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B142" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B143" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B144" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B145" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B146" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B147" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B148" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B149" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B150" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B151" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B152" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B153" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B154" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B155" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B156" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B157" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B158" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B159" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B160" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B161" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B162" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B163" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B164" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B165" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B166" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B169" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B170" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B171" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B172" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B173" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B174" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B175" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B176" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B177" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B180" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B181" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B182" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B183" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B184" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B185" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B186" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B187" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B188" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B189" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B190" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B191" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B192" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B193" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B194" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B195" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B196" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B197" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B198" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B199" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B200" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B201" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B202" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B203" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B204" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B205" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B206" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B207" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B208" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B209" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B210" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B211" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B212" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B213" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B214" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B217" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B218" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B219" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B220" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B221" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B222" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B223" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B224" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B225" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B226" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B227" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B228" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B229" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B230" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B231" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B232" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B233" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B234" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B235" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B236" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B237" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B238" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B241" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B242" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B243" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B244" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B245" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B246" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B247" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B248" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B249" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B250" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B251" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B252" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B253" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B254" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B255" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B256" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B257" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B258" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B259" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B260" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B261" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B262" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B263" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B264" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B265" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B266" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B267" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B268" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B269" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B270" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B271" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B272" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B273" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B274" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B275" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B278" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B279" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B280" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B281" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B282" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B283" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B284" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B285" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B286" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B287" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B288" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B289" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B290" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B291" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B292" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B293" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B294" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B295" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B296" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B299" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B300" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B301" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B302" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B303" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B304" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B305" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B306" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B307" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B308" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B309" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B310" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B311" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B312" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B313" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B314" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B315" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B316" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B317" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B318" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B319" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B320" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B321" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B322" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B323" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B324" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B325" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B326" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B327" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B328" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B329" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B330" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B331" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B332" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B333" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B334" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B335" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B336" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B339" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B340" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B341" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B342" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B343" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B344" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B345" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B346" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B347" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B348" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B349" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B350" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B351" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B352" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B353" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B354" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B355" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B356" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B360" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B361" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B362" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B363" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B364" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B365" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B366" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B367" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B368" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B369" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B370" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B371" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B372" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B373" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B374" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B375" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B376" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B377" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B378" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B379" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B380" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B381" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B382" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B383" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B384" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B385" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B386" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B387" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B388" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B389" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B390" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B391" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B392" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B393" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B394" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B395" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B396" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B397" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B399" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B398" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B400" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B401" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B402" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B405" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B406" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B407" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B408" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B409" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B410" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B413" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B414" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B415" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B416" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B417" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B418" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B419" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B420" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B421" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B422" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B423" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B424" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B425" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B426" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B427" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B428" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B429" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B430" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B431" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B433" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B434" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B435" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B436" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B437" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B438" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B439" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B440" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B441" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B442" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B443" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B444" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B445" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B446" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B447" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B448" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B449" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B450" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B451" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B452" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B453" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B455" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B454" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B456" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B457" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B458" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B459" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B460" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B461" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B462" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B463" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B464" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B465" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B466" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B473" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B472" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B471" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B470" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B469" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B468" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B476" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B477" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B478" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B479" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B480" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B481" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B482" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B485" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B483" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B484" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B359" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B431" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B432" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B356" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
-    <hyperlink ref="B21" r:id="rId450" xr:uid="{F69CB341-73BF-C84B-AAF6-FBB89FEDCBA1}"/>
+    <hyperlink ref="B357" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
+    <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEE915F-ECC0-1D46-AF74-55E6680F57A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C1E97-1FFD-AB4B-928C-2B64EC9C0168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="481">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1468,6 +1468,12 @@
   </si>
   <si>
     <t>Best time to buy and Sell stock 2</t>
+  </si>
+  <si>
+    <t>Minimum no. of operation to move all balls in each box</t>
+  </si>
+  <si>
+    <t>Was done in one go but space optimization is remaining(scheduled)</t>
   </si>
 </sst>
 </file>
@@ -1966,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F570"/>
+  <dimension ref="A1:F571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2271,7 +2277,7 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2280,7 +2286,7 @@
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2295,7 @@
       </c>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
@@ -2298,7 +2304,7 @@
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2313,7 @@
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -2316,7 +2322,7 @@
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2331,7 @@
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
@@ -2334,7 +2340,7 @@
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
@@ -2343,7 +2349,7 @@
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
@@ -2352,7 +2358,7 @@
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
@@ -2361,7 +2367,7 @@
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2376,7 @@
       </c>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
@@ -2379,30 +2385,34 @@
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="11"/>
     </row>
@@ -2411,7 +2421,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="11"/>
     </row>
@@ -2420,7 +2430,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="11"/>
     </row>
@@ -2429,7 +2439,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="11"/>
     </row>
@@ -2438,7 +2448,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="11"/>
     </row>
@@ -2447,7 +2457,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="11"/>
     </row>
@@ -2456,7 +2466,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="11"/>
     </row>
@@ -2465,7 +2475,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="11"/>
     </row>
@@ -2474,40 +2484,40 @@
         <v>41</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="11"/>
+    </row>
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="11"/>
     </row>
     <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="11"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="11"/>
     </row>
@@ -2515,8 +2525,8 @@
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>56</v>
+      <c r="B62" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C62" s="11"/>
     </row>
@@ -2524,8 +2534,8 @@
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>57</v>
+      <c r="B63" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C63" s="11"/>
     </row>
@@ -2534,7 +2544,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="11"/>
     </row>
@@ -2543,7 +2553,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" s="11"/>
     </row>
@@ -2552,7 +2562,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" s="11"/>
     </row>
@@ -2561,7 +2571,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="11"/>
     </row>
@@ -2570,7 +2580,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="11"/>
     </row>
@@ -2579,7 +2589,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C69" s="11"/>
     </row>
@@ -2588,7 +2598,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="11"/>
     </row>
@@ -2597,7 +2607,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C71" s="11"/>
     </row>
@@ -2606,7 +2616,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C72" s="11"/>
     </row>
@@ -2615,7 +2625,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C73" s="11"/>
     </row>
@@ -2624,7 +2634,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" s="11"/>
     </row>
@@ -2633,7 +2643,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C75" s="11"/>
     </row>
@@ -2642,7 +2652,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="11"/>
     </row>
@@ -2651,7 +2661,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="11"/>
     </row>
@@ -2660,7 +2670,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="11"/>
     </row>
@@ -2669,7 +2679,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" s="11"/>
     </row>
@@ -2678,7 +2688,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C80" s="11"/>
     </row>
@@ -2687,7 +2697,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" s="11"/>
     </row>
@@ -2696,7 +2706,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="11"/>
     </row>
@@ -2705,7 +2715,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="11"/>
     </row>
@@ -2714,7 +2724,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2723,7 +2733,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C85" s="11"/>
     </row>
@@ -2732,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="11"/>
     </row>
@@ -2741,7 +2751,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="11"/>
     </row>
@@ -2750,7 +2760,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" s="11"/>
     </row>
@@ -2759,7 +2769,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="11"/>
     </row>
@@ -2768,7 +2778,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90" s="11"/>
     </row>
@@ -2777,7 +2787,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C91" s="11"/>
     </row>
@@ -2786,7 +2796,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="11"/>
     </row>
@@ -2795,7 +2805,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="11"/>
     </row>
@@ -2804,7 +2814,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" s="11"/>
     </row>
@@ -2813,7 +2823,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C95" s="11"/>
     </row>
@@ -2822,7 +2832,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="11"/>
     </row>
@@ -2831,7 +2841,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97" s="11"/>
     </row>
@@ -2840,7 +2850,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="11"/>
     </row>
@@ -2849,7 +2859,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C99" s="11"/>
     </row>
@@ -2858,7 +2868,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="11"/>
     </row>
@@ -2867,29 +2877,29 @@
         <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="11"/>
+    </row>
+    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="11"/>
-    </row>
-    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="7"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="11"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C105" s="11"/>
     </row>
@@ -2898,7 +2908,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="11"/>
     </row>
@@ -2907,7 +2917,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" s="11"/>
     </row>
@@ -2916,7 +2926,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" s="11"/>
     </row>
@@ -2925,7 +2935,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="11"/>
     </row>
@@ -2934,7 +2944,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C110" s="11"/>
     </row>
@@ -2943,7 +2953,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="11"/>
     </row>
@@ -2952,7 +2962,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="11"/>
     </row>
@@ -2961,7 +2971,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C113" s="11"/>
     </row>
@@ -2970,7 +2980,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -2979,7 +2989,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C115" s="11"/>
     </row>
@@ -2988,7 +2998,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C116" s="11"/>
     </row>
@@ -2997,7 +3007,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -3006,7 +3016,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="11"/>
     </row>
@@ -3015,7 +3025,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119" s="11"/>
     </row>
@@ -3024,7 +3034,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120" s="11"/>
     </row>
@@ -3033,7 +3043,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="11"/>
     </row>
@@ -3042,7 +3052,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122" s="11"/>
     </row>
@@ -3051,7 +3061,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123" s="11"/>
     </row>
@@ -3060,7 +3070,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124" s="11"/>
     </row>
@@ -3069,7 +3079,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125" s="11"/>
     </row>
@@ -3078,7 +3088,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126" s="11"/>
     </row>
@@ -3087,7 +3097,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="11"/>
     </row>
@@ -3096,7 +3106,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="11"/>
     </row>
@@ -3105,7 +3115,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="11"/>
     </row>
@@ -3114,7 +3124,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="11"/>
     </row>
@@ -3123,7 +3133,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="11"/>
     </row>
@@ -3132,7 +3142,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="11"/>
     </row>
@@ -3141,7 +3151,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="11"/>
     </row>
@@ -3150,7 +3160,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="11"/>
     </row>
@@ -3159,7 +3169,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="11"/>
     </row>
@@ -3168,7 +3178,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="11"/>
     </row>
@@ -3177,7 +3187,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="11"/>
     </row>
@@ -3186,7 +3196,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138" s="11"/>
     </row>
@@ -3195,28 +3205,28 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="11"/>
+    </row>
+    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C139" s="11"/>
-    </row>
-    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C142" s="11"/>
+      <c r="B142" s="7"/>
     </row>
     <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="11"/>
     </row>
@@ -3225,7 +3235,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="11"/>
     </row>
@@ -3234,7 +3244,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="11"/>
     </row>
@@ -3243,7 +3253,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="11"/>
     </row>
@@ -3252,7 +3262,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="11"/>
     </row>
@@ -3261,7 +3271,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="11"/>
     </row>
@@ -3270,7 +3280,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="11"/>
     </row>
@@ -3279,7 +3289,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="11"/>
     </row>
@@ -3288,7 +3298,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="11"/>
     </row>
@@ -3297,7 +3307,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="11"/>
     </row>
@@ -3306,7 +3316,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="11"/>
     </row>
@@ -3315,7 +3325,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="11"/>
     </row>
@@ -3324,7 +3334,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="11"/>
     </row>
@@ -3333,7 +3343,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" s="11"/>
     </row>
@@ -3342,7 +3352,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C157" s="11"/>
     </row>
@@ -3351,7 +3361,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C158" s="11"/>
     </row>
@@ -3360,7 +3370,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" s="11"/>
     </row>
@@ -3369,7 +3379,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="11"/>
     </row>
@@ -3378,7 +3388,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="11"/>
     </row>
@@ -3387,7 +3397,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="11"/>
     </row>
@@ -3396,7 +3406,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C163" s="11"/>
     </row>
@@ -3405,7 +3415,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C164" s="11"/>
     </row>
@@ -3414,7 +3424,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C165" s="11"/>
     </row>
@@ -3423,7 +3433,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C166" s="11"/>
     </row>
@@ -3431,8 +3441,8 @@
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>159</v>
+      <c r="B167" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C167" s="11"/>
     </row>
@@ -3441,7 +3451,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C168" s="11"/>
     </row>
@@ -3449,8 +3459,8 @@
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>161</v>
+      <c r="B169" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C169" s="11"/>
     </row>
@@ -3459,7 +3469,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C170" s="11"/>
     </row>
@@ -3468,7 +3478,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C171" s="11"/>
     </row>
@@ -3477,7 +3487,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C172" s="11"/>
     </row>
@@ -3486,7 +3496,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C173" s="11"/>
     </row>
@@ -3495,7 +3505,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C174" s="11"/>
     </row>
@@ -3504,7 +3514,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C175" s="11"/>
     </row>
@@ -3513,7 +3523,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C176" s="11"/>
     </row>
@@ -3522,28 +3532,28 @@
         <v>133</v>
       </c>
       <c r="B177" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" s="11"/>
+    </row>
+    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C177" s="11"/>
-    </row>
-    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B179" s="7"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C180" s="11"/>
+      <c r="B180" s="7"/>
     </row>
     <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C181" s="11"/>
     </row>
@@ -3552,7 +3562,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C182" s="11"/>
     </row>
@@ -3561,7 +3571,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C183" s="11"/>
     </row>
@@ -3570,7 +3580,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C184" s="11"/>
     </row>
@@ -3579,7 +3589,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C185" s="11"/>
     </row>
@@ -3588,7 +3598,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C186" s="11"/>
     </row>
@@ -3597,7 +3607,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C187" s="11"/>
     </row>
@@ -3606,7 +3616,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C188" s="11"/>
     </row>
@@ -3615,7 +3625,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C189" s="11"/>
     </row>
@@ -3624,7 +3634,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -3633,7 +3643,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C191" s="11"/>
     </row>
@@ -3642,7 +3652,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C192" s="11"/>
     </row>
@@ -3651,7 +3661,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C193" s="11"/>
     </row>
@@ -3660,7 +3670,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C194" s="11"/>
     </row>
@@ -3669,7 +3679,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C195" s="11"/>
     </row>
@@ -3678,7 +3688,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C196" s="11"/>
     </row>
@@ -3687,7 +3697,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C197" s="11"/>
     </row>
@@ -3696,7 +3706,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C198" s="11"/>
     </row>
@@ -3705,7 +3715,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C199" s="11"/>
     </row>
@@ -3714,7 +3724,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C200" s="11"/>
     </row>
@@ -3723,7 +3733,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C201" s="11"/>
     </row>
@@ -3732,7 +3742,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C202" s="11"/>
     </row>
@@ -3741,7 +3751,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C203" s="11"/>
     </row>
@@ -3750,7 +3760,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C204" s="11"/>
     </row>
@@ -3759,7 +3769,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C205" s="11"/>
     </row>
@@ -3768,7 +3778,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C206" s="11"/>
     </row>
@@ -3777,7 +3787,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C207" s="11"/>
     </row>
@@ -3786,7 +3796,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C208" s="11"/>
     </row>
@@ -3795,7 +3805,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C209" s="11"/>
     </row>
@@ -3804,7 +3814,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C210" s="11"/>
     </row>
@@ -3813,7 +3823,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C211" s="11"/>
     </row>
@@ -3822,7 +3832,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C212" s="11"/>
     </row>
@@ -3831,7 +3841,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C213" s="11"/>
     </row>
@@ -3840,33 +3850,33 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C214" s="11"/>
+    </row>
+    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B215" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C214" s="11"/>
-    </row>
-    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A215" s="8"/>
-      <c r="B215" s="7"/>
+      <c r="C215" s="11"/>
     </row>
     <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="7"/>
     </row>
     <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C217" s="11"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="7"/>
     </row>
     <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C218" s="11"/>
     </row>
@@ -3875,7 +3885,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C219" s="11"/>
     </row>
@@ -3884,7 +3894,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C220" s="11"/>
     </row>
@@ -3893,7 +3903,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C221" s="11"/>
     </row>
@@ -3902,7 +3912,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C222" s="11"/>
     </row>
@@ -3910,8 +3920,8 @@
       <c r="A223" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B223" s="9" t="s">
-        <v>213</v>
+      <c r="B223" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C223" s="11"/>
     </row>
@@ -3919,8 +3929,8 @@
       <c r="A224" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>214</v>
+      <c r="B224" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C224" s="11"/>
     </row>
@@ -3929,7 +3939,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C225" s="11"/>
     </row>
@@ -3938,7 +3948,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C226" s="11"/>
     </row>
@@ -3947,7 +3957,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C227" s="11"/>
     </row>
@@ -3956,7 +3966,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C228" s="11"/>
     </row>
@@ -3965,7 +3975,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C229" s="11"/>
     </row>
@@ -3974,7 +3984,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C230" s="11"/>
     </row>
@@ -3983,7 +3993,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C231" s="11"/>
     </row>
@@ -3992,7 +4002,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C232" s="11"/>
     </row>
@@ -4001,7 +4011,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C233" s="11"/>
     </row>
@@ -4010,7 +4020,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C234" s="11"/>
     </row>
@@ -4019,7 +4029,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C235" s="11"/>
     </row>
@@ -4028,7 +4038,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C236" s="11"/>
     </row>
@@ -4037,7 +4047,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C237" s="11"/>
     </row>
@@ -4046,31 +4056,31 @@
         <v>206</v>
       </c>
       <c r="B238" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C238" s="11"/>
+    </row>
+    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A239" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C238" s="11"/>
-    </row>
-    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B239" s="7"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
     </row>
     <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A241" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C241" s="11"/>
+      <c r="B241" s="7"/>
     </row>
     <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C242" s="11"/>
     </row>
@@ -4079,7 +4089,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C243" s="11"/>
     </row>
@@ -4088,7 +4098,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C244" s="11"/>
     </row>
@@ -4097,7 +4107,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C245" s="11"/>
     </row>
@@ -4106,7 +4116,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C246" s="11"/>
     </row>
@@ -4115,7 +4125,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C247" s="11"/>
     </row>
@@ -4124,7 +4134,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C248" s="11"/>
     </row>
@@ -4133,7 +4143,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C249" s="11"/>
     </row>
@@ -4142,7 +4152,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C250" s="11"/>
     </row>
@@ -4151,7 +4161,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C251" s="11"/>
     </row>
@@ -4160,7 +4170,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C252" s="11"/>
     </row>
@@ -4169,7 +4179,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C253" s="11"/>
     </row>
@@ -4178,7 +4188,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C254" s="11"/>
     </row>
@@ -4187,7 +4197,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C255" s="11"/>
     </row>
@@ -4196,7 +4206,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C256" s="11"/>
     </row>
@@ -4205,7 +4215,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C257" s="11"/>
     </row>
@@ -4214,7 +4224,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C258" s="11"/>
     </row>
@@ -4223,7 +4233,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C259" s="11"/>
     </row>
@@ -4232,7 +4242,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C260" s="11"/>
     </row>
@@ -4241,7 +4251,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C261" s="11"/>
     </row>
@@ -4250,7 +4260,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C262" s="11"/>
     </row>
@@ -4259,7 +4269,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C263" s="11"/>
     </row>
@@ -4268,7 +4278,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C264" s="11"/>
     </row>
@@ -4277,7 +4287,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C265" s="11"/>
     </row>
@@ -4286,7 +4296,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C266" s="11"/>
     </row>
@@ -4295,7 +4305,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C267" s="11"/>
     </row>
@@ -4304,7 +4314,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C268" s="11"/>
     </row>
@@ -4313,7 +4323,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C269" s="11"/>
     </row>
@@ -4322,7 +4332,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C270" s="11"/>
     </row>
@@ -4331,7 +4341,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C271" s="11"/>
     </row>
@@ -4340,7 +4350,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C272" s="11"/>
     </row>
@@ -4349,7 +4359,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C273" s="11"/>
     </row>
@@ -4358,7 +4368,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C274" s="11"/>
     </row>
@@ -4367,31 +4377,31 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C275" s="11"/>
+    </row>
+    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C275" s="11"/>
-    </row>
-    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B276" s="7"/>
+      <c r="C276" s="11"/>
     </row>
     <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B277" s="7"/>
     </row>
     <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C278" s="11"/>
+      <c r="B278" s="7"/>
     </row>
     <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C279" s="11"/>
     </row>
@@ -4400,7 +4410,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C280" s="11"/>
     </row>
@@ -4409,7 +4419,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C281" s="11"/>
     </row>
@@ -4418,7 +4428,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C282" s="11"/>
     </row>
@@ -4427,7 +4437,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C283" s="11"/>
     </row>
@@ -4436,7 +4446,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C284" s="11"/>
     </row>
@@ -4445,7 +4455,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C285" s="11"/>
     </row>
@@ -4454,7 +4464,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C286" s="11"/>
     </row>
@@ -4463,7 +4473,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C287" s="11"/>
     </row>
@@ -4472,7 +4482,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C288" s="11"/>
     </row>
@@ -4481,7 +4491,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C289" s="11"/>
     </row>
@@ -4490,7 +4500,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C290" s="11"/>
     </row>
@@ -4499,7 +4509,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C291" s="11"/>
     </row>
@@ -4508,7 +4518,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C292" s="11"/>
     </row>
@@ -4517,7 +4527,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C293" s="11"/>
     </row>
@@ -4526,7 +4536,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C294" s="11"/>
     </row>
@@ -4535,7 +4545,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C295" s="11"/>
     </row>
@@ -4544,31 +4554,31 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C296" s="11"/>
+    </row>
+    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C296" s="11"/>
-    </row>
-    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B297" s="7"/>
+      <c r="C297" s="11"/>
     </row>
     <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B298" s="7"/>
     </row>
     <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C299" s="11"/>
+      <c r="B299" s="7"/>
     </row>
     <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C300" s="11"/>
     </row>
@@ -4577,7 +4587,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C301" s="11"/>
     </row>
@@ -4586,7 +4596,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C302" s="11"/>
     </row>
@@ -4595,7 +4605,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C303" s="11"/>
     </row>
@@ -4604,7 +4614,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C304" s="11"/>
     </row>
@@ -4613,7 +4623,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C305" s="11"/>
     </row>
@@ -4622,7 +4632,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C306" s="11"/>
     </row>
@@ -4631,7 +4641,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C307" s="11"/>
     </row>
@@ -4640,7 +4650,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C308" s="11"/>
     </row>
@@ -4649,7 +4659,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C309" s="11"/>
     </row>
@@ -4658,7 +4668,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C310" s="11"/>
     </row>
@@ -4667,7 +4677,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C311" s="11"/>
     </row>
@@ -4675,8 +4685,8 @@
       <c r="A312" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B312" s="9" t="s">
-        <v>298</v>
+      <c r="B312" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C312" s="11"/>
     </row>
@@ -4684,8 +4694,8 @@
       <c r="A313" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="6" t="s">
-        <v>299</v>
+      <c r="B313" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C313" s="11"/>
     </row>
@@ -4694,7 +4704,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C314" s="11"/>
     </row>
@@ -4703,7 +4713,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C315" s="11"/>
     </row>
@@ -4712,7 +4722,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C316" s="11"/>
     </row>
@@ -4721,7 +4731,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C317" s="11"/>
     </row>
@@ -4730,7 +4740,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C318" s="11"/>
     </row>
@@ -4739,7 +4749,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C319" s="11"/>
     </row>
@@ -4748,7 +4758,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C320" s="11"/>
     </row>
@@ -4757,7 +4767,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C321" s="11"/>
     </row>
@@ -4766,7 +4776,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C322" s="11"/>
     </row>
@@ -4775,7 +4785,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C323" s="11"/>
     </row>
@@ -4784,7 +4794,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C324" s="11"/>
     </row>
@@ -4793,7 +4803,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C325" s="11"/>
     </row>
@@ -4802,7 +4812,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C326" s="11"/>
     </row>
@@ -4811,7 +4821,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C327" s="11"/>
     </row>
@@ -4820,7 +4830,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C328" s="11"/>
     </row>
@@ -4829,7 +4839,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C329" s="11"/>
     </row>
@@ -4838,7 +4848,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C330" s="11"/>
     </row>
@@ -4847,7 +4857,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C331" s="11"/>
     </row>
@@ -4856,7 +4866,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C332" s="11"/>
     </row>
@@ -4865,7 +4875,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C333" s="11"/>
     </row>
@@ -4874,7 +4884,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C334" s="11"/>
     </row>
@@ -4883,7 +4893,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C335" s="11"/>
     </row>
@@ -4892,31 +4902,31 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C336" s="11"/>
+    </row>
+    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A337" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B337" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C336" s="11"/>
-    </row>
-    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B337" s="7"/>
+      <c r="C337" s="11"/>
     </row>
     <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B338" s="7"/>
     </row>
     <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A339" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B339" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C339" s="11"/>
+      <c r="B339" s="7"/>
     </row>
     <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C340" s="11"/>
     </row>
@@ -4925,7 +4935,7 @@
         <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C341" s="11"/>
     </row>
@@ -4934,7 +4944,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C342" s="11"/>
     </row>
@@ -4943,7 +4953,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C343" s="11"/>
     </row>
@@ -4952,7 +4962,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C344" s="11"/>
     </row>
@@ -4961,7 +4971,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C345" s="11"/>
     </row>
@@ -4970,7 +4980,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C346" s="11"/>
     </row>
@@ -4978,8 +4988,8 @@
       <c r="A347" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B347" s="9" t="s">
-        <v>332</v>
+      <c r="B347" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C347" s="11"/>
     </row>
@@ -4987,8 +4997,8 @@
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B348" s="6" t="s">
-        <v>333</v>
+      <c r="B348" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C348" s="11"/>
     </row>
@@ -4997,7 +5007,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C349" s="11"/>
     </row>
@@ -5006,7 +5016,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C350" s="11"/>
     </row>
@@ -5015,7 +5025,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C351" s="11"/>
     </row>
@@ -5024,7 +5034,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C352" s="11"/>
     </row>
@@ -5033,7 +5043,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C353" s="11"/>
     </row>
@@ -5042,7 +5052,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C354" s="11"/>
     </row>
@@ -5051,7 +5061,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C355" s="11"/>
     </row>
@@ -5060,7 +5070,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C356" s="11"/>
     </row>
@@ -5069,27 +5079,27 @@
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C357" s="11"/>
+    </row>
+    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A358" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B358" s="6" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B358" s="7"/>
-    </row>
     <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A359" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B359" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C359" s="11"/>
+      <c r="B359" s="7"/>
     </row>
     <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C360" s="11"/>
     </row>
@@ -5098,7 +5108,7 @@
         <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C361" s="11"/>
     </row>
@@ -5107,7 +5117,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C362" s="11"/>
     </row>
@@ -5116,7 +5126,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C363" s="11"/>
     </row>
@@ -5125,7 +5135,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C364" s="11"/>
     </row>
@@ -5134,7 +5144,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C365" s="11"/>
     </row>
@@ -5143,7 +5153,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C366" s="11"/>
     </row>
@@ -5152,7 +5162,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C367" s="11"/>
     </row>
@@ -5161,7 +5171,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C368" s="11"/>
     </row>
@@ -5170,7 +5180,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C369" s="11"/>
     </row>
@@ -5179,7 +5189,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C370" s="11"/>
     </row>
@@ -5188,7 +5198,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C371" s="11"/>
     </row>
@@ -5197,7 +5207,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C372" s="11"/>
     </row>
@@ -5206,7 +5216,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C373" s="11"/>
     </row>
@@ -5215,7 +5225,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C374" s="11"/>
     </row>
@@ -5224,7 +5234,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C375" s="11"/>
     </row>
@@ -5233,7 +5243,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C376" s="11"/>
     </row>
@@ -5242,7 +5252,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C377" s="11"/>
     </row>
@@ -5251,7 +5261,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C378" s="11"/>
     </row>
@@ -5260,7 +5270,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C379" s="11"/>
     </row>
@@ -5269,7 +5279,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C380" s="11"/>
     </row>
@@ -5278,7 +5288,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C381" s="11"/>
     </row>
@@ -5287,7 +5297,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C382" s="11"/>
     </row>
@@ -5296,7 +5306,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C383" s="11"/>
     </row>
@@ -5305,7 +5315,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C384" s="11"/>
     </row>
@@ -5314,7 +5324,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C385" s="11"/>
     </row>
@@ -5323,7 +5333,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C386" s="11"/>
     </row>
@@ -5332,7 +5342,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C387" s="11"/>
     </row>
@@ -5341,7 +5351,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C388" s="11"/>
     </row>
@@ -5350,7 +5360,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C389" s="11"/>
     </row>
@@ -5359,7 +5369,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C390" s="11"/>
     </row>
@@ -5368,7 +5378,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C391" s="11"/>
     </row>
@@ -5377,7 +5387,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C392" s="11"/>
     </row>
@@ -5395,7 +5405,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C394" s="11"/>
     </row>
@@ -5404,7 +5414,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C395" s="11"/>
     </row>
@@ -5413,7 +5423,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C396" s="11"/>
     </row>
@@ -5422,7 +5432,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C397" s="11"/>
     </row>
@@ -5431,7 +5441,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C398" s="11"/>
     </row>
@@ -5440,7 +5450,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C399" s="11"/>
     </row>
@@ -5449,7 +5459,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C400" s="11"/>
     </row>
@@ -5458,7 +5468,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C401" s="11"/>
     </row>
@@ -5467,12 +5477,17 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C402" s="11"/>
+    </row>
+    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B403" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C402" s="11"/>
-    </row>
-    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B403" s="7"/>
       <c r="C403" s="11"/>
     </row>
     <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5480,12 +5495,7 @@
       <c r="C404" s="11"/>
     </row>
     <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A405" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B405" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="B405" s="7"/>
       <c r="C405" s="11"/>
     </row>
     <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5493,7 +5503,7 @@
         <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C406" s="11"/>
     </row>
@@ -5502,7 +5512,7 @@
         <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C407" s="11"/>
     </row>
@@ -5511,7 +5521,7 @@
         <v>386</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C408" s="11"/>
     </row>
@@ -5520,7 +5530,7 @@
         <v>386</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C409" s="11"/>
     </row>
@@ -5529,33 +5539,33 @@
         <v>386</v>
       </c>
       <c r="B410" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C410" s="11"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B411" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C410" s="11"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B411" s="7"/>
-      <c r="C411" s="7"/>
+      <c r="C411" s="11"/>
     </row>
     <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
     </row>
     <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A413" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C413" s="13"/>
+      <c r="B413" s="7"/>
+      <c r="C413" s="7"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C414" s="13"/>
     </row>
@@ -5564,16 +5574,16 @@
         <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C415" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="C415" s="13"/>
     </row>
     <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C416" s="11"/>
     </row>
@@ -5582,7 +5592,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C417" s="11"/>
     </row>
@@ -5591,7 +5601,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C418" s="11"/>
     </row>
@@ -5600,37 +5610,37 @@
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C419" s="13"/>
-      <c r="D419" t="s">
-        <v>464</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C419" s="11"/>
     </row>
     <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C420" s="13"/>
+      <c r="D420" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C421" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C421" s="13"/>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C422" s="11"/>
     </row>
@@ -5639,7 +5649,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C423" s="11"/>
     </row>
@@ -5648,7 +5658,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C424" s="11"/>
     </row>
@@ -5657,7 +5667,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C425" s="11"/>
     </row>
@@ -5666,43 +5676,43 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C426" s="13"/>
+        <v>404</v>
+      </c>
+      <c r="C426" s="11"/>
     </row>
     <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C427" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="C427" s="13"/>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C428" s="13"/>
+        <v>406</v>
+      </c>
+      <c r="C428" s="11"/>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C429" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C429" s="13"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C430" s="11"/>
     </row>
@@ -5711,7 +5721,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C431" s="11"/>
     </row>
@@ -5720,154 +5730,154 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C432" s="14"/>
-      <c r="D432" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+      <c r="C432" s="11"/>
+    </row>
+    <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C433" s="13"/>
-    </row>
-    <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="C433" s="14"/>
+      <c r="D433" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C434" s="11"/>
-    </row>
-    <row r="435" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="C434" s="13"/>
+    </row>
+    <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C435" s="11"/>
     </row>
-    <row r="436" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C436" s="11"/>
     </row>
-    <row r="437" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C437" s="11"/>
     </row>
-    <row r="438" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C438" s="11"/>
     </row>
-    <row r="439" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C439" s="11"/>
     </row>
-    <row r="440" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C440" s="11"/>
     </row>
-    <row r="441" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C441" s="11"/>
     </row>
-    <row r="442" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C442" s="11"/>
     </row>
-    <row r="443" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C443" s="11"/>
     </row>
-    <row r="444" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C444" s="11"/>
     </row>
-    <row r="445" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C445" s="11"/>
     </row>
-    <row r="446" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C446" s="11"/>
     </row>
-    <row r="447" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C447" s="11"/>
     </row>
-    <row r="448" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C448" s="11"/>
     </row>
@@ -5876,7 +5886,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C449" s="11"/>
     </row>
@@ -5885,7 +5895,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C450" s="11"/>
     </row>
@@ -5894,7 +5904,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C451" s="11"/>
     </row>
@@ -5903,7 +5913,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C452" s="11"/>
     </row>
@@ -5912,7 +5922,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C453" s="11"/>
     </row>
@@ -5921,7 +5931,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C454" s="11"/>
     </row>
@@ -5930,7 +5940,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C455" s="11"/>
     </row>
@@ -5939,7 +5949,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C456" s="11"/>
     </row>
@@ -5948,7 +5958,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C457" s="11"/>
     </row>
@@ -5957,7 +5967,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C458" s="11"/>
     </row>
@@ -5966,7 +5976,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C459" s="11"/>
     </row>
@@ -5975,7 +5985,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C460" s="11"/>
     </row>
@@ -5984,7 +5994,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C461" s="11"/>
     </row>
@@ -5993,7 +6003,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C462" s="11"/>
     </row>
@@ -6002,7 +6012,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C463" s="11"/>
     </row>
@@ -6011,7 +6021,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C464" s="11"/>
     </row>
@@ -6020,7 +6030,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C465" s="11"/>
     </row>
@@ -6029,7 +6039,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C466" s="11"/>
     </row>
@@ -6038,7 +6048,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -6047,7 +6057,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C468" s="11"/>
     </row>
@@ -6056,7 +6066,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C469" s="11"/>
     </row>
@@ -6065,7 +6075,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C470" s="11"/>
     </row>
@@ -6074,7 +6084,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C471" s="11"/>
     </row>
@@ -6083,7 +6093,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C472" s="11"/>
     </row>
@@ -6092,32 +6102,32 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C473" s="11"/>
+    </row>
+    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A474" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B474" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C473" s="11"/>
-    </row>
-    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B474" s="7"/>
+      <c r="C474" s="11"/>
     </row>
     <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A475" s="8"/>
       <c r="B475" s="7"/>
     </row>
     <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A476" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B476" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C476" s="11"/>
+      <c r="A476" s="8"/>
+      <c r="B476" s="7"/>
     </row>
     <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C477" s="11"/>
     </row>
@@ -6126,7 +6136,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C478" s="11"/>
     </row>
@@ -6135,7 +6145,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C479" s="11"/>
     </row>
@@ -6144,7 +6154,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C480" s="11"/>
     </row>
@@ -6153,7 +6163,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C481" s="11"/>
     </row>
@@ -6162,7 +6172,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C482" s="11"/>
     </row>
@@ -6171,7 +6181,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C483" s="11"/>
     </row>
@@ -6180,7 +6190,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C484" s="11"/>
     </row>
@@ -6189,15 +6199,21 @@
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C485" s="11"/>
+    </row>
+    <row r="486" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A486" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B486" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C485" s="11"/>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C486" s="12"/>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C501" s="4"/>
+      <c r="C486" s="11"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C487" s="12"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C502" s="4"/>
@@ -6405,6 +6421,9 @@
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C570" s="4"/>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C571" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6444,422 +6463,424 @@
     <hyperlink ref="B42" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B43" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B44" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B47" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B48" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B49" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B50" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B51" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B52" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B53" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B54" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B55" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B56" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B59" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B60" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B61" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B63" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B64" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B65" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B66" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B67" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B68" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B69" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B71" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B72" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B73" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B74" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B75" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B76" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B77" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B78" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B79" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B80" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B81" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B82" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B83" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B84" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B85" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B86" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B87" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B88" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B89" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B90" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B91" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B92" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B93" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B94" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B95" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B96" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B97" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B98" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B99" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B100" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B101" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B104" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B105" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B106" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B107" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B109" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B110" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B111" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B112" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B113" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B114" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B116" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B117" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B118" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B119" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B120" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B121" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B122" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B123" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B124" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B125" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B126" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B127" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B128" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B129" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B130" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B131" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B132" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B133" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B134" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B135" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B136" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B137" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B138" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B139" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B108" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B115" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B142" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B143" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B144" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B145" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B146" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B147" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B148" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B149" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B150" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B151" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B152" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B153" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B154" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B155" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B156" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B157" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B158" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B159" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B160" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B161" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B162" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B163" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B164" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B165" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B166" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B169" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B170" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B171" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B172" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B173" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B174" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B175" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B176" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B177" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B180" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B181" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B182" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B183" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B184" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B185" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B186" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B187" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B188" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B189" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B190" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B191" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B192" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B193" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B194" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B195" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B196" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B197" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B198" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B199" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B200" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B201" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B202" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B203" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B204" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B205" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B206" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B207" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B208" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B209" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B210" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B211" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B212" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B213" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B214" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B217" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B218" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B219" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B220" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B221" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B222" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B223" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B224" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B225" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B226" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B227" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B228" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B229" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B230" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B231" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B232" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B233" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B234" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B235" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B236" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B237" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B238" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B241" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B242" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B243" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B244" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B245" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B246" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B247" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B248" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B249" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B250" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B251" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B252" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B253" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B254" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B255" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B256" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B257" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B258" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B259" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B260" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B261" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B262" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B263" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B264" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B265" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B266" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B267" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B268" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B269" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B270" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B271" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B272" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B273" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B274" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B275" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B278" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B279" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B280" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B281" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B282" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B283" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B284" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B285" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B286" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B287" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B288" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B289" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B290" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B291" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B292" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B293" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B294" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B295" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B296" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B299" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B300" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B301" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B302" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B303" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B304" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B305" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B306" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B307" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B308" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B309" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B310" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B311" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B312" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B313" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B314" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B315" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B316" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B317" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B318" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B319" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B320" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B321" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B322" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B323" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B324" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B325" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B326" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B327" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B328" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B329" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B330" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B331" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B332" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B333" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B334" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B335" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B336" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B339" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B340" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B341" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B342" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B343" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B344" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B345" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B346" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B347" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B348" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B349" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B350" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B351" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B352" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B353" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B354" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B355" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B356" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B360" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B361" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B362" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B363" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B364" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B365" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B366" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B367" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B368" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B369" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B370" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B371" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B372" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B373" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B374" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B375" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B376" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B377" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B378" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B379" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B380" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B381" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B382" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B383" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B384" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B385" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B386" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B387" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B388" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B389" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B390" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B391" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B392" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B393" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B394" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B395" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B396" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B397" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B399" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B398" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B400" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B401" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B402" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B405" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B406" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B407" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B408" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B409" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B410" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B413" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B414" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B415" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B416" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B417" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B418" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B419" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B420" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B421" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B422" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B423" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B424" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B425" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B426" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B427" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B428" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B429" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B430" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B431" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B433" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B434" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B435" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B436" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B437" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B438" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B439" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B440" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B441" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B442" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B443" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B444" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B445" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B446" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B447" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B448" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B449" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B450" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B451" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B452" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B453" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B455" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B454" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B456" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B457" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B458" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B459" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B460" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B461" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B462" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B463" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B464" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B465" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B466" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B473" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B472" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B471" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B470" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B469" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B468" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B476" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B477" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B478" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B479" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B480" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B481" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B482" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B485" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B483" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B484" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B359" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B48" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B49" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B50" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B51" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B52" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B53" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B54" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B55" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B56" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B57" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B60" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B61" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B62" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B64" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B65" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B66" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B67" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B68" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B69" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B70" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B71" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B72" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B73" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B74" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B75" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B76" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B77" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B78" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B79" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B80" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B81" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B82" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B83" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B84" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B85" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B86" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B87" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B88" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B89" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B90" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B91" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B92" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B93" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B94" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B95" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B96" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B97" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B98" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B99" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B100" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B101" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B102" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B105" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B106" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B107" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B108" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B110" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B111" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B112" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B113" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B114" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B115" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B117" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B118" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B119" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B120" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B121" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B122" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B123" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B124" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B125" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B126" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B127" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B128" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B129" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B130" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B131" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B132" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B133" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B134" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B135" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B136" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B137" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B138" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B139" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B140" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B109" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B116" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B143" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B144" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B145" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B146" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B147" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B148" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B149" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B150" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B151" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B152" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B153" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B154" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B155" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B156" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B157" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B158" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B159" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B160" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B161" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B162" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B163" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B164" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B165" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B166" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B167" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B170" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B171" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B172" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B173" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B174" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B175" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B176" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B177" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B178" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B181" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B182" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B183" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B184" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B185" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B186" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B187" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B188" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B189" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B190" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B191" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B192" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B193" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B194" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B195" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B196" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B197" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B198" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B199" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B200" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B201" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B202" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B203" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B204" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B205" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B206" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B207" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B208" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B209" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B210" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B211" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B212" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B213" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B214" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B215" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B218" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B219" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B220" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B221" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B222" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B223" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B224" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B225" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B226" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B227" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B228" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B229" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B230" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B231" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B232" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B233" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B234" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B235" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B236" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B237" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B238" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B239" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B242" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B243" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B244" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B245" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B246" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B247" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B248" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B249" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B250" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B251" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B252" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B253" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B254" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B255" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B256" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B257" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B258" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B259" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B260" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B261" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B262" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B263" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B264" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B265" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B266" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B267" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B268" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B269" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B270" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B271" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B272" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B273" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B274" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B275" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B276" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B279" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B280" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B281" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B282" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B283" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B284" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B285" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B286" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B287" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B288" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B289" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B290" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B291" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B292" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B293" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B294" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B295" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B296" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B297" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B300" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B301" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B302" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B303" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B304" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B305" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B307" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B308" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B309" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B310" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B311" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B312" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B313" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B314" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B315" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B316" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B317" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B318" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B319" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B320" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B321" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B322" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B323" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B324" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B325" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B326" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B327" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B328" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B329" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B330" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B331" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B332" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B333" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B334" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B335" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B336" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B337" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B340" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B341" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B342" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B343" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B344" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B345" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B346" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B347" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B348" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B349" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B350" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B351" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B352" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B353" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B354" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B355" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B356" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B361" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B362" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B363" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B364" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B365" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B366" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B367" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B368" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B369" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B370" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B371" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B372" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B373" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B374" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B375" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B376" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B377" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B378" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B379" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B380" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B381" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B382" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B383" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B384" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B385" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B386" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B387" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B388" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B389" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B390" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B391" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B392" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B393" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B394" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B395" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B396" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B397" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B398" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B400" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B399" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B401" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B402" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B403" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B406" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B407" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B408" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B409" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B410" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B411" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B414" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B415" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B416" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B417" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B418" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B419" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B420" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B421" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B422" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B423" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B424" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B425" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B426" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B427" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B428" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B429" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B430" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B431" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B432" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B434" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B435" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B436" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B437" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B438" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B439" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B440" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B441" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B442" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B443" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B444" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B445" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B446" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B447" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B448" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B449" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B450" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B451" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B452" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B453" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B454" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B456" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B455" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B457" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B458" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B459" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B460" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B461" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B462" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B463" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B464" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B465" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B466" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B467" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B474" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B473" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B472" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B471" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B470" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B469" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B468" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B477" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B478" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B479" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B480" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B481" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B482" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B483" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B486" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B484" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B485" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B360" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B432" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B433" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B357" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B358" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
+    <hyperlink ref="B45" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C1E97-1FFD-AB4B-928C-2B64EC9C0168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74588CC6-F27A-854B-90C2-71815EAB17BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1474,6 +1474,12 @@
   </si>
   <si>
     <t>Was done in one go but space optimization is remaining(scheduled)</t>
+  </si>
+  <si>
+    <t>FlipBits</t>
+  </si>
+  <si>
+    <t>Maximum subarray sum after K concatenation</t>
   </si>
 </sst>
 </file>
@@ -1972,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I420" sqref="I420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,9 +2404,13 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -6116,27 +6126,29 @@
       <c r="C474" s="11"/>
     </row>
     <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B475" s="7"/>
+      <c r="A475" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C475" s="11"/>
     </row>
     <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A476" s="8"/>
-      <c r="B476" s="7"/>
+      <c r="A476" s="5"/>
+      <c r="B476" s="6"/>
+      <c r="C476" s="6"/>
     </row>
     <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A477" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B477" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C477" s="11"/>
+      <c r="A477" s="8"/>
+      <c r="B477" s="7"/>
     </row>
     <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C478" s="11"/>
     </row>
@@ -6145,7 +6157,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C479" s="11"/>
     </row>
@@ -6154,7 +6166,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C480" s="11"/>
     </row>
@@ -6163,7 +6175,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C481" s="11"/>
     </row>
@@ -6172,7 +6184,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C482" s="11"/>
     </row>
@@ -6181,7 +6193,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C483" s="11"/>
     </row>
@@ -6190,7 +6202,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C484" s="11"/>
     </row>
@@ -6199,7 +6211,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C485" s="11"/>
     </row>
@@ -6208,15 +6220,21 @@
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C486" s="11"/>
+    </row>
+    <row r="487" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A487" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B487" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C486" s="11"/>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C487" s="12"/>
-    </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C502" s="4"/>
+      <c r="C487" s="11"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C488" s="12"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C503" s="4"/>
@@ -6424,6 +6442,9 @@
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C571" s="4"/>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C572" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6861,16 +6882,16 @@
     <hyperlink ref="B470" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
     <hyperlink ref="B469" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
     <hyperlink ref="B468" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B477" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B478" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B479" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B480" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B481" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B482" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B483" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B486" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B484" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B485" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B478" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B479" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B480" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B481" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B482" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B483" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B484" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B487" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B485" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B486" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
     <hyperlink ref="B360" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B433" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
@@ -6879,6 +6900,8 @@
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
     <hyperlink ref="B45" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
+    <hyperlink ref="B46" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
+    <hyperlink ref="B475" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74588CC6-F27A-854B-90C2-71815EAB17BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D805E-3AAE-F940-B56D-C02983C1B57B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1980,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I420" sqref="I420"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,7 +2158,7 @@
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2179,7 +2179,7 @@
       <c r="B21" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="16"/>
       <c r="D21" t="s">
         <v>477</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2410,7 +2410,7 @@
       <c r="B46" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D805E-3AAE-F940-B56D-C02983C1B57B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106BF5A1-24F3-E346-9F33-06CB33B62045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="481">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1434,12 +1434,6 @@
     <t>Solution Dekhna Pada</t>
   </si>
   <si>
-    <t>To be done in heaps section (Quick sort approach completed)</t>
-  </si>
-  <si>
-    <t>TO BE REVISED</t>
-  </si>
-  <si>
     <t>Leet code wala isme dekhna hai medium level ka question hai ek</t>
   </si>
   <si>
@@ -1473,13 +1467,13 @@
     <t>Minimum no. of operation to move all balls in each box</t>
   </si>
   <si>
-    <t>Was done in one go but space optimization is remaining(scheduled)</t>
-  </si>
-  <si>
     <t>FlipBits</t>
   </si>
   <si>
     <t>Maximum subarray sum after K concatenation</t>
+  </si>
+  <si>
+    <t>Product Of Array Except Self</t>
   </si>
 </sst>
 </file>
@@ -1978,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F572"/>
+  <dimension ref="A1:F573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2023,7 +2017,7 @@
       <c r="C6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2036,7 +2030,7 @@
       <c r="C7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2047,12 +2041,9 @@
         <v>7</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" t="s">
-        <v>467</v>
-      </c>
       <c r="E8" s="11"/>
       <c r="F8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2063,9 +2054,6 @@
         <v>8</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2085,7 +2073,7 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2165,11 +2153,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2177,11 +2165,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2216,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C25" s="16"/>
     </row>
@@ -2270,168 +2258,165 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="11"/>
+        <v>480</v>
+      </c>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16"/>
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="11"/>
     </row>
-    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="11"/>
     </row>
-    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="11"/>
     </row>
-    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="11"/>
     </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="11"/>
     </row>
-    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C45" s="11"/>
+    </row>
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="11"/>
+        <v>477</v>
+      </c>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="11"/>
     </row>
@@ -2440,7 +2425,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="11"/>
     </row>
@@ -2449,7 +2434,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="11"/>
     </row>
@@ -2458,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="11"/>
     </row>
@@ -2467,7 +2452,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="11"/>
     </row>
@@ -2476,7 +2461,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="11"/>
     </row>
@@ -2485,7 +2470,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="11"/>
     </row>
@@ -2494,7 +2479,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="11"/>
     </row>
@@ -2503,40 +2488,40 @@
         <v>41</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="11"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="11"/>
     </row>
@@ -2544,8 +2529,8 @@
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>56</v>
+      <c r="B63" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C63" s="11"/>
     </row>
@@ -2553,8 +2538,8 @@
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>57</v>
+      <c r="B64" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C64" s="11"/>
     </row>
@@ -2563,7 +2548,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="11"/>
     </row>
@@ -2572,7 +2557,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="11"/>
     </row>
@@ -2581,7 +2566,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="11"/>
     </row>
@@ -2590,7 +2575,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="11"/>
     </row>
@@ -2599,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="11"/>
     </row>
@@ -2608,7 +2593,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="11"/>
     </row>
@@ -2617,7 +2602,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="11"/>
     </row>
@@ -2626,7 +2611,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="11"/>
     </row>
@@ -2635,7 +2620,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="11"/>
     </row>
@@ -2644,7 +2629,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="11"/>
     </row>
@@ -2653,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="11"/>
     </row>
@@ -2662,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="11"/>
     </row>
@@ -2671,7 +2656,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="11"/>
     </row>
@@ -2680,7 +2665,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="11"/>
     </row>
@@ -2689,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="11"/>
     </row>
@@ -2698,7 +2683,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="11"/>
     </row>
@@ -2707,7 +2692,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" s="11"/>
     </row>
@@ -2716,7 +2701,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" s="11"/>
     </row>
@@ -2725,7 +2710,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" s="11"/>
     </row>
@@ -2734,7 +2719,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2743,7 +2728,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" s="11"/>
     </row>
@@ -2752,7 +2737,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="11"/>
     </row>
@@ -2761,7 +2746,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="11"/>
     </row>
@@ -2770,7 +2755,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="11"/>
     </row>
@@ -2779,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" s="11"/>
     </row>
@@ -2788,7 +2773,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" s="11"/>
     </row>
@@ -2797,7 +2782,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C91" s="11"/>
     </row>
@@ -2806,7 +2791,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C92" s="11"/>
     </row>
@@ -2815,7 +2800,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="11"/>
     </row>
@@ -2824,7 +2809,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="11"/>
     </row>
@@ -2833,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C95" s="11"/>
     </row>
@@ -2842,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" s="11"/>
     </row>
@@ -2851,7 +2836,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" s="11"/>
     </row>
@@ -2860,7 +2845,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C98" s="11"/>
     </row>
@@ -2869,7 +2854,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="11"/>
     </row>
@@ -2878,7 +2863,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" s="11"/>
     </row>
@@ -2887,7 +2872,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="11"/>
     </row>
@@ -2896,29 +2881,29 @@
         <v>52</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="11"/>
+    </row>
+    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="11"/>
-    </row>
-    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="7"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="11"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" s="11"/>
     </row>
@@ -2927,7 +2912,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="11"/>
     </row>
@@ -2936,7 +2921,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C108" s="11"/>
     </row>
@@ -2945,7 +2930,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="11"/>
     </row>
@@ -2954,7 +2939,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C110" s="11"/>
     </row>
@@ -2963,7 +2948,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C111" s="11"/>
     </row>
@@ -2972,7 +2957,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C112" s="11"/>
     </row>
@@ -2981,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C113" s="11"/>
     </row>
@@ -2990,7 +2975,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -2999,7 +2984,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="11"/>
     </row>
@@ -3008,7 +2993,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C116" s="11"/>
     </row>
@@ -3017,7 +3002,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -3026,7 +3011,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C118" s="11"/>
     </row>
@@ -3035,7 +3020,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C119" s="11"/>
     </row>
@@ -3044,7 +3029,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C120" s="11"/>
     </row>
@@ -3053,7 +3038,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C121" s="11"/>
     </row>
@@ -3062,7 +3047,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C122" s="11"/>
     </row>
@@ -3071,7 +3056,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="11"/>
     </row>
@@ -3080,7 +3065,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124" s="11"/>
     </row>
@@ -3089,7 +3074,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C125" s="11"/>
     </row>
@@ -3098,7 +3083,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C126" s="11"/>
     </row>
@@ -3107,7 +3092,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127" s="11"/>
     </row>
@@ -3116,7 +3101,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="11"/>
     </row>
@@ -3125,7 +3110,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="11"/>
     </row>
@@ -3134,7 +3119,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C130" s="11"/>
     </row>
@@ -3143,7 +3128,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C131" s="11"/>
     </row>
@@ -3152,7 +3137,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="11"/>
     </row>
@@ -3161,7 +3146,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="11"/>
     </row>
@@ -3170,7 +3155,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C134" s="11"/>
     </row>
@@ -3179,7 +3164,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135" s="11"/>
     </row>
@@ -3188,7 +3173,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C136" s="11"/>
     </row>
@@ -3197,7 +3182,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="11"/>
     </row>
@@ -3206,7 +3191,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C138" s="11"/>
     </row>
@@ -3215,7 +3200,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="11"/>
     </row>
@@ -3224,28 +3209,28 @@
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="11"/>
+    </row>
+    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C140" s="11"/>
-    </row>
-    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C143" s="11"/>
+      <c r="B143" s="7"/>
     </row>
     <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="11"/>
     </row>
@@ -3254,7 +3239,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="11"/>
     </row>
@@ -3263,7 +3248,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="11"/>
     </row>
@@ -3272,7 +3257,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="11"/>
     </row>
@@ -3281,7 +3266,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C148" s="11"/>
     </row>
@@ -3290,7 +3275,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C149" s="11"/>
     </row>
@@ -3299,7 +3284,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C150" s="11"/>
     </row>
@@ -3308,7 +3293,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C151" s="11"/>
     </row>
@@ -3317,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="11"/>
     </row>
@@ -3326,7 +3311,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C153" s="11"/>
     </row>
@@ -3335,7 +3320,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C154" s="11"/>
     </row>
@@ -3344,7 +3329,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C155" s="11"/>
     </row>
@@ -3353,7 +3338,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C156" s="11"/>
     </row>
@@ -3362,7 +3347,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C157" s="11"/>
     </row>
@@ -3371,7 +3356,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C158" s="11"/>
     </row>
@@ -3380,7 +3365,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C159" s="11"/>
     </row>
@@ -3389,7 +3374,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C160" s="11"/>
     </row>
@@ -3398,7 +3383,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C161" s="11"/>
     </row>
@@ -3407,7 +3392,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="11"/>
     </row>
@@ -3416,7 +3401,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="11"/>
     </row>
@@ -3425,7 +3410,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C164" s="11"/>
     </row>
@@ -3434,7 +3419,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C165" s="11"/>
     </row>
@@ -3443,7 +3428,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C166" s="11"/>
     </row>
@@ -3452,7 +3437,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C167" s="11"/>
     </row>
@@ -3460,8 +3445,8 @@
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>159</v>
+      <c r="B168" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C168" s="11"/>
     </row>
@@ -3470,7 +3455,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C169" s="11"/>
     </row>
@@ -3478,8 +3463,8 @@
       <c r="A170" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>161</v>
+      <c r="B170" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C170" s="11"/>
     </row>
@@ -3488,7 +3473,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C171" s="11"/>
     </row>
@@ -3497,7 +3482,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C172" s="11"/>
     </row>
@@ -3506,7 +3491,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C173" s="11"/>
     </row>
@@ -3515,7 +3500,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C174" s="11"/>
     </row>
@@ -3524,7 +3509,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C175" s="11"/>
     </row>
@@ -3533,7 +3518,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C176" s="11"/>
     </row>
@@ -3542,7 +3527,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="11"/>
     </row>
@@ -3551,28 +3536,28 @@
         <v>133</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="11"/>
+    </row>
+    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C178" s="11"/>
-    </row>
-    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B180" s="7"/>
+      <c r="C179" s="11"/>
     </row>
     <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C181" s="11"/>
+      <c r="B181" s="7"/>
     </row>
     <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" s="11"/>
     </row>
@@ -3581,7 +3566,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" s="11"/>
     </row>
@@ -3590,7 +3575,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" s="11"/>
     </row>
@@ -3599,7 +3584,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" s="11"/>
     </row>
@@ -3608,7 +3593,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186" s="11"/>
     </row>
@@ -3617,7 +3602,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" s="11"/>
     </row>
@@ -3626,7 +3611,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C188" s="11"/>
     </row>
@@ -3635,7 +3620,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C189" s="11"/>
     </row>
@@ -3644,7 +3629,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -3653,7 +3638,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C191" s="11"/>
     </row>
@@ -3662,7 +3647,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C192" s="11"/>
     </row>
@@ -3671,7 +3656,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C193" s="11"/>
     </row>
@@ -3680,7 +3665,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C194" s="11"/>
     </row>
@@ -3689,7 +3674,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C195" s="11"/>
     </row>
@@ -3698,7 +3683,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C196" s="11"/>
     </row>
@@ -3707,7 +3692,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C197" s="11"/>
     </row>
@@ -3716,7 +3701,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C198" s="11"/>
     </row>
@@ -3725,7 +3710,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" s="11"/>
     </row>
@@ -3734,7 +3719,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C200" s="11"/>
     </row>
@@ -3743,7 +3728,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C201" s="11"/>
     </row>
@@ -3752,7 +3737,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" s="11"/>
     </row>
@@ -3761,7 +3746,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C203" s="11"/>
     </row>
@@ -3770,7 +3755,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C204" s="11"/>
     </row>
@@ -3779,7 +3764,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C205" s="11"/>
     </row>
@@ -3788,7 +3773,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C206" s="11"/>
     </row>
@@ -3797,7 +3782,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C207" s="11"/>
     </row>
@@ -3806,7 +3791,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C208" s="11"/>
     </row>
@@ -3815,7 +3800,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C209" s="11"/>
     </row>
@@ -3824,7 +3809,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C210" s="11"/>
     </row>
@@ -3833,7 +3818,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C211" s="11"/>
     </row>
@@ -3842,7 +3827,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C212" s="11"/>
     </row>
@@ -3851,7 +3836,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C213" s="11"/>
     </row>
@@ -3860,7 +3845,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C214" s="11"/>
     </row>
@@ -3869,33 +3854,33 @@
         <v>170</v>
       </c>
       <c r="B215" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C215" s="11"/>
+    </row>
+    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B216" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C215" s="11"/>
-    </row>
-    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A216" s="8"/>
-      <c r="B216" s="7"/>
+      <c r="C216" s="11"/>
     </row>
     <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="7"/>
     </row>
     <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C218" s="11"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C219" s="11"/>
     </row>
@@ -3904,7 +3889,7 @@
         <v>206</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C220" s="11"/>
     </row>
@@ -3913,7 +3898,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C221" s="11"/>
     </row>
@@ -3922,7 +3907,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C222" s="11"/>
     </row>
@@ -3931,7 +3916,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C223" s="11"/>
     </row>
@@ -3939,8 +3924,8 @@
       <c r="A224" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>213</v>
+      <c r="B224" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C224" s="11"/>
     </row>
@@ -3948,8 +3933,8 @@
       <c r="A225" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>214</v>
+      <c r="B225" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C225" s="11"/>
     </row>
@@ -3958,7 +3943,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C226" s="11"/>
     </row>
@@ -3967,7 +3952,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C227" s="11"/>
     </row>
@@ -3976,7 +3961,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C228" s="11"/>
     </row>
@@ -3985,7 +3970,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C229" s="11"/>
     </row>
@@ -3994,7 +3979,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C230" s="11"/>
     </row>
@@ -4003,7 +3988,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C231" s="11"/>
     </row>
@@ -4012,7 +3997,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C232" s="11"/>
     </row>
@@ -4021,7 +4006,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C233" s="11"/>
     </row>
@@ -4030,7 +4015,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C234" s="11"/>
     </row>
@@ -4039,7 +4024,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C235" s="11"/>
     </row>
@@ -4048,7 +4033,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C236" s="11"/>
     </row>
@@ -4057,7 +4042,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C237" s="11"/>
     </row>
@@ -4066,7 +4051,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C238" s="11"/>
     </row>
@@ -4075,31 +4060,31 @@
         <v>206</v>
       </c>
       <c r="B239" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C239" s="11"/>
+    </row>
+    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B240" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C239" s="11"/>
-    </row>
-    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B240" s="7"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
     </row>
     <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A242" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C242" s="11"/>
+      <c r="B242" s="7"/>
     </row>
     <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C243" s="11"/>
     </row>
@@ -4108,7 +4093,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C244" s="11"/>
     </row>
@@ -4117,7 +4102,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C245" s="11"/>
     </row>
@@ -4126,7 +4111,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C246" s="11"/>
     </row>
@@ -4135,7 +4120,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C247" s="11"/>
     </row>
@@ -4144,7 +4129,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C248" s="11"/>
     </row>
@@ -4153,7 +4138,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C249" s="11"/>
     </row>
@@ -4162,7 +4147,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C250" s="11"/>
     </row>
@@ -4171,7 +4156,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C251" s="11"/>
     </row>
@@ -4180,7 +4165,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C252" s="11"/>
     </row>
@@ -4189,7 +4174,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C253" s="11"/>
     </row>
@@ -4198,7 +4183,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C254" s="11"/>
     </row>
@@ -4207,7 +4192,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C255" s="11"/>
     </row>
@@ -4216,7 +4201,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C256" s="11"/>
     </row>
@@ -4225,7 +4210,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C257" s="11"/>
     </row>
@@ -4234,7 +4219,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C258" s="11"/>
     </row>
@@ -4243,7 +4228,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C259" s="11"/>
     </row>
@@ -4252,7 +4237,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C260" s="11"/>
     </row>
@@ -4261,7 +4246,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C261" s="11"/>
     </row>
@@ -4270,7 +4255,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C262" s="11"/>
     </row>
@@ -4279,7 +4264,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C263" s="11"/>
     </row>
@@ -4288,7 +4273,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C264" s="11"/>
     </row>
@@ -4297,7 +4282,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C265" s="11"/>
     </row>
@@ -4306,7 +4291,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C266" s="11"/>
     </row>
@@ -4315,7 +4300,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C267" s="11"/>
     </row>
@@ -4324,7 +4309,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C268" s="11"/>
     </row>
@@ -4333,7 +4318,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C269" s="11"/>
     </row>
@@ -4342,7 +4327,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C270" s="11"/>
     </row>
@@ -4351,7 +4336,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C271" s="11"/>
     </row>
@@ -4360,7 +4345,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C272" s="11"/>
     </row>
@@ -4369,7 +4354,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C273" s="11"/>
     </row>
@@ -4378,7 +4363,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C274" s="11"/>
     </row>
@@ -4387,7 +4372,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C275" s="11"/>
     </row>
@@ -4396,31 +4381,31 @@
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C276" s="11"/>
+    </row>
+    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A277" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C276" s="11"/>
-    </row>
-    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B277" s="7"/>
+      <c r="C277" s="11"/>
     </row>
     <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B278" s="7"/>
     </row>
     <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C279" s="11"/>
+      <c r="B279" s="7"/>
     </row>
     <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C280" s="11"/>
     </row>
@@ -4429,7 +4414,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C281" s="11"/>
     </row>
@@ -4438,7 +4423,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C282" s="11"/>
     </row>
@@ -4447,7 +4432,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C283" s="11"/>
     </row>
@@ -4456,7 +4441,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C284" s="11"/>
     </row>
@@ -4465,7 +4450,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C285" s="11"/>
     </row>
@@ -4474,7 +4459,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C286" s="11"/>
     </row>
@@ -4483,7 +4468,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C287" s="11"/>
     </row>
@@ -4492,7 +4477,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C288" s="11"/>
     </row>
@@ -4501,7 +4486,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C289" s="11"/>
     </row>
@@ -4510,7 +4495,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C290" s="11"/>
     </row>
@@ -4519,7 +4504,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C291" s="11"/>
     </row>
@@ -4528,7 +4513,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C292" s="11"/>
     </row>
@@ -4537,7 +4522,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C293" s="11"/>
     </row>
@@ -4546,7 +4531,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C294" s="11"/>
     </row>
@@ -4555,7 +4540,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C295" s="11"/>
     </row>
@@ -4564,7 +4549,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C296" s="11"/>
     </row>
@@ -4573,31 +4558,31 @@
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C297" s="11"/>
+    </row>
+    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A298" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B298" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C297" s="11"/>
-    </row>
-    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B298" s="7"/>
+      <c r="C298" s="11"/>
     </row>
     <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B299" s="7"/>
     </row>
     <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B300" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C300" s="11"/>
+      <c r="B300" s="7"/>
     </row>
     <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C301" s="11"/>
     </row>
@@ -4606,7 +4591,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C302" s="11"/>
     </row>
@@ -4615,7 +4600,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C303" s="11"/>
     </row>
@@ -4624,7 +4609,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C304" s="11"/>
     </row>
@@ -4633,7 +4618,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C305" s="11"/>
     </row>
@@ -4642,7 +4627,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C306" s="11"/>
     </row>
@@ -4651,7 +4636,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C307" s="11"/>
     </row>
@@ -4660,7 +4645,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C308" s="11"/>
     </row>
@@ -4669,7 +4654,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C309" s="11"/>
     </row>
@@ -4678,7 +4663,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C310" s="11"/>
     </row>
@@ -4687,7 +4672,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C311" s="11"/>
     </row>
@@ -4696,7 +4681,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C312" s="11"/>
     </row>
@@ -4704,8 +4689,8 @@
       <c r="A313" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="9" t="s">
-        <v>298</v>
+      <c r="B313" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C313" s="11"/>
     </row>
@@ -4713,8 +4698,8 @@
       <c r="A314" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B314" s="6" t="s">
-        <v>299</v>
+      <c r="B314" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C314" s="11"/>
     </row>
@@ -4723,7 +4708,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C315" s="11"/>
     </row>
@@ -4732,7 +4717,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C316" s="11"/>
     </row>
@@ -4741,7 +4726,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C317" s="11"/>
     </row>
@@ -4750,7 +4735,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C318" s="11"/>
     </row>
@@ -4759,7 +4744,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C319" s="11"/>
     </row>
@@ -4768,7 +4753,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C320" s="11"/>
     </row>
@@ -4777,7 +4762,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C321" s="11"/>
     </row>
@@ -4786,7 +4771,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C322" s="11"/>
     </row>
@@ -4795,7 +4780,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C323" s="11"/>
     </row>
@@ -4804,7 +4789,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C324" s="11"/>
     </row>
@@ -4813,7 +4798,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C325" s="11"/>
     </row>
@@ -4822,7 +4807,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C326" s="11"/>
     </row>
@@ -4831,7 +4816,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C327" s="11"/>
     </row>
@@ -4840,7 +4825,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C328" s="11"/>
     </row>
@@ -4849,7 +4834,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C329" s="11"/>
     </row>
@@ -4858,7 +4843,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C330" s="11"/>
     </row>
@@ -4867,7 +4852,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C331" s="11"/>
     </row>
@@ -4876,7 +4861,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C332" s="11"/>
     </row>
@@ -4885,7 +4870,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C333" s="11"/>
     </row>
@@ -4894,7 +4879,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C334" s="11"/>
     </row>
@@ -4903,7 +4888,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C335" s="11"/>
     </row>
@@ -4912,7 +4897,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C336" s="11"/>
     </row>
@@ -4921,31 +4906,31 @@
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C337" s="11"/>
+    </row>
+    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A338" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B338" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C337" s="11"/>
-    </row>
-    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B338" s="7"/>
+      <c r="C338" s="11"/>
     </row>
     <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B339" s="7"/>
     </row>
     <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A340" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B340" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C340" s="11"/>
+      <c r="B340" s="7"/>
     </row>
     <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C341" s="11"/>
     </row>
@@ -4954,7 +4939,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C342" s="11"/>
     </row>
@@ -4963,7 +4948,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C343" s="11"/>
     </row>
@@ -4972,7 +4957,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C344" s="11"/>
     </row>
@@ -4981,7 +4966,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C345" s="11"/>
     </row>
@@ -4990,7 +4975,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C346" s="11"/>
     </row>
@@ -4999,7 +4984,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C347" s="11"/>
     </row>
@@ -5007,8 +4992,8 @@
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B348" s="9" t="s">
-        <v>332</v>
+      <c r="B348" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C348" s="11"/>
     </row>
@@ -5016,8 +5001,8 @@
       <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B349" s="6" t="s">
-        <v>333</v>
+      <c r="B349" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C349" s="11"/>
     </row>
@@ -5026,7 +5011,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C350" s="11"/>
     </row>
@@ -5035,7 +5020,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C351" s="11"/>
     </row>
@@ -5044,7 +5029,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C352" s="11"/>
     </row>
@@ -5053,7 +5038,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C353" s="11"/>
     </row>
@@ -5062,7 +5047,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C354" s="11"/>
     </row>
@@ -5071,7 +5056,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C355" s="11"/>
     </row>
@@ -5080,7 +5065,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C356" s="11"/>
     </row>
@@ -5089,7 +5074,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C357" s="11"/>
     </row>
@@ -5098,27 +5083,27 @@
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>472</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C358" s="11"/>
     </row>
     <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B359" s="7"/>
+      <c r="A359" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A360" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C360" s="11"/>
+      <c r="B360" s="7"/>
     </row>
     <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C361" s="11"/>
     </row>
@@ -5127,7 +5112,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C362" s="11"/>
     </row>
@@ -5136,7 +5121,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C363" s="11"/>
     </row>
@@ -5145,7 +5130,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C364" s="11"/>
     </row>
@@ -5154,7 +5139,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C365" s="11"/>
     </row>
@@ -5163,7 +5148,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C366" s="11"/>
     </row>
@@ -5172,7 +5157,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C367" s="11"/>
     </row>
@@ -5181,7 +5166,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C368" s="11"/>
     </row>
@@ -5190,7 +5175,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C369" s="11"/>
     </row>
@@ -5199,7 +5184,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C370" s="11"/>
     </row>
@@ -5208,7 +5193,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C371" s="11"/>
     </row>
@@ -5217,7 +5202,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C372" s="11"/>
     </row>
@@ -5226,7 +5211,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C373" s="11"/>
     </row>
@@ -5235,7 +5220,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C374" s="11"/>
     </row>
@@ -5244,7 +5229,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C375" s="11"/>
     </row>
@@ -5253,7 +5238,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C376" s="11"/>
     </row>
@@ -5262,7 +5247,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C377" s="11"/>
     </row>
@@ -5271,7 +5256,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C378" s="11"/>
     </row>
@@ -5280,7 +5265,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C379" s="11"/>
     </row>
@@ -5289,7 +5274,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C380" s="11"/>
     </row>
@@ -5298,7 +5283,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C381" s="11"/>
     </row>
@@ -5307,7 +5292,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C382" s="11"/>
     </row>
@@ -5316,7 +5301,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C383" s="11"/>
     </row>
@@ -5325,7 +5310,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C384" s="11"/>
     </row>
@@ -5334,7 +5319,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C385" s="11"/>
     </row>
@@ -5343,7 +5328,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C386" s="11"/>
     </row>
@@ -5352,7 +5337,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C387" s="11"/>
     </row>
@@ -5361,7 +5346,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C388" s="11"/>
     </row>
@@ -5370,7 +5355,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C389" s="11"/>
     </row>
@@ -5379,7 +5364,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C390" s="11"/>
     </row>
@@ -5388,7 +5373,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C391" s="11"/>
     </row>
@@ -5397,7 +5382,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C392" s="11"/>
     </row>
@@ -5406,7 +5391,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C393" s="11"/>
     </row>
@@ -5424,7 +5409,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C395" s="11"/>
     </row>
@@ -5433,7 +5418,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C396" s="11"/>
     </row>
@@ -5442,7 +5427,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C397" s="11"/>
     </row>
@@ -5451,7 +5436,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C398" s="11"/>
     </row>
@@ -5460,7 +5445,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C399" s="11"/>
     </row>
@@ -5469,7 +5454,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C400" s="11"/>
     </row>
@@ -5478,7 +5463,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C401" s="11"/>
     </row>
@@ -5487,7 +5472,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C402" s="11"/>
     </row>
@@ -5496,12 +5481,17 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C403" s="11"/>
+    </row>
+    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B404" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C403" s="11"/>
-    </row>
-    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B404" s="7"/>
       <c r="C404" s="11"/>
     </row>
     <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5509,12 +5499,7 @@
       <c r="C405" s="11"/>
     </row>
     <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A406" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B406" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="B406" s="7"/>
       <c r="C406" s="11"/>
     </row>
     <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5522,7 +5507,7 @@
         <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C407" s="11"/>
     </row>
@@ -5531,7 +5516,7 @@
         <v>386</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C408" s="11"/>
     </row>
@@ -5540,7 +5525,7 @@
         <v>386</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C409" s="11"/>
     </row>
@@ -5549,7 +5534,7 @@
         <v>386</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C410" s="11"/>
     </row>
@@ -5558,33 +5543,33 @@
         <v>386</v>
       </c>
       <c r="B411" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C411" s="11"/>
+    </row>
+    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B412" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C411" s="11"/>
-    </row>
-    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B412" s="7"/>
-      <c r="C412" s="7"/>
+      <c r="C412" s="11"/>
     </row>
     <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A414" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C414" s="13"/>
+      <c r="B414" s="7"/>
+      <c r="C414" s="7"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C415" s="13"/>
     </row>
@@ -5593,16 +5578,16 @@
         <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C416" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="C416" s="13"/>
     </row>
     <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C417" s="11"/>
     </row>
@@ -5611,7 +5596,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C418" s="11"/>
     </row>
@@ -5620,7 +5605,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C419" s="11"/>
     </row>
@@ -5629,37 +5614,37 @@
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C420" s="13"/>
-      <c r="D420" t="s">
-        <v>464</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C420" s="11"/>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C421" s="13"/>
+      <c r="D421" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C422" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C422" s="13"/>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C423" s="11"/>
     </row>
@@ -5668,7 +5653,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C424" s="11"/>
     </row>
@@ -5677,7 +5662,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C425" s="11"/>
     </row>
@@ -5686,7 +5671,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C426" s="11"/>
     </row>
@@ -5695,43 +5680,43 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C427" s="13"/>
+        <v>404</v>
+      </c>
+      <c r="C427" s="11"/>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C428" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="C428" s="13"/>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C429" s="13"/>
+        <v>406</v>
+      </c>
+      <c r="C429" s="11"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C430" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C430" s="13"/>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C431" s="11"/>
     </row>
@@ -5740,7 +5725,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C432" s="11"/>
     </row>
@@ -5749,37 +5734,37 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C433" s="14"/>
-      <c r="D433" t="s">
-        <v>466</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C433" s="11"/>
     </row>
     <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C434" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="C434" s="14"/>
+      <c r="D434" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C435" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="C435" s="13"/>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C436" s="11"/>
     </row>
@@ -5788,7 +5773,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C437" s="11"/>
     </row>
@@ -5797,7 +5782,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C438" s="11"/>
     </row>
@@ -5806,7 +5791,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C439" s="11"/>
     </row>
@@ -5815,7 +5800,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C440" s="11"/>
     </row>
@@ -5824,7 +5809,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C441" s="11"/>
     </row>
@@ -5833,7 +5818,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C442" s="11"/>
     </row>
@@ -5842,7 +5827,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C443" s="11"/>
     </row>
@@ -5851,7 +5836,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C444" s="11"/>
     </row>
@@ -5860,7 +5845,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C445" s="11"/>
     </row>
@@ -5869,7 +5854,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C446" s="11"/>
     </row>
@@ -5878,7 +5863,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C447" s="11"/>
     </row>
@@ -5887,7 +5872,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C448" s="11"/>
     </row>
@@ -5896,7 +5881,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C449" s="11"/>
     </row>
@@ -5905,7 +5890,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C450" s="11"/>
     </row>
@@ -5914,7 +5899,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C451" s="11"/>
     </row>
@@ -5923,7 +5908,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C452" s="11"/>
     </row>
@@ -5932,7 +5917,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C453" s="11"/>
     </row>
@@ -5941,7 +5926,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C454" s="11"/>
     </row>
@@ -5950,7 +5935,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C455" s="11"/>
     </row>
@@ -5959,7 +5944,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C456" s="11"/>
     </row>
@@ -5968,7 +5953,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C457" s="11"/>
     </row>
@@ -5977,7 +5962,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C458" s="11"/>
     </row>
@@ -5986,7 +5971,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C459" s="11"/>
     </row>
@@ -5995,7 +5980,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C460" s="11"/>
     </row>
@@ -6004,7 +5989,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C461" s="11"/>
     </row>
@@ -6013,7 +5998,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C462" s="11"/>
     </row>
@@ -6022,7 +6007,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C463" s="11"/>
     </row>
@@ -6031,7 +6016,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C464" s="11"/>
     </row>
@@ -6040,7 +6025,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C465" s="11"/>
     </row>
@@ -6049,7 +6034,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C466" s="11"/>
     </row>
@@ -6058,7 +6043,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -6067,7 +6052,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C468" s="11"/>
     </row>
@@ -6076,7 +6061,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C469" s="11"/>
     </row>
@@ -6085,7 +6070,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C470" s="11"/>
     </row>
@@ -6094,7 +6079,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C471" s="11"/>
     </row>
@@ -6103,7 +6088,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C472" s="11"/>
     </row>
@@ -6112,7 +6097,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C473" s="11"/>
     </row>
@@ -6121,7 +6106,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C474" s="11"/>
     </row>
@@ -6130,34 +6115,34 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="C475" s="11"/>
     </row>
     <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A476" s="5"/>
-      <c r="B476" s="6"/>
-      <c r="C476" s="6"/>
+      <c r="A476" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C476" s="11"/>
     </row>
     <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A477" s="8"/>
-      <c r="B477" s="7"/>
+      <c r="A477" s="5"/>
+      <c r="B477" s="6"/>
+      <c r="C477" s="6"/>
     </row>
     <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A478" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C478" s="11"/>
+      <c r="A478" s="8"/>
+      <c r="B478" s="7"/>
     </row>
     <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C479" s="11"/>
     </row>
@@ -6166,7 +6151,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C480" s="11"/>
     </row>
@@ -6175,7 +6160,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C481" s="11"/>
     </row>
@@ -6184,7 +6169,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C482" s="11"/>
     </row>
@@ -6193,7 +6178,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C483" s="11"/>
     </row>
@@ -6202,7 +6187,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C484" s="11"/>
     </row>
@@ -6211,7 +6196,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C485" s="11"/>
     </row>
@@ -6220,7 +6205,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C486" s="11"/>
     </row>
@@ -6229,15 +6214,21 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C487" s="11"/>
+    </row>
+    <row r="488" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A488" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B488" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C487" s="11"/>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C488" s="12"/>
-    </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C503" s="4"/>
+      <c r="C488" s="11"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C489" s="12"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C504" s="4"/>
@@ -6445,6 +6436,9 @@
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C572" s="4"/>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C573" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6470,438 +6464,439 @@
     <hyperlink ref="B28" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
     <hyperlink ref="B29" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
     <hyperlink ref="B30" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="B31" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B32" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B33" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="B34" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="B35" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="B36" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="B37" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="B38" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B39" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B40" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B41" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B42" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B43" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B44" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B48" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B49" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B50" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B51" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B52" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B53" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B54" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B55" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B56" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B57" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B60" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B64" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B65" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B66" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B67" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B68" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B69" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B70" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B71" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B72" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B74" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B75" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B76" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B77" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B78" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B79" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B80" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B81" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B82" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B83" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B84" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B85" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B86" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B87" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B88" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B89" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B90" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B91" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B92" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B93" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B94" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B95" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B96" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B97" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B98" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B99" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B100" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B101" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B102" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B105" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B106" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B107" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B108" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B110" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B111" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B112" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B113" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B114" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B115" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B117" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B118" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B119" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B120" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B121" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B122" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B123" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B124" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B125" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B126" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B127" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B128" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B129" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B130" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B131" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B132" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B133" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B134" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B135" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B136" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B137" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B138" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B139" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B140" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B109" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B116" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B143" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B144" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B145" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B146" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B147" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B148" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B149" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B150" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B151" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B152" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B153" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B154" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B155" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B156" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B157" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B158" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B159" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B160" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B161" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B162" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B163" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B164" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B165" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B166" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B167" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B170" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B171" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B172" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B173" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B174" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B175" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B176" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B177" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B178" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B181" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B182" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B183" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B184" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B185" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B186" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B187" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B188" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B189" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B190" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B191" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B192" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B193" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B194" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B195" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B196" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B197" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B198" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B199" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B200" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B201" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B202" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B203" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B204" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B205" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B206" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B207" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B208" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B209" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B210" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B211" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B212" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B213" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B214" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B215" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B218" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B219" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B220" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B221" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B222" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B223" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B224" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B225" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B226" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B227" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B228" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B229" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B230" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B231" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B232" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B233" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B234" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B235" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B236" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B237" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B238" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B239" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B242" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B243" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B244" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B245" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B246" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B247" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B248" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B249" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B250" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B251" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B252" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B253" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B254" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B255" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B256" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B257" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B258" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B259" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B260" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B261" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B262" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B263" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B264" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B265" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B266" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B267" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B268" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B269" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B270" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B271" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B272" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B273" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B274" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B275" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B276" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B279" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B280" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B281" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B282" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B283" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B284" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B285" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B286" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B287" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B288" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B289" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B290" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B291" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B292" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B293" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B294" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B295" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B296" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B297" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B300" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B301" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B302" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B303" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B304" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B305" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B307" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B308" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B309" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B310" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B311" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B312" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B313" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B314" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B315" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B316" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B317" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B318" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B319" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B320" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B321" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B322" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B323" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B324" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B325" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B326" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B327" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B328" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B329" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B330" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B331" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B332" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B333" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B334" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B335" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B336" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B337" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B340" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B341" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B342" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B343" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B344" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B345" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B346" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B347" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B348" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B349" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B350" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B351" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B352" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B353" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B354" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B355" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B356" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B357" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B361" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B362" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B363" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B364" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B365" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B366" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B367" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B368" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B369" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B370" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B371" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B372" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B373" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B374" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B375" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B376" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B377" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B378" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B379" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B380" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B381" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B382" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B383" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B384" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B385" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B386" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B387" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B388" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B389" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B390" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B391" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B392" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B393" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B394" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B395" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B396" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B397" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B398" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B400" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B399" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B401" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B402" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B403" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B406" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B407" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B408" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B409" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B410" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B411" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B414" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B415" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B416" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B417" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B418" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B419" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B420" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B421" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B422" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B423" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B424" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B425" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B426" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B427" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B428" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B429" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B430" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B431" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B432" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B434" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B435" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B436" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B437" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B438" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B439" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B440" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B441" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B442" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B443" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B444" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B445" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B446" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B447" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B448" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B449" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B450" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B451" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B452" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B453" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B454" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B456" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B455" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B457" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B458" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B459" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B460" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B461" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B462" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B463" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B464" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B465" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B466" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B467" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B474" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B473" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B472" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B471" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B470" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B469" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B468" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B478" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B479" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B480" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B481" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B482" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B483" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B484" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B487" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B485" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B486" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B360" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B32" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="B33" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="B34" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="B35" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="B36" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="B37" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="B38" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="B39" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="B40" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="B41" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="B42" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="B43" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B44" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B45" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B50" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B52" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B53" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B55" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B56" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B57" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B58" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B61" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B62" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B63" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B65" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B66" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B67" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B68" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B69" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B70" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B71" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B72" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B73" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B74" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B75" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B76" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B77" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B78" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B79" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B80" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B81" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B82" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B83" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B84" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B85" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B86" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B87" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B88" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B89" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B90" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B91" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B92" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B93" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B94" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B95" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B96" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B97" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B98" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B99" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B100" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B101" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B102" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B103" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B106" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B107" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B108" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B109" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B111" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B112" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B113" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B114" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B115" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B116" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B118" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B119" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B120" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B121" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B122" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B123" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B124" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B125" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B126" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B127" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B128" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B129" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B130" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B131" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B132" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B133" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B134" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B135" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B136" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B137" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B138" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B139" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B140" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B141" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B110" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B117" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B144" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B145" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B146" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B147" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B148" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B149" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B150" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B151" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B152" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B153" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B154" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B155" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B156" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B157" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B158" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B159" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B160" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B161" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B162" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B163" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B164" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B165" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B166" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B167" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B168" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B171" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B172" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B173" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B174" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B175" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B176" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B177" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B178" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B179" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B182" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B183" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B184" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B185" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B186" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B187" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B188" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B189" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B190" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B191" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B192" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B193" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B194" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B195" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B196" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B197" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B198" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B199" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B200" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B201" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B202" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B203" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B204" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B205" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B206" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B207" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B208" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B209" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B210" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B211" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B212" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B213" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B214" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B215" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B216" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B219" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B220" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B221" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B222" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B223" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B224" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B225" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B226" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B227" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B228" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B229" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B230" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B231" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B232" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B233" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B234" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B235" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B236" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B237" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B238" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B239" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B240" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B243" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B244" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B245" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B246" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B247" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B248" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B249" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B250" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B251" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B252" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B253" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B254" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B255" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B256" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B257" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B258" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B259" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B260" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B261" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B262" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B263" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B264" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B265" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B266" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B267" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B268" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B269" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B270" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B271" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B272" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B273" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B274" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B275" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B276" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B277" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B280" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B281" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B282" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B283" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B284" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B285" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B286" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B287" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B288" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B289" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B290" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B291" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B292" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B293" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B294" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B295" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B296" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B297" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B298" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B301" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B302" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B303" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B304" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B305" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B306" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B307" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B308" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B309" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B310" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B311" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B312" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B313" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B314" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B315" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B316" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B317" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B318" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B319" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B320" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B321" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B322" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B323" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B324" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B325" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B326" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B327" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B328" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B329" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B330" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B331" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B332" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B333" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B334" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B335" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B336" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B337" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B338" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B341" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B342" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B343" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B344" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B345" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B346" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B347" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B348" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B349" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B350" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B351" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B352" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B353" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B354" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B355" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B356" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B357" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B358" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B362" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B363" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B364" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B365" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B366" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B367" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B368" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B369" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B370" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B371" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B372" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B373" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B374" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B375" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B376" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B377" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B378" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B379" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B380" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B381" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B382" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B383" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B384" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B385" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B386" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B387" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B388" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B389" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B390" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B391" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B392" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B393" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B394" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B395" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B396" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B397" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B398" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B399" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B401" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B400" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B402" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B403" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B404" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B407" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B408" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B409" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B410" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B411" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B412" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B415" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B416" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B417" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B418" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B419" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B420" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B421" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B422" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B423" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B424" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B425" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B426" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B427" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B428" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B429" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B430" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B431" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B432" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B433" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B435" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B436" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B437" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B438" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B439" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B440" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B441" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B442" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B443" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B444" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B445" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B446" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B447" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B448" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B449" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B450" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B451" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B452" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B453" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B454" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B455" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B457" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B456" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B458" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B459" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B460" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B461" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B462" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B463" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B464" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B465" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B466" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B467" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B468" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B475" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B474" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B473" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B472" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B471" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B470" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B469" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B479" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B480" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B481" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B482" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B483" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B484" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B485" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B488" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B486" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B487" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B361" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B433" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B434" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B358" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B359" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
-    <hyperlink ref="B45" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
-    <hyperlink ref="B46" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B475" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B46" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
+    <hyperlink ref="B47" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
+    <hyperlink ref="B476" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106BF5A1-24F3-E346-9F33-06CB33B62045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E6A80F-55C6-6F47-A741-E3FB8E5A13F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1974,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2278,7 +2278,7 @@
       <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -2305,7 +2305,7 @@
       <c r="B36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="11"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E6A80F-55C6-6F47-A741-E3FB8E5A13F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAE161-7F77-E946-ADDD-70F0EA943869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1474,6 +1474,12 @@
   </si>
   <si>
     <t>Product Of Array Except Self</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
   </si>
 </sst>
 </file>
@@ -1972,10 +1978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F573"/>
+  <dimension ref="A1:F574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2314,7 +2320,7 @@
       <c r="B37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -2339,25 +2345,25 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="11"/>
+        <v>482</v>
+      </c>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="11"/>
     </row>
@@ -2366,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="11"/>
     </row>
@@ -2375,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="11"/>
     </row>
@@ -2384,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="11"/>
     </row>
@@ -2393,39 +2399,39 @@
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C46" s="16"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="11"/>
     </row>
@@ -2434,7 +2440,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="11"/>
     </row>
@@ -2443,7 +2449,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="11"/>
     </row>
@@ -2452,7 +2458,7 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="11"/>
     </row>
@@ -2461,7 +2467,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="11"/>
     </row>
@@ -2470,7 +2476,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="11"/>
     </row>
@@ -2479,7 +2485,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="11"/>
     </row>
@@ -2488,7 +2494,7 @@
         <v>41</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="11"/>
     </row>
@@ -2497,31 +2503,32 @@
         <v>41</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C62" s="11"/>
     </row>
@@ -2530,7 +2537,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C63" s="11"/>
     </row>
@@ -2538,8 +2545,8 @@
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>56</v>
+      <c r="B64" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C64" s="11"/>
     </row>
@@ -2547,8 +2554,8 @@
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>57</v>
+      <c r="B65" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C65" s="11"/>
     </row>
@@ -2557,7 +2564,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="11"/>
     </row>
@@ -2566,7 +2573,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C67" s="11"/>
     </row>
@@ -2575,7 +2582,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="11"/>
     </row>
@@ -2584,7 +2591,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="11"/>
     </row>
@@ -2593,7 +2600,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="11"/>
     </row>
@@ -2602,7 +2609,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="11"/>
     </row>
@@ -2611,7 +2618,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="11"/>
     </row>
@@ -2620,7 +2627,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" s="11"/>
     </row>
@@ -2629,7 +2636,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" s="11"/>
     </row>
@@ -2638,7 +2645,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="11"/>
     </row>
@@ -2647,7 +2654,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="11"/>
     </row>
@@ -2656,7 +2663,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" s="11"/>
     </row>
@@ -2665,7 +2672,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" s="11"/>
     </row>
@@ -2674,7 +2681,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="11"/>
     </row>
@@ -2683,7 +2690,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" s="11"/>
     </row>
@@ -2692,7 +2699,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="11"/>
     </row>
@@ -2701,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="11"/>
     </row>
@@ -2710,7 +2717,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="11"/>
     </row>
@@ -2719,7 +2726,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -2728,7 +2735,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="11"/>
     </row>
@@ -2737,7 +2744,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" s="11"/>
     </row>
@@ -2746,7 +2753,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" s="11"/>
     </row>
@@ -2755,7 +2762,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" s="11"/>
     </row>
@@ -2764,7 +2771,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="11"/>
     </row>
@@ -2773,7 +2780,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" s="11"/>
     </row>
@@ -2782,7 +2789,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="11"/>
     </row>
@@ -2791,7 +2798,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="11"/>
     </row>
@@ -2800,7 +2807,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="11"/>
     </row>
@@ -2809,7 +2816,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="11"/>
     </row>
@@ -2818,7 +2825,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="11"/>
     </row>
@@ -2827,7 +2834,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="11"/>
     </row>
@@ -2836,7 +2843,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" s="11"/>
     </row>
@@ -2845,7 +2852,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="11"/>
     </row>
@@ -2854,7 +2861,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="11"/>
     </row>
@@ -2863,7 +2870,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="11"/>
     </row>
@@ -2872,7 +2879,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C101" s="11"/>
     </row>
@@ -2881,7 +2888,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="11"/>
     </row>
@@ -2890,29 +2897,38 @@
         <v>52</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" s="11"/>
+    </row>
+    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="11"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C106" s="11"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C107" s="11"/>
     </row>
@@ -2921,7 +2937,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="11"/>
     </row>
@@ -2930,7 +2946,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="11"/>
     </row>
@@ -2939,7 +2955,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C110" s="11"/>
     </row>
@@ -2948,7 +2964,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C111" s="11"/>
     </row>
@@ -2957,7 +2973,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C112" s="11"/>
     </row>
@@ -2966,7 +2982,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C113" s="11"/>
     </row>
@@ -2975,7 +2991,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -2984,7 +3000,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C115" s="11"/>
     </row>
@@ -2993,7 +3009,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116" s="11"/>
     </row>
@@ -3002,7 +3018,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -3011,7 +3027,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" s="11"/>
     </row>
@@ -3020,7 +3036,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="11"/>
     </row>
@@ -3029,7 +3045,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="11"/>
     </row>
@@ -3038,7 +3054,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="11"/>
     </row>
@@ -3047,7 +3063,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="11"/>
     </row>
@@ -3056,7 +3072,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C123" s="11"/>
     </row>
@@ -3065,7 +3081,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C124" s="11"/>
     </row>
@@ -3074,7 +3090,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C125" s="11"/>
     </row>
@@ -3083,7 +3099,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C126" s="11"/>
     </row>
@@ -3092,7 +3108,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" s="11"/>
     </row>
@@ -3101,7 +3117,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C128" s="11"/>
     </row>
@@ -3110,7 +3126,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C129" s="11"/>
     </row>
@@ -3119,7 +3135,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C130" s="11"/>
     </row>
@@ -3128,7 +3144,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C131" s="11"/>
     </row>
@@ -3137,7 +3153,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C132" s="11"/>
     </row>
@@ -3146,7 +3162,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C133" s="11"/>
     </row>
@@ -3155,7 +3171,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="11"/>
     </row>
@@ -3164,7 +3180,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C135" s="11"/>
     </row>
@@ -3173,7 +3189,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C136" s="11"/>
     </row>
@@ -3182,7 +3198,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C137" s="11"/>
     </row>
@@ -3191,7 +3207,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C138" s="11"/>
     </row>
@@ -3200,7 +3216,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C139" s="11"/>
     </row>
@@ -3209,7 +3225,7 @@
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C140" s="11"/>
     </row>
@@ -3218,28 +3234,28 @@
         <v>96</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C141" s="11"/>
-    </row>
-    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C144" s="11"/>
+      <c r="B144" s="7"/>
     </row>
     <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="11"/>
     </row>
@@ -3248,7 +3264,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="11"/>
     </row>
@@ -3257,7 +3273,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C147" s="11"/>
     </row>
@@ -3266,7 +3282,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C148" s="11"/>
     </row>
@@ -3275,7 +3291,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C149" s="11"/>
     </row>
@@ -3284,7 +3300,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" s="11"/>
     </row>
@@ -3293,7 +3309,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" s="11"/>
     </row>
@@ -3302,7 +3318,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C152" s="11"/>
     </row>
@@ -3311,7 +3327,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C153" s="11"/>
     </row>
@@ -3320,7 +3336,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C154" s="11"/>
     </row>
@@ -3329,7 +3345,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C155" s="11"/>
     </row>
@@ -3338,7 +3354,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" s="11"/>
     </row>
@@ -3347,7 +3363,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C157" s="11"/>
     </row>
@@ -3356,7 +3372,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C158" s="11"/>
     </row>
@@ -3365,7 +3381,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159" s="11"/>
     </row>
@@ -3374,7 +3390,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C160" s="11"/>
     </row>
@@ -3383,7 +3399,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C161" s="11"/>
     </row>
@@ -3392,7 +3408,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C162" s="11"/>
     </row>
@@ -3401,7 +3417,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C163" s="11"/>
     </row>
@@ -3410,7 +3426,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C164" s="11"/>
     </row>
@@ -3419,7 +3435,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C165" s="11"/>
     </row>
@@ -3428,7 +3444,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C166" s="11"/>
     </row>
@@ -3437,7 +3453,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" s="11"/>
     </row>
@@ -3446,7 +3462,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" s="11"/>
     </row>
@@ -3454,8 +3470,8 @@
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="7" t="s">
-        <v>159</v>
+      <c r="B169" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C169" s="11"/>
     </row>
@@ -3464,7 +3480,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C170" s="11"/>
     </row>
@@ -3472,8 +3488,8 @@
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>161</v>
+      <c r="B171" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C171" s="11"/>
     </row>
@@ -3482,7 +3498,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C172" s="11"/>
     </row>
@@ -3491,7 +3507,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C173" s="11"/>
     </row>
@@ -3500,7 +3516,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C174" s="11"/>
     </row>
@@ -3509,7 +3525,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C175" s="11"/>
     </row>
@@ -3518,7 +3534,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C176" s="11"/>
     </row>
@@ -3527,7 +3543,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C177" s="11"/>
     </row>
@@ -3536,7 +3552,7 @@
         <v>133</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C178" s="11"/>
     </row>
@@ -3545,28 +3561,28 @@
         <v>133</v>
       </c>
       <c r="B179" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="11"/>
+    </row>
+    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C179" s="11"/>
-    </row>
-    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B181" s="7"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C182" s="11"/>
+      <c r="B182" s="7"/>
     </row>
     <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C183" s="11"/>
     </row>
@@ -3575,7 +3591,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C184" s="11"/>
     </row>
@@ -3584,7 +3600,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C185" s="11"/>
     </row>
@@ -3593,7 +3609,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C186" s="11"/>
     </row>
@@ -3602,7 +3618,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C187" s="11"/>
     </row>
@@ -3611,7 +3627,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" s="11"/>
     </row>
@@ -3620,7 +3636,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C189" s="11"/>
     </row>
@@ -3629,7 +3645,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -3638,7 +3654,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C191" s="11"/>
     </row>
@@ -3647,7 +3663,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C192" s="11"/>
     </row>
@@ -3656,7 +3672,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C193" s="11"/>
     </row>
@@ -3665,7 +3681,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C194" s="11"/>
     </row>
@@ -3674,7 +3690,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C195" s="11"/>
     </row>
@@ -3683,7 +3699,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C196" s="11"/>
     </row>
@@ -3692,7 +3708,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C197" s="11"/>
     </row>
@@ -3701,7 +3717,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C198" s="11"/>
     </row>
@@ -3710,7 +3726,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C199" s="11"/>
     </row>
@@ -3719,7 +3735,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C200" s="11"/>
     </row>
@@ -3728,7 +3744,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C201" s="11"/>
     </row>
@@ -3737,7 +3753,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C202" s="11"/>
     </row>
@@ -3746,7 +3762,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C203" s="11"/>
     </row>
@@ -3755,7 +3771,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C204" s="11"/>
     </row>
@@ -3764,7 +3780,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C205" s="11"/>
     </row>
@@ -3773,7 +3789,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C206" s="11"/>
     </row>
@@ -3782,7 +3798,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C207" s="11"/>
     </row>
@@ -3791,7 +3807,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C208" s="11"/>
     </row>
@@ -3800,7 +3816,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C209" s="11"/>
     </row>
@@ -3809,7 +3825,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C210" s="11"/>
     </row>
@@ -3818,7 +3834,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C211" s="11"/>
     </row>
@@ -3827,7 +3843,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212" s="11"/>
     </row>
@@ -3836,7 +3852,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C213" s="11"/>
     </row>
@@ -3845,7 +3861,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C214" s="11"/>
     </row>
@@ -3854,7 +3870,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="11"/>
     </row>
@@ -3863,33 +3879,33 @@
         <v>170</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C216" s="11"/>
+    </row>
+    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A217" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B217" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C216" s="11"/>
-    </row>
-    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A217" s="8"/>
-      <c r="B217" s="7"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="7"/>
     </row>
     <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A219" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C219" s="11"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="7"/>
     </row>
     <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C220" s="11"/>
     </row>
@@ -3898,7 +3914,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C221" s="11"/>
     </row>
@@ -3907,7 +3923,7 @@
         <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C222" s="11"/>
     </row>
@@ -3916,7 +3932,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C223" s="11"/>
     </row>
@@ -3925,7 +3941,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C224" s="11"/>
     </row>
@@ -3933,8 +3949,8 @@
       <c r="A225" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B225" s="9" t="s">
-        <v>213</v>
+      <c r="B225" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C225" s="11"/>
     </row>
@@ -3942,8 +3958,8 @@
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>214</v>
+      <c r="B226" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C226" s="11"/>
     </row>
@@ -3952,7 +3968,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C227" s="11"/>
     </row>
@@ -3961,7 +3977,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C228" s="11"/>
     </row>
@@ -3970,7 +3986,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C229" s="11"/>
     </row>
@@ -3979,7 +3995,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C230" s="11"/>
     </row>
@@ -3988,7 +4004,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C231" s="11"/>
     </row>
@@ -3997,7 +4013,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C232" s="11"/>
     </row>
@@ -4006,7 +4022,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C233" s="11"/>
     </row>
@@ -4015,7 +4031,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C234" s="11"/>
     </row>
@@ -4024,7 +4040,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C235" s="11"/>
     </row>
@@ -4033,7 +4049,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C236" s="11"/>
     </row>
@@ -4042,7 +4058,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C237" s="11"/>
     </row>
@@ -4051,7 +4067,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C238" s="11"/>
     </row>
@@ -4060,7 +4076,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C239" s="11"/>
     </row>
@@ -4069,31 +4085,31 @@
         <v>206</v>
       </c>
       <c r="B240" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C240" s="11"/>
+    </row>
+    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B241" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C240" s="11"/>
-    </row>
-    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B241" s="7"/>
+      <c r="C241" s="11"/>
     </row>
     <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B242" s="7"/>
     </row>
     <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A243" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C243" s="11"/>
+      <c r="B243" s="7"/>
     </row>
     <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C244" s="11"/>
     </row>
@@ -4102,7 +4118,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C245" s="11"/>
     </row>
@@ -4111,7 +4127,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C246" s="11"/>
     </row>
@@ -4120,7 +4136,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C247" s="11"/>
     </row>
@@ -4129,7 +4145,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C248" s="11"/>
     </row>
@@ -4138,7 +4154,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C249" s="11"/>
     </row>
@@ -4147,7 +4163,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C250" s="11"/>
     </row>
@@ -4156,7 +4172,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C251" s="11"/>
     </row>
@@ -4165,7 +4181,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C252" s="11"/>
     </row>
@@ -4174,7 +4190,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C253" s="11"/>
     </row>
@@ -4183,7 +4199,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C254" s="11"/>
     </row>
@@ -4192,7 +4208,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C255" s="11"/>
     </row>
@@ -4201,7 +4217,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C256" s="11"/>
     </row>
@@ -4210,7 +4226,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C257" s="11"/>
     </row>
@@ -4219,7 +4235,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C258" s="11"/>
     </row>
@@ -4228,7 +4244,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C259" s="11"/>
     </row>
@@ -4237,7 +4253,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C260" s="11"/>
     </row>
@@ -4246,7 +4262,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C261" s="11"/>
     </row>
@@ -4255,7 +4271,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C262" s="11"/>
     </row>
@@ -4264,7 +4280,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C263" s="11"/>
     </row>
@@ -4273,7 +4289,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C264" s="11"/>
     </row>
@@ -4282,7 +4298,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C265" s="11"/>
     </row>
@@ -4291,7 +4307,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C266" s="11"/>
     </row>
@@ -4300,7 +4316,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C267" s="11"/>
     </row>
@@ -4309,7 +4325,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C268" s="11"/>
     </row>
@@ -4318,7 +4334,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C269" s="11"/>
     </row>
@@ -4327,7 +4343,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C270" s="11"/>
     </row>
@@ -4336,7 +4352,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C271" s="11"/>
     </row>
@@ -4345,7 +4361,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C272" s="11"/>
     </row>
@@ -4354,7 +4370,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C273" s="11"/>
     </row>
@@ -4363,7 +4379,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C274" s="11"/>
     </row>
@@ -4372,7 +4388,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C275" s="11"/>
     </row>
@@ -4381,7 +4397,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C276" s="11"/>
     </row>
@@ -4390,31 +4406,31 @@
         <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" s="11"/>
+    </row>
+    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A278" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C277" s="11"/>
-    </row>
-    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B278" s="7"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B279" s="7"/>
     </row>
     <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B280" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C280" s="11"/>
+      <c r="B280" s="7"/>
     </row>
     <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C281" s="11"/>
     </row>
@@ -4423,7 +4439,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C282" s="11"/>
     </row>
@@ -4432,7 +4448,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C283" s="11"/>
     </row>
@@ -4441,7 +4457,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C284" s="11"/>
     </row>
@@ -4450,7 +4466,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285" s="11"/>
     </row>
@@ -4459,7 +4475,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C286" s="11"/>
     </row>
@@ -4468,7 +4484,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C287" s="11"/>
     </row>
@@ -4477,7 +4493,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C288" s="11"/>
     </row>
@@ -4486,7 +4502,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C289" s="11"/>
     </row>
@@ -4495,7 +4511,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C290" s="11"/>
     </row>
@@ -4504,7 +4520,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C291" s="11"/>
     </row>
@@ -4513,7 +4529,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C292" s="11"/>
     </row>
@@ -4522,7 +4538,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C293" s="11"/>
     </row>
@@ -4531,7 +4547,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C294" s="11"/>
     </row>
@@ -4540,7 +4556,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C295" s="11"/>
     </row>
@@ -4549,7 +4565,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C296" s="11"/>
     </row>
@@ -4558,7 +4574,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C297" s="11"/>
     </row>
@@ -4567,31 +4583,31 @@
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C298" s="11"/>
+    </row>
+    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B299" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C298" s="11"/>
-    </row>
-    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B299" s="7"/>
+      <c r="C299" s="11"/>
     </row>
     <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B300" s="7"/>
     </row>
     <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B301" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C301" s="11"/>
+      <c r="B301" s="7"/>
     </row>
     <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C302" s="11"/>
     </row>
@@ -4600,7 +4616,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C303" s="11"/>
     </row>
@@ -4609,7 +4625,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C304" s="11"/>
     </row>
@@ -4618,7 +4634,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C305" s="11"/>
     </row>
@@ -4627,7 +4643,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C306" s="11"/>
     </row>
@@ -4636,7 +4652,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C307" s="11"/>
     </row>
@@ -4645,7 +4661,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C308" s="11"/>
     </row>
@@ -4654,7 +4670,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C309" s="11"/>
     </row>
@@ -4663,7 +4679,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C310" s="11"/>
     </row>
@@ -4672,7 +4688,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C311" s="11"/>
     </row>
@@ -4681,7 +4697,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C312" s="11"/>
     </row>
@@ -4690,7 +4706,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C313" s="11"/>
     </row>
@@ -4698,8 +4714,8 @@
       <c r="A314" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B314" s="9" t="s">
-        <v>298</v>
+      <c r="B314" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C314" s="11"/>
     </row>
@@ -4707,8 +4723,8 @@
       <c r="A315" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="6" t="s">
-        <v>299</v>
+      <c r="B315" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C315" s="11"/>
     </row>
@@ -4717,7 +4733,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C316" s="11"/>
     </row>
@@ -4726,7 +4742,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C317" s="11"/>
     </row>
@@ -4735,7 +4751,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C318" s="11"/>
     </row>
@@ -4744,7 +4760,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C319" s="11"/>
     </row>
@@ -4753,7 +4769,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C320" s="11"/>
     </row>
@@ -4762,7 +4778,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C321" s="11"/>
     </row>
@@ -4771,7 +4787,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C322" s="11"/>
     </row>
@@ -4780,7 +4796,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C323" s="11"/>
     </row>
@@ -4789,7 +4805,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C324" s="11"/>
     </row>
@@ -4798,7 +4814,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C325" s="11"/>
     </row>
@@ -4807,7 +4823,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C326" s="11"/>
     </row>
@@ -4816,7 +4832,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C327" s="11"/>
     </row>
@@ -4825,7 +4841,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C328" s="11"/>
     </row>
@@ -4834,7 +4850,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C329" s="11"/>
     </row>
@@ -4843,7 +4859,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C330" s="11"/>
     </row>
@@ -4852,7 +4868,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C331" s="11"/>
     </row>
@@ -4861,7 +4877,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C332" s="11"/>
     </row>
@@ -4870,7 +4886,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C333" s="11"/>
     </row>
@@ -4879,7 +4895,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C334" s="11"/>
     </row>
@@ -4888,7 +4904,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C335" s="11"/>
     </row>
@@ -4897,7 +4913,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C336" s="11"/>
     </row>
@@ -4906,7 +4922,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C337" s="11"/>
     </row>
@@ -4915,31 +4931,31 @@
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C338" s="11"/>
+    </row>
+    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A339" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B339" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C338" s="11"/>
-    </row>
-    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B339" s="7"/>
+      <c r="C339" s="11"/>
     </row>
     <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B340" s="7"/>
     </row>
     <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A341" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B341" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C341" s="11"/>
+      <c r="B341" s="7"/>
     </row>
     <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C342" s="11"/>
     </row>
@@ -4948,7 +4964,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="11"/>
     </row>
@@ -4957,7 +4973,7 @@
         <v>323</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C344" s="11"/>
     </row>
@@ -4966,7 +4982,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C345" s="11"/>
     </row>
@@ -4975,7 +4991,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C346" s="11"/>
     </row>
@@ -4984,7 +5000,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C347" s="11"/>
     </row>
@@ -4993,7 +5009,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C348" s="11"/>
     </row>
@@ -5001,8 +5017,8 @@
       <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B349" s="9" t="s">
-        <v>332</v>
+      <c r="B349" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C349" s="11"/>
     </row>
@@ -5010,8 +5026,8 @@
       <c r="A350" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B350" s="6" t="s">
-        <v>333</v>
+      <c r="B350" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C350" s="11"/>
     </row>
@@ -5020,7 +5036,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C351" s="11"/>
     </row>
@@ -5029,7 +5045,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C352" s="11"/>
     </row>
@@ -5038,7 +5054,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C353" s="11"/>
     </row>
@@ -5047,7 +5063,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C354" s="11"/>
     </row>
@@ -5056,7 +5072,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C355" s="11"/>
     </row>
@@ -5065,7 +5081,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C356" s="11"/>
     </row>
@@ -5074,7 +5090,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C357" s="11"/>
     </row>
@@ -5083,7 +5099,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C358" s="11"/>
     </row>
@@ -5092,27 +5108,27 @@
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C359" s="11"/>
+    </row>
+    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A360" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B360" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B360" s="7"/>
-    </row>
     <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A361" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B361" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C361" s="11"/>
+      <c r="B361" s="7"/>
     </row>
     <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C362" s="11"/>
     </row>
@@ -5121,7 +5137,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C363" s="11"/>
     </row>
@@ -5130,7 +5146,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C364" s="11"/>
     </row>
@@ -5139,7 +5155,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C365" s="11"/>
     </row>
@@ -5148,7 +5164,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C366" s="11"/>
     </row>
@@ -5157,7 +5173,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C367" s="11"/>
     </row>
@@ -5166,7 +5182,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C368" s="11"/>
     </row>
@@ -5175,7 +5191,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C369" s="11"/>
     </row>
@@ -5184,7 +5200,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C370" s="11"/>
     </row>
@@ -5193,7 +5209,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C371" s="11"/>
     </row>
@@ -5202,7 +5218,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C372" s="11"/>
     </row>
@@ -5211,7 +5227,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C373" s="11"/>
     </row>
@@ -5220,7 +5236,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C374" s="11"/>
     </row>
@@ -5229,7 +5245,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C375" s="11"/>
     </row>
@@ -5238,7 +5254,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C376" s="11"/>
     </row>
@@ -5247,7 +5263,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C377" s="11"/>
     </row>
@@ -5256,7 +5272,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C378" s="11"/>
     </row>
@@ -5265,7 +5281,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C379" s="11"/>
     </row>
@@ -5274,7 +5290,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C380" s="11"/>
     </row>
@@ -5283,7 +5299,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C381" s="11"/>
     </row>
@@ -5292,7 +5308,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C382" s="11"/>
     </row>
@@ -5301,7 +5317,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C383" s="11"/>
     </row>
@@ -5310,7 +5326,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C384" s="11"/>
     </row>
@@ -5319,7 +5335,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C385" s="11"/>
     </row>
@@ -5328,7 +5344,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C386" s="11"/>
     </row>
@@ -5337,7 +5353,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C387" s="11"/>
     </row>
@@ -5346,7 +5362,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C388" s="11"/>
     </row>
@@ -5355,7 +5371,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C389" s="11"/>
     </row>
@@ -5364,7 +5380,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C390" s="11"/>
     </row>
@@ -5373,7 +5389,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C391" s="11"/>
     </row>
@@ -5382,7 +5398,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C392" s="11"/>
     </row>
@@ -5391,7 +5407,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C393" s="11"/>
     </row>
@@ -5400,7 +5416,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C394" s="11"/>
     </row>
@@ -5418,7 +5434,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C396" s="11"/>
     </row>
@@ -5427,7 +5443,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C397" s="11"/>
     </row>
@@ -5436,7 +5452,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C398" s="11"/>
     </row>
@@ -5445,7 +5461,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C399" s="11"/>
     </row>
@@ -5454,7 +5470,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C400" s="11"/>
     </row>
@@ -5463,7 +5479,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C401" s="11"/>
     </row>
@@ -5472,7 +5488,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C402" s="11"/>
     </row>
@@ -5481,7 +5497,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C403" s="11"/>
     </row>
@@ -5490,12 +5506,17 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C404" s="11"/>
+    </row>
+    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B405" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C404" s="11"/>
-    </row>
-    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B405" s="7"/>
       <c r="C405" s="11"/>
     </row>
     <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5503,12 +5524,7 @@
       <c r="C406" s="11"/>
     </row>
     <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A407" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B407" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="B407" s="7"/>
       <c r="C407" s="11"/>
     </row>
     <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5516,7 +5532,7 @@
         <v>386</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C408" s="11"/>
     </row>
@@ -5525,7 +5541,7 @@
         <v>386</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C409" s="11"/>
     </row>
@@ -5534,7 +5550,7 @@
         <v>386</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C410" s="11"/>
     </row>
@@ -5543,7 +5559,7 @@
         <v>386</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C411" s="11"/>
     </row>
@@ -5552,33 +5568,33 @@
         <v>386</v>
       </c>
       <c r="B412" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C412" s="11"/>
+    </row>
+    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B413" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C412" s="11"/>
-    </row>
-    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B413" s="7"/>
-      <c r="C413" s="7"/>
+      <c r="C413" s="11"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A415" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C415" s="13"/>
+      <c r="B415" s="7"/>
+      <c r="C415" s="7"/>
     </row>
     <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C416" s="13"/>
     </row>
@@ -5587,16 +5603,16 @@
         <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C417" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="C417" s="13"/>
     </row>
     <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C418" s="11"/>
     </row>
@@ -5605,7 +5621,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C419" s="11"/>
     </row>
@@ -5614,7 +5630,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C420" s="11"/>
     </row>
@@ -5623,37 +5639,37 @@
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C421" s="13"/>
-      <c r="D421" t="s">
-        <v>464</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C421" s="11"/>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C422" s="13"/>
+      <c r="D422" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C423" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C423" s="13"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C424" s="11"/>
     </row>
@@ -5662,7 +5678,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C425" s="11"/>
     </row>
@@ -5671,7 +5687,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C426" s="11"/>
     </row>
@@ -5680,7 +5696,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C427" s="11"/>
     </row>
@@ -5689,43 +5705,43 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C428" s="13"/>
+        <v>404</v>
+      </c>
+      <c r="C428" s="11"/>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C429" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="C429" s="13"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C430" s="13"/>
+        <v>406</v>
+      </c>
+      <c r="C430" s="11"/>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C431" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C431" s="13"/>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C432" s="11"/>
     </row>
@@ -5734,7 +5750,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C433" s="11"/>
     </row>
@@ -5743,37 +5759,37 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C434" s="14"/>
-      <c r="D434" t="s">
-        <v>466</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C434" s="11"/>
     </row>
     <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C435" s="13"/>
+        <v>465</v>
+      </c>
+      <c r="C435" s="14"/>
+      <c r="D435" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C436" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="C436" s="13"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C437" s="11"/>
     </row>
@@ -5782,7 +5798,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C438" s="11"/>
     </row>
@@ -5791,7 +5807,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C439" s="11"/>
     </row>
@@ -5800,7 +5816,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C440" s="11"/>
     </row>
@@ -5809,7 +5825,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C441" s="11"/>
     </row>
@@ -5818,7 +5834,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C442" s="11"/>
     </row>
@@ -5827,7 +5843,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C443" s="11"/>
     </row>
@@ -5836,7 +5852,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C444" s="11"/>
     </row>
@@ -5845,7 +5861,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C445" s="11"/>
     </row>
@@ -5854,7 +5870,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C446" s="11"/>
     </row>
@@ -5863,7 +5879,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C447" s="11"/>
     </row>
@@ -5872,7 +5888,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C448" s="11"/>
     </row>
@@ -5881,7 +5897,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C449" s="11"/>
     </row>
@@ -5890,7 +5906,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C450" s="11"/>
     </row>
@@ -5899,7 +5915,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C451" s="11"/>
     </row>
@@ -5908,7 +5924,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C452" s="11"/>
     </row>
@@ -5917,7 +5933,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C453" s="11"/>
     </row>
@@ -5926,7 +5942,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C454" s="11"/>
     </row>
@@ -5935,7 +5951,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C455" s="11"/>
     </row>
@@ -5944,7 +5960,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C456" s="11"/>
     </row>
@@ -5953,7 +5969,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C457" s="11"/>
     </row>
@@ -5962,7 +5978,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C458" s="11"/>
     </row>
@@ -5971,7 +5987,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C459" s="11"/>
     </row>
@@ -5980,7 +5996,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C460" s="11"/>
     </row>
@@ -5989,7 +6005,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C461" s="11"/>
     </row>
@@ -5998,7 +6014,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C462" s="11"/>
     </row>
@@ -6007,7 +6023,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C463" s="11"/>
     </row>
@@ -6016,7 +6032,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C464" s="11"/>
     </row>
@@ -6025,7 +6041,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C465" s="11"/>
     </row>
@@ -6034,7 +6050,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C466" s="11"/>
     </row>
@@ -6043,7 +6059,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -6052,7 +6068,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C468" s="11"/>
     </row>
@@ -6061,7 +6077,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C469" s="11"/>
     </row>
@@ -6070,7 +6086,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C470" s="11"/>
     </row>
@@ -6079,7 +6095,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C471" s="11"/>
     </row>
@@ -6088,7 +6104,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C472" s="11"/>
     </row>
@@ -6097,7 +6113,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C473" s="11"/>
     </row>
@@ -6106,7 +6122,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C474" s="11"/>
     </row>
@@ -6115,7 +6131,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C475" s="11"/>
     </row>
@@ -6124,34 +6140,34 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C476" s="11"/>
+    </row>
+    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A477" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B477" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C476" s="11"/>
-    </row>
-    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A477" s="5"/>
-      <c r="B477" s="6"/>
-      <c r="C477" s="6"/>
+      <c r="C477" s="11"/>
     </row>
     <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A478" s="8"/>
-      <c r="B478" s="7"/>
+      <c r="A478" s="5"/>
+      <c r="B478" s="6"/>
+      <c r="C478" s="6"/>
     </row>
     <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A479" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C479" s="11"/>
+      <c r="A479" s="8"/>
+      <c r="B479" s="7"/>
     </row>
     <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C480" s="11"/>
     </row>
@@ -6160,7 +6176,7 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C481" s="11"/>
     </row>
@@ -6169,7 +6185,7 @@
         <v>452</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C482" s="11"/>
     </row>
@@ -6178,7 +6194,7 @@
         <v>452</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C483" s="11"/>
     </row>
@@ -6187,7 +6203,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C484" s="11"/>
     </row>
@@ -6196,7 +6212,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C485" s="11"/>
     </row>
@@ -6205,7 +6221,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C486" s="11"/>
     </row>
@@ -6214,7 +6230,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C487" s="11"/>
     </row>
@@ -6223,15 +6239,21 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C488" s="11"/>
+    </row>
+    <row r="489" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A489" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B489" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C488" s="11"/>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C489" s="12"/>
-    </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C504" s="4"/>
+      <c r="C489" s="11"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C490" s="12"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C505" s="4"/>
@@ -6439,6 +6461,9 @@
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C573" s="4"/>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C574" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6472,431 +6497,433 @@
     <hyperlink ref="B37" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
     <hyperlink ref="B38" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
     <hyperlink ref="B39" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B40" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B41" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B42" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B43" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B44" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B45" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B49" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B50" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B51" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B52" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B53" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B54" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B55" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B56" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B57" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B58" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B61" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B62" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B63" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B65" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B66" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B67" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B68" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B69" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B70" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B71" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B72" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B73" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B74" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B75" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B76" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B77" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B78" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B79" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B80" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B81" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B82" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B83" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B84" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B85" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B86" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B87" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B88" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B89" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B90" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B91" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B92" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B93" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B94" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B95" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B96" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B97" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B98" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B99" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B100" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B101" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B102" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B103" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B106" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B107" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B108" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B109" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B111" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B112" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B113" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B114" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B115" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B116" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B118" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B119" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B120" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B121" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B122" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B123" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B124" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B125" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B126" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B127" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B128" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B129" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B130" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B131" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B132" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B133" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B134" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B135" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B136" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B137" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B138" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B139" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B140" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B141" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B110" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B117" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B144" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B145" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B146" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B147" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B148" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B149" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B150" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B151" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B152" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B153" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B154" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B155" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B156" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B157" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B158" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B159" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B160" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B161" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B162" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B163" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B164" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B165" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B166" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B167" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B168" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B171" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B172" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B173" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B174" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B175" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B176" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B177" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B178" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B179" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B182" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B183" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B184" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B185" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B186" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B187" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B188" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B189" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B190" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B191" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B192" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B193" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B194" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B195" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B196" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B197" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B198" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B199" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B200" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B201" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B202" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B203" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B204" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B205" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B206" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B207" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B208" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B209" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B210" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B211" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B212" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B213" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B214" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B215" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B216" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B219" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B220" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B221" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B222" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B223" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B224" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B225" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B226" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B227" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B228" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B229" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B230" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B231" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B232" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B233" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B234" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B235" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B236" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B237" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B238" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B239" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B240" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B243" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B244" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B245" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B246" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B247" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B248" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B249" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B250" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B251" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B252" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B253" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B254" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B255" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B256" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B257" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B258" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B259" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B260" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B261" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B262" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B263" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B264" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B265" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B266" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B267" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B268" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B269" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B270" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B271" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B272" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B273" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B274" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B275" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B276" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B277" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B280" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B281" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B282" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B283" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B284" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B285" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B286" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B287" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B288" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B289" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B290" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B291" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B292" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B293" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B294" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B295" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B296" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B297" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B298" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B301" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B302" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B303" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B304" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B305" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B306" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B307" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B308" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B309" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B310" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B311" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B312" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B313" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B314" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B315" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B316" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B317" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B318" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B319" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B320" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B321" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B322" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B323" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B324" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B325" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B326" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B327" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B328" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B329" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B330" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B331" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B332" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B333" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B334" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B335" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B336" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B337" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B338" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B341" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B342" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B343" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B344" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B345" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B346" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B347" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B348" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B349" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B350" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B351" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B352" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B353" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B354" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B355" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B356" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B357" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B358" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B362" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B363" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B364" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B365" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B366" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B367" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B368" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B369" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B370" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B371" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B372" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B373" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B374" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B375" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B376" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B377" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B378" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B379" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B380" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B381" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B382" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B383" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B384" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B385" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B386" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B387" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B388" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B389" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B390" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B391" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B392" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B393" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B394" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B395" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B396" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B397" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B398" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B399" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B401" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B400" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B402" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B403" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B404" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B407" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B408" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B409" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B410" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B411" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B412" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B415" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B416" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B417" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B418" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B419" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B420" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B421" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B422" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B423" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B424" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B425" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B426" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B427" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B428" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B429" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B430" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B431" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B432" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B433" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B435" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B436" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B437" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B438" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B439" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B440" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B441" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B442" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B443" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B444" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B445" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B446" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B447" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B448" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B449" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B450" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B451" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B452" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B453" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B454" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B455" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B457" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B456" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B458" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B459" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B460" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B461" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B462" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B463" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B464" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B465" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B466" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B467" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B468" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B475" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B474" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B473" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B472" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B471" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B470" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B469" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B479" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B480" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B481" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B482" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B483" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B484" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B485" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B488" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B486" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B487" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B361" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B41" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="B42" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="B43" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="B44" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B45" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B46" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B50" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B51" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B52" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B53" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B54" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B55" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B56" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B57" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B58" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B59" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B62" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B63" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B64" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B66" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B67" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B68" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B69" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B70" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B71" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B72" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B73" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B74" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B75" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B76" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B77" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B78" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B79" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B80" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B81" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B82" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B83" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B84" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B85" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B86" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B87" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B88" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B89" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B90" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B91" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B92" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B93" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B94" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B95" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B96" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B97" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B98" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B99" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B100" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B101" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B102" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B103" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B104" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B107" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B108" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B109" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B110" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B112" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B113" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B114" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B115" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B116" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B117" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B119" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B120" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B121" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B122" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B123" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B124" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B125" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B126" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B127" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B128" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B129" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B130" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B131" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B132" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B133" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B134" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B135" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B136" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B137" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B138" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B139" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B140" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B141" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B142" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B111" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B118" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B145" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B146" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B147" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B148" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B149" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B150" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B151" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B152" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B153" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B154" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B155" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B156" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B157" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B158" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B159" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B160" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B161" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B162" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B163" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B164" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B165" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B166" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B167" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B168" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B169" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B172" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B173" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B174" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B175" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B176" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B177" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B183" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B184" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B185" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B186" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B187" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B188" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B189" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B190" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B191" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B192" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B193" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B194" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B195" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B196" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B197" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B198" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B199" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B200" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B201" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B202" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B203" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B204" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B205" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B206" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B207" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B208" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B209" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B210" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B211" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B212" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B213" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B214" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B215" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B216" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B217" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B220" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B221" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B222" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B223" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B224" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B225" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B226" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B227" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B228" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B229" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B230" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B231" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B232" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B233" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B234" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B235" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B236" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B237" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B238" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B239" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B240" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B241" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B244" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B245" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B246" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B247" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B248" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B249" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B250" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B251" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B252" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B253" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B254" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B255" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B256" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B257" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B258" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B259" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B260" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B261" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B262" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B263" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B264" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B265" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B266" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B267" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B268" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B269" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B270" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B271" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B272" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B273" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B274" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B275" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B276" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B277" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B278" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B281" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B282" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B283" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B284" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B285" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B286" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B287" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B288" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B289" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B290" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B291" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B292" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B293" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B294" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B295" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B296" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B297" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B298" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B299" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B302" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B303" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B304" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B305" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B306" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B307" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B308" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B309" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B310" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B311" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B312" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B313" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B314" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B315" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B316" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B317" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B318" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B319" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B320" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B321" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B322" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B323" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B324" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B325" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B326" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B327" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B328" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B329" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B330" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B331" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B332" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B333" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B334" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B335" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B336" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B337" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B338" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B339" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B342" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B343" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B344" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B345" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B346" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B347" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B348" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B349" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B350" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B351" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B352" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B353" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B354" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B355" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B356" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B357" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B358" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B359" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B363" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B364" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B365" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B366" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B367" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B368" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B369" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B370" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B371" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B372" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B373" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B374" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B375" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B376" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B377" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B378" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B379" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B380" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B381" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B382" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B383" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B384" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B385" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B386" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B387" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B388" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B389" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B390" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B391" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B392" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B393" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B394" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B395" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B396" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B397" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B398" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B399" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B400" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B402" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B401" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B403" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B404" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B405" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B408" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B409" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B410" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B411" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B412" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B413" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B416" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B417" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B418" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B419" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B420" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B421" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B422" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B423" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B424" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B425" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B426" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B427" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B428" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B429" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B430" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B431" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B432" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B433" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B434" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B436" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B437" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B438" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B439" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B440" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B441" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B442" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B443" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B444" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B445" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B446" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B447" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B448" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B449" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B450" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B451" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B452" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B453" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B454" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B455" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B456" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B458" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B457" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B459" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B460" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B461" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B462" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B463" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B464" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B465" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B466" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B467" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B468" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B476" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B475" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B474" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B473" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B472" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B471" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B470" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B480" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B481" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B482" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B483" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B484" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B485" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B486" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B489" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B487" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B362" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B434" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B435" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B359" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B360" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
-    <hyperlink ref="B46" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
-    <hyperlink ref="B47" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B476" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B47" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
+    <hyperlink ref="B48" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
+    <hyperlink ref="B477" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
     <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
+    <hyperlink ref="B105" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
+    <hyperlink ref="B40" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BAE161-7F77-E946-ADDD-70F0EA943869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546BA675-6D53-6640-9C97-872A1D42B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="483">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1631,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1663,6 +1663,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1978,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F574"/>
+  <dimension ref="A1:F577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2920,42 +2921,36 @@
       <c r="C105" s="16"/>
     </row>
     <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="19"/>
     </row>
     <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C107" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="19"/>
     </row>
     <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="19"/>
     </row>
     <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C109" s="11"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C110" s="11"/>
     </row>
@@ -2964,7 +2959,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C111" s="11"/>
     </row>
@@ -2973,7 +2968,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C112" s="11"/>
     </row>
@@ -2982,7 +2977,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C113" s="11"/>
     </row>
@@ -2991,7 +2986,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -3000,7 +2995,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C115" s="11"/>
     </row>
@@ -3009,7 +3004,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C116" s="11"/>
     </row>
@@ -3018,7 +3013,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C117" s="11"/>
     </row>
@@ -3027,7 +3022,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C118" s="11"/>
     </row>
@@ -3036,7 +3031,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C119" s="11"/>
     </row>
@@ -3045,7 +3040,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C120" s="11"/>
     </row>
@@ -3054,7 +3049,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C121" s="11"/>
     </row>
@@ -3063,7 +3058,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C122" s="11"/>
     </row>
@@ -3072,7 +3067,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C123" s="11"/>
     </row>
@@ -3081,7 +3076,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C124" s="11"/>
     </row>
@@ -3090,7 +3085,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C125" s="11"/>
     </row>
@@ -3099,7 +3094,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C126" s="11"/>
     </row>
@@ -3108,7 +3103,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C127" s="11"/>
     </row>
@@ -3117,7 +3112,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C128" s="11"/>
     </row>
@@ -3126,7 +3121,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C129" s="11"/>
     </row>
@@ -3135,7 +3130,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C130" s="11"/>
     </row>
@@ -3144,7 +3139,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C131" s="11"/>
     </row>
@@ -3153,7 +3148,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C132" s="11"/>
     </row>
@@ -3162,7 +3157,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C133" s="11"/>
     </row>
@@ -3171,7 +3166,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C134" s="11"/>
     </row>
@@ -3180,7 +3175,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C135" s="11"/>
     </row>
@@ -3189,7 +3184,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C136" s="11"/>
     </row>
@@ -3198,7 +3193,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C137" s="11"/>
     </row>
@@ -3207,7 +3202,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C138" s="11"/>
     </row>
@@ -3216,7 +3211,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C139" s="11"/>
     </row>
@@ -3225,7 +3220,7 @@
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C140" s="11"/>
     </row>
@@ -3234,7 +3229,7 @@
         <v>96</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C141" s="11"/>
     </row>
@@ -3243,46 +3238,46 @@
         <v>96</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C142" s="11"/>
+    </row>
+    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C143" s="11"/>
+    </row>
+    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="11"/>
+    </row>
+    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="11"/>
-    </row>
-    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
-    </row>
-    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C145" s="11"/>
     </row>
-    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C146" s="11"/>
-    </row>
     <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C147" s="11"/>
+      <c r="B147" s="7"/>
     </row>
     <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C148" s="11"/>
     </row>
@@ -3291,7 +3286,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C149" s="11"/>
     </row>
@@ -3300,7 +3295,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C150" s="11"/>
     </row>
@@ -3309,7 +3304,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C151" s="11"/>
     </row>
@@ -3318,7 +3313,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C152" s="11"/>
     </row>
@@ -3327,7 +3322,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C153" s="11"/>
     </row>
@@ -3336,7 +3331,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C154" s="11"/>
     </row>
@@ -3345,7 +3340,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C155" s="11"/>
     </row>
@@ -3354,7 +3349,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C156" s="11"/>
     </row>
@@ -3363,7 +3358,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C157" s="11"/>
     </row>
@@ -3372,7 +3367,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C158" s="11"/>
     </row>
@@ -3381,7 +3376,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C159" s="11"/>
     </row>
@@ -3390,7 +3385,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C160" s="11"/>
     </row>
@@ -3399,7 +3394,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C161" s="11"/>
     </row>
@@ -3408,7 +3403,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C162" s="11"/>
     </row>
@@ -3417,7 +3412,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C163" s="11"/>
     </row>
@@ -3426,7 +3421,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C164" s="11"/>
     </row>
@@ -3435,7 +3430,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C165" s="11"/>
     </row>
@@ -3444,7 +3439,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C166" s="11"/>
     </row>
@@ -3453,7 +3448,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C167" s="11"/>
     </row>
@@ -3462,7 +3457,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C168" s="11"/>
     </row>
@@ -3471,7 +3466,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C169" s="11"/>
     </row>
@@ -3479,8 +3474,8 @@
       <c r="A170" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>159</v>
+      <c r="B170" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C170" s="11"/>
     </row>
@@ -3488,8 +3483,8 @@
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>160</v>
+      <c r="B171" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C171" s="11"/>
     </row>
@@ -3498,7 +3493,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C172" s="11"/>
     </row>
@@ -3506,8 +3501,8 @@
       <c r="A173" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>162</v>
+      <c r="B173" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C173" s="11"/>
     </row>
@@ -3515,8 +3510,8 @@
       <c r="A174" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>163</v>
+      <c r="B174" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C174" s="11"/>
     </row>
@@ -3525,7 +3520,7 @@
         <v>133</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C175" s="11"/>
     </row>
@@ -3534,7 +3529,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C176" s="11"/>
     </row>
@@ -3543,7 +3538,7 @@
         <v>133</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C177" s="11"/>
     </row>
@@ -3552,7 +3547,7 @@
         <v>133</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C178" s="11"/>
     </row>
@@ -3561,7 +3556,7 @@
         <v>133</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C179" s="11"/>
     </row>
@@ -3570,46 +3565,46 @@
         <v>133</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C180" s="11"/>
+    </row>
+    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C181" s="11"/>
+    </row>
+    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C182" s="11"/>
+    </row>
+    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C180" s="11"/>
-    </row>
-    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B182" s="7"/>
-    </row>
-    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="C183" s="11"/>
     </row>
-    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C184" s="11"/>
-    </row>
     <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C185" s="11"/>
+      <c r="B185" s="7"/>
     </row>
     <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C186" s="11"/>
     </row>
@@ -3618,7 +3613,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C187" s="11"/>
     </row>
@@ -3627,7 +3622,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C188" s="11"/>
     </row>
@@ -3636,7 +3631,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C189" s="11"/>
     </row>
@@ -3645,7 +3640,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -3654,7 +3649,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C191" s="11"/>
     </row>
@@ -3663,7 +3658,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C192" s="11"/>
     </row>
@@ -3672,7 +3667,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C193" s="11"/>
     </row>
@@ -3681,7 +3676,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C194" s="11"/>
     </row>
@@ -3690,7 +3685,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C195" s="11"/>
     </row>
@@ -3699,7 +3694,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C196" s="11"/>
     </row>
@@ -3708,7 +3703,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C197" s="11"/>
     </row>
@@ -3717,7 +3712,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C198" s="11"/>
     </row>
@@ -3726,7 +3721,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C199" s="11"/>
     </row>
@@ -3735,7 +3730,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C200" s="11"/>
     </row>
@@ -3744,7 +3739,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C201" s="11"/>
     </row>
@@ -3753,7 +3748,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C202" s="11"/>
     </row>
@@ -3762,7 +3757,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C203" s="11"/>
     </row>
@@ -3771,7 +3766,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C204" s="11"/>
     </row>
@@ -3780,7 +3775,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C205" s="11"/>
     </row>
@@ -3789,7 +3784,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C206" s="11"/>
     </row>
@@ -3798,7 +3793,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C207" s="11"/>
     </row>
@@ -3807,7 +3802,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C208" s="11"/>
     </row>
@@ -3816,7 +3811,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C209" s="11"/>
     </row>
@@ -3825,7 +3820,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C210" s="11"/>
     </row>
@@ -3834,7 +3829,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C211" s="11"/>
     </row>
@@ -3843,7 +3838,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C212" s="11"/>
     </row>
@@ -3852,7 +3847,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C213" s="11"/>
     </row>
@@ -3861,7 +3856,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C214" s="11"/>
     </row>
@@ -3870,7 +3865,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C215" s="11"/>
     </row>
@@ -3879,7 +3874,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C216" s="11"/>
     </row>
@@ -3888,51 +3883,51 @@
         <v>170</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C217" s="11"/>
     </row>
     <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A218" s="8"/>
-      <c r="B218" s="7"/>
+      <c r="A218" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" s="11"/>
     </row>
     <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A219" s="8"/>
-      <c r="B219" s="7"/>
+      <c r="A219" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C219" s="11"/>
     </row>
     <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C220" s="11"/>
     </row>
     <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C221" s="11"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="7"/>
     </row>
     <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A222" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C222" s="11"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="7"/>
     </row>
     <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C223" s="11"/>
     </row>
@@ -3941,7 +3936,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C224" s="11"/>
     </row>
@@ -3950,7 +3945,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C225" s="11"/>
     </row>
@@ -3958,8 +3953,8 @@
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B226" s="9" t="s">
-        <v>213</v>
+      <c r="B226" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C226" s="11"/>
     </row>
@@ -3968,7 +3963,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C227" s="11"/>
     </row>
@@ -3977,7 +3972,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C228" s="11"/>
     </row>
@@ -3985,8 +3980,8 @@
       <c r="A229" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>216</v>
+      <c r="B229" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C229" s="11"/>
     </row>
@@ -3995,7 +3990,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C230" s="11"/>
     </row>
@@ -4004,7 +3999,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C231" s="11"/>
     </row>
@@ -4013,7 +4008,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C232" s="11"/>
     </row>
@@ -4022,7 +4017,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C233" s="11"/>
     </row>
@@ -4031,7 +4026,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C234" s="11"/>
     </row>
@@ -4040,7 +4035,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C235" s="11"/>
     </row>
@@ -4049,7 +4044,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C236" s="11"/>
     </row>
@@ -4058,7 +4053,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C237" s="11"/>
     </row>
@@ -4067,7 +4062,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C238" s="11"/>
     </row>
@@ -4076,7 +4071,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C239" s="11"/>
     </row>
@@ -4085,7 +4080,7 @@
         <v>206</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C240" s="11"/>
     </row>
@@ -4094,49 +4089,49 @@
         <v>206</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C241" s="11"/>
     </row>
     <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B242" s="7"/>
+      <c r="A242" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C242" s="11"/>
     </row>
     <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B243" s="7"/>
+      <c r="A243" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C243" s="11"/>
     </row>
     <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C244" s="11"/>
     </row>
     <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C245" s="11"/>
+      <c r="B245" s="7"/>
     </row>
     <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A246" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B246" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C246" s="11"/>
+      <c r="B246" s="7"/>
     </row>
     <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C247" s="11"/>
     </row>
@@ -4145,7 +4140,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C248" s="11"/>
     </row>
@@ -4154,7 +4149,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C249" s="11"/>
     </row>
@@ -4163,7 +4158,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C250" s="11"/>
     </row>
@@ -4172,7 +4167,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C251" s="11"/>
     </row>
@@ -4181,7 +4176,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C252" s="11"/>
     </row>
@@ -4190,7 +4185,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C253" s="11"/>
     </row>
@@ -4199,7 +4194,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C254" s="11"/>
     </row>
@@ -4208,7 +4203,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C255" s="11"/>
     </row>
@@ -4217,7 +4212,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C256" s="11"/>
     </row>
@@ -4226,7 +4221,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C257" s="11"/>
     </row>
@@ -4235,7 +4230,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C258" s="11"/>
     </row>
@@ -4244,7 +4239,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C259" s="11"/>
     </row>
@@ -4253,7 +4248,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C260" s="11"/>
     </row>
@@ -4262,7 +4257,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C261" s="11"/>
     </row>
@@ -4271,7 +4266,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C262" s="11"/>
     </row>
@@ -4280,7 +4275,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C263" s="11"/>
     </row>
@@ -4289,7 +4284,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C264" s="11"/>
     </row>
@@ -4298,7 +4293,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C265" s="11"/>
     </row>
@@ -4307,7 +4302,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C266" s="11"/>
     </row>
@@ -4316,7 +4311,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C267" s="11"/>
     </row>
@@ -4325,7 +4320,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C268" s="11"/>
     </row>
@@ -4334,7 +4329,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C269" s="11"/>
     </row>
@@ -4343,7 +4338,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C270" s="11"/>
     </row>
@@ -4352,7 +4347,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C271" s="11"/>
     </row>
@@ -4361,7 +4356,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C272" s="11"/>
     </row>
@@ -4370,7 +4365,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C273" s="11"/>
     </row>
@@ -4379,7 +4374,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C274" s="11"/>
     </row>
@@ -4388,7 +4383,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C275" s="11"/>
     </row>
@@ -4397,7 +4392,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C276" s="11"/>
     </row>
@@ -4406,7 +4401,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="C277" s="11"/>
     </row>
@@ -4415,49 +4410,49 @@
         <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C278" s="11"/>
     </row>
     <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B279" s="7"/>
+      <c r="A279" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C279" s="11"/>
     </row>
     <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B280" s="7"/>
+      <c r="A280" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C280" s="11"/>
     </row>
     <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C281" s="11"/>
     </row>
     <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A282" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C282" s="11"/>
+      <c r="B282" s="7"/>
     </row>
     <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C283" s="11"/>
+      <c r="B283" s="7"/>
     </row>
     <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C284" s="11"/>
     </row>
@@ -4466,7 +4461,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C285" s="11"/>
     </row>
@@ -4475,7 +4470,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C286" s="11"/>
     </row>
@@ -4484,7 +4479,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C287" s="11"/>
     </row>
@@ -4493,7 +4488,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C288" s="11"/>
     </row>
@@ -4502,7 +4497,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C289" s="11"/>
     </row>
@@ -4511,7 +4506,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C290" s="11"/>
     </row>
@@ -4520,7 +4515,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C291" s="11"/>
     </row>
@@ -4529,7 +4524,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C292" s="11"/>
     </row>
@@ -4538,7 +4533,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C293" s="11"/>
     </row>
@@ -4547,7 +4542,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C294" s="11"/>
     </row>
@@ -4556,7 +4551,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C295" s="11"/>
     </row>
@@ -4565,7 +4560,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C296" s="11"/>
     </row>
@@ -4574,7 +4569,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C297" s="11"/>
     </row>
@@ -4583,7 +4578,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C298" s="11"/>
     </row>
@@ -4592,49 +4587,49 @@
         <v>264</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C299" s="11"/>
     </row>
     <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B300" s="7"/>
+      <c r="A300" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C300" s="11"/>
     </row>
     <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B301" s="7"/>
+      <c r="A301" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C301" s="11"/>
     </row>
     <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C302" s="11"/>
     </row>
     <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A303" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C303" s="11"/>
+      <c r="B303" s="7"/>
     </row>
     <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A304" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C304" s="11"/>
+      <c r="B304" s="7"/>
     </row>
     <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C305" s="11"/>
     </row>
@@ -4643,7 +4638,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C306" s="11"/>
     </row>
@@ -4652,7 +4647,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C307" s="11"/>
     </row>
@@ -4661,7 +4656,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C308" s="11"/>
     </row>
@@ -4670,7 +4665,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C309" s="11"/>
     </row>
@@ -4679,7 +4674,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C310" s="11"/>
     </row>
@@ -4688,7 +4683,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C311" s="11"/>
     </row>
@@ -4697,7 +4692,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C312" s="11"/>
     </row>
@@ -4706,7 +4701,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C313" s="11"/>
     </row>
@@ -4715,7 +4710,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C314" s="11"/>
     </row>
@@ -4723,8 +4718,8 @@
       <c r="A315" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B315" s="9" t="s">
-        <v>298</v>
+      <c r="B315" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="C315" s="11"/>
     </row>
@@ -4733,7 +4728,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C316" s="11"/>
     </row>
@@ -4742,7 +4737,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C317" s="11"/>
     </row>
@@ -4750,8 +4745,8 @@
       <c r="A318" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="6" t="s">
-        <v>301</v>
+      <c r="B318" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C318" s="11"/>
     </row>
@@ -4760,7 +4755,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C319" s="11"/>
     </row>
@@ -4769,7 +4764,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C320" s="11"/>
     </row>
@@ -4778,7 +4773,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C321" s="11"/>
     </row>
@@ -4787,7 +4782,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C322" s="11"/>
     </row>
@@ -4796,7 +4791,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C323" s="11"/>
     </row>
@@ -4805,7 +4800,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C324" s="11"/>
     </row>
@@ -4814,7 +4809,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C325" s="11"/>
     </row>
@@ -4823,7 +4818,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C326" s="11"/>
     </row>
@@ -4832,7 +4827,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C327" s="11"/>
     </row>
@@ -4841,7 +4836,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C328" s="11"/>
     </row>
@@ -4850,7 +4845,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C329" s="11"/>
     </row>
@@ -4859,7 +4854,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C330" s="11"/>
     </row>
@@ -4868,7 +4863,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C331" s="11"/>
     </row>
@@ -4877,7 +4872,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C332" s="11"/>
     </row>
@@ -4886,7 +4881,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C333" s="11"/>
     </row>
@@ -4895,7 +4890,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C334" s="11"/>
     </row>
@@ -4904,7 +4899,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C335" s="11"/>
     </row>
@@ -4913,7 +4908,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C336" s="11"/>
     </row>
@@ -4922,7 +4917,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C337" s="11"/>
     </row>
@@ -4931,7 +4926,7 @@
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C338" s="11"/>
     </row>
@@ -4940,49 +4935,49 @@
         <v>284</v>
       </c>
       <c r="B339" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C339" s="11"/>
+    </row>
+    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C340" s="11"/>
+    </row>
+    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A341" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C341" s="11"/>
+    </row>
+    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B342" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C339" s="11"/>
-    </row>
-    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B340" s="7"/>
-    </row>
-    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B341" s="7"/>
-    </row>
-    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A342" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B342" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="C342" s="11"/>
     </row>
     <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B343" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C343" s="11"/>
+      <c r="B343" s="7"/>
     </row>
     <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A344" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B344" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C344" s="11"/>
+      <c r="B344" s="7"/>
     </row>
     <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C345" s="11"/>
     </row>
@@ -4991,7 +4986,7 @@
         <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C346" s="11"/>
     </row>
@@ -5000,7 +4995,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C347" s="11"/>
     </row>
@@ -5009,7 +5004,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C348" s="11"/>
     </row>
@@ -5018,7 +5013,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C349" s="11"/>
     </row>
@@ -5026,8 +5021,8 @@
       <c r="A350" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B350" s="9" t="s">
-        <v>332</v>
+      <c r="B350" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C350" s="11"/>
     </row>
@@ -5036,7 +5031,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C351" s="11"/>
     </row>
@@ -5045,7 +5040,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C352" s="11"/>
     </row>
@@ -5053,8 +5048,8 @@
       <c r="A353" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B353" s="6" t="s">
-        <v>335</v>
+      <c r="B353" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C353" s="11"/>
     </row>
@@ -5063,7 +5058,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C354" s="11"/>
     </row>
@@ -5072,7 +5067,7 @@
         <v>323</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C355" s="11"/>
     </row>
@@ -5081,7 +5076,7 @@
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C356" s="11"/>
     </row>
@@ -5090,7 +5085,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C357" s="11"/>
     </row>
@@ -5099,7 +5094,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C358" s="11"/>
     </row>
@@ -5108,7 +5103,7 @@
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C359" s="11"/>
     </row>
@@ -5117,45 +5112,45 @@
         <v>323</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>470</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C360" s="11"/>
     </row>
     <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B361" s="7"/>
+      <c r="A361" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C361" s="11"/>
     </row>
     <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C362" s="11"/>
     </row>
     <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C363" s="11"/>
+        <v>470</v>
+      </c>
     </row>
     <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A364" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C364" s="11"/>
+      <c r="B364" s="7"/>
     </row>
     <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C365" s="11"/>
     </row>
@@ -5164,7 +5159,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C366" s="11"/>
     </row>
@@ -5173,7 +5168,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C367" s="11"/>
     </row>
@@ -5182,7 +5177,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C368" s="11"/>
     </row>
@@ -5191,7 +5186,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C369" s="11"/>
     </row>
@@ -5200,7 +5195,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C370" s="11"/>
     </row>
@@ -5209,7 +5204,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C371" s="11"/>
     </row>
@@ -5218,7 +5213,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C372" s="11"/>
     </row>
@@ -5227,7 +5222,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C373" s="11"/>
     </row>
@@ -5236,7 +5231,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C374" s="11"/>
     </row>
@@ -5245,7 +5240,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C375" s="11"/>
     </row>
@@ -5254,7 +5249,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C376" s="11"/>
     </row>
@@ -5263,7 +5258,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C377" s="11"/>
     </row>
@@ -5272,7 +5267,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C378" s="11"/>
     </row>
@@ -5281,7 +5276,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C379" s="11"/>
     </row>
@@ -5290,7 +5285,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C380" s="11"/>
     </row>
@@ -5299,7 +5294,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C381" s="11"/>
     </row>
@@ -5308,7 +5303,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C382" s="11"/>
     </row>
@@ -5317,7 +5312,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C383" s="11"/>
     </row>
@@ -5326,7 +5321,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C384" s="11"/>
     </row>
@@ -5335,7 +5330,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C385" s="11"/>
     </row>
@@ -5344,7 +5339,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C386" s="11"/>
     </row>
@@ -5353,7 +5348,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C387" s="11"/>
     </row>
@@ -5362,7 +5357,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C388" s="11"/>
     </row>
@@ -5371,7 +5366,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C389" s="11"/>
     </row>
@@ -5380,7 +5375,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C390" s="11"/>
     </row>
@@ -5389,7 +5384,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C391" s="11"/>
     </row>
@@ -5398,7 +5393,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C392" s="11"/>
     </row>
@@ -5407,7 +5402,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C393" s="11"/>
     </row>
@@ -5416,7 +5411,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C394" s="11"/>
     </row>
@@ -5425,7 +5420,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C395" s="11"/>
     </row>
@@ -5434,7 +5429,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C396" s="11"/>
     </row>
@@ -5443,7 +5438,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C397" s="11"/>
     </row>
@@ -5452,7 +5447,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C398" s="11"/>
     </row>
@@ -5461,7 +5456,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C399" s="11"/>
     </row>
@@ -5470,7 +5465,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C400" s="11"/>
     </row>
@@ -5479,7 +5474,7 @@
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C401" s="11"/>
     </row>
@@ -5488,7 +5483,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C402" s="11"/>
     </row>
@@ -5497,7 +5492,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C403" s="11"/>
     </row>
@@ -5506,7 +5501,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C404" s="11"/>
     </row>
@@ -5515,43 +5510,43 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C405" s="11"/>
     </row>
     <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B406" s="7"/>
+      <c r="A406" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="C406" s="11"/>
     </row>
     <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B407" s="7"/>
+      <c r="A407" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>384</v>
+      </c>
       <c r="C407" s="11"/>
     </row>
     <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C408" s="11"/>
     </row>
     <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A409" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B409" s="6" t="s">
-        <v>388</v>
-      </c>
+      <c r="B409" s="7"/>
       <c r="C409" s="11"/>
     </row>
     <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A410" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>389</v>
-      </c>
+      <c r="B410" s="7"/>
       <c r="C410" s="11"/>
     </row>
     <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5559,7 +5554,7 @@
         <v>386</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
       <c r="C411" s="11"/>
     </row>
@@ -5568,7 +5563,7 @@
         <v>386</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C412" s="11"/>
     </row>
@@ -5577,69 +5572,69 @@
         <v>386</v>
       </c>
       <c r="B413" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C413" s="11"/>
+    </row>
+    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A414" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C414" s="11"/>
+    </row>
+    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C415" s="11"/>
+    </row>
+    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A416" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B416" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C413" s="11"/>
-    </row>
-    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B414" s="7"/>
-      <c r="C414" s="7"/>
-    </row>
-    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B415" s="7"/>
-      <c r="C415" s="7"/>
-    </row>
-    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A416" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B416" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C416" s="13"/>
+      <c r="C416" s="11"/>
     </row>
     <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A417" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B417" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C417" s="13"/>
+      <c r="B417" s="7"/>
+      <c r="C417" s="7"/>
     </row>
     <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A418" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B418" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C418" s="11"/>
+      <c r="B418" s="7"/>
+      <c r="C418" s="7"/>
     </row>
     <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C419" s="11"/>
+        <v>393</v>
+      </c>
+      <c r="C419" s="13"/>
     </row>
     <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C420" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="C420" s="13"/>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C421" s="11"/>
     </row>
@@ -5648,28 +5643,25 @@
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C422" s="13"/>
-      <c r="D422" t="s">
-        <v>464</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C422" s="11"/>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C423" s="13"/>
+        <v>397</v>
+      </c>
+      <c r="C423" s="11"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C424" s="11"/>
     </row>
@@ -5678,25 +5670,28 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C425" s="11"/>
+        <v>399</v>
+      </c>
+      <c r="C425" s="13"/>
+      <c r="D425" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C426" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C426" s="13"/>
     </row>
     <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C427" s="11"/>
     </row>
@@ -5705,7 +5700,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C428" s="11"/>
     </row>
@@ -5714,16 +5709,16 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C429" s="13"/>
+        <v>402</v>
+      </c>
+      <c r="C429" s="11"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C430" s="11"/>
     </row>
@@ -5732,25 +5727,25 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C431" s="13"/>
+        <v>404</v>
+      </c>
+      <c r="C431" s="11"/>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C432" s="11"/>
+        <v>405</v>
+      </c>
+      <c r="C432" s="13"/>
     </row>
     <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C433" s="11"/>
     </row>
@@ -5759,37 +5754,34 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C434" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C434" s="13"/>
     </row>
     <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C435" s="14"/>
-      <c r="D435" t="s">
-        <v>466</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C435" s="11"/>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C436" s="13"/>
+        <v>409</v>
+      </c>
+      <c r="C436" s="11"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C437" s="11"/>
     </row>
@@ -5798,25 +5790,28 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C438" s="11"/>
+        <v>465</v>
+      </c>
+      <c r="C438" s="14"/>
+      <c r="D438" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C439" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="C439" s="13"/>
     </row>
     <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C440" s="11"/>
     </row>
@@ -5825,7 +5820,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C441" s="11"/>
     </row>
@@ -5834,7 +5829,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C442" s="11"/>
     </row>
@@ -5843,7 +5838,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C443" s="11"/>
     </row>
@@ -5852,7 +5847,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C444" s="11"/>
     </row>
@@ -5861,7 +5856,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C445" s="11"/>
     </row>
@@ -5870,7 +5865,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C446" s="11"/>
     </row>
@@ -5879,7 +5874,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C447" s="11"/>
     </row>
@@ -5888,7 +5883,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C448" s="11"/>
     </row>
@@ -5897,7 +5892,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C449" s="11"/>
     </row>
@@ -5906,7 +5901,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C450" s="11"/>
     </row>
@@ -5915,7 +5910,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C451" s="11"/>
     </row>
@@ -5924,7 +5919,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C452" s="11"/>
     </row>
@@ -5933,7 +5928,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C453" s="11"/>
     </row>
@@ -5942,7 +5937,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C454" s="11"/>
     </row>
@@ -5951,7 +5946,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C455" s="11"/>
     </row>
@@ -5960,7 +5955,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C456" s="11"/>
     </row>
@@ -5969,7 +5964,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C457" s="11"/>
     </row>
@@ -5978,7 +5973,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C458" s="11"/>
     </row>
@@ -5987,7 +5982,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C459" s="11"/>
     </row>
@@ -5996,7 +5991,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C460" s="11"/>
     </row>
@@ -6005,7 +6000,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C461" s="11"/>
     </row>
@@ -6014,7 +6009,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C462" s="11"/>
     </row>
@@ -6023,7 +6018,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C463" s="11"/>
     </row>
@@ -6032,7 +6027,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C464" s="11"/>
     </row>
@@ -6041,7 +6036,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C465" s="11"/>
     </row>
@@ -6050,7 +6045,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C466" s="11"/>
     </row>
@@ -6059,7 +6054,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C467" s="11"/>
     </row>
@@ -6068,7 +6063,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C468" s="11"/>
     </row>
@@ -6077,7 +6072,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C469" s="11"/>
     </row>
@@ -6086,7 +6081,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C470" s="11"/>
     </row>
@@ -6095,7 +6090,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C471" s="11"/>
     </row>
@@ -6104,7 +6099,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C472" s="11"/>
     </row>
@@ -6113,7 +6108,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C473" s="11"/>
     </row>
@@ -6122,7 +6117,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C474" s="11"/>
     </row>
@@ -6131,7 +6126,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C475" s="11"/>
     </row>
@@ -6140,7 +6135,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C476" s="11"/>
     </row>
@@ -6149,52 +6144,52 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="C477" s="11"/>
     </row>
     <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A478" s="5"/>
-      <c r="B478" s="6"/>
-      <c r="C478" s="6"/>
+      <c r="A478" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C478" s="11"/>
     </row>
     <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A479" s="8"/>
-      <c r="B479" s="7"/>
+      <c r="A479" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C479" s="11"/>
     </row>
     <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>452</v>
+        <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="C480" s="11"/>
     </row>
     <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A481" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B481" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C481" s="11"/>
+      <c r="A481" s="5"/>
+      <c r="B481" s="6"/>
+      <c r="C481" s="6"/>
     </row>
     <row r="482" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A482" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B482" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C482" s="11"/>
+      <c r="A482" s="8"/>
+      <c r="B482" s="7"/>
     </row>
     <row r="483" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C483" s="11"/>
     </row>
@@ -6203,7 +6198,7 @@
         <v>452</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C484" s="11"/>
     </row>
@@ -6212,7 +6207,7 @@
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C485" s="11"/>
     </row>
@@ -6221,7 +6216,7 @@
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C486" s="11"/>
     </row>
@@ -6230,7 +6225,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C487" s="11"/>
     </row>
@@ -6239,7 +6234,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C488" s="11"/>
     </row>
@@ -6248,21 +6243,39 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C489" s="11"/>
+    </row>
+    <row r="490" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A490" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C490" s="11"/>
+    </row>
+    <row r="491" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A491" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C491" s="11"/>
+    </row>
+    <row r="492" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A492" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B492" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C489" s="11"/>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C490" s="12"/>
-    </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C505" s="4"/>
-    </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C506" s="4"/>
-    </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C507" s="4"/>
+      <c r="C492" s="11"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C493" s="12"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C508" s="4"/>
@@ -6464,6 +6477,15 @@
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C574" s="4"/>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C575" s="4"/>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C576" s="4"/>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C577" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6555,372 +6577,372 @@
     <hyperlink ref="B102" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
     <hyperlink ref="B103" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
     <hyperlink ref="B104" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B107" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B108" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B109" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B110" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B112" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B113" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B114" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B115" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B116" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B117" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B119" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B120" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B121" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B122" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B123" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B124" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B125" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B126" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B127" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B128" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B129" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B130" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B131" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B132" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B133" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B134" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B135" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B136" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B137" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B138" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B139" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B140" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B141" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B142" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B111" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B118" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B145" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B146" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B147" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B148" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B149" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B150" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B151" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B152" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B153" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B154" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B155" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B156" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B157" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B158" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B159" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B160" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B161" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B162" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B163" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B164" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B165" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B166" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B167" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B168" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B169" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B172" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B173" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B174" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B175" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B176" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B177" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B178" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B179" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B180" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B183" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B184" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B185" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B186" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B187" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B188" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B189" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B190" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B191" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B192" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B193" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B194" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B195" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B196" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B197" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B198" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B199" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B200" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B201" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B202" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B203" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B204" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B205" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B206" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B207" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B208" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B209" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B210" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B211" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B212" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B213" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B214" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B215" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B216" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B217" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B220" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B221" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B222" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B223" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B224" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B225" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B226" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B227" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B228" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B229" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B230" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B231" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B232" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B233" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B234" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B235" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B236" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B237" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B238" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B239" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B240" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B241" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B244" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B245" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B246" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B247" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B248" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B249" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B250" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B251" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B252" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B253" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B254" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B255" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B256" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B257" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B258" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B259" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B260" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B261" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B262" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B263" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B264" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B265" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B266" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B267" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B268" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B269" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B270" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B271" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B272" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B273" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B274" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B275" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B276" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B277" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B278" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B281" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B282" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B283" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B284" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B285" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B286" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B287" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B288" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B289" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B290" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B291" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B292" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B293" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B294" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B295" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B296" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B297" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B298" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B299" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B302" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B303" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B304" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B305" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B306" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B307" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B308" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B309" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B310" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B311" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B312" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B313" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B314" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B315" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B316" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B317" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B318" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B319" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B320" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B321" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B322" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B323" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B324" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B325" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B326" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B327" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B328" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B329" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B330" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B331" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B332" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B333" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B334" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B335" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B336" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B337" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B338" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B339" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B342" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B343" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B344" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B345" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B346" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B347" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B348" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B349" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B350" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B351" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B352" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B353" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B354" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B355" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B356" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B357" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B358" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B359" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B363" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B364" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B365" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B366" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B367" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B368" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B369" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B370" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B371" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B372" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B373" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B374" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B375" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B376" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B377" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B378" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B379" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B380" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B381" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B382" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B383" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B384" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B385" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B386" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B387" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B388" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B389" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B390" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B391" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B392" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B393" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B394" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B395" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B396" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B397" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B398" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B399" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B400" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B402" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B401" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B403" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B404" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B405" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B408" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B409" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B410" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B411" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B412" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B413" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B416" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B417" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B418" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B419" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B420" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B421" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B422" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B423" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B424" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B425" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B426" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B427" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B428" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B429" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B430" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B431" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B432" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B433" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B434" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B436" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B437" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B438" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B439" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B440" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B441" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B442" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B443" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B444" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B445" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B446" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B447" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B448" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B449" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B450" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B451" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B452" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B453" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B454" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B455" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B456" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B458" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B457" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B459" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B460" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B461" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B462" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B463" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B464" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B465" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B466" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B467" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B468" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B469" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B476" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B475" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B474" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B473" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B472" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B471" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B470" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B480" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B481" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B482" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B483" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B484" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B485" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B486" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B489" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B487" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B488" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B362" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B110" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B111" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B112" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B113" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B115" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B116" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B117" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B118" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B119" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B120" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B122" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B123" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B124" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B125" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B126" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B127" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B128" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B129" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B130" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B131" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B132" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B133" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B134" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B135" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B136" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B137" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B138" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B139" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B140" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B141" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B142" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B143" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B144" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B145" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B114" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B121" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B148" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B149" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B150" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B151" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B152" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B153" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B154" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B155" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B156" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B157" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B158" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B159" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B160" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B161" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B162" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B163" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B164" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B165" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B166" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B167" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B168" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B169" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B170" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B171" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B172" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B175" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B176" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B177" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B178" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B179" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B180" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B181" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B182" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B183" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B186" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B187" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B188" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B189" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B190" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B191" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B192" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B193" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B194" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B195" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B196" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B197" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B198" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B199" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B200" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B201" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B202" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B203" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B204" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B205" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B206" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B207" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B208" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B209" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B210" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B211" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B212" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B213" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B214" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B215" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B216" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B217" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B218" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B219" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B220" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B223" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B224" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B225" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B226" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B227" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B228" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B229" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B230" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B231" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B232" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B233" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B234" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B235" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B236" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B237" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B238" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B239" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B240" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B241" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B242" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B243" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B244" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B247" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B248" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B249" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B250" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B251" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B252" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B253" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B254" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B255" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B256" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B257" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B258" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B259" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B260" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B261" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B262" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B263" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B264" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B265" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B266" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B267" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B268" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B269" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B270" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B271" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B272" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B273" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B274" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B275" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B276" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B277" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B278" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B279" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B280" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B281" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B284" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B285" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B286" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B287" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B288" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B289" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B290" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B291" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B292" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B293" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B294" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B295" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B296" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B297" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B298" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B299" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B300" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B301" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B302" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B305" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B306" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B307" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B308" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B309" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B310" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B311" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B312" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B313" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B314" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B315" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B316" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B317" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B318" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B319" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B320" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B321" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B322" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B323" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B324" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B325" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B326" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B327" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B328" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B329" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B330" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B331" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B332" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B333" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B334" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B335" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B336" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B337" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B338" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B339" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B340" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B341" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B342" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B345" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B346" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B347" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B348" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B349" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B350" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B351" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B352" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B353" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B354" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B355" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B356" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B357" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B358" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B359" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B360" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B361" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B362" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B366" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B367" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B368" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B369" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B370" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B371" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B372" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B373" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B374" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B375" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B376" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B377" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B378" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B379" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B380" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B381" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B382" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B383" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B384" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B385" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B386" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B387" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B388" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B389" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B390" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B391" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B392" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B393" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B394" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B395" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B396" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B397" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B398" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B399" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B400" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B401" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B402" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B403" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B405" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B404" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B406" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B407" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B408" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B411" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B412" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B413" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B414" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B415" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B416" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B419" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B420" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B421" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B422" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B423" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B424" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B425" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B426" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B427" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B428" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B429" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B430" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B431" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B432" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B433" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B434" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B435" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B436" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B437" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B439" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B440" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B441" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B442" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B443" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B444" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B445" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B446" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B447" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B448" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B449" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B450" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B451" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B452" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B453" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B454" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B455" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B456" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B457" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B458" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B459" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B461" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B460" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B462" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B463" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B464" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B465" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B466" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B467" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B468" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B469" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B470" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B471" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B472" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B479" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B478" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B477" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B476" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B475" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B474" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B473" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B483" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B484" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B485" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B486" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B487" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B488" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B489" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B492" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B490" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B491" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B365" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B435" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B438" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B360" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B363" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
     <hyperlink ref="B47" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
     <hyperlink ref="B48" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B477" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B480" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
     <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
     <hyperlink ref="B105" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
     <hyperlink ref="B40" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546BA675-6D53-6640-9C97-872A1D42B09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD509B1-5980-B149-9334-0082CD54AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1480,6 +1480,15 @@
   </si>
   <si>
     <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Iska yeh solution dekho. And niche mentioned problems ko solve karo : https://leetcode.com/problems/minimum-adjacent-swaps-for-k-consecutive-ones/discuss/987362/Python-The-trick-and-related-problems</t>
+  </si>
+  <si>
+    <t>Iska explaination : Slinding window</t>
+  </si>
+  <si>
+    <t>minimum-adjacent-swaps-for-k-consecutive-ones</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1629,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1631,7 +1642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1656,14 +1667,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1979,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F577"/>
+  <dimension ref="A1:F579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1990,7 +2011,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="4" max="4" width="90.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
@@ -2021,8 +2042,8 @@
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="E6" s="13"/>
       <c r="F6" t="s">
         <v>471</v>
       </c>
@@ -2034,8 +2055,8 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="E7" s="12"/>
       <c r="F7" t="s">
         <v>472</v>
       </c>
@@ -2047,7 +2068,7 @@
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" t="s">
         <v>473</v>
@@ -2060,7 +2081,7 @@
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -2069,7 +2090,7 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -2078,7 +2099,7 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="19"/>
       <c r="D11" t="s">
         <v>467</v>
       </c>
@@ -2090,7 +2111,7 @@
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -2099,7 +2120,7 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -2108,7 +2129,7 @@
       <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -2117,7 +2138,7 @@
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -2126,7 +2147,7 @@
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -2135,7 +2156,7 @@
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -2144,7 +2165,7 @@
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -2153,7 +2174,7 @@
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -2162,7 +2183,7 @@
       <c r="B20" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" t="s">
         <v>469</v>
       </c>
@@ -2171,10 +2192,10 @@
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="17"/>
       <c r="D21" t="s">
         <v>475</v>
       </c>
@@ -2186,7 +2207,7 @@
       <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -2195,7 +2216,7 @@
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2204,7 +2225,7 @@
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -2213,7 +2234,7 @@
       <c r="B25" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -2222,7 +2243,7 @@
       <c r="B26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -2231,7 +2252,7 @@
       <c r="B27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -2240,7 +2261,7 @@
       <c r="B28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -2249,7 +2270,7 @@
       <c r="B29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -2258,7 +2279,7 @@
       <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -2267,7 +2288,7 @@
       <c r="B31" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -2276,9 +2297,9 @@
       <c r="B32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
@@ -2287,4001 +2308,4015 @@
       </c>
       <c r="C33" s="17"/>
     </row>
-    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C40" s="16"/>
-    </row>
-    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C43" s="17"/>
+      <c r="D43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="C64" s="20"/>
     </row>
     <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="11"/>
+      <c r="B65" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C66" s="20"/>
     </row>
     <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="11"/>
+      <c r="B67" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="20"/>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="C68" s="20"/>
     </row>
     <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C69" s="20"/>
     </row>
     <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="C72" s="20"/>
     </row>
     <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="C73" s="20"/>
     </row>
     <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="C74" s="20"/>
     </row>
     <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="C75" s="20"/>
     </row>
     <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="11"/>
+        <v>65</v>
+      </c>
+      <c r="C76" s="20"/>
     </row>
     <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="C77" s="20"/>
     </row>
     <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="C78" s="20"/>
     </row>
     <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="C80" s="20"/>
     </row>
     <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="C81" s="20"/>
     </row>
     <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C82" s="20"/>
     </row>
     <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="C84" s="20"/>
     </row>
     <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="C86" s="20"/>
     </row>
     <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="C87" s="20"/>
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="C88" s="20"/>
     </row>
     <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C89" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="C89" s="20"/>
     </row>
     <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="C90" s="20"/>
     </row>
     <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="C91" s="20"/>
     </row>
     <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="C92" s="20"/>
     </row>
     <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="C93" s="20"/>
     </row>
     <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="C94" s="20"/>
     </row>
     <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="C96" s="20"/>
     </row>
     <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="C97" s="20"/>
     </row>
     <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" s="11"/>
+        <v>87</v>
+      </c>
+      <c r="C98" s="20"/>
     </row>
     <row r="99" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="C99" s="20"/>
     </row>
     <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="C100" s="20"/>
     </row>
     <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="C102" s="20"/>
     </row>
     <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="C103" s="20"/>
     </row>
     <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="C104" s="20"/>
     </row>
     <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C105" s="16"/>
+        <v>94</v>
+      </c>
+      <c r="C105" s="20"/>
     </row>
     <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B106" s="6"/>
-      <c r="C106" s="19"/>
+      <c r="B106" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="20"/>
     </row>
     <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="19"/>
+      <c r="B107" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C107" s="17"/>
     </row>
     <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="19"/>
+      <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="17"/>
     </row>
     <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C110" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="11"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C112" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="C112" s="20"/>
     </row>
     <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="C113" s="20"/>
     </row>
     <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="11"/>
+        <v>99</v>
+      </c>
+      <c r="C114" s="20"/>
     </row>
     <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="C115" s="20"/>
     </row>
     <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="C116" s="20"/>
     </row>
     <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="C117" s="20"/>
     </row>
     <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="C118" s="20"/>
     </row>
     <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C119" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="C119" s="20"/>
     </row>
     <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C120" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="C120" s="20"/>
     </row>
     <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C121" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="C121" s="20"/>
     </row>
     <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C122" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="C122" s="20"/>
     </row>
     <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C123" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="C123" s="20"/>
     </row>
     <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C124" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="C124" s="20"/>
     </row>
     <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C125" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="C125" s="20"/>
     </row>
     <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="C126" s="20"/>
     </row>
     <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="11"/>
+        <v>112</v>
+      </c>
+      <c r="C127" s="20"/>
     </row>
     <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="C128" s="20"/>
     </row>
     <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="11"/>
+        <v>114</v>
+      </c>
+      <c r="C129" s="20"/>
     </row>
     <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C130" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="C130" s="20"/>
     </row>
     <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C131" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="C131" s="20"/>
     </row>
     <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C132" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C132" s="20"/>
     </row>
     <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C133" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="C133" s="20"/>
     </row>
     <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C134" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="C134" s="20"/>
     </row>
     <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C135" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="C135" s="20"/>
     </row>
     <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C136" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="C136" s="20"/>
     </row>
     <row r="137" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C137" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="C137" s="20"/>
     </row>
     <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C138" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="C138" s="20"/>
     </row>
     <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="11"/>
+        <v>124</v>
+      </c>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C140" s="11"/>
+        <v>125</v>
+      </c>
+      <c r="C140" s="20"/>
     </row>
     <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C141" s="11"/>
+        <v>126</v>
+      </c>
+      <c r="C141" s="20"/>
     </row>
     <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C142" s="11"/>
+        <v>127</v>
+      </c>
+      <c r="C142" s="20"/>
     </row>
     <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C143" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="C143" s="20"/>
     </row>
     <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C144" s="11"/>
+        <v>129</v>
+      </c>
+      <c r="C144" s="20"/>
     </row>
     <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" s="20"/>
+    </row>
+    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" s="20"/>
+    </row>
+    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C145" s="11"/>
-    </row>
-    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
-    </row>
-    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C148" s="11"/>
+      <c r="C147" s="20"/>
     </row>
     <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C149" s="11"/>
+      <c r="B149" s="7"/>
     </row>
     <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="C150" s="20"/>
     </row>
     <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C151" s="11"/>
+        <v>135</v>
+      </c>
+      <c r="C151" s="20"/>
     </row>
     <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C152" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="C152" s="20"/>
     </row>
     <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C153" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="C153" s="20"/>
     </row>
     <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C154" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="C154" s="20"/>
     </row>
     <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C155" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="C155" s="20"/>
     </row>
     <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C156" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="C156" s="20"/>
     </row>
     <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C157" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="C157" s="20"/>
     </row>
     <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C158" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="C158" s="20"/>
     </row>
     <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C159" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="C159" s="20"/>
     </row>
     <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C160" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="C160" s="20"/>
     </row>
     <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C161" s="11"/>
+        <v>145</v>
+      </c>
+      <c r="C161" s="20"/>
     </row>
     <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C162" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="C162" s="20"/>
     </row>
     <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C163" s="11"/>
+        <v>147</v>
+      </c>
+      <c r="C163" s="20"/>
     </row>
     <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C164" s="11"/>
+        <v>148</v>
+      </c>
+      <c r="C164" s="20"/>
     </row>
     <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C165" s="11"/>
+        <v>149</v>
+      </c>
+      <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C166" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="C166" s="20"/>
     </row>
     <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C167" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="C167" s="20"/>
     </row>
     <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C168" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="C168" s="20"/>
     </row>
     <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C169" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="C169" s="20"/>
     </row>
     <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C170" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="C170" s="20"/>
     </row>
     <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C171" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="C171" s="20"/>
     </row>
     <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C172" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="C172" s="20"/>
     </row>
     <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C173" s="11"/>
+      <c r="B173" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C173" s="20"/>
     </row>
     <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B174" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C174" s="11"/>
+      <c r="B174" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="20"/>
     </row>
     <row r="175" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C175" s="11"/>
+      <c r="B175" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C175" s="20"/>
     </row>
     <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C176" s="11"/>
+      <c r="B176" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C176" s="20"/>
     </row>
     <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C177" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C178" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="C178" s="20"/>
     </row>
     <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C179" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="C179" s="20"/>
     </row>
     <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C180" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="C180" s="20"/>
     </row>
     <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C181" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="C181" s="20"/>
     </row>
     <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C182" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="C182" s="20"/>
     </row>
     <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B183" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="20"/>
+    </row>
+    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C184" s="20"/>
+    </row>
+    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B185" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C183" s="11"/>
-    </row>
-    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B185" s="7"/>
-    </row>
-    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C186" s="11"/>
+      <c r="C185" s="20"/>
     </row>
     <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C187" s="11"/>
+      <c r="B187" s="7"/>
     </row>
     <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C188" s="11"/>
+        <v>171</v>
+      </c>
+      <c r="C188" s="20"/>
     </row>
     <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C189" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="C189" s="20"/>
     </row>
     <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C190" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="C190" s="20"/>
     </row>
     <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C191" s="11"/>
+        <v>174</v>
+      </c>
+      <c r="C191" s="20"/>
     </row>
     <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C192" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="C192" s="20"/>
     </row>
     <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C193" s="11"/>
+        <v>176</v>
+      </c>
+      <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C194" s="11"/>
+        <v>177</v>
+      </c>
+      <c r="C194" s="20"/>
     </row>
     <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C195" s="11"/>
+        <v>178</v>
+      </c>
+      <c r="C195" s="20"/>
     </row>
     <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C196" s="11"/>
+        <v>179</v>
+      </c>
+      <c r="C196" s="20"/>
     </row>
     <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C197" s="11"/>
+        <v>180</v>
+      </c>
+      <c r="C197" s="20"/>
     </row>
     <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C198" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="C198" s="20"/>
     </row>
     <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C199" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="C199" s="20"/>
     </row>
     <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C200" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="C200" s="20"/>
     </row>
     <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C201" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="C201" s="20"/>
     </row>
     <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C202" s="11"/>
+        <v>185</v>
+      </c>
+      <c r="C202" s="20"/>
     </row>
     <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C203" s="11"/>
+        <v>186</v>
+      </c>
+      <c r="C203" s="20"/>
     </row>
     <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C204" s="11"/>
+        <v>187</v>
+      </c>
+      <c r="C204" s="20"/>
     </row>
     <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C205" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="C205" s="20"/>
     </row>
     <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C206" s="11"/>
+        <v>189</v>
+      </c>
+      <c r="C206" s="20"/>
     </row>
     <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C207" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="C207" s="20"/>
     </row>
     <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C208" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="C208" s="20"/>
     </row>
     <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C209" s="11"/>
+        <v>192</v>
+      </c>
+      <c r="C209" s="20"/>
     </row>
     <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C210" s="11"/>
+        <v>193</v>
+      </c>
+      <c r="C210" s="20"/>
     </row>
     <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C211" s="11"/>
+        <v>194</v>
+      </c>
+      <c r="C211" s="20"/>
     </row>
     <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C212" s="11"/>
+        <v>195</v>
+      </c>
+      <c r="C212" s="20"/>
     </row>
     <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C213" s="11"/>
+        <v>196</v>
+      </c>
+      <c r="C213" s="20"/>
     </row>
     <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C214" s="11"/>
+        <v>197</v>
+      </c>
+      <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C215" s="11"/>
+        <v>198</v>
+      </c>
+      <c r="C215" s="20"/>
     </row>
     <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C216" s="11"/>
+        <v>199</v>
+      </c>
+      <c r="C216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C217" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="C217" s="20"/>
     </row>
     <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C218" s="11"/>
+        <v>201</v>
+      </c>
+      <c r="C218" s="20"/>
     </row>
     <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C219" s="11"/>
+        <v>202</v>
+      </c>
+      <c r="C219" s="20"/>
     </row>
     <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C220" s="20"/>
+    </row>
+    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C221" s="20"/>
+    </row>
+    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A222" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B222" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C220" s="11"/>
-    </row>
-    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A221" s="8"/>
-      <c r="B221" s="7"/>
-    </row>
-    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
-      <c r="B222" s="7"/>
+      <c r="C222" s="20"/>
     </row>
     <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C223" s="11"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="7"/>
     </row>
     <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A224" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C224" s="11"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="7"/>
     </row>
     <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C225" s="11"/>
+        <v>207</v>
+      </c>
+      <c r="C225" s="20"/>
     </row>
     <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C226" s="11"/>
+        <v>208</v>
+      </c>
+      <c r="C226" s="20"/>
     </row>
     <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C227" s="11"/>
+        <v>209</v>
+      </c>
+      <c r="C227" s="20"/>
     </row>
     <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C228" s="11"/>
+        <v>210</v>
+      </c>
+      <c r="C228" s="20"/>
     </row>
     <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B229" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C229" s="11"/>
+      <c r="B229" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C229" s="20"/>
     </row>
     <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C230" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="C230" s="20"/>
     </row>
     <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C231" s="11"/>
+      <c r="B231" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C231" s="20"/>
     </row>
     <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C232" s="11"/>
+        <v>214</v>
+      </c>
+      <c r="C232" s="20"/>
     </row>
     <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C233" s="11"/>
+        <v>215</v>
+      </c>
+      <c r="C233" s="20"/>
     </row>
     <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C234" s="11"/>
+        <v>216</v>
+      </c>
+      <c r="C234" s="20"/>
     </row>
     <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C235" s="11"/>
+        <v>217</v>
+      </c>
+      <c r="C235" s="20"/>
     </row>
     <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C236" s="11"/>
+        <v>218</v>
+      </c>
+      <c r="C236" s="20"/>
     </row>
     <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C237" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="C237" s="20"/>
     </row>
     <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C238" s="11"/>
+        <v>220</v>
+      </c>
+      <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C239" s="11"/>
+        <v>221</v>
+      </c>
+      <c r="C239" s="20"/>
     </row>
     <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C240" s="11"/>
+        <v>222</v>
+      </c>
+      <c r="C240" s="20"/>
     </row>
     <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C241" s="11"/>
+        <v>223</v>
+      </c>
+      <c r="C241" s="20"/>
     </row>
     <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C242" s="11"/>
+        <v>224</v>
+      </c>
+      <c r="C242" s="20"/>
     </row>
     <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C243" s="11"/>
+        <v>225</v>
+      </c>
+      <c r="C243" s="20"/>
     </row>
     <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B244" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C244" s="20"/>
+    </row>
+    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A245" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C245" s="20"/>
+    </row>
+    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B246" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C244" s="11"/>
-    </row>
-    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B245" s="7"/>
-    </row>
-    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B246" s="7"/>
+      <c r="C246" s="20"/>
     </row>
     <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A247" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C247" s="11"/>
+      <c r="B247" s="7"/>
     </row>
     <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B248" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C248" s="11"/>
+      <c r="B248" s="7"/>
     </row>
     <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C249" s="11"/>
+        <v>230</v>
+      </c>
+      <c r="C249" s="20"/>
     </row>
     <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C250" s="11"/>
+        <v>231</v>
+      </c>
+      <c r="C250" s="20"/>
     </row>
     <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C251" s="11"/>
+        <v>232</v>
+      </c>
+      <c r="C251" s="20"/>
     </row>
     <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C252" s="11"/>
+        <v>233</v>
+      </c>
+      <c r="C252" s="20"/>
     </row>
     <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C253" s="11"/>
+        <v>234</v>
+      </c>
+      <c r="C253" s="20"/>
     </row>
     <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C254" s="11"/>
+        <v>235</v>
+      </c>
+      <c r="C254" s="20"/>
     </row>
     <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C255" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="C255" s="20"/>
     </row>
     <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C256" s="11"/>
+        <v>237</v>
+      </c>
+      <c r="C256" s="20"/>
     </row>
     <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C257" s="11"/>
+        <v>238</v>
+      </c>
+      <c r="C257" s="20"/>
     </row>
     <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C258" s="11"/>
+        <v>239</v>
+      </c>
+      <c r="C258" s="20"/>
     </row>
     <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C259" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="C259" s="20"/>
     </row>
     <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C260" s="11"/>
+        <v>241</v>
+      </c>
+      <c r="C260" s="20"/>
     </row>
     <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C261" s="11"/>
+        <v>242</v>
+      </c>
+      <c r="C261" s="20"/>
     </row>
     <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C262" s="11"/>
+        <v>243</v>
+      </c>
+      <c r="C262" s="20"/>
     </row>
     <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C263" s="11"/>
+        <v>244</v>
+      </c>
+      <c r="C263" s="20"/>
     </row>
     <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C264" s="11"/>
+        <v>245</v>
+      </c>
+      <c r="C264" s="20"/>
     </row>
     <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C265" s="11"/>
+        <v>246</v>
+      </c>
+      <c r="C265" s="20"/>
     </row>
     <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C266" s="11"/>
+        <v>247</v>
+      </c>
+      <c r="C266" s="20"/>
     </row>
     <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C267" s="11"/>
+        <v>248</v>
+      </c>
+      <c r="C267" s="20"/>
     </row>
     <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C268" s="11"/>
+        <v>249</v>
+      </c>
+      <c r="C268" s="20"/>
     </row>
     <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C269" s="11"/>
+        <v>250</v>
+      </c>
+      <c r="C269" s="20"/>
     </row>
     <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C270" s="11"/>
+        <v>251</v>
+      </c>
+      <c r="C270" s="20"/>
     </row>
     <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C271" s="11"/>
+        <v>252</v>
+      </c>
+      <c r="C271" s="20"/>
     </row>
     <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C272" s="11"/>
+        <v>253</v>
+      </c>
+      <c r="C272" s="20"/>
     </row>
     <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C273" s="11"/>
+        <v>254</v>
+      </c>
+      <c r="C273" s="20"/>
     </row>
     <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C274" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="C274" s="20"/>
     </row>
     <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C275" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C276" s="11"/>
+        <v>257</v>
+      </c>
+      <c r="C276" s="20"/>
     </row>
     <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C277" s="11"/>
+        <v>258</v>
+      </c>
+      <c r="C277" s="20"/>
     </row>
     <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C278" s="11"/>
+        <v>259</v>
+      </c>
+      <c r="C278" s="20"/>
     </row>
     <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C279" s="11"/>
+        <v>260</v>
+      </c>
+      <c r="C279" s="20"/>
     </row>
     <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C280" s="11"/>
+        <v>261</v>
+      </c>
+      <c r="C280" s="20"/>
     </row>
     <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B281" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C281" s="20"/>
+    </row>
+    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C282" s="20"/>
+    </row>
+    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A283" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C281" s="11"/>
-    </row>
-    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B282" s="7"/>
-    </row>
-    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B283" s="7"/>
+      <c r="C283" s="20"/>
     </row>
     <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A284" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C284" s="11"/>
+      <c r="B284" s="7"/>
     </row>
     <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A285" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C285" s="11"/>
+      <c r="B285" s="7"/>
     </row>
     <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C286" s="11"/>
+        <v>265</v>
+      </c>
+      <c r="C286" s="20"/>
     </row>
     <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C287" s="11"/>
+        <v>266</v>
+      </c>
+      <c r="C287" s="20"/>
     </row>
     <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C288" s="11"/>
+        <v>267</v>
+      </c>
+      <c r="C288" s="20"/>
     </row>
     <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C289" s="11"/>
+        <v>268</v>
+      </c>
+      <c r="C289" s="20"/>
     </row>
     <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C290" s="11"/>
+        <v>269</v>
+      </c>
+      <c r="C290" s="20"/>
     </row>
     <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C291" s="11"/>
+        <v>270</v>
+      </c>
+      <c r="C291" s="20"/>
     </row>
     <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C292" s="11"/>
+        <v>271</v>
+      </c>
+      <c r="C292" s="20"/>
     </row>
     <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C293" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C293" s="20"/>
     </row>
     <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C294" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="C294" s="20"/>
     </row>
     <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C295" s="11"/>
+        <v>274</v>
+      </c>
+      <c r="C295" s="20"/>
     </row>
     <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C296" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C297" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="C297" s="20"/>
     </row>
     <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C298" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="C298" s="20"/>
     </row>
     <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C299" s="11"/>
+        <v>278</v>
+      </c>
+      <c r="C299" s="20"/>
     </row>
     <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C300" s="11"/>
+        <v>279</v>
+      </c>
+      <c r="C300" s="20"/>
     </row>
     <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C301" s="11"/>
+        <v>280</v>
+      </c>
+      <c r="C301" s="20"/>
     </row>
     <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B302" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C302" s="20"/>
+    </row>
+    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C303" s="20"/>
+    </row>
+    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A304" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B304" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C302" s="11"/>
-    </row>
-    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B303" s="7"/>
-    </row>
-    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B304" s="7"/>
+      <c r="C304" s="20"/>
     </row>
     <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C305" s="11"/>
+      <c r="B305" s="7"/>
     </row>
     <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B306" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C306" s="11"/>
+      <c r="B306" s="7"/>
     </row>
     <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C307" s="11"/>
+        <v>285</v>
+      </c>
+      <c r="C307" s="20"/>
     </row>
     <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C308" s="11"/>
+        <v>286</v>
+      </c>
+      <c r="C308" s="20"/>
     </row>
     <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C309" s="11"/>
+        <v>287</v>
+      </c>
+      <c r="C309" s="20"/>
     </row>
     <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C310" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="C310" s="20"/>
     </row>
     <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C311" s="11"/>
+        <v>289</v>
+      </c>
+      <c r="C311" s="20"/>
     </row>
     <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C312" s="11"/>
+        <v>290</v>
+      </c>
+      <c r="C312" s="20"/>
     </row>
     <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C313" s="11"/>
+        <v>291</v>
+      </c>
+      <c r="C313" s="20"/>
     </row>
     <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C314" s="11"/>
+        <v>292</v>
+      </c>
+      <c r="C314" s="20"/>
     </row>
     <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C315" s="11"/>
+        <v>293</v>
+      </c>
+      <c r="C315" s="20"/>
     </row>
     <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C316" s="11"/>
+        <v>294</v>
+      </c>
+      <c r="C316" s="20"/>
     </row>
     <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C317" s="11"/>
+        <v>295</v>
+      </c>
+      <c r="C317" s="20"/>
     </row>
     <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B318" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C318" s="11"/>
+      <c r="B318" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C318" s="20"/>
     </row>
     <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C319" s="11"/>
+        <v>297</v>
+      </c>
+      <c r="C319" s="20"/>
     </row>
     <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B320" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C320" s="11"/>
+      <c r="B320" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C320" s="20"/>
     </row>
     <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C321" s="11"/>
+        <v>299</v>
+      </c>
+      <c r="C321" s="20"/>
     </row>
     <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C322" s="11"/>
+        <v>300</v>
+      </c>
+      <c r="C322" s="20"/>
     </row>
     <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C323" s="11"/>
+        <v>301</v>
+      </c>
+      <c r="C323" s="20"/>
     </row>
     <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C324" s="11"/>
+        <v>302</v>
+      </c>
+      <c r="C324" s="20"/>
     </row>
     <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C325" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="C325" s="20"/>
     </row>
     <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C326" s="11"/>
+        <v>304</v>
+      </c>
+      <c r="C326" s="20"/>
     </row>
     <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C327" s="11"/>
+        <v>305</v>
+      </c>
+      <c r="C327" s="20"/>
     </row>
     <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C328" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="C328" s="20"/>
     </row>
     <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C329" s="11"/>
+        <v>307</v>
+      </c>
+      <c r="C329" s="20"/>
     </row>
     <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C330" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="C330" s="20"/>
     </row>
     <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C331" s="11"/>
+        <v>309</v>
+      </c>
+      <c r="C331" s="20"/>
     </row>
     <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C332" s="11"/>
+        <v>310</v>
+      </c>
+      <c r="C332" s="20"/>
     </row>
     <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C333" s="11"/>
+        <v>311</v>
+      </c>
+      <c r="C333" s="20"/>
     </row>
     <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C334" s="11"/>
+        <v>312</v>
+      </c>
+      <c r="C334" s="20"/>
     </row>
     <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C335" s="11"/>
+        <v>313</v>
+      </c>
+      <c r="C335" s="20"/>
     </row>
     <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C336" s="11"/>
+        <v>314</v>
+      </c>
+      <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C337" s="11"/>
+        <v>315</v>
+      </c>
+      <c r="C337" s="20"/>
     </row>
     <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C338" s="11"/>
+        <v>316</v>
+      </c>
+      <c r="C338" s="20"/>
     </row>
     <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C339" s="11"/>
+        <v>317</v>
+      </c>
+      <c r="C339" s="20"/>
     </row>
     <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C340" s="11"/>
+        <v>318</v>
+      </c>
+      <c r="C340" s="20"/>
     </row>
     <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C341" s="11"/>
+        <v>319</v>
+      </c>
+      <c r="C341" s="20"/>
     </row>
     <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B342" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C342" s="20"/>
+    </row>
+    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A343" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C343" s="20"/>
+    </row>
+    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B344" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C342" s="11"/>
-    </row>
-    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B343" s="7"/>
-    </row>
-    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B344" s="7"/>
+      <c r="C344" s="20"/>
     </row>
     <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A345" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B345" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C345" s="11"/>
+      <c r="B345" s="7"/>
     </row>
     <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A346" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C346" s="11"/>
+      <c r="B346" s="7"/>
     </row>
     <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C347" s="11"/>
+        <v>324</v>
+      </c>
+      <c r="C347" s="20"/>
     </row>
     <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C348" s="11"/>
+        <v>325</v>
+      </c>
+      <c r="C348" s="20"/>
     </row>
     <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="C349" s="11"/>
+        <v>326</v>
+      </c>
+      <c r="C349" s="20"/>
     </row>
     <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C350" s="11"/>
+        <v>327</v>
+      </c>
+      <c r="C350" s="20"/>
     </row>
     <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C351" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="C351" s="20"/>
     </row>
     <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C352" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="C352" s="20"/>
     </row>
     <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B353" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C353" s="11"/>
+      <c r="B353" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C353" s="20"/>
     </row>
     <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C354" s="11"/>
+        <v>331</v>
+      </c>
+      <c r="C354" s="20"/>
     </row>
     <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B355" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C355" s="11"/>
+      <c r="B355" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C355" s="20"/>
     </row>
     <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C356" s="11"/>
+        <v>333</v>
+      </c>
+      <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C357" s="11"/>
+        <v>334</v>
+      </c>
+      <c r="C357" s="20"/>
     </row>
     <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C358" s="11"/>
+        <v>335</v>
+      </c>
+      <c r="C358" s="20"/>
     </row>
     <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C359" s="11"/>
+        <v>336</v>
+      </c>
+      <c r="C359" s="20"/>
     </row>
     <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C360" s="11"/>
+        <v>337</v>
+      </c>
+      <c r="C360" s="20"/>
     </row>
     <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C361" s="11"/>
+        <v>338</v>
+      </c>
+      <c r="C361" s="20"/>
     </row>
     <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C362" s="11"/>
+        <v>339</v>
+      </c>
+      <c r="C362" s="20"/>
     </row>
     <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>470</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C363" s="20"/>
     </row>
     <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B364" s="7"/>
+      <c r="A364" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C364" s="20"/>
     </row>
     <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C365" s="11"/>
+        <v>470</v>
+      </c>
     </row>
     <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A366" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B366" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C366" s="11"/>
+      <c r="B366" s="7"/>
     </row>
     <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A367" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C367" s="11"/>
+        <v>343</v>
+      </c>
+      <c r="C367" s="20"/>
     </row>
     <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C368" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="C368" s="20"/>
     </row>
     <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C369" s="11"/>
+        <v>345</v>
+      </c>
+      <c r="C369" s="20"/>
     </row>
     <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C370" s="11"/>
+        <v>346</v>
+      </c>
+      <c r="C370" s="20"/>
     </row>
     <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C371" s="11"/>
+        <v>347</v>
+      </c>
+      <c r="C371" s="20"/>
     </row>
     <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C372" s="11"/>
+        <v>348</v>
+      </c>
+      <c r="C372" s="20"/>
     </row>
     <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C373" s="11"/>
+        <v>349</v>
+      </c>
+      <c r="C373" s="20"/>
     </row>
     <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C374" s="11"/>
+        <v>350</v>
+      </c>
+      <c r="C374" s="20"/>
     </row>
     <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C375" s="11"/>
+        <v>351</v>
+      </c>
+      <c r="C375" s="20"/>
     </row>
     <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C376" s="11"/>
+        <v>352</v>
+      </c>
+      <c r="C376" s="20"/>
     </row>
     <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="C377" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="C377" s="20"/>
     </row>
     <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C378" s="11"/>
+        <v>354</v>
+      </c>
+      <c r="C378" s="20"/>
     </row>
     <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C379" s="11"/>
+        <v>355</v>
+      </c>
+      <c r="C379" s="20"/>
     </row>
     <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C380" s="11"/>
+        <v>356</v>
+      </c>
+      <c r="C380" s="20"/>
     </row>
     <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C381" s="11"/>
+        <v>357</v>
+      </c>
+      <c r="C381" s="20"/>
     </row>
     <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C382" s="11"/>
+        <v>358</v>
+      </c>
+      <c r="C382" s="20"/>
     </row>
     <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C383" s="11"/>
+        <v>359</v>
+      </c>
+      <c r="C383" s="20"/>
     </row>
     <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C384" s="11"/>
+        <v>360</v>
+      </c>
+      <c r="C384" s="20"/>
     </row>
     <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="C385" s="11"/>
+        <v>361</v>
+      </c>
+      <c r="C385" s="20"/>
     </row>
     <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C386" s="11"/>
+        <v>362</v>
+      </c>
+      <c r="C386" s="20"/>
     </row>
     <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C387" s="11"/>
+        <v>363</v>
+      </c>
+      <c r="C387" s="20"/>
     </row>
     <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C388" s="11"/>
+        <v>364</v>
+      </c>
+      <c r="C388" s="20"/>
     </row>
     <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C389" s="11"/>
+        <v>365</v>
+      </c>
+      <c r="C389" s="20"/>
     </row>
     <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C390" s="11"/>
+        <v>366</v>
+      </c>
+      <c r="C390" s="20"/>
     </row>
     <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C391" s="11"/>
+        <v>367</v>
+      </c>
+      <c r="C391" s="20"/>
     </row>
     <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C392" s="11"/>
+        <v>368</v>
+      </c>
+      <c r="C392" s="20"/>
     </row>
     <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C393" s="11"/>
+        <v>369</v>
+      </c>
+      <c r="C393" s="20"/>
     </row>
     <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C394" s="11"/>
+        <v>370</v>
+      </c>
+      <c r="C394" s="20"/>
     </row>
     <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="C395" s="11"/>
+        <v>371</v>
+      </c>
+      <c r="C395" s="20"/>
     </row>
     <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="C396" s="11"/>
+        <v>372</v>
+      </c>
+      <c r="C396" s="20"/>
     </row>
     <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="C397" s="11"/>
+        <v>373</v>
+      </c>
+      <c r="C397" s="20"/>
     </row>
     <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C398" s="11"/>
+        <v>374</v>
+      </c>
+      <c r="C398" s="20"/>
     </row>
     <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C399" s="11"/>
+        <v>375</v>
+      </c>
+      <c r="C399" s="20"/>
     </row>
     <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="C400" s="11"/>
+        <v>376</v>
+      </c>
+      <c r="C400" s="20"/>
     </row>
     <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C401" s="11"/>
+        <v>376</v>
+      </c>
+      <c r="C401" s="20"/>
     </row>
     <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C402" s="11"/>
+        <v>377</v>
+      </c>
+      <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="C403" s="11"/>
+        <v>378</v>
+      </c>
+      <c r="C403" s="20"/>
     </row>
     <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C404" s="11"/>
+        <v>379</v>
+      </c>
+      <c r="C404" s="20"/>
     </row>
     <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C405" s="11"/>
+        <v>380</v>
+      </c>
+      <c r="C405" s="20"/>
     </row>
     <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C406" s="11"/>
+        <v>381</v>
+      </c>
+      <c r="C406" s="20"/>
     </row>
     <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C407" s="11"/>
+        <v>382</v>
+      </c>
+      <c r="C407" s="20"/>
     </row>
     <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C408" s="20"/>
+    </row>
+    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C409" s="20"/>
+    </row>
+    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C408" s="11"/>
-    </row>
-    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B409" s="7"/>
-      <c r="C409" s="11"/>
-    </row>
-    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B410" s="7"/>
-      <c r="C410" s="11"/>
+      <c r="C410" s="20"/>
     </row>
     <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A411" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C411" s="11"/>
+      <c r="B411" s="7"/>
     </row>
     <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A412" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B412" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C412" s="11"/>
+      <c r="B412" s="7"/>
     </row>
     <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C413" s="11"/>
+        <v>387</v>
+      </c>
+      <c r="C413" s="20"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C414" s="11"/>
+        <v>388</v>
+      </c>
+      <c r="C414" s="20"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C415" s="11"/>
+        <v>389</v>
+      </c>
+      <c r="C415" s="20"/>
     </row>
     <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B416" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C416" s="20"/>
+    </row>
+    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A417" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C417" s="20"/>
+    </row>
+    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A418" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B418" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C416" s="11"/>
-    </row>
-    <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B417" s="7"/>
-      <c r="C417" s="7"/>
-    </row>
-    <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B418" s="7"/>
-      <c r="C418" s="7"/>
+      <c r="C418" s="20"/>
     </row>
     <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A419" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B419" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C419" s="13"/>
+      <c r="B419" s="7"/>
+      <c r="C419" s="7"/>
     </row>
     <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A420" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B420" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C420" s="13"/>
+      <c r="B420" s="7"/>
+      <c r="C420" s="7"/>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C421" s="11"/>
+        <v>393</v>
+      </c>
+      <c r="C421" s="22"/>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="C422" s="11"/>
+        <v>394</v>
+      </c>
+      <c r="C422" s="22"/>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C423" s="11"/>
+        <v>395</v>
+      </c>
+      <c r="C423" s="20"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C424" s="11"/>
+        <v>396</v>
+      </c>
+      <c r="C424" s="20"/>
     </row>
     <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C425" s="13"/>
-      <c r="D425" t="s">
-        <v>464</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C425" s="20"/>
     </row>
     <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C426" s="13"/>
+        <v>398</v>
+      </c>
+      <c r="C426" s="20"/>
     </row>
     <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C427" s="11"/>
+        <v>399</v>
+      </c>
+      <c r="C427" s="22"/>
+      <c r="D427" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C428" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="C428" s="22"/>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="C429" s="11"/>
+        <v>400</v>
+      </c>
+      <c r="C429" s="20"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="C430" s="11"/>
+        <v>401</v>
+      </c>
+      <c r="C430" s="20"/>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C431" s="11"/>
+        <v>402</v>
+      </c>
+      <c r="C431" s="20"/>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C432" s="13"/>
+        <v>403</v>
+      </c>
+      <c r="C432" s="20"/>
     </row>
     <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C433" s="11"/>
+        <v>404</v>
+      </c>
+      <c r="C433" s="20"/>
     </row>
     <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C434" s="13"/>
+        <v>405</v>
+      </c>
+      <c r="C434" s="22"/>
     </row>
     <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C435" s="11"/>
+        <v>406</v>
+      </c>
+      <c r="C435" s="20"/>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C436" s="11"/>
+        <v>407</v>
+      </c>
+      <c r="C436" s="22"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C437" s="11"/>
+        <v>408</v>
+      </c>
+      <c r="C437" s="20"/>
     </row>
     <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C438" s="14"/>
-      <c r="D438" t="s">
-        <v>466</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C438" s="20"/>
     </row>
     <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C439" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="C439" s="20"/>
     </row>
     <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C440" s="11"/>
+        <v>465</v>
+      </c>
+      <c r="C440" s="23"/>
+      <c r="D440" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C441" s="11"/>
+        <v>411</v>
+      </c>
+      <c r="C441" s="22"/>
     </row>
     <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C442" s="11"/>
+        <v>412</v>
+      </c>
+      <c r="C442" s="20"/>
     </row>
     <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C443" s="11"/>
+        <v>413</v>
+      </c>
+      <c r="C443" s="20"/>
     </row>
     <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C444" s="11"/>
+        <v>414</v>
+      </c>
+      <c r="C444" s="20"/>
     </row>
     <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="C445" s="11"/>
+        <v>415</v>
+      </c>
+      <c r="C445" s="20"/>
     </row>
     <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="C446" s="11"/>
+        <v>416</v>
+      </c>
+      <c r="C446" s="20"/>
     </row>
     <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C447" s="11"/>
+        <v>417</v>
+      </c>
+      <c r="C447" s="20"/>
     </row>
     <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C448" s="11"/>
+        <v>418</v>
+      </c>
+      <c r="C448" s="20"/>
     </row>
     <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C449" s="11"/>
+        <v>419</v>
+      </c>
+      <c r="C449" s="20"/>
     </row>
     <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C450" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="C450" s="20"/>
     </row>
     <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C451" s="11"/>
+        <v>421</v>
+      </c>
+      <c r="C451" s="20"/>
     </row>
     <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="C452" s="11"/>
+        <v>422</v>
+      </c>
+      <c r="C452" s="20"/>
     </row>
     <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="C453" s="11"/>
+        <v>423</v>
+      </c>
+      <c r="C453" s="20"/>
     </row>
     <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="C454" s="11"/>
+        <v>424</v>
+      </c>
+      <c r="C454" s="20"/>
     </row>
     <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="C455" s="11"/>
+        <v>425</v>
+      </c>
+      <c r="C455" s="20"/>
     </row>
     <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="C456" s="11"/>
+        <v>426</v>
+      </c>
+      <c r="C456" s="20"/>
     </row>
     <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C457" s="11"/>
+        <v>427</v>
+      </c>
+      <c r="C457" s="20"/>
     </row>
     <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="C458" s="11"/>
+        <v>428</v>
+      </c>
+      <c r="C458" s="20"/>
     </row>
     <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C459" s="11"/>
+        <v>429</v>
+      </c>
+      <c r="C459" s="20"/>
     </row>
     <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="C460" s="11"/>
+        <v>430</v>
+      </c>
+      <c r="C460" s="20"/>
     </row>
     <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="C461" s="11"/>
+        <v>431</v>
+      </c>
+      <c r="C461" s="20"/>
     </row>
     <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C462" s="11"/>
+        <v>432</v>
+      </c>
+      <c r="C462" s="20"/>
     </row>
     <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C463" s="11"/>
+        <v>433</v>
+      </c>
+      <c r="C463" s="20"/>
     </row>
     <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="C464" s="11"/>
+        <v>434</v>
+      </c>
+      <c r="C464" s="20"/>
     </row>
     <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C465" s="11"/>
+        <v>435</v>
+      </c>
+      <c r="C465" s="20"/>
     </row>
     <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C466" s="11"/>
+        <v>436</v>
+      </c>
+      <c r="C466" s="20"/>
     </row>
     <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C467" s="11"/>
+        <v>437</v>
+      </c>
+      <c r="C467" s="20"/>
     </row>
     <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C468" s="11"/>
+        <v>438</v>
+      </c>
+      <c r="C468" s="20"/>
     </row>
     <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C469" s="11"/>
+        <v>439</v>
+      </c>
+      <c r="C469" s="20"/>
     </row>
     <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C470" s="11"/>
+        <v>440</v>
+      </c>
+      <c r="C470" s="20"/>
     </row>
     <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C471" s="11"/>
+        <v>441</v>
+      </c>
+      <c r="C471" s="20"/>
     </row>
     <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C472" s="11"/>
+        <v>442</v>
+      </c>
+      <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C473" s="11"/>
+        <v>443</v>
+      </c>
+      <c r="C473" s="20"/>
     </row>
     <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C474" s="11"/>
+        <v>444</v>
+      </c>
+      <c r="C474" s="20"/>
     </row>
     <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C475" s="11"/>
+        <v>445</v>
+      </c>
+      <c r="C475" s="20"/>
     </row>
     <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C476" s="11"/>
+        <v>446</v>
+      </c>
+      <c r="C476" s="20"/>
     </row>
     <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C477" s="11"/>
+        <v>447</v>
+      </c>
+      <c r="C477" s="20"/>
     </row>
     <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="C478" s="11"/>
+        <v>448</v>
+      </c>
+      <c r="C478" s="20"/>
     </row>
     <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C479" s="11"/>
+        <v>449</v>
+      </c>
+      <c r="C479" s="20"/>
     </row>
     <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C480" s="20"/>
+    </row>
+    <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A481" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C481" s="20"/>
+    </row>
+    <row r="482" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A482" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B482" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C480" s="11"/>
-    </row>
-    <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A481" s="5"/>
-      <c r="B481" s="6"/>
-      <c r="C481" s="6"/>
-    </row>
-    <row r="482" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A482" s="8"/>
-      <c r="B482" s="7"/>
+      <c r="C482" s="20"/>
     </row>
     <row r="483" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A483" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B483" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C483" s="11"/>
+      <c r="A483" s="5"/>
+      <c r="B483" s="6"/>
+      <c r="C483" s="6"/>
     </row>
     <row r="484" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A484" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B484" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="C484" s="11"/>
+      <c r="A484" s="8"/>
+      <c r="B484" s="7"/>
     </row>
     <row r="485" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="C485" s="11"/>
+        <v>453</v>
+      </c>
+      <c r="C485" s="20"/>
     </row>
     <row r="486" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C486" s="11"/>
+        <v>454</v>
+      </c>
+      <c r="C486" s="20"/>
     </row>
     <row r="487" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="C487" s="11"/>
+        <v>455</v>
+      </c>
+      <c r="C487" s="20"/>
     </row>
     <row r="488" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="C488" s="11"/>
+        <v>456</v>
+      </c>
+      <c r="C488" s="20"/>
     </row>
     <row r="489" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C489" s="11"/>
+        <v>457</v>
+      </c>
+      <c r="C489" s="20"/>
     </row>
     <row r="490" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="C490" s="11"/>
+        <v>458</v>
+      </c>
+      <c r="C490" s="20"/>
     </row>
     <row r="491" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C491" s="11"/>
+        <v>459</v>
+      </c>
+      <c r="C491" s="20"/>
     </row>
     <row r="492" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C492" s="20"/>
+    </row>
+    <row r="493" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A493" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C493" s="20"/>
+    </row>
+    <row r="494" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A494" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B494" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C492" s="11"/>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C493" s="12"/>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C508" s="4"/>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C509" s="4"/>
+      <c r="C494" s="20"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C495" s="20"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C510" s="4"/>
@@ -6486,6 +6521,12 @@
     </row>
     <row r="577" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C577" s="4"/>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C578" s="4"/>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C579" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6525,427 +6566,428 @@
     <hyperlink ref="B44" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
     <hyperlink ref="B45" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
     <hyperlink ref="B46" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B50" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B51" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B52" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B53" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B54" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B55" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B57" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B59" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B62" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B63" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B64" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B66" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B67" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B68" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B69" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B70" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B71" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B72" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B73" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B74" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B75" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B76" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B77" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B78" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B79" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B80" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B81" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B82" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B83" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B84" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B85" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B86" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B87" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B88" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B89" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B90" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B91" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B92" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B93" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B94" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B95" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B96" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B97" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B98" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B99" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B100" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B101" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B102" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B103" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B104" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B110" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B111" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B112" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B113" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B115" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B116" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B117" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B118" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B119" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B120" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B122" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B123" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B124" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B125" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B126" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B127" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B128" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B129" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B130" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B131" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B132" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B133" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B134" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B135" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B136" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B137" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B138" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B139" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B140" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B141" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B142" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B143" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B144" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B145" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B114" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B121" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B148" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B149" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B150" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B151" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B152" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B153" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B154" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B155" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B156" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B157" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B158" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B159" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B160" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B161" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B162" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B163" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B164" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B165" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B166" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B167" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B168" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B169" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B170" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B171" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B172" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B175" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B176" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B177" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B178" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B179" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B180" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B181" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B182" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B183" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B186" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B187" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B188" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B189" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B190" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B191" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B192" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B193" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B194" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B195" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B196" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B197" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B198" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B199" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B200" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B201" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B202" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B203" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B204" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B205" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B206" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B207" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B208" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B209" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B210" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B211" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B212" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B213" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B214" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B215" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B216" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B217" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B218" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B219" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B220" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B223" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B224" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B225" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B226" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B227" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B228" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B229" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B230" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B231" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B232" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B233" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B234" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B235" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B236" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B237" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B238" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B239" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B240" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B241" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B242" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B243" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B244" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B247" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B248" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B249" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B250" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B251" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B252" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B253" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B254" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B255" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B256" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B257" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B258" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B259" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B260" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B261" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B262" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B263" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B264" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B265" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B266" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B267" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B268" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B269" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B270" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B271" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B272" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B273" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B274" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B275" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B276" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B277" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B278" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B279" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B280" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B281" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B284" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B285" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B286" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B287" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B288" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B289" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B290" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B291" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B292" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B293" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B294" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B295" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B296" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B297" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B298" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B299" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B300" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B301" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B302" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B305" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B306" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B307" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B308" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B309" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B310" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B311" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B312" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B313" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B314" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B315" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B316" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B317" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B318" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B319" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B320" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B321" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B322" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B323" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B324" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B325" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B326" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B327" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B328" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B329" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B330" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B331" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B332" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B333" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B334" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B335" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B336" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B337" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B338" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B339" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B340" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B341" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B342" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B345" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B346" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B347" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B348" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B349" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B350" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B351" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B352" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B353" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B354" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B355" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B356" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B357" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B358" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B359" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B360" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B361" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B362" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B366" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B367" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B368" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B369" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B370" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B371" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B372" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B373" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B374" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B375" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B376" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B377" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B378" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B379" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B380" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B381" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B382" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B383" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B384" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B385" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B386" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B387" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B388" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B389" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B390" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B391" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B392" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B393" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B394" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B395" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B396" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B397" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B398" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B399" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B400" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B401" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B402" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B403" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B405" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B404" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B406" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B407" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B408" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B411" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B412" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B413" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B414" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B415" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B416" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B419" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B420" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B421" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B422" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B423" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B424" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B425" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B426" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B427" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B428" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B429" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B430" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B431" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B432" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B433" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B434" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B435" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B436" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B437" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B439" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B440" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B441" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B442" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B443" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B444" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B445" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B446" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B447" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B448" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B449" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B450" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B451" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B452" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B453" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B454" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B455" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B456" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B457" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B458" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B459" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B461" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B460" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B462" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B463" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B464" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B465" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B466" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B467" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B468" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B469" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B470" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B471" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B472" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B479" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B478" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B477" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B476" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B475" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B474" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B473" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B483" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B484" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B485" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B486" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B487" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B488" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B489" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B492" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B490" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B491" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B365" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B52" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B53" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B54" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B55" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B56" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B57" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B58" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B59" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B60" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B61" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B64" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B65" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B66" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B68" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B69" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B70" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B71" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B72" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B73" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B74" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B75" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B76" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B77" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B78" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B79" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B80" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B81" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B82" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B83" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B84" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B85" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B86" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B87" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B88" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B89" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B90" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B91" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B92" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B93" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B94" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B95" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B96" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B97" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B98" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B99" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B100" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B101" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B102" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B103" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B104" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B105" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B106" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B112" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B113" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B114" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B115" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B117" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B118" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B119" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B120" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B121" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B122" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B124" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B125" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B126" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B127" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B128" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B129" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B130" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B131" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B132" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B133" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B134" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B135" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B136" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B137" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B138" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B139" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B140" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B141" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B142" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B143" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B144" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B145" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B146" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B147" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B116" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B123" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B150" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B151" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B152" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B153" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B154" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B155" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B156" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B157" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B158" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B159" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B160" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B161" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B162" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B163" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B164" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B165" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B166" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B167" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B168" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B169" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B170" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B171" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B172" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B173" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B174" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B177" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B178" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B179" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B180" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B181" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B182" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B183" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B184" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B185" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B188" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B189" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B190" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B191" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B192" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B193" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B194" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B195" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B196" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B197" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B198" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B199" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B200" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B201" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B202" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B203" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B204" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B205" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B206" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B207" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B208" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B209" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B210" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B211" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B212" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B213" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B214" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B215" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B216" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B217" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B218" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B219" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B220" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B221" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B222" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B225" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B226" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B227" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B228" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B229" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B230" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B231" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B232" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B233" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B234" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B235" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B236" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B237" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B238" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B239" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B240" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B241" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B242" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B243" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B244" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B245" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B246" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B249" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B250" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B251" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B252" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B253" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B254" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B255" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B256" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B257" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B258" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B259" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B260" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B261" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B262" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B263" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B264" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B265" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B266" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B267" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B268" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B269" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B270" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B271" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B272" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B273" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B274" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B275" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B276" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B277" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B278" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B279" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B280" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B281" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B282" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B283" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B286" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B287" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B288" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B289" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B290" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B291" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B292" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B293" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B294" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B295" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B296" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B297" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B298" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B299" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B300" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B301" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B302" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B303" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B304" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B307" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B308" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B309" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B310" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B311" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B312" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B313" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B314" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B315" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B316" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B317" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B318" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B319" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B320" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B321" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B322" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B323" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B324" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B325" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B326" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B327" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B328" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B329" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B330" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B331" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B332" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B333" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B334" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B335" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B336" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B337" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B338" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B339" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B340" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B341" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B342" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B343" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B344" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B347" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B348" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B349" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B350" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B351" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B352" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B353" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B354" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B355" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B356" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B357" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B358" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B359" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B360" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B361" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B362" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B363" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B364" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B368" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B369" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B370" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B371" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B372" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B373" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B374" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B375" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B376" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B377" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B378" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B379" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B380" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B381" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B382" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B383" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B384" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B385" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B386" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B387" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B388" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B389" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B390" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B391" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B392" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B393" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B394" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B395" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B396" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B397" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B398" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B399" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B400" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B401" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B402" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B403" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B404" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B405" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B407" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B406" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B408" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B409" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B410" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B413" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B414" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B415" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B416" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B417" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B418" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B421" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B422" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B423" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B424" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B425" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B426" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B427" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B428" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B429" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B430" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B431" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B432" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B433" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B434" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B435" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B436" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B437" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B438" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B439" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B441" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B442" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B443" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B444" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B445" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B446" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B447" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B448" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B449" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B450" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B451" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B452" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B453" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B454" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B455" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B456" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B457" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B458" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B459" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B460" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B461" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B463" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B462" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B464" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B465" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B466" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B467" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B468" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B469" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B470" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B471" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B472" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B473" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B474" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B481" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B480" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B479" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B478" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B477" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B476" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B475" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B485" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B486" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B487" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B488" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B489" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B490" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B491" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B494" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B492" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B493" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B367" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B438" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B440" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B363" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B365" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
     <hyperlink ref="B47" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
     <hyperlink ref="B48" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B480" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B482" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
     <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
-    <hyperlink ref="B105" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
+    <hyperlink ref="B107" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
     <hyperlink ref="B40" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>
+    <hyperlink ref="B49" r:id="rId458" xr:uid="{213ED1AC-FD00-394C-90BF-99997A614249}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD509B1-5980-B149-9334-0082CD54AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0897FD0B-B8D5-B841-B79B-8BAFBB9E643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1489,6 +1489,9 @@
   </si>
   <si>
     <t>minimum-adjacent-swaps-for-k-consecutive-ones</t>
+  </si>
+  <si>
+    <t>Number of palindromic substrings</t>
   </si>
 </sst>
 </file>
@@ -2000,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F579"/>
+  <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2574,7 +2577,7 @@
       <c r="B64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -2583,7 +2586,7 @@
       <c r="B65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -2592,7 +2595,7 @@
       <c r="B66" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -2635,16 +2638,16 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="20"/>
+        <v>486</v>
+      </c>
+      <c r="C71" s="17"/>
     </row>
     <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C72" s="20"/>
     </row>
@@ -2653,7 +2656,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C73" s="20"/>
     </row>
@@ -2662,7 +2665,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C74" s="20"/>
     </row>
@@ -2671,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="20"/>
     </row>
@@ -2680,7 +2683,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="20"/>
     </row>
@@ -2689,7 +2692,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C77" s="20"/>
     </row>
@@ -2698,7 +2701,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" s="20"/>
     </row>
@@ -2707,7 +2710,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" s="20"/>
     </row>
@@ -2716,7 +2719,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C80" s="20"/>
     </row>
@@ -2725,7 +2728,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="20"/>
     </row>
@@ -2734,7 +2737,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="20"/>
     </row>
@@ -2743,7 +2746,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C83" s="20"/>
     </row>
@@ -2752,7 +2755,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84" s="20"/>
     </row>
@@ -2761,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="20"/>
     </row>
@@ -2770,7 +2773,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C86" s="20"/>
     </row>
@@ -2779,7 +2782,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C87" s="20"/>
     </row>
@@ -2788,7 +2791,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="20"/>
     </row>
@@ -2797,7 +2800,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C89" s="20"/>
     </row>
@@ -2806,7 +2809,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="20"/>
     </row>
@@ -2815,7 +2818,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="20"/>
     </row>
@@ -2824,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="20"/>
     </row>
@@ -2833,7 +2836,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" s="20"/>
     </row>
@@ -2842,7 +2845,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" s="20"/>
     </row>
@@ -2851,7 +2854,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C95" s="20"/>
     </row>
@@ -2860,7 +2863,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C96" s="20"/>
     </row>
@@ -2869,7 +2872,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="20"/>
     </row>
@@ -2878,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C98" s="20"/>
     </row>
@@ -2887,7 +2890,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C99" s="20"/>
     </row>
@@ -2896,7 +2899,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C100" s="20"/>
     </row>
@@ -2905,7 +2908,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="20"/>
     </row>
@@ -2914,7 +2917,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C102" s="20"/>
     </row>
@@ -2923,7 +2926,7 @@
         <v>52</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="20"/>
     </row>
@@ -2932,7 +2935,7 @@
         <v>52</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C104" s="20"/>
     </row>
@@ -2941,7 +2944,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="20"/>
     </row>
@@ -2950,7 +2953,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106" s="20"/>
     </row>
@@ -2959,15 +2962,17 @@
         <v>52</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="C107" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="C107" s="20"/>
     </row>
     <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="C108" s="17"/>
     </row>
     <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2985,24 +2990,22 @@
       <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" s="20"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="20"/>
     </row>
@@ -3011,7 +3014,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="20"/>
     </row>
@@ -3020,7 +3023,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C115" s="20"/>
     </row>
@@ -3029,7 +3032,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C116" s="20"/>
     </row>
@@ -3038,7 +3041,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C117" s="20"/>
     </row>
@@ -3047,7 +3050,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C118" s="20"/>
     </row>
@@ -3056,7 +3059,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C119" s="20"/>
     </row>
@@ -3065,7 +3068,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C120" s="20"/>
     </row>
@@ -3074,7 +3077,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C121" s="20"/>
     </row>
@@ -3083,7 +3086,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C122" s="20"/>
     </row>
@@ -3092,7 +3095,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C123" s="20"/>
     </row>
@@ -3101,7 +3104,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C124" s="20"/>
     </row>
@@ -3110,7 +3113,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C125" s="20"/>
     </row>
@@ -3119,7 +3122,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C126" s="20"/>
     </row>
@@ -3128,7 +3131,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C127" s="20"/>
     </row>
@@ -3137,7 +3140,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C128" s="20"/>
     </row>
@@ -3146,7 +3149,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C129" s="20"/>
     </row>
@@ -3155,7 +3158,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C130" s="20"/>
     </row>
@@ -3164,7 +3167,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C131" s="20"/>
     </row>
@@ -3173,7 +3176,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C132" s="20"/>
     </row>
@@ -3182,7 +3185,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C133" s="20"/>
     </row>
@@ -3191,7 +3194,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C134" s="20"/>
     </row>
@@ -3200,7 +3203,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C135" s="20"/>
     </row>
@@ -3209,7 +3212,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C136" s="20"/>
     </row>
@@ -3218,7 +3221,7 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C137" s="20"/>
     </row>
@@ -3227,7 +3230,7 @@
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C138" s="20"/>
     </row>
@@ -3236,7 +3239,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C139" s="20"/>
     </row>
@@ -3245,7 +3248,7 @@
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" s="20"/>
     </row>
@@ -3254,7 +3257,7 @@
         <v>96</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C141" s="20"/>
     </row>
@@ -3263,7 +3266,7 @@
         <v>96</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C142" s="20"/>
     </row>
@@ -3272,7 +3275,7 @@
         <v>96</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C143" s="20"/>
     </row>
@@ -3281,7 +3284,7 @@
         <v>96</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C144" s="20"/>
     </row>
@@ -3290,7 +3293,7 @@
         <v>96</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145" s="20"/>
     </row>
@@ -3299,7 +3302,7 @@
         <v>96</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C146" s="20"/>
     </row>
@@ -3308,28 +3311,28 @@
         <v>96</v>
       </c>
       <c r="B147" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" s="20"/>
+    </row>
+    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C147" s="20"/>
-    </row>
-    <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B149" s="7"/>
+      <c r="C148" s="20"/>
     </row>
     <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C150" s="20"/>
+      <c r="B150" s="7"/>
     </row>
     <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C151" s="20"/>
     </row>
@@ -3338,7 +3341,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C152" s="20"/>
     </row>
@@ -3347,7 +3350,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C153" s="20"/>
     </row>
@@ -3356,7 +3359,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C154" s="20"/>
     </row>
@@ -3365,7 +3368,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C155" s="20"/>
     </row>
@@ -3374,7 +3377,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C156" s="20"/>
     </row>
@@ -3383,7 +3386,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C157" s="20"/>
     </row>
@@ -3392,7 +3395,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C158" s="20"/>
     </row>
@@ -3401,7 +3404,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C159" s="20"/>
     </row>
@@ -3410,7 +3413,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C160" s="20"/>
     </row>
@@ -3419,7 +3422,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C161" s="20"/>
     </row>
@@ -3428,7 +3431,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C162" s="20"/>
     </row>
@@ -3437,7 +3440,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C163" s="20"/>
     </row>
@@ -3446,7 +3449,7 @@
         <v>133</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C164" s="20"/>
     </row>
@@ -3455,7 +3458,7 @@
         <v>133</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165" s="20"/>
     </row>
@@ -3464,7 +3467,7 @@
         <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C166" s="20"/>
     </row>
@@ -3473,7 +3476,7 @@
         <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C167" s="20"/>
     </row>
@@ -3482,7 +3485,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C168" s="20"/>
     </row>
@@ -3491,7 +3494,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C169" s="20"/>
     </row>
@@ -3500,7 +3503,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C170" s="20"/>
     </row>
@@ -3509,7 +3512,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C171" s="20"/>
     </row>
@@ -3518,7 +3521,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C172" s="20"/>
     </row>
@@ -3527,7 +3530,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C173" s="20"/>
     </row>
@@ -3536,7 +3539,7 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C174" s="20"/>
     </row>
@@ -3544,8 +3547,8 @@
       <c r="A175" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B175" s="7" t="s">
-        <v>159</v>
+      <c r="B175" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C175" s="20"/>
     </row>
@@ -3554,7 +3557,7 @@
         <v>133</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C176" s="20"/>
     </row>
@@ -3562,8 +3565,8 @@
       <c r="A177" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>161</v>
+      <c r="B177" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C177" s="20"/>
     </row>
@@ -3572,7 +3575,7 @@
         <v>133</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C178" s="20"/>
     </row>
@@ -3581,7 +3584,7 @@
         <v>133</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C179" s="20"/>
     </row>
@@ -3590,7 +3593,7 @@
         <v>133</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C180" s="20"/>
     </row>
@@ -3599,7 +3602,7 @@
         <v>133</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C181" s="20"/>
     </row>
@@ -3608,7 +3611,7 @@
         <v>133</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C182" s="20"/>
     </row>
@@ -3617,7 +3620,7 @@
         <v>133</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="20"/>
     </row>
@@ -3626,7 +3629,7 @@
         <v>133</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C184" s="20"/>
     </row>
@@ -3635,28 +3638,28 @@
         <v>133</v>
       </c>
       <c r="B185" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C185" s="20"/>
+    </row>
+    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B186" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C185" s="20"/>
-    </row>
-    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B187" s="7"/>
+      <c r="C186" s="20"/>
     </row>
     <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C188" s="20"/>
+      <c r="B188" s="7"/>
     </row>
     <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C189" s="20"/>
     </row>
@@ -3665,7 +3668,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C190" s="20"/>
     </row>
@@ -3674,7 +3677,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C191" s="20"/>
     </row>
@@ -3683,7 +3686,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C192" s="20"/>
     </row>
@@ -3692,7 +3695,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C193" s="20"/>
     </row>
@@ -3701,7 +3704,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C194" s="20"/>
     </row>
@@ -3710,7 +3713,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C195" s="20"/>
     </row>
@@ -3719,7 +3722,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C196" s="20"/>
     </row>
@@ -3728,7 +3731,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C197" s="20"/>
     </row>
@@ -3737,7 +3740,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C198" s="20"/>
     </row>
@@ -3746,7 +3749,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C199" s="20"/>
     </row>
@@ -3755,7 +3758,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C200" s="20"/>
     </row>
@@ -3764,7 +3767,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C201" s="20"/>
     </row>
@@ -3773,7 +3776,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C202" s="20"/>
     </row>
@@ -3782,7 +3785,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C203" s="20"/>
     </row>
@@ -3791,7 +3794,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C204" s="20"/>
     </row>
@@ -3800,7 +3803,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C205" s="20"/>
     </row>
@@ -3809,7 +3812,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C206" s="20"/>
     </row>
@@ -3818,7 +3821,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C207" s="20"/>
     </row>
@@ -3827,7 +3830,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C208" s="20"/>
     </row>
@@ -3836,7 +3839,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C209" s="20"/>
     </row>
@@ -3845,7 +3848,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C210" s="20"/>
     </row>
@@ -3854,7 +3857,7 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C211" s="20"/>
     </row>
@@ -3863,7 +3866,7 @@
         <v>170</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C212" s="20"/>
     </row>
@@ -3872,7 +3875,7 @@
         <v>170</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C213" s="20"/>
     </row>
@@ -3881,7 +3884,7 @@
         <v>170</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C214" s="20"/>
     </row>
@@ -3890,7 +3893,7 @@
         <v>170</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C215" s="20"/>
     </row>
@@ -3899,7 +3902,7 @@
         <v>170</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C216" s="20"/>
     </row>
@@ -3908,7 +3911,7 @@
         <v>170</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C217" s="20"/>
     </row>
@@ -3917,7 +3920,7 @@
         <v>170</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C218" s="20"/>
     </row>
@@ -3926,7 +3929,7 @@
         <v>170</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C219" s="20"/>
     </row>
@@ -3935,7 +3938,7 @@
         <v>170</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C220" s="20"/>
     </row>
@@ -3944,7 +3947,7 @@
         <v>170</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C221" s="20"/>
     </row>
@@ -3953,33 +3956,33 @@
         <v>170</v>
       </c>
       <c r="B222" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C222" s="20"/>
+    </row>
+    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B223" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C222" s="20"/>
-    </row>
-    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
-      <c r="B223" s="7"/>
+      <c r="C223" s="20"/>
     </row>
     <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="7"/>
     </row>
     <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C225" s="20"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="7"/>
     </row>
     <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C226" s="20"/>
     </row>
@@ -3988,7 +3991,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" s="20"/>
     </row>
@@ -3997,7 +4000,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C228" s="20"/>
     </row>
@@ -4006,7 +4009,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C229" s="20"/>
     </row>
@@ -4015,7 +4018,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C230" s="20"/>
     </row>
@@ -4023,8 +4026,8 @@
       <c r="A231" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B231" s="9" t="s">
-        <v>213</v>
+      <c r="B231" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C231" s="20"/>
     </row>
@@ -4032,8 +4035,8 @@
       <c r="A232" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B232" s="6" t="s">
-        <v>214</v>
+      <c r="B232" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C232" s="20"/>
     </row>
@@ -4042,7 +4045,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C233" s="20"/>
     </row>
@@ -4051,7 +4054,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C234" s="20"/>
     </row>
@@ -4060,7 +4063,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235" s="20"/>
     </row>
@@ -4069,7 +4072,7 @@
         <v>206</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C236" s="20"/>
     </row>
@@ -4078,7 +4081,7 @@
         <v>206</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C237" s="20"/>
     </row>
@@ -4087,7 +4090,7 @@
         <v>206</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C238" s="20"/>
     </row>
@@ -4096,7 +4099,7 @@
         <v>206</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C239" s="20"/>
     </row>
@@ -4105,7 +4108,7 @@
         <v>206</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C240" s="20"/>
     </row>
@@ -4114,7 +4117,7 @@
         <v>206</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C241" s="20"/>
     </row>
@@ -4123,7 +4126,7 @@
         <v>206</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C242" s="20"/>
     </row>
@@ -4132,7 +4135,7 @@
         <v>206</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C243" s="20"/>
     </row>
@@ -4141,7 +4144,7 @@
         <v>206</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C244" s="20"/>
     </row>
@@ -4150,7 +4153,7 @@
         <v>206</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C245" s="20"/>
     </row>
@@ -4159,31 +4162,31 @@
         <v>206</v>
       </c>
       <c r="B246" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C246" s="20"/>
+    </row>
+    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A247" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B247" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C246" s="20"/>
-    </row>
-    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B247" s="7"/>
+      <c r="C247" s="20"/>
     </row>
     <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
     </row>
     <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A249" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C249" s="20"/>
+      <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C250" s="20"/>
     </row>
@@ -4192,7 +4195,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C251" s="20"/>
     </row>
@@ -4201,7 +4204,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C252" s="20"/>
     </row>
@@ -4210,7 +4213,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C253" s="20"/>
     </row>
@@ -4219,7 +4222,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C254" s="20"/>
     </row>
@@ -4228,7 +4231,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C255" s="20"/>
     </row>
@@ -4237,7 +4240,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C256" s="20"/>
     </row>
@@ -4246,7 +4249,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C257" s="20"/>
     </row>
@@ -4255,7 +4258,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C258" s="20"/>
     </row>
@@ -4264,7 +4267,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C259" s="20"/>
     </row>
@@ -4273,7 +4276,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C260" s="20"/>
     </row>
@@ -4282,7 +4285,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C261" s="20"/>
     </row>
@@ -4291,7 +4294,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C262" s="20"/>
     </row>
@@ -4300,7 +4303,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C263" s="20"/>
     </row>
@@ -4309,7 +4312,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C264" s="20"/>
     </row>
@@ -4318,7 +4321,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C265" s="20"/>
     </row>
@@ -4327,7 +4330,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C266" s="20"/>
     </row>
@@ -4336,7 +4339,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C267" s="20"/>
     </row>
@@ -4345,7 +4348,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C268" s="20"/>
     </row>
@@ -4354,7 +4357,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C269" s="20"/>
     </row>
@@ -4363,7 +4366,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C270" s="20"/>
     </row>
@@ -4372,7 +4375,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C271" s="20"/>
     </row>
@@ -4381,7 +4384,7 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C272" s="20"/>
     </row>
@@ -4390,7 +4393,7 @@
         <v>229</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C273" s="20"/>
     </row>
@@ -4399,7 +4402,7 @@
         <v>229</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C274" s="20"/>
     </row>
@@ -4408,7 +4411,7 @@
         <v>229</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C275" s="20"/>
     </row>
@@ -4417,7 +4420,7 @@
         <v>229</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C276" s="20"/>
     </row>
@@ -4426,7 +4429,7 @@
         <v>229</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C277" s="20"/>
     </row>
@@ -4435,7 +4438,7 @@
         <v>229</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C278" s="20"/>
     </row>
@@ -4444,7 +4447,7 @@
         <v>229</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C279" s="20"/>
     </row>
@@ -4453,7 +4456,7 @@
         <v>229</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C280" s="20"/>
     </row>
@@ -4462,7 +4465,7 @@
         <v>229</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C281" s="20"/>
     </row>
@@ -4471,7 +4474,7 @@
         <v>229</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C282" s="20"/>
     </row>
@@ -4480,31 +4483,31 @@
         <v>229</v>
       </c>
       <c r="B283" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C283" s="20"/>
+    </row>
+    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B284" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C283" s="20"/>
-    </row>
-    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B284" s="7"/>
+      <c r="C284" s="20"/>
     </row>
     <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B285" s="7"/>
     </row>
     <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C286" s="20"/>
+      <c r="B286" s="7"/>
     </row>
     <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C287" s="20"/>
     </row>
@@ -4513,7 +4516,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C288" s="20"/>
     </row>
@@ -4522,7 +4525,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C289" s="20"/>
     </row>
@@ -4531,7 +4534,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C290" s="20"/>
     </row>
@@ -4540,7 +4543,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C291" s="20"/>
     </row>
@@ -4549,7 +4552,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C292" s="20"/>
     </row>
@@ -4558,7 +4561,7 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C293" s="20"/>
     </row>
@@ -4567,7 +4570,7 @@
         <v>264</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C294" s="20"/>
     </row>
@@ -4576,7 +4579,7 @@
         <v>264</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C295" s="20"/>
     </row>
@@ -4585,7 +4588,7 @@
         <v>264</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C296" s="20"/>
     </row>
@@ -4594,7 +4597,7 @@
         <v>264</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C297" s="20"/>
     </row>
@@ -4603,7 +4606,7 @@
         <v>264</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C298" s="20"/>
     </row>
@@ -4612,7 +4615,7 @@
         <v>264</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C299" s="20"/>
     </row>
@@ -4621,7 +4624,7 @@
         <v>264</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C300" s="20"/>
     </row>
@@ -4630,7 +4633,7 @@
         <v>264</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C301" s="20"/>
     </row>
@@ -4639,7 +4642,7 @@
         <v>264</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C302" s="20"/>
     </row>
@@ -4648,7 +4651,7 @@
         <v>264</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C303" s="20"/>
     </row>
@@ -4657,31 +4660,31 @@
         <v>264</v>
       </c>
       <c r="B304" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C304" s="20"/>
+    </row>
+    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A305" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B305" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C304" s="20"/>
-    </row>
-    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B305" s="7"/>
+      <c r="C305" s="20"/>
     </row>
     <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B306" s="7"/>
     </row>
     <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C307" s="20"/>
+      <c r="B307" s="7"/>
     </row>
     <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C308" s="20"/>
     </row>
@@ -4690,7 +4693,7 @@
         <v>284</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C309" s="20"/>
     </row>
@@ -4699,7 +4702,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C310" s="20"/>
     </row>
@@ -4708,7 +4711,7 @@
         <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C311" s="20"/>
     </row>
@@ -4717,7 +4720,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C312" s="20"/>
     </row>
@@ -4726,7 +4729,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C313" s="20"/>
     </row>
@@ -4735,7 +4738,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C314" s="20"/>
     </row>
@@ -4744,7 +4747,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C315" s="20"/>
     </row>
@@ -4753,7 +4756,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C316" s="20"/>
     </row>
@@ -4762,7 +4765,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C317" s="20"/>
     </row>
@@ -4771,7 +4774,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C318" s="20"/>
     </row>
@@ -4780,7 +4783,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C319" s="20"/>
     </row>
@@ -4788,8 +4791,8 @@
       <c r="A320" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B320" s="9" t="s">
-        <v>298</v>
+      <c r="B320" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C320" s="20"/>
     </row>
@@ -4797,8 +4800,8 @@
       <c r="A321" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B321" s="6" t="s">
-        <v>299</v>
+      <c r="B321" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C321" s="20"/>
     </row>
@@ -4807,7 +4810,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C322" s="20"/>
     </row>
@@ -4816,7 +4819,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C323" s="20"/>
     </row>
@@ -4825,7 +4828,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C324" s="20"/>
     </row>
@@ -4834,7 +4837,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C325" s="20"/>
     </row>
@@ -4843,7 +4846,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C326" s="20"/>
     </row>
@@ -4852,7 +4855,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C327" s="20"/>
     </row>
@@ -4861,7 +4864,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C328" s="20"/>
     </row>
@@ -4870,7 +4873,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C329" s="20"/>
     </row>
@@ -4879,7 +4882,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C330" s="20"/>
     </row>
@@ -4888,7 +4891,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C331" s="20"/>
     </row>
@@ -4897,7 +4900,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C332" s="20"/>
     </row>
@@ -4906,7 +4909,7 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C333" s="20"/>
     </row>
@@ -4915,7 +4918,7 @@
         <v>284</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C334" s="20"/>
     </row>
@@ -4924,7 +4927,7 @@
         <v>284</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C335" s="20"/>
     </row>
@@ -4933,7 +4936,7 @@
         <v>284</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C336" s="20"/>
     </row>
@@ -4942,7 +4945,7 @@
         <v>284</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C337" s="20"/>
     </row>
@@ -4951,7 +4954,7 @@
         <v>284</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C338" s="20"/>
     </row>
@@ -4960,7 +4963,7 @@
         <v>284</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C339" s="20"/>
     </row>
@@ -4969,7 +4972,7 @@
         <v>284</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C340" s="20"/>
     </row>
@@ -4978,7 +4981,7 @@
         <v>284</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C341" s="20"/>
     </row>
@@ -4987,7 +4990,7 @@
         <v>284</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C342" s="20"/>
     </row>
@@ -4996,7 +4999,7 @@
         <v>284</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C343" s="20"/>
     </row>
@@ -5005,31 +5008,31 @@
         <v>284</v>
       </c>
       <c r="B344" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C344" s="20"/>
+    </row>
+    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A345" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B345" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C344" s="20"/>
-    </row>
-    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B345" s="7"/>
+      <c r="C345" s="20"/>
     </row>
     <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B346" s="7"/>
     </row>
     <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A347" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C347" s="20"/>
+      <c r="B347" s="7"/>
     </row>
     <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C348" s="20"/>
     </row>
@@ -5038,7 +5041,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C349" s="20"/>
     </row>
@@ -5047,7 +5050,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C350" s="20"/>
     </row>
@@ -5056,7 +5059,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C351" s="20"/>
     </row>
@@ -5065,7 +5068,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C352" s="20"/>
     </row>
@@ -5074,7 +5077,7 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C353" s="20"/>
     </row>
@@ -5083,7 +5086,7 @@
         <v>323</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C354" s="20"/>
     </row>
@@ -5091,8 +5094,8 @@
       <c r="A355" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B355" s="9" t="s">
-        <v>332</v>
+      <c r="B355" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C355" s="20"/>
     </row>
@@ -5100,8 +5103,8 @@
       <c r="A356" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B356" s="6" t="s">
-        <v>333</v>
+      <c r="B356" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C356" s="20"/>
     </row>
@@ -5110,7 +5113,7 @@
         <v>323</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C357" s="20"/>
     </row>
@@ -5119,7 +5122,7 @@
         <v>323</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C358" s="20"/>
     </row>
@@ -5128,7 +5131,7 @@
         <v>323</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C359" s="20"/>
     </row>
@@ -5137,7 +5140,7 @@
         <v>323</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C360" s="20"/>
     </row>
@@ -5146,7 +5149,7 @@
         <v>323</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C361" s="20"/>
     </row>
@@ -5155,7 +5158,7 @@
         <v>323</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C362" s="20"/>
     </row>
@@ -5164,7 +5167,7 @@
         <v>323</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C363" s="20"/>
     </row>
@@ -5173,7 +5176,7 @@
         <v>323</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C364" s="20"/>
     </row>
@@ -5182,27 +5185,27 @@
         <v>323</v>
       </c>
       <c r="B365" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C365" s="20"/>
+    </row>
+    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A366" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B366" s="6" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B366" s="7"/>
-    </row>
     <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A367" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B367" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C367" s="20"/>
+      <c r="B367" s="7"/>
     </row>
     <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C368" s="20"/>
     </row>
@@ -5211,7 +5214,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C369" s="20"/>
     </row>
@@ -5220,7 +5223,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C370" s="20"/>
     </row>
@@ -5229,7 +5232,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C371" s="20"/>
     </row>
@@ -5238,7 +5241,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C372" s="20"/>
     </row>
@@ -5247,7 +5250,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C373" s="20"/>
     </row>
@@ -5256,7 +5259,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C374" s="20"/>
     </row>
@@ -5265,7 +5268,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C375" s="20"/>
     </row>
@@ -5274,7 +5277,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C376" s="20"/>
     </row>
@@ -5283,7 +5286,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C377" s="20"/>
     </row>
@@ -5292,7 +5295,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C378" s="20"/>
     </row>
@@ -5301,7 +5304,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C379" s="20"/>
     </row>
@@ -5310,7 +5313,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C380" s="20"/>
     </row>
@@ -5319,7 +5322,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C381" s="20"/>
     </row>
@@ -5328,7 +5331,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C382" s="20"/>
     </row>
@@ -5337,7 +5340,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C383" s="20"/>
     </row>
@@ -5346,7 +5349,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C384" s="20"/>
     </row>
@@ -5355,7 +5358,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C385" s="20"/>
     </row>
@@ -5364,7 +5367,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C386" s="20"/>
     </row>
@@ -5373,7 +5376,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C387" s="20"/>
     </row>
@@ -5382,7 +5385,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C388" s="20"/>
     </row>
@@ -5391,7 +5394,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C389" s="20"/>
     </row>
@@ -5400,7 +5403,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C390" s="20"/>
     </row>
@@ -5409,7 +5412,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C391" s="20"/>
     </row>
@@ -5418,7 +5421,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C392" s="20"/>
     </row>
@@ -5427,7 +5430,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C393" s="20"/>
     </row>
@@ -5436,7 +5439,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C394" s="20"/>
     </row>
@@ -5445,7 +5448,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C395" s="20"/>
     </row>
@@ -5454,7 +5457,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C396" s="20"/>
     </row>
@@ -5463,7 +5466,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C397" s="20"/>
     </row>
@@ -5472,7 +5475,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C398" s="20"/>
     </row>
@@ -5481,7 +5484,7 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C399" s="20"/>
     </row>
@@ -5490,7 +5493,7 @@
         <v>342</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C400" s="20"/>
     </row>
@@ -5508,7 +5511,7 @@
         <v>342</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C402" s="20"/>
     </row>
@@ -5517,7 +5520,7 @@
         <v>342</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C403" s="20"/>
     </row>
@@ -5526,7 +5529,7 @@
         <v>342</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C404" s="20"/>
     </row>
@@ -5535,7 +5538,7 @@
         <v>342</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C405" s="20"/>
     </row>
@@ -5544,7 +5547,7 @@
         <v>342</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C406" s="20"/>
     </row>
@@ -5553,7 +5556,7 @@
         <v>342</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C407" s="20"/>
     </row>
@@ -5562,7 +5565,7 @@
         <v>342</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C408" s="20"/>
     </row>
@@ -5571,7 +5574,7 @@
         <v>342</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C409" s="20"/>
     </row>
@@ -5580,31 +5583,31 @@
         <v>342</v>
       </c>
       <c r="B410" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C410" s="20"/>
+    </row>
+    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B411" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C410" s="20"/>
-    </row>
-    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B411" s="7"/>
+      <c r="C411" s="20"/>
     </row>
     <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B412" s="7"/>
     </row>
     <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A413" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B413" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C413" s="20"/>
+      <c r="B413" s="7"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C414" s="20"/>
     </row>
@@ -5613,7 +5616,7 @@
         <v>386</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C415" s="20"/>
     </row>
@@ -5622,7 +5625,7 @@
         <v>386</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
       <c r="C416" s="20"/>
     </row>
@@ -5631,7 +5634,7 @@
         <v>386</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="C417" s="20"/>
     </row>
@@ -5640,33 +5643,33 @@
         <v>386</v>
       </c>
       <c r="B418" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C418" s="20"/>
+    </row>
+    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A419" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B419" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C418" s="20"/>
-    </row>
-    <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B419" s="7"/>
-      <c r="C419" s="7"/>
+      <c r="C419" s="20"/>
     </row>
     <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A421" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B421" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="C421" s="22"/>
+      <c r="B421" s="7"/>
+      <c r="C421" s="7"/>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C422" s="22"/>
     </row>
@@ -5675,16 +5678,16 @@
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="C423" s="20"/>
+        <v>394</v>
+      </c>
+      <c r="C423" s="22"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C424" s="20"/>
     </row>
@@ -5693,7 +5696,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C425" s="20"/>
     </row>
@@ -5702,7 +5705,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C426" s="20"/>
     </row>
@@ -5711,37 +5714,37 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C427" s="22"/>
-      <c r="D427" t="s">
-        <v>464</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C427" s="20"/>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>272</v>
+        <v>399</v>
       </c>
       <c r="C428" s="22"/>
+      <c r="D428" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C429" s="20"/>
+        <v>272</v>
+      </c>
+      <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C430" s="20"/>
     </row>
@@ -5750,7 +5753,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C431" s="20"/>
     </row>
@@ -5759,7 +5762,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C432" s="20"/>
     </row>
@@ -5768,7 +5771,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C433" s="20"/>
     </row>
@@ -5777,43 +5780,43 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C434" s="22"/>
+        <v>404</v>
+      </c>
+      <c r="C434" s="20"/>
     </row>
     <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C435" s="20"/>
+        <v>405</v>
+      </c>
+      <c r="C435" s="22"/>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C436" s="22"/>
+        <v>406</v>
+      </c>
+      <c r="C436" s="20"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="C437" s="20"/>
+        <v>407</v>
+      </c>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C438" s="20"/>
     </row>
@@ -5822,7 +5825,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C439" s="20"/>
     </row>
@@ -5831,37 +5834,37 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="C440" s="23"/>
-      <c r="D440" t="s">
-        <v>466</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C440" s="20"/>
     </row>
     <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C441" s="22"/>
+        <v>465</v>
+      </c>
+      <c r="C441" s="23"/>
+      <c r="D441" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="C442" s="20"/>
+        <v>411</v>
+      </c>
+      <c r="C442" s="22"/>
     </row>
     <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C443" s="20"/>
     </row>
@@ -5870,7 +5873,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C444" s="20"/>
     </row>
@@ -5879,7 +5882,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C445" s="20"/>
     </row>
@@ -5888,7 +5891,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C446" s="20"/>
     </row>
@@ -5897,7 +5900,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C447" s="20"/>
     </row>
@@ -5906,7 +5909,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C448" s="20"/>
     </row>
@@ -5915,7 +5918,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C449" s="20"/>
     </row>
@@ -5924,7 +5927,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C450" s="20"/>
     </row>
@@ -5933,7 +5936,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C451" s="20"/>
     </row>
@@ -5942,7 +5945,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C452" s="20"/>
     </row>
@@ -5951,7 +5954,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C453" s="20"/>
     </row>
@@ -5960,7 +5963,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C454" s="20"/>
     </row>
@@ -5969,7 +5972,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C455" s="20"/>
     </row>
@@ -5978,7 +5981,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C456" s="20"/>
     </row>
@@ -5987,7 +5990,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C457" s="20"/>
     </row>
@@ -5996,7 +5999,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C458" s="20"/>
     </row>
@@ -6005,7 +6008,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C459" s="20"/>
     </row>
@@ -6014,7 +6017,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C460" s="20"/>
     </row>
@@ -6023,7 +6026,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C461" s="20"/>
     </row>
@@ -6032,7 +6035,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C462" s="20"/>
     </row>
@@ -6041,7 +6044,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C463" s="20"/>
     </row>
@@ -6050,7 +6053,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C464" s="20"/>
     </row>
@@ -6059,7 +6062,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C465" s="20"/>
     </row>
@@ -6068,7 +6071,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C466" s="20"/>
     </row>
@@ -6077,7 +6080,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C467" s="20"/>
     </row>
@@ -6086,7 +6089,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C468" s="20"/>
     </row>
@@ -6095,7 +6098,7 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C469" s="20"/>
     </row>
@@ -6104,7 +6107,7 @@
         <v>392</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C470" s="20"/>
     </row>
@@ -6113,7 +6116,7 @@
         <v>392</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C471" s="20"/>
     </row>
@@ -6122,7 +6125,7 @@
         <v>392</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C472" s="20"/>
     </row>
@@ -6131,7 +6134,7 @@
         <v>392</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C473" s="20"/>
     </row>
@@ -6140,7 +6143,7 @@
         <v>392</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C474" s="20"/>
     </row>
@@ -6149,7 +6152,7 @@
         <v>392</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C475" s="20"/>
     </row>
@@ -6158,7 +6161,7 @@
         <v>392</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C476" s="20"/>
     </row>
@@ -6167,7 +6170,7 @@
         <v>392</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C477" s="20"/>
     </row>
@@ -6176,7 +6179,7 @@
         <v>392</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C478" s="20"/>
     </row>
@@ -6185,7 +6188,7 @@
         <v>392</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C479" s="20"/>
     </row>
@@ -6194,7 +6197,7 @@
         <v>392</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C480" s="20"/>
     </row>
@@ -6203,7 +6206,7 @@
         <v>392</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C481" s="20"/>
     </row>
@@ -6212,34 +6215,34 @@
         <v>392</v>
       </c>
       <c r="B482" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C482" s="20"/>
+    </row>
+    <row r="483" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A483" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B483" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C482" s="20"/>
-    </row>
-    <row r="483" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A483" s="5"/>
-      <c r="B483" s="6"/>
-      <c r="C483" s="6"/>
+      <c r="C483" s="20"/>
     </row>
     <row r="484" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A484" s="8"/>
-      <c r="B484" s="7"/>
+      <c r="A484" s="5"/>
+      <c r="B484" s="6"/>
+      <c r="C484" s="6"/>
     </row>
     <row r="485" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A485" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B485" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C485" s="20"/>
+      <c r="A485" s="8"/>
+      <c r="B485" s="7"/>
     </row>
     <row r="486" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C486" s="20"/>
     </row>
@@ -6248,7 +6251,7 @@
         <v>452</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C487" s="20"/>
     </row>
@@ -6257,7 +6260,7 @@
         <v>452</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C488" s="20"/>
     </row>
@@ -6266,7 +6269,7 @@
         <v>452</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C489" s="20"/>
     </row>
@@ -6275,7 +6278,7 @@
         <v>452</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C490" s="20"/>
     </row>
@@ -6284,7 +6287,7 @@
         <v>452</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C491" s="20"/>
     </row>
@@ -6293,7 +6296,7 @@
         <v>452</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C492" s="20"/>
     </row>
@@ -6302,7 +6305,7 @@
         <v>452</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C493" s="20"/>
     </row>
@@ -6311,15 +6314,21 @@
         <v>452</v>
       </c>
       <c r="B494" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C494" s="20"/>
+    </row>
+    <row r="495" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A495" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B495" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C494" s="20"/>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C495" s="20"/>
     </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C510" s="4"/>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C496" s="20"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C511" s="4"/>
@@ -6527,6 +6536,9 @@
     </row>
     <row r="579" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C579" s="4"/>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C580" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6582,412 +6594,413 @@
     <hyperlink ref="B68" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
     <hyperlink ref="B69" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
     <hyperlink ref="B70" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B71" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B72" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B73" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B74" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B75" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B76" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B77" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B78" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B79" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B80" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B81" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B82" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B83" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B84" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B85" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B86" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B87" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B88" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B89" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B90" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B91" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B92" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B93" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B94" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B95" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B96" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B97" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B98" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B99" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B100" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B101" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B102" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B103" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B104" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B105" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B106" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B112" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B113" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B114" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B115" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B117" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B118" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B119" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B120" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B121" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B122" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B124" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B125" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B126" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B127" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B128" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B129" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B130" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B131" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B132" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B133" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B134" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B135" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B136" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B137" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B138" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B139" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B140" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B141" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B142" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B143" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B144" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B145" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B146" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B147" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B116" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B123" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B150" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B151" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B152" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B153" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B154" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B155" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B156" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B157" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B158" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B159" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B160" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B161" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B162" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B163" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B164" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B165" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B166" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B167" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B168" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B169" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B170" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B171" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B172" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B173" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B174" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B177" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B178" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B179" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B180" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B181" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B182" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B183" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B184" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B185" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B188" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B189" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B190" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B191" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B192" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B193" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B194" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B195" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B196" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B197" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B198" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B199" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B200" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B201" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B202" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B203" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B204" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B205" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B206" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B207" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B208" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B209" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B210" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B211" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B212" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B213" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B214" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B215" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B216" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B217" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B218" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B219" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B220" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B221" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B222" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B225" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B226" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B227" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B228" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B229" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B230" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B231" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B232" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B233" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B234" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B235" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B236" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B237" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B238" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B239" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B240" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B241" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B242" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B243" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B244" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B245" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B246" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B249" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B250" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B251" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B252" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B253" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B254" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B255" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B256" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B257" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B258" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B259" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B260" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B261" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B262" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B263" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B264" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B265" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B266" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B267" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B268" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B269" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B270" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B271" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B272" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B273" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B274" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B275" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B276" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B277" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B278" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B279" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B280" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B281" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B282" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B283" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B286" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B287" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B288" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B289" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B290" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B291" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B292" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B293" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B294" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B295" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B296" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B297" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B298" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B299" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B300" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B301" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B302" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B303" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B304" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B307" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B308" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B309" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B310" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B311" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B312" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B313" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B314" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B315" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B316" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B317" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B318" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B319" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B320" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B321" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B322" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B323" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B324" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B325" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B326" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B327" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B328" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B329" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B330" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B331" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B332" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B333" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B334" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B335" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B336" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B337" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B338" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B339" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B340" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B341" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B342" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B343" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B344" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B347" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B348" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B349" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B350" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B351" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B352" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B353" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B354" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B355" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B356" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B357" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B358" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B359" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B360" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B361" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B362" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B363" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B364" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B368" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B369" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B370" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B371" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B372" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B373" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B374" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B375" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B376" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B377" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B378" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B379" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B380" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B381" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B382" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B383" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B384" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B385" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B386" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B387" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B388" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B389" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B390" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B391" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B392" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B393" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B394" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B395" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B396" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B397" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B398" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B399" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B400" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B401" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B402" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B403" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B404" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B405" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B407" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B406" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B408" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B409" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B410" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B413" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B414" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B415" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B416" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B417" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B418" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B421" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B422" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B423" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B424" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B425" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B426" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B427" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B428" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B429" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B430" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B431" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B432" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B433" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B434" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B435" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B436" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B437" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B438" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B439" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B441" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B442" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B443" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B444" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B445" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B446" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B447" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B448" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B449" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B450" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B451" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B452" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B453" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B454" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B455" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B456" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B457" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B458" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B459" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B460" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B461" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B463" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B462" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B464" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B465" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B466" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B467" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B468" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B469" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B470" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B471" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B472" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B473" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B474" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B481" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B480" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B479" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B478" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B477" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B476" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B475" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B485" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B486" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B487" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B488" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B489" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B490" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B491" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B494" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B492" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B493" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B367" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B72" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B73" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B74" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B75" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B76" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B77" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B78" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B79" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B80" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B81" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B82" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B83" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B84" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B85" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B86" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B87" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B88" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B89" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B90" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B91" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B92" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B93" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B94" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B95" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B96" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B97" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B98" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B99" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B100" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B101" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B102" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B103" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B104" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B105" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B106" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B107" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B113" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B114" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B115" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B116" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B118" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B119" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B120" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B121" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B122" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B123" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B125" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B126" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B127" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B128" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B129" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B130" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B131" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B132" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B133" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B134" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B135" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B136" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B137" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B138" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B139" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B140" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B141" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B142" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B143" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B144" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B145" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B146" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B147" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B148" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B117" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B124" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B151" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B152" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B153" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B154" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B155" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B156" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B157" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B158" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B159" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B160" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B161" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B162" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B163" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B164" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B165" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B166" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B167" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B168" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B169" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B170" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B171" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B172" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B173" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B174" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B175" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B178" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B179" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B180" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B181" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B182" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B183" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B184" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B185" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B186" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B189" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B190" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B191" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B192" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B193" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B194" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B195" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B196" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B197" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B198" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B199" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B200" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B201" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B202" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B203" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B204" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B205" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B206" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B207" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B208" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B209" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B210" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B211" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B212" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B213" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B214" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B215" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B216" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B217" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B218" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B219" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B220" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B221" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B222" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B223" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B226" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B227" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B228" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B229" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B230" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B231" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B232" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B233" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B234" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B235" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B236" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B237" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B238" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B239" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B240" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B241" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B242" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B243" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B244" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B245" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B246" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B247" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B250" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B251" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B252" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B253" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B254" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B255" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B256" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B257" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B258" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B259" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B260" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B261" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B262" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B263" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B264" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B265" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B266" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B267" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B268" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B269" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B270" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B271" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B272" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B273" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B274" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B275" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B276" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B277" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B278" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B279" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B280" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B281" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B282" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B283" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B284" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B287" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B288" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B289" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B290" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B291" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B292" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B293" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B294" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B295" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B296" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B297" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B298" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B299" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B300" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B301" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B302" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B303" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B304" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B305" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B308" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B309" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B310" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B311" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B312" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B313" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B314" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B315" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B316" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B317" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B318" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B319" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B320" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B321" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B322" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B323" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B324" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B325" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B326" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B327" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B328" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B329" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B330" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B331" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B332" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B333" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B334" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B335" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B336" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B337" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B338" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B339" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B340" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B341" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B342" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B343" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B344" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B345" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B348" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B349" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B350" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B351" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B352" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B353" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B354" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B355" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B356" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B357" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B358" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B359" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B360" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B361" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B362" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B363" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B364" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B365" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B369" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B370" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B371" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B372" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B373" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B374" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B375" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B376" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B377" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B378" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B379" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B380" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B381" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B382" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B383" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B384" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B385" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B386" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B387" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B388" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B389" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B390" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B391" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B392" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B393" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B394" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B395" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B396" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B397" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B398" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B399" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B400" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B401" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B402" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B403" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B404" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B405" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B406" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B408" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B407" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B409" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B410" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B411" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B414" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B415" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B416" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B417" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B418" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B419" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B422" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B423" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B424" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B425" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B426" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B427" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B428" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B429" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B430" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B431" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B432" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B433" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B434" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B435" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B436" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B437" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B438" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B439" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B440" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B442" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B443" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B444" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B445" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B446" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B447" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B448" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B449" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B450" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B451" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B452" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B453" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B454" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B455" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B456" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B457" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B458" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B459" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B460" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B461" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B462" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B464" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B463" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B465" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B466" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B467" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B468" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B469" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B470" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B471" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B472" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B473" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B474" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B475" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B482" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B481" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B480" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B479" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B478" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B477" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B476" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B486" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B487" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B488" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B489" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B490" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B491" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B492" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B495" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B493" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B494" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B368" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B440" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B441" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B365" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B366" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
     <hyperlink ref="B47" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
     <hyperlink ref="B48" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B482" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B483" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
     <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
-    <hyperlink ref="B107" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
+    <hyperlink ref="B108" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
     <hyperlink ref="B40" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>
     <hyperlink ref="B49" r:id="rId458" xr:uid="{213ED1AC-FD00-394C-90BF-99997A614249}"/>
+    <hyperlink ref="B71" r:id="rId459" xr:uid="{FADD6000-58D0-D240-81EC-1D00F607DAE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0897FD0B-B8D5-B841-B79B-8BAFBB9E643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7B53F-8B10-314F-A28B-7A6EC7F09100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3034,7 @@
       <c r="B116" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C116" s="20"/>
+      <c r="C116" s="17"/>
     </row>
     <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A7B53F-8B10-314F-A28B-7A6EC7F09100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6017F-FD58-0F4D-8DAA-CB3D64F9EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3232,7 +3232,7 @@
       <c r="B138" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="20"/>
+      <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
@@ -3286,7 +3286,7 @@
       <c r="B144" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="20"/>
+      <c r="C144" s="17"/>
     </row>
     <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
@@ -3304,7 +3304,7 @@
       <c r="B146" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="20"/>
+      <c r="C146" s="17"/>
     </row>
     <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6017F-FD58-0F4D-8DAA-CB3D64F9EA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9275F-9414-4A46-A819-609479057F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>Find pivot element in a sorted array</t>
   </si>
   <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
     <t>Aggressive cows</t>
   </si>
   <si>
@@ -1492,6 +1489,9 @@
   </si>
   <si>
     <t>Number of palindromic substrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-th element of two sorted Arrays </t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2048,7 +2048,7 @@
       <c r="C6" s="17"/>
       <c r="E6" s="13"/>
       <c r="F6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2061,7 +2061,7 @@
       <c r="C7" s="17"/>
       <c r="E7" s="12"/>
       <c r="F7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
       <c r="C8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2184,11 +2184,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2196,11 +2196,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2235,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C25" s="17"/>
     </row>
@@ -2289,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C31" s="17"/>
     </row>
@@ -2370,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C40" s="17"/>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C47" s="17"/>
     </row>
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C48" s="20"/>
     </row>
@@ -2454,11 +2454,11 @@
         <v>4</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C71" s="17"/>
     </row>
@@ -2971,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C108" s="17"/>
     </row>
@@ -3203,7 +3203,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>119</v>
+        <v>486</v>
       </c>
       <c r="C135" s="20"/>
     </row>
@@ -3212,7 +3212,7 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C136" s="20"/>
     </row>
@@ -3221,16 +3221,16 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C137" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="C137" s="19"/>
     </row>
     <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C138" s="17"/>
     </row>
@@ -3239,7 +3239,7 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C139" s="20"/>
     </row>
@@ -3248,7 +3248,7 @@
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C140" s="20"/>
     </row>
@@ -3257,7 +3257,7 @@
         <v>96</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C141" s="20"/>
     </row>
@@ -3266,25 +3266,25 @@
         <v>96</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C142" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="C142" s="17"/>
     </row>
     <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C143" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="C143" s="17"/>
     </row>
     <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C144" s="17"/>
     </row>
@@ -3293,16 +3293,16 @@
         <v>96</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C145" s="20"/>
+        <v>128</v>
+      </c>
+      <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146" s="17"/>
     </row>
@@ -3311,7 +3311,7 @@
         <v>96</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C147" s="20"/>
     </row>
@@ -3320,7 +3320,7 @@
         <v>96</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C148" s="20"/>
     </row>
@@ -3329,325 +3329,325 @@
     </row>
     <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="C151" s="20"/>
     </row>
     <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C152" s="20"/>
     </row>
     <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C153" s="20"/>
     </row>
     <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C154" s="20"/>
     </row>
     <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C155" s="20"/>
     </row>
     <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C156" s="20"/>
     </row>
     <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C157" s="20"/>
     </row>
     <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C158" s="20"/>
     </row>
     <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C159" s="20"/>
     </row>
     <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C160" s="20"/>
     </row>
     <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C161" s="20"/>
     </row>
     <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C162" s="20"/>
     </row>
     <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C163" s="20"/>
     </row>
     <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C164" s="20"/>
     </row>
     <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C166" s="20"/>
     </row>
     <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C167" s="20"/>
     </row>
     <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C168" s="20"/>
     </row>
     <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C169" s="20"/>
     </row>
     <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C170" s="20"/>
     </row>
     <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C171" s="20"/>
     </row>
     <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C172" s="20"/>
     </row>
     <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C173" s="20"/>
     </row>
     <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C174" s="20"/>
     </row>
     <row r="175" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175" s="20"/>
     </row>
     <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C176" s="20"/>
     </row>
     <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C177" s="20"/>
     </row>
     <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C178" s="20"/>
     </row>
     <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C179" s="20"/>
     </row>
     <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C180" s="20"/>
     </row>
     <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="20"/>
     </row>
     <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C182" s="20"/>
     </row>
     <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C183" s="20"/>
     </row>
     <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C184" s="20"/>
     </row>
     <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="20"/>
     </row>
     <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="20"/>
     </row>
@@ -3656,316 +3656,316 @@
     </row>
     <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="C189" s="20"/>
     </row>
     <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C190" s="20"/>
     </row>
     <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="20"/>
     </row>
     <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C192" s="20"/>
     </row>
     <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C194" s="20"/>
     </row>
     <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C195" s="20"/>
     </row>
     <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C196" s="20"/>
     </row>
     <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C197" s="20"/>
     </row>
     <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C198" s="20"/>
     </row>
     <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C199" s="20"/>
     </row>
     <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C200" s="20"/>
     </row>
     <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C201" s="20"/>
     </row>
     <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C202" s="20"/>
     </row>
     <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C203" s="20"/>
     </row>
     <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C204" s="20"/>
     </row>
     <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C205" s="20"/>
     </row>
     <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C206" s="20"/>
     </row>
     <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C207" s="20"/>
     </row>
     <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C208" s="20"/>
     </row>
     <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C209" s="20"/>
     </row>
     <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C210" s="20"/>
     </row>
     <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C211" s="20"/>
     </row>
     <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C212" s="20"/>
     </row>
     <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C213" s="20"/>
     </row>
     <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C214" s="20"/>
     </row>
     <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C215" s="20"/>
     </row>
     <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C216" s="20"/>
     </row>
     <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217" s="20"/>
     </row>
     <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" s="20"/>
     </row>
     <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219" s="20"/>
     </row>
     <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C220" s="20"/>
     </row>
     <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" s="20"/>
     </row>
     <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" s="20"/>
     </row>
     <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" s="20"/>
     </row>
@@ -3979,199 +3979,199 @@
     </row>
     <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B226" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="C226" s="20"/>
     </row>
     <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C227" s="20"/>
     </row>
     <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C228" s="20"/>
     </row>
     <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C229" s="20"/>
     </row>
     <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C230" s="20"/>
     </row>
     <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C231" s="20"/>
     </row>
     <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C232" s="20"/>
     </row>
     <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C233" s="20"/>
     </row>
     <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C234" s="20"/>
     </row>
     <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C235" s="20"/>
     </row>
     <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C236" s="20"/>
     </row>
     <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C237" s="20"/>
     </row>
     <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C238" s="20"/>
     </row>
     <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C239" s="20"/>
     </row>
     <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C240" s="20"/>
     </row>
     <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C241" s="20"/>
     </row>
     <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C242" s="20"/>
     </row>
     <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C243" s="20"/>
     </row>
     <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C244" s="20"/>
     </row>
     <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C245" s="20"/>
     </row>
     <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C246" s="20"/>
     </row>
     <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C247" s="20"/>
     </row>
@@ -4183,304 +4183,304 @@
     </row>
     <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B250" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="C250" s="20"/>
     </row>
     <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C251" s="20"/>
     </row>
     <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C252" s="20"/>
     </row>
     <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C253" s="20"/>
     </row>
     <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C254" s="20"/>
     </row>
     <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C255" s="20"/>
     </row>
     <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C256" s="20"/>
     </row>
     <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C257" s="20"/>
     </row>
     <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C258" s="20"/>
     </row>
     <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C259" s="20"/>
     </row>
     <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C260" s="20"/>
     </row>
     <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C261" s="20"/>
     </row>
     <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C262" s="20"/>
     </row>
     <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C263" s="20"/>
     </row>
     <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C264" s="20"/>
     </row>
     <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C265" s="20"/>
     </row>
     <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C266" s="20"/>
     </row>
     <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C267" s="20"/>
     </row>
     <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C268" s="20"/>
     </row>
     <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C269" s="20"/>
     </row>
     <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C270" s="20"/>
     </row>
     <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C271" s="20"/>
     </row>
     <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C272" s="20"/>
     </row>
     <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C273" s="20"/>
     </row>
     <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C274" s="20"/>
     </row>
     <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C275" s="20"/>
     </row>
     <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C276" s="20"/>
     </row>
     <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C277" s="20"/>
     </row>
     <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C278" s="20"/>
     </row>
     <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C279" s="20"/>
     </row>
     <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C280" s="20"/>
     </row>
     <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C281" s="20"/>
     </row>
     <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C282" s="20"/>
     </row>
     <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>86</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C284" s="20"/>
     </row>
@@ -4504,172 +4504,172 @@
     </row>
     <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B287" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C287" s="20"/>
     </row>
     <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C288" s="20"/>
     </row>
     <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C289" s="20"/>
     </row>
     <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C290" s="20"/>
     </row>
     <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C291" s="20"/>
     </row>
     <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C292" s="20"/>
     </row>
     <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C293" s="20"/>
     </row>
     <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C294" s="20"/>
     </row>
     <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C295" s="20"/>
     </row>
     <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C296" s="20"/>
     </row>
     <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C297" s="20"/>
     </row>
     <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C298" s="20"/>
     </row>
     <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C299" s="20"/>
     </row>
     <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C300" s="20"/>
     </row>
     <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C301" s="20"/>
     </row>
     <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C302" s="20"/>
     </row>
     <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C303" s="20"/>
     </row>
     <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C304" s="20"/>
     </row>
     <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C305" s="20"/>
     </row>
@@ -4681,343 +4681,343 @@
     </row>
     <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B308" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C308" s="20"/>
     </row>
     <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C309" s="20"/>
     </row>
     <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C310" s="20"/>
     </row>
     <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C311" s="20"/>
     </row>
     <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C312" s="20"/>
     </row>
     <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C313" s="20"/>
     </row>
     <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C314" s="20"/>
     </row>
     <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C315" s="20"/>
     </row>
     <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C316" s="20"/>
     </row>
     <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C317" s="20"/>
     </row>
     <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C318" s="20"/>
     </row>
     <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C319" s="20"/>
     </row>
     <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C320" s="20"/>
     </row>
     <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C321" s="20"/>
     </row>
     <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C322" s="20"/>
     </row>
     <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C323" s="20"/>
     </row>
     <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C324" s="20"/>
     </row>
     <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C325" s="20"/>
     </row>
     <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C326" s="20"/>
     </row>
     <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C327" s="20"/>
     </row>
     <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C328" s="20"/>
     </row>
     <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C329" s="20"/>
     </row>
     <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C330" s="20"/>
     </row>
     <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C331" s="20"/>
     </row>
     <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C332" s="20"/>
     </row>
     <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C333" s="20"/>
     </row>
     <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C334" s="20"/>
     </row>
     <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C335" s="20"/>
     </row>
     <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C336" s="20"/>
     </row>
     <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C337" s="20"/>
     </row>
     <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C338" s="20"/>
     </row>
     <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C339" s="20"/>
     </row>
     <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C340" s="20"/>
     </row>
     <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C341" s="20"/>
     </row>
     <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C342" s="20"/>
     </row>
     <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C343" s="20"/>
     </row>
     <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C344" s="20"/>
     </row>
     <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C345" s="20"/>
     </row>
@@ -5029,172 +5029,172 @@
     </row>
     <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B348" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C348" s="20"/>
     </row>
     <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C349" s="20"/>
     </row>
     <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C350" s="20"/>
     </row>
     <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C351" s="20"/>
     </row>
     <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C352" s="20"/>
     </row>
     <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C353" s="20"/>
     </row>
     <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C354" s="20"/>
     </row>
     <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C355" s="20"/>
     </row>
     <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C356" s="20"/>
     </row>
     <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C357" s="20"/>
     </row>
     <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C358" s="20"/>
     </row>
     <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C359" s="20"/>
     </row>
     <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C360" s="20"/>
     </row>
     <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A361" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C361" s="20"/>
     </row>
     <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C362" s="20"/>
     </row>
     <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A363" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C363" s="20"/>
     </row>
     <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C364" s="20"/>
     </row>
     <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A365" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C365" s="20"/>
     </row>
     <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -5202,397 +5202,397 @@
     </row>
     <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B368" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C368" s="20"/>
     </row>
     <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C369" s="20"/>
     </row>
     <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C370" s="20"/>
     </row>
     <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A371" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C371" s="20"/>
     </row>
     <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C372" s="20"/>
     </row>
     <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A373" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C373" s="20"/>
     </row>
     <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C374" s="20"/>
     </row>
     <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A375" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C375" s="20"/>
     </row>
     <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C376" s="20"/>
     </row>
     <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A377" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C377" s="20"/>
     </row>
     <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C378" s="20"/>
     </row>
     <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A379" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C379" s="20"/>
     </row>
     <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C380" s="20"/>
     </row>
     <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A381" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C381" s="20"/>
     </row>
     <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C382" s="20"/>
     </row>
     <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A383" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C383" s="20"/>
     </row>
     <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C384" s="20"/>
     </row>
     <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A385" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C385" s="20"/>
     </row>
     <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C386" s="20"/>
     </row>
     <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C387" s="20"/>
     </row>
     <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C388" s="20"/>
     </row>
     <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C389" s="20"/>
     </row>
     <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C390" s="20"/>
     </row>
     <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C391" s="20"/>
     </row>
     <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C392" s="20"/>
     </row>
     <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C393" s="20"/>
     </row>
     <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C394" s="20"/>
     </row>
     <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C395" s="20"/>
     </row>
     <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C396" s="20"/>
     </row>
     <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C397" s="20"/>
     </row>
     <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C398" s="20"/>
     </row>
     <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C399" s="20"/>
     </row>
     <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C400" s="20"/>
     </row>
     <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C401" s="20"/>
     </row>
     <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C402" s="20"/>
     </row>
     <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C403" s="20"/>
     </row>
     <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C404" s="20"/>
     </row>
     <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C405" s="20"/>
     </row>
     <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C406" s="20"/>
     </row>
     <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C407" s="20"/>
     </row>
     <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C408" s="20"/>
     </row>
     <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A409" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C409" s="20"/>
     </row>
     <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C410" s="20"/>
     </row>
     <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A411" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C411" s="20"/>
     </row>
@@ -5604,34 +5604,34 @@
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B414" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C414" s="20"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C415" s="20"/>
     </row>
     <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C416" s="20"/>
     </row>
     <row r="417" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A417" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>88</v>
@@ -5640,19 +5640,19 @@
     </row>
     <row r="418" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C418" s="20"/>
     </row>
     <row r="419" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A419" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C419" s="20"/>
     </row>
@@ -5666,565 +5666,565 @@
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B422" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="C422" s="22"/>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C423" s="22"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C424" s="20"/>
     </row>
     <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C425" s="20"/>
     </row>
     <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C426" s="20"/>
     </row>
     <row r="427" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C427" s="20"/>
     </row>
     <row r="428" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C428" s="22"/>
       <c r="D428" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C429" s="22"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C430" s="20"/>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C431" s="20"/>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C432" s="20"/>
     </row>
     <row r="433" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C433" s="20"/>
     </row>
     <row r="434" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C434" s="20"/>
     </row>
     <row r="435" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C435" s="22"/>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C436" s="20"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C438" s="20"/>
     </row>
     <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C439" s="20"/>
     </row>
     <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C440" s="20"/>
     </row>
     <row r="441" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C441" s="23"/>
       <c r="D441" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C442" s="22"/>
     </row>
     <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C443" s="20"/>
     </row>
     <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C444" s="20"/>
     </row>
     <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C445" s="20"/>
     </row>
     <row r="446" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C446" s="20"/>
     </row>
     <row r="447" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C447" s="20"/>
     </row>
     <row r="448" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C448" s="20"/>
     </row>
     <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C449" s="20"/>
     </row>
     <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C450" s="20"/>
     </row>
     <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C451" s="20"/>
     </row>
     <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C452" s="20"/>
     </row>
     <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C453" s="20"/>
     </row>
     <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C454" s="20"/>
     </row>
     <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C455" s="20"/>
     </row>
     <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C456" s="20"/>
     </row>
     <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C457" s="20"/>
     </row>
     <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C458" s="20"/>
     </row>
     <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C459" s="20"/>
     </row>
     <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C460" s="20"/>
     </row>
     <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C461" s="20"/>
     </row>
     <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C462" s="20"/>
     </row>
     <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C463" s="20"/>
     </row>
     <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C464" s="20"/>
     </row>
     <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C465" s="20"/>
     </row>
     <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C466" s="20"/>
     </row>
     <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C467" s="20"/>
     </row>
     <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C468" s="20"/>
     </row>
     <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C469" s="20"/>
     </row>
     <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C470" s="20"/>
     </row>
     <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C471" s="20"/>
     </row>
     <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C472" s="20"/>
     </row>
     <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C473" s="20"/>
     </row>
     <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C474" s="20"/>
     </row>
     <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C475" s="20"/>
     </row>
     <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C476" s="20"/>
     </row>
     <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C477" s="20"/>
     </row>
     <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C478" s="20"/>
     </row>
     <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C479" s="20"/>
     </row>
     <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C480" s="20"/>
     </row>
     <row r="481" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C481" s="20"/>
     </row>
     <row r="482" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C482" s="20"/>
     </row>
     <row r="483" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C483" s="20"/>
     </row>
@@ -6239,91 +6239,91 @@
     </row>
     <row r="486" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B486" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="C486" s="20"/>
     </row>
     <row r="487" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C487" s="20"/>
     </row>
     <row r="488" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C488" s="20"/>
     </row>
     <row r="489" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C489" s="20"/>
     </row>
     <row r="490" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C490" s="20"/>
     </row>
     <row r="491" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C491" s="20"/>
     </row>
     <row r="492" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C492" s="20"/>
     </row>
     <row r="493" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C493" s="20"/>
     </row>
     <row r="494" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C494" s="20"/>
     </row>
     <row r="495" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C495" s="20"/>
     </row>
@@ -6650,7 +6650,7 @@
     <hyperlink ref="B132" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
     <hyperlink ref="B133" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
     <hyperlink ref="B134" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B135" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B135" r:id="rId109" display="K-th Element of Two Sorted Arrays" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
     <hyperlink ref="B136" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
     <hyperlink ref="B137" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
     <hyperlink ref="B138" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9275F-9414-4A46-A819-609479057F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44948D09-0E46-0F4D-9B96-F2ECECCDAD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="489">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1492,6 +1492,12 @@
   </si>
   <si>
     <t xml:space="preserve">K-th element of two sorted Arrays </t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>??? Graph q</t>
   </si>
 </sst>
 </file>
@@ -2005,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3000,34 +3006,34 @@
       <c r="A112" s="5"/>
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C113" s="20"/>
-    </row>
-    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C113" s="17"/>
+    </row>
+    <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="20"/>
-    </row>
-    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C114" s="17"/>
+    </row>
+    <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C115" s="20"/>
-    </row>
-    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C115" s="17"/>
+    </row>
+    <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>96</v>
       </c>
@@ -3036,7 +3042,7 @@
       </c>
       <c r="C116" s="17"/>
     </row>
-    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>96</v>
       </c>
@@ -3045,7 +3051,7 @@
       </c>
       <c r="C117" s="20"/>
     </row>
-    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>96</v>
       </c>
@@ -3054,7 +3060,7 @@
       </c>
       <c r="C118" s="20"/>
     </row>
-    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>96</v>
       </c>
@@ -3062,17 +3068,23 @@
         <v>103</v>
       </c>
       <c r="C119" s="20"/>
-    </row>
-    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C120" s="20"/>
-    </row>
-    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C120" s="17"/>
+      <c r="D120" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>96</v>
       </c>
@@ -3080,8 +3092,11 @@
         <v>105</v>
       </c>
       <c r="C121" s="20"/>
-    </row>
-    <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
@@ -3089,8 +3104,11 @@
         <v>106</v>
       </c>
       <c r="C122" s="20"/>
-    </row>
-    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>96</v>
       </c>
@@ -3098,8 +3116,11 @@
         <v>107</v>
       </c>
       <c r="C123" s="20"/>
-    </row>
-    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>96</v>
       </c>
@@ -3107,8 +3128,11 @@
         <v>108</v>
       </c>
       <c r="C124" s="20"/>
-    </row>
-    <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
@@ -3116,8 +3140,11 @@
         <v>109</v>
       </c>
       <c r="C125" s="20"/>
-    </row>
-    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>96</v>
       </c>
@@ -3125,8 +3152,11 @@
         <v>110</v>
       </c>
       <c r="C126" s="20"/>
-    </row>
-    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>96</v>
       </c>
@@ -3134,17 +3164,23 @@
         <v>111</v>
       </c>
       <c r="C127" s="20"/>
-    </row>
-    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C128" s="20"/>
-    </row>
-    <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C128" s="17"/>
+      <c r="D128" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>96</v>
       </c>
@@ -3153,16 +3189,19 @@
       </c>
       <c r="C129" s="20"/>
     </row>
-    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C130" s="20"/>
-    </row>
-    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C130" s="19"/>
+      <c r="D130" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
@@ -3171,7 +3210,7 @@
       </c>
       <c r="C131" s="20"/>
     </row>
-    <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
@@ -3180,25 +3219,28 @@
       </c>
       <c r="C132" s="20"/>
     </row>
-    <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="20"/>
-    </row>
-    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C133" s="17"/>
+      <c r="D133" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="20"/>
-    </row>
-    <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C134" s="17"/>
+    </row>
+    <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>96</v>
       </c>
@@ -3206,17 +3248,23 @@
         <v>486</v>
       </c>
       <c r="C135" s="20"/>
-    </row>
-    <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C136" s="20"/>
-    </row>
-    <row r="137" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C136" s="17"/>
+      <c r="D136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>96</v>
       </c>
@@ -3225,7 +3273,7 @@
       </c>
       <c r="C137" s="19"/>
     </row>
-    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>96</v>
       </c>
@@ -3234,7 +3282,7 @@
       </c>
       <c r="C138" s="17"/>
     </row>
-    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>96</v>
       </c>
@@ -3243,7 +3291,7 @@
       </c>
       <c r="C139" s="20"/>
     </row>
-    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>96</v>
       </c>
@@ -3252,7 +3300,7 @@
       </c>
       <c r="C140" s="20"/>
     </row>
-    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>96</v>
       </c>
@@ -3261,7 +3309,7 @@
       </c>
       <c r="C141" s="20"/>
     </row>
-    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>96</v>
       </c>
@@ -3270,7 +3318,7 @@
       </c>
       <c r="C142" s="17"/>
     </row>
-    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>96</v>
       </c>
@@ -3279,7 +3327,7 @@
       </c>
       <c r="C143" s="17"/>
     </row>
-    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>96</v>
       </c>
@@ -3295,7 +3343,7 @@
       <c r="B145" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C145" s="17"/>
+      <c r="C145" s="20"/>
     </row>
     <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44948D09-0E46-0F4D-9B96-F2ECECCDAD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1082F3-346A-7146-A89C-4FFFC2F8E2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="490">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1449,9 +1449,6 @@
     <t>accp in one go</t>
   </si>
   <si>
-    <t>not able to solve yet</t>
-  </si>
-  <si>
     <t>Non-overlapping Intervals</t>
   </si>
   <si>
@@ -1498,6 +1495,12 @@
   </si>
   <si>
     <t>??? Graph q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory :  to be revised later </t>
+  </si>
+  <si>
+    <t>not attempted</t>
   </si>
 </sst>
 </file>
@@ -2011,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D152" sqref="D152"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2083,7 @@
       <c r="C8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -2202,11 +2205,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2241,7 +2244,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C25" s="17"/>
     </row>
@@ -2295,7 +2298,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C31" s="17"/>
     </row>
@@ -2376,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C40" s="17"/>
     </row>
@@ -2407,7 +2410,7 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2435,14 +2438,14 @@
       <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C47" s="17"/>
     </row>
@@ -2451,20 +2454,20 @@
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C48" s="20"/>
+        <v>476</v>
+      </c>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="C49" s="20"/>
+        <v>483</v>
+      </c>
+      <c r="C49" s="19"/>
       <c r="D49" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2644,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C71" s="17"/>
     </row>
@@ -2977,7 +2980,7 @@
         <v>52</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C108" s="17"/>
     </row>
@@ -3049,7 +3052,7 @@
       <c r="B117" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C117" s="20"/>
+      <c r="C117" s="17"/>
     </row>
     <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
@@ -3069,7 +3072,7 @@
       </c>
       <c r="C119" s="20"/>
       <c r="D119" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3081,7 +3084,7 @@
       </c>
       <c r="C120" s="17"/>
       <c r="D120" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3091,9 +3094,9 @@
       <c r="B121" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C121" s="20"/>
+      <c r="C121" s="17"/>
       <c r="D121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3103,9 +3106,9 @@
       <c r="B122" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C122" s="20"/>
+      <c r="C122" s="17"/>
       <c r="D122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3117,7 +3120,7 @@
       </c>
       <c r="C123" s="20"/>
       <c r="D123" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3129,7 +3132,7 @@
       </c>
       <c r="C124" s="20"/>
       <c r="D124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3139,9 +3142,9 @@
       <c r="B125" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C125" s="20"/>
+      <c r="C125" s="17"/>
       <c r="D125" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3151,9 +3154,9 @@
       <c r="B126" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C126" s="20"/>
+      <c r="C126" s="17"/>
       <c r="D126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3165,7 +3168,7 @@
       </c>
       <c r="C127" s="20"/>
       <c r="D127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3177,7 +3180,7 @@
       </c>
       <c r="C128" s="17"/>
       <c r="D128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3198,7 +3201,7 @@
       </c>
       <c r="C130" s="19"/>
       <c r="D130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3228,7 +3231,7 @@
       </c>
       <c r="C133" s="17"/>
       <c r="D133" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3245,11 +3248,11 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C135" s="17"/>
+      <c r="D135" t="s">
         <v>486</v>
-      </c>
-      <c r="C135" s="20"/>
-      <c r="D135" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3261,7 +3264,7 @@
       </c>
       <c r="C136" s="17"/>
       <c r="D136" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3271,7 +3274,7 @@
       <c r="B137" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C137" s="19"/>
+      <c r="C137" s="17"/>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
@@ -3298,7 +3301,7 @@
       <c r="B140" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C140" s="20"/>
+      <c r="C140" s="17"/>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
@@ -3336,7 +3339,7 @@
       </c>
       <c r="C144" s="17"/>
     </row>
-    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>96</v>
       </c>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="C145" s="20"/>
     </row>
-    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>96</v>
       </c>
@@ -3354,7 +3357,7 @@
       </c>
       <c r="C146" s="17"/>
     </row>
-    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>96</v>
       </c>
@@ -3363,28 +3366,31 @@
       </c>
       <c r="C147" s="20"/>
     </row>
-    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C148" s="20"/>
-    </row>
-    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C148" s="19"/>
+      <c r="D148" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="20"/>
-    </row>
-    <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C151" s="17"/>
+    </row>
+    <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>132</v>
       </c>
@@ -3393,7 +3399,7 @@
       </c>
       <c r="C152" s="20"/>
     </row>
-    <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>132</v>
       </c>
@@ -3402,7 +3408,7 @@
       </c>
       <c r="C153" s="20"/>
     </row>
-    <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>132</v>
       </c>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="C154" s="20"/>
     </row>
-    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>132</v>
       </c>
@@ -3420,7 +3426,7 @@
       </c>
       <c r="C155" s="20"/>
     </row>
-    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>132</v>
       </c>
@@ -3429,7 +3435,7 @@
       </c>
       <c r="C156" s="20"/>
     </row>
-    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>132</v>
       </c>
@@ -3438,7 +3444,7 @@
       </c>
       <c r="C157" s="20"/>
     </row>
-    <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>132</v>
       </c>
@@ -3447,7 +3453,7 @@
       </c>
       <c r="C158" s="20"/>
     </row>
-    <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>132</v>
       </c>
@@ -3456,7 +3462,7 @@
       </c>
       <c r="C159" s="20"/>
     </row>
-    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>132</v>
       </c>
@@ -6272,7 +6278,7 @@
         <v>391</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C483" s="20"/>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1082F3-346A-7146-A89C-4FFFC2F8E2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EE749-90F9-E34C-81DD-82824E69EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3397,7 +3397,7 @@
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C152" s="20"/>
+      <c r="C152" s="17"/>
     </row>
     <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EE749-90F9-E34C-81DD-82824E69EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741F074-6605-0F4D-92BA-42905BA9ABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3433,7 +3433,7 @@
       <c r="B156" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C156" s="20"/>
+      <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
@@ -3442,7 +3442,7 @@
       <c r="B157" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C157" s="20"/>
+      <c r="C157" s="17"/>
     </row>
     <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
@@ -3451,7 +3451,7 @@
       <c r="B158" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="20"/>
+      <c r="C158" s="17"/>
     </row>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741F074-6605-0F4D-92BA-42905BA9ABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0393E-96C9-C046-BF0D-89DD63690C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="494">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1501,6 +1501,18 @@
   </si>
   <si>
     <t>not attempted</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/discuss/1340/A-summary-about-how-to-solve-Linked-List-problem-C%2B%2B</t>
+  </si>
+  <si>
+    <t>How to solve every LL problem</t>
+  </si>
+  <si>
+    <t>Split LL In K Parts</t>
   </si>
 </sst>
 </file>
@@ -2012,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F580"/>
+  <dimension ref="A1:F581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3460,7 +3472,7 @@
       <c r="B159" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C159" s="20"/>
+      <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
@@ -3469,7 +3481,7 @@
       <c r="B160" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C160" s="20"/>
+      <c r="C160" s="17"/>
     </row>
     <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
@@ -3478,7 +3490,7 @@
       <c r="B161" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C161" s="20"/>
+      <c r="C161" s="17"/>
     </row>
     <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
@@ -3487,7 +3499,7 @@
       <c r="B162" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C162" s="20"/>
+      <c r="C162" s="17"/>
     </row>
     <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
@@ -3514,7 +3526,7 @@
       <c r="B165" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C165" s="20"/>
+      <c r="C165" s="17"/>
     </row>
     <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
@@ -3523,14 +3535,14 @@
       <c r="B166" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C166" s="20"/>
+      <c r="C166" s="17"/>
     </row>
     <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>149</v>
+        <v>493</v>
       </c>
       <c r="C167" s="20"/>
     </row>
@@ -3539,7 +3551,7 @@
         <v>132</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C168" s="20"/>
     </row>
@@ -3548,7 +3560,7 @@
         <v>132</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C169" s="20"/>
     </row>
@@ -3557,7 +3569,7 @@
         <v>132</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C170" s="20"/>
     </row>
@@ -3566,7 +3578,7 @@
         <v>132</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C171" s="20"/>
     </row>
@@ -3575,7 +3587,7 @@
         <v>132</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C172" s="20"/>
     </row>
@@ -3584,7 +3596,7 @@
         <v>132</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C173" s="20"/>
     </row>
@@ -3593,7 +3605,7 @@
         <v>132</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C174" s="20"/>
     </row>
@@ -3602,7 +3614,7 @@
         <v>132</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C175" s="20"/>
     </row>
@@ -3610,8 +3622,8 @@
       <c r="A176" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>158</v>
+      <c r="B176" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C176" s="20"/>
     </row>
@@ -3620,7 +3632,7 @@
         <v>132</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C177" s="20"/>
     </row>
@@ -3628,8 +3640,8 @@
       <c r="A178" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>160</v>
+      <c r="B178" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C178" s="20"/>
     </row>
@@ -3638,7 +3650,7 @@
         <v>132</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C179" s="20"/>
     </row>
@@ -3647,7 +3659,7 @@
         <v>132</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C180" s="20"/>
     </row>
@@ -3656,7 +3668,7 @@
         <v>132</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C181" s="20"/>
     </row>
@@ -3665,7 +3677,7 @@
         <v>132</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C182" s="20"/>
     </row>
@@ -3674,7 +3686,7 @@
         <v>132</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C183" s="20"/>
     </row>
@@ -3683,7 +3695,7 @@
         <v>132</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C184" s="20"/>
     </row>
@@ -3692,7 +3704,7 @@
         <v>132</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C185" s="20"/>
     </row>
@@ -3701,28 +3713,39 @@
         <v>132</v>
       </c>
       <c r="B186" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C186" s="20"/>
+    </row>
+    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B187" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C186" s="20"/>
-    </row>
-    <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B188" s="7"/>
+      <c r="C187" s="20"/>
+    </row>
+    <row r="188" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B188" t="s">
+        <v>491</v>
+      </c>
+      <c r="C188" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C189" s="20"/>
+      <c r="B189" s="7"/>
     </row>
     <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C190" s="20"/>
     </row>
@@ -3731,7 +3754,7 @@
         <v>169</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C191" s="20"/>
     </row>
@@ -3740,7 +3763,7 @@
         <v>169</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C192" s="20"/>
     </row>
@@ -3749,7 +3772,7 @@
         <v>169</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C193" s="20"/>
     </row>
@@ -3758,7 +3781,7 @@
         <v>169</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C194" s="20"/>
     </row>
@@ -3767,7 +3790,7 @@
         <v>169</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C195" s="20"/>
     </row>
@@ -3776,7 +3799,7 @@
         <v>169</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C196" s="20"/>
     </row>
@@ -3785,7 +3808,7 @@
         <v>169</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C197" s="20"/>
     </row>
@@ -3794,7 +3817,7 @@
         <v>169</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C198" s="20"/>
     </row>
@@ -3803,7 +3826,7 @@
         <v>169</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C199" s="20"/>
     </row>
@@ -3812,7 +3835,7 @@
         <v>169</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C200" s="20"/>
     </row>
@@ -3821,7 +3844,7 @@
         <v>169</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C201" s="20"/>
     </row>
@@ -3830,7 +3853,7 @@
         <v>169</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C202" s="20"/>
     </row>
@@ -3839,7 +3862,7 @@
         <v>169</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C203" s="20"/>
     </row>
@@ -3848,7 +3871,7 @@
         <v>169</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C204" s="20"/>
     </row>
@@ -3857,7 +3880,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C205" s="20"/>
     </row>
@@ -3866,7 +3889,7 @@
         <v>169</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C206" s="20"/>
     </row>
@@ -3875,7 +3898,7 @@
         <v>169</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C207" s="20"/>
     </row>
@@ -3884,7 +3907,7 @@
         <v>169</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C208" s="20"/>
     </row>
@@ -3893,7 +3916,7 @@
         <v>169</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C209" s="20"/>
     </row>
@@ -3902,7 +3925,7 @@
         <v>169</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C210" s="20"/>
     </row>
@@ -3911,7 +3934,7 @@
         <v>169</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C211" s="20"/>
     </row>
@@ -3920,7 +3943,7 @@
         <v>169</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C212" s="20"/>
     </row>
@@ -3929,7 +3952,7 @@
         <v>169</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C213" s="20"/>
     </row>
@@ -3938,7 +3961,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C214" s="20"/>
     </row>
@@ -3947,7 +3970,7 @@
         <v>169</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C215" s="20"/>
     </row>
@@ -3956,7 +3979,7 @@
         <v>169</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C216" s="20"/>
     </row>
@@ -3965,7 +3988,7 @@
         <v>169</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C217" s="20"/>
     </row>
@@ -3974,7 +3997,7 @@
         <v>169</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C218" s="20"/>
     </row>
@@ -3983,7 +4006,7 @@
         <v>169</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C219" s="20"/>
     </row>
@@ -3992,7 +4015,7 @@
         <v>169</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C220" s="20"/>
     </row>
@@ -4001,7 +4024,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C221" s="20"/>
     </row>
@@ -4010,7 +4033,7 @@
         <v>169</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C222" s="20"/>
     </row>
@@ -4019,33 +4042,33 @@
         <v>169</v>
       </c>
       <c r="B223" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C223" s="20"/>
+    </row>
+    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A224" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B224" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C223" s="20"/>
-    </row>
-    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
-      <c r="B224" s="7"/>
+      <c r="C224" s="20"/>
     </row>
     <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="7"/>
     </row>
     <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A226" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C226" s="20"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="7"/>
     </row>
     <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C227" s="20"/>
     </row>
@@ -4054,7 +4077,7 @@
         <v>205</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C228" s="20"/>
     </row>
@@ -4063,7 +4086,7 @@
         <v>205</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C229" s="20"/>
     </row>
@@ -4072,7 +4095,7 @@
         <v>205</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C230" s="20"/>
     </row>
@@ -4081,7 +4104,7 @@
         <v>205</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C231" s="20"/>
     </row>
@@ -4089,8 +4112,8 @@
       <c r="A232" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B232" s="9" t="s">
-        <v>212</v>
+      <c r="B232" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C232" s="20"/>
     </row>
@@ -4098,8 +4121,8 @@
       <c r="A233" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>213</v>
+      <c r="B233" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C233" s="20"/>
     </row>
@@ -4108,7 +4131,7 @@
         <v>205</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C234" s="20"/>
     </row>
@@ -4117,7 +4140,7 @@
         <v>205</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C235" s="20"/>
     </row>
@@ -4126,7 +4149,7 @@
         <v>205</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C236" s="20"/>
     </row>
@@ -4135,7 +4158,7 @@
         <v>205</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C237" s="20"/>
     </row>
@@ -4144,7 +4167,7 @@
         <v>205</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C238" s="20"/>
     </row>
@@ -4153,7 +4176,7 @@
         <v>205</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C239" s="20"/>
     </row>
@@ -4162,7 +4185,7 @@
         <v>205</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C240" s="20"/>
     </row>
@@ -4171,7 +4194,7 @@
         <v>205</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C241" s="20"/>
     </row>
@@ -4180,7 +4203,7 @@
         <v>205</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C242" s="20"/>
     </row>
@@ -4189,7 +4212,7 @@
         <v>205</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C243" s="20"/>
     </row>
@@ -4198,7 +4221,7 @@
         <v>205</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C244" s="20"/>
     </row>
@@ -4207,7 +4230,7 @@
         <v>205</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C245" s="20"/>
     </row>
@@ -4216,7 +4239,7 @@
         <v>205</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" s="20"/>
     </row>
@@ -4225,31 +4248,31 @@
         <v>205</v>
       </c>
       <c r="B247" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C247" s="20"/>
+    </row>
+    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B248" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C247" s="20"/>
-    </row>
-    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B248" s="7"/>
+      <c r="C248" s="20"/>
     </row>
     <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
     </row>
     <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C250" s="20"/>
+      <c r="B250" s="7"/>
     </row>
     <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C251" s="20"/>
     </row>
@@ -4258,7 +4281,7 @@
         <v>228</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C252" s="20"/>
     </row>
@@ -4267,7 +4290,7 @@
         <v>228</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C253" s="20"/>
     </row>
@@ -4276,7 +4299,7 @@
         <v>228</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C254" s="20"/>
     </row>
@@ -4285,7 +4308,7 @@
         <v>228</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C255" s="20"/>
     </row>
@@ -4294,7 +4317,7 @@
         <v>228</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C256" s="20"/>
     </row>
@@ -4303,7 +4326,7 @@
         <v>228</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C257" s="20"/>
     </row>
@@ -4312,7 +4335,7 @@
         <v>228</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C258" s="20"/>
     </row>
@@ -4321,7 +4344,7 @@
         <v>228</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C259" s="20"/>
     </row>
@@ -4330,7 +4353,7 @@
         <v>228</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C260" s="20"/>
     </row>
@@ -4339,7 +4362,7 @@
         <v>228</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C261" s="20"/>
     </row>
@@ -4348,7 +4371,7 @@
         <v>228</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C262" s="20"/>
     </row>
@@ -4357,7 +4380,7 @@
         <v>228</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C263" s="20"/>
     </row>
@@ -4366,7 +4389,7 @@
         <v>228</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C264" s="20"/>
     </row>
@@ -4375,7 +4398,7 @@
         <v>228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C265" s="20"/>
     </row>
@@ -4384,7 +4407,7 @@
         <v>228</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C266" s="20"/>
     </row>
@@ -4393,7 +4416,7 @@
         <v>228</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C267" s="20"/>
     </row>
@@ -4402,7 +4425,7 @@
         <v>228</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C268" s="20"/>
     </row>
@@ -4411,7 +4434,7 @@
         <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C269" s="20"/>
     </row>
@@ -4420,7 +4443,7 @@
         <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C270" s="20"/>
     </row>
@@ -4429,7 +4452,7 @@
         <v>228</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C271" s="20"/>
     </row>
@@ -4438,7 +4461,7 @@
         <v>228</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C272" s="20"/>
     </row>
@@ -4447,7 +4470,7 @@
         <v>228</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C273" s="20"/>
     </row>
@@ -4456,7 +4479,7 @@
         <v>228</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C274" s="20"/>
     </row>
@@ -4465,7 +4488,7 @@
         <v>228</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C275" s="20"/>
     </row>
@@ -4474,7 +4497,7 @@
         <v>228</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C276" s="20"/>
     </row>
@@ -4483,7 +4506,7 @@
         <v>228</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C277" s="20"/>
     </row>
@@ -4492,7 +4515,7 @@
         <v>228</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C278" s="20"/>
     </row>
@@ -4501,7 +4524,7 @@
         <v>228</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C279" s="20"/>
     </row>
@@ -4510,7 +4533,7 @@
         <v>228</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C280" s="20"/>
     </row>
@@ -4519,7 +4542,7 @@
         <v>228</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C281" s="20"/>
     </row>
@@ -4528,7 +4551,7 @@
         <v>228</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C282" s="20"/>
     </row>
@@ -4537,7 +4560,7 @@
         <v>228</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C283" s="20"/>
     </row>
@@ -4546,31 +4569,31 @@
         <v>228</v>
       </c>
       <c r="B284" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C284" s="20"/>
+    </row>
+    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A285" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B285" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C284" s="20"/>
-    </row>
-    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B285" s="7"/>
+      <c r="C285" s="20"/>
     </row>
     <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B286" s="7"/>
     </row>
     <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A287" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C287" s="20"/>
+      <c r="B287" s="7"/>
     </row>
     <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C288" s="20"/>
     </row>
@@ -4579,7 +4602,7 @@
         <v>263</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C289" s="20"/>
     </row>
@@ -4588,7 +4611,7 @@
         <v>263</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C290" s="20"/>
     </row>
@@ -4597,7 +4620,7 @@
         <v>263</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C291" s="20"/>
     </row>
@@ -4606,7 +4629,7 @@
         <v>263</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C292" s="20"/>
     </row>
@@ -4615,7 +4638,7 @@
         <v>263</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C293" s="20"/>
     </row>
@@ -4624,7 +4647,7 @@
         <v>263</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C294" s="20"/>
     </row>
@@ -4633,7 +4656,7 @@
         <v>263</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C295" s="20"/>
     </row>
@@ -4642,7 +4665,7 @@
         <v>263</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C296" s="20"/>
     </row>
@@ -4651,7 +4674,7 @@
         <v>263</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C297" s="20"/>
     </row>
@@ -4660,7 +4683,7 @@
         <v>263</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C298" s="20"/>
     </row>
@@ -4669,7 +4692,7 @@
         <v>263</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C299" s="20"/>
     </row>
@@ -4678,7 +4701,7 @@
         <v>263</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C300" s="20"/>
     </row>
@@ -4687,7 +4710,7 @@
         <v>263</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C301" s="20"/>
     </row>
@@ -4696,7 +4719,7 @@
         <v>263</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C302" s="20"/>
     </row>
@@ -4705,7 +4728,7 @@
         <v>263</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C303" s="20"/>
     </row>
@@ -4714,7 +4737,7 @@
         <v>263</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C304" s="20"/>
     </row>
@@ -4723,31 +4746,31 @@
         <v>263</v>
       </c>
       <c r="B305" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C305" s="20"/>
+    </row>
+    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B306" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C305" s="20"/>
-    </row>
-    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B306" s="7"/>
+      <c r="C306" s="20"/>
     </row>
     <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B307" s="7"/>
     </row>
     <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B308" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C308" s="20"/>
+      <c r="B308" s="7"/>
     </row>
     <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C309" s="20"/>
     </row>
@@ -4756,7 +4779,7 @@
         <v>283</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C310" s="20"/>
     </row>
@@ -4765,7 +4788,7 @@
         <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C311" s="20"/>
     </row>
@@ -4774,7 +4797,7 @@
         <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C312" s="20"/>
     </row>
@@ -4783,7 +4806,7 @@
         <v>283</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C313" s="20"/>
     </row>
@@ -4792,7 +4815,7 @@
         <v>283</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C314" s="20"/>
     </row>
@@ -4801,7 +4824,7 @@
         <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C315" s="20"/>
     </row>
@@ -4810,7 +4833,7 @@
         <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C316" s="20"/>
     </row>
@@ -4819,7 +4842,7 @@
         <v>283</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C317" s="20"/>
     </row>
@@ -4828,7 +4851,7 @@
         <v>283</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C318" s="20"/>
     </row>
@@ -4837,7 +4860,7 @@
         <v>283</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C319" s="20"/>
     </row>
@@ -4846,7 +4869,7 @@
         <v>283</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C320" s="20"/>
     </row>
@@ -4854,8 +4877,8 @@
       <c r="A321" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B321" s="9" t="s">
-        <v>297</v>
+      <c r="B321" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C321" s="20"/>
     </row>
@@ -4863,8 +4886,8 @@
       <c r="A322" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B322" s="6" t="s">
-        <v>298</v>
+      <c r="B322" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="C322" s="20"/>
     </row>
@@ -4873,7 +4896,7 @@
         <v>283</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C323" s="20"/>
     </row>
@@ -4882,7 +4905,7 @@
         <v>283</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C324" s="20"/>
     </row>
@@ -4891,7 +4914,7 @@
         <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C325" s="20"/>
     </row>
@@ -4900,7 +4923,7 @@
         <v>283</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C326" s="20"/>
     </row>
@@ -4909,7 +4932,7 @@
         <v>283</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C327" s="20"/>
     </row>
@@ -4918,7 +4941,7 @@
         <v>283</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C328" s="20"/>
     </row>
@@ -4927,7 +4950,7 @@
         <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C329" s="20"/>
     </row>
@@ -4936,7 +4959,7 @@
         <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C330" s="20"/>
     </row>
@@ -4945,7 +4968,7 @@
         <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C331" s="20"/>
     </row>
@@ -4954,7 +4977,7 @@
         <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C332" s="20"/>
     </row>
@@ -4963,7 +4986,7 @@
         <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C333" s="20"/>
     </row>
@@ -4972,7 +4995,7 @@
         <v>283</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C334" s="20"/>
     </row>
@@ -4981,7 +5004,7 @@
         <v>283</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C335" s="20"/>
     </row>
@@ -4990,7 +5013,7 @@
         <v>283</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C336" s="20"/>
     </row>
@@ -4999,7 +5022,7 @@
         <v>283</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C337" s="20"/>
     </row>
@@ -5008,7 +5031,7 @@
         <v>283</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C338" s="20"/>
     </row>
@@ -5017,7 +5040,7 @@
         <v>283</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C339" s="20"/>
     </row>
@@ -5026,7 +5049,7 @@
         <v>283</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C340" s="20"/>
     </row>
@@ -5035,7 +5058,7 @@
         <v>283</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C341" s="20"/>
     </row>
@@ -5044,7 +5067,7 @@
         <v>283</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C342" s="20"/>
     </row>
@@ -5053,7 +5076,7 @@
         <v>283</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C343" s="20"/>
     </row>
@@ -5062,7 +5085,7 @@
         <v>283</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C344" s="20"/>
     </row>
@@ -5071,31 +5094,31 @@
         <v>283</v>
       </c>
       <c r="B345" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C345" s="20"/>
+    </row>
+    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A346" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C345" s="20"/>
-    </row>
-    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B346" s="7"/>
+      <c r="C346" s="20"/>
     </row>
     <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B347" s="7"/>
     </row>
     <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A348" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C348" s="20"/>
+      <c r="B348" s="7"/>
     </row>
     <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C349" s="20"/>
     </row>
@@ -5104,7 +5127,7 @@
         <v>322</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C350" s="20"/>
     </row>
@@ -5113,7 +5136,7 @@
         <v>322</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="20"/>
     </row>
@@ -5122,7 +5145,7 @@
         <v>322</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C352" s="20"/>
     </row>
@@ -5131,7 +5154,7 @@
         <v>322</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C353" s="20"/>
     </row>
@@ -5140,7 +5163,7 @@
         <v>322</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C354" s="20"/>
     </row>
@@ -5149,7 +5172,7 @@
         <v>322</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C355" s="20"/>
     </row>
@@ -5157,8 +5180,8 @@
       <c r="A356" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B356" s="9" t="s">
-        <v>331</v>
+      <c r="B356" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C356" s="20"/>
     </row>
@@ -5166,8 +5189,8 @@
       <c r="A357" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B357" s="6" t="s">
-        <v>332</v>
+      <c r="B357" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="C357" s="20"/>
     </row>
@@ -5176,7 +5199,7 @@
         <v>322</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C358" s="20"/>
     </row>
@@ -5185,7 +5208,7 @@
         <v>322</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C359" s="20"/>
     </row>
@@ -5194,7 +5217,7 @@
         <v>322</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C360" s="20"/>
     </row>
@@ -5203,7 +5226,7 @@
         <v>322</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C361" s="20"/>
     </row>
@@ -5212,7 +5235,7 @@
         <v>322</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C362" s="20"/>
     </row>
@@ -5221,7 +5244,7 @@
         <v>322</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C363" s="20"/>
     </row>
@@ -5230,7 +5253,7 @@
         <v>322</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C364" s="20"/>
     </row>
@@ -5239,7 +5262,7 @@
         <v>322</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C365" s="20"/>
     </row>
@@ -5248,27 +5271,27 @@
         <v>322</v>
       </c>
       <c r="B366" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C366" s="20"/>
+    </row>
+    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A367" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B367" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B367" s="7"/>
-    </row>
     <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A368" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B368" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C368" s="20"/>
+      <c r="B368" s="7"/>
     </row>
     <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A369" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C369" s="20"/>
     </row>
@@ -5277,7 +5300,7 @@
         <v>341</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C370" s="20"/>
     </row>
@@ -5286,7 +5309,7 @@
         <v>341</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C371" s="20"/>
     </row>
@@ -5295,7 +5318,7 @@
         <v>341</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C372" s="20"/>
     </row>
@@ -5304,7 +5327,7 @@
         <v>341</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C373" s="20"/>
     </row>
@@ -5313,7 +5336,7 @@
         <v>341</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C374" s="20"/>
     </row>
@@ -5322,7 +5345,7 @@
         <v>341</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C375" s="20"/>
     </row>
@@ -5331,7 +5354,7 @@
         <v>341</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C376" s="20"/>
     </row>
@@ -5340,7 +5363,7 @@
         <v>341</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C377" s="20"/>
     </row>
@@ -5349,7 +5372,7 @@
         <v>341</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C378" s="20"/>
     </row>
@@ -5358,7 +5381,7 @@
         <v>341</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C379" s="20"/>
     </row>
@@ -5367,7 +5390,7 @@
         <v>341</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C380" s="20"/>
     </row>
@@ -5376,7 +5399,7 @@
         <v>341</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C381" s="20"/>
     </row>
@@ -5385,7 +5408,7 @@
         <v>341</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C382" s="20"/>
     </row>
@@ -5394,7 +5417,7 @@
         <v>341</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C383" s="20"/>
     </row>
@@ -5403,7 +5426,7 @@
         <v>341</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C384" s="20"/>
     </row>
@@ -5412,7 +5435,7 @@
         <v>341</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C385" s="20"/>
     </row>
@@ -5421,7 +5444,7 @@
         <v>341</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C386" s="20"/>
     </row>
@@ -5430,7 +5453,7 @@
         <v>341</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C387" s="20"/>
     </row>
@@ -5439,7 +5462,7 @@
         <v>341</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C388" s="20"/>
     </row>
@@ -5448,7 +5471,7 @@
         <v>341</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C389" s="20"/>
     </row>
@@ -5457,7 +5480,7 @@
         <v>341</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C390" s="20"/>
     </row>
@@ -5466,7 +5489,7 @@
         <v>341</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C391" s="20"/>
     </row>
@@ -5475,7 +5498,7 @@
         <v>341</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C392" s="20"/>
     </row>
@@ -5484,7 +5507,7 @@
         <v>341</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C393" s="20"/>
     </row>
@@ -5493,7 +5516,7 @@
         <v>341</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C394" s="20"/>
     </row>
@@ -5502,7 +5525,7 @@
         <v>341</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C395" s="20"/>
     </row>
@@ -5511,7 +5534,7 @@
         <v>341</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C396" s="20"/>
     </row>
@@ -5520,7 +5543,7 @@
         <v>341</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C397" s="20"/>
     </row>
@@ -5529,7 +5552,7 @@
         <v>341</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C398" s="20"/>
     </row>
@@ -5538,7 +5561,7 @@
         <v>341</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C399" s="20"/>
     </row>
@@ -5547,7 +5570,7 @@
         <v>341</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C400" s="20"/>
     </row>
@@ -5556,7 +5579,7 @@
         <v>341</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C401" s="20"/>
     </row>
@@ -5574,7 +5597,7 @@
         <v>341</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C403" s="20"/>
     </row>
@@ -5583,7 +5606,7 @@
         <v>341</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C404" s="20"/>
     </row>
@@ -5592,7 +5615,7 @@
         <v>341</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C405" s="20"/>
     </row>
@@ -5601,7 +5624,7 @@
         <v>341</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C406" s="20"/>
     </row>
@@ -5610,7 +5633,7 @@
         <v>341</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C407" s="20"/>
     </row>
@@ -5619,7 +5642,7 @@
         <v>341</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C408" s="20"/>
     </row>
@@ -5628,7 +5651,7 @@
         <v>341</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C409" s="20"/>
     </row>
@@ -5637,7 +5660,7 @@
         <v>341</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C410" s="20"/>
     </row>
@@ -5646,31 +5669,31 @@
         <v>341</v>
       </c>
       <c r="B411" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C411" s="20"/>
+    </row>
+    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B412" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C411" s="20"/>
-    </row>
-    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B412" s="7"/>
+      <c r="C412" s="20"/>
     </row>
     <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B413" s="7"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A414" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B414" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C414" s="20"/>
+      <c r="B414" s="7"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
         <v>385</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C415" s="20"/>
     </row>
@@ -5679,7 +5702,7 @@
         <v>385</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C416" s="20"/>
     </row>
@@ -5688,7 +5711,7 @@
         <v>385</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C417" s="20"/>
     </row>
@@ -5697,7 +5720,7 @@
         <v>385</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="C418" s="20"/>
     </row>
@@ -5706,33 +5729,33 @@
         <v>385</v>
       </c>
       <c r="B419" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C419" s="20"/>
+    </row>
+    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A420" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B420" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C419" s="20"/>
-    </row>
-    <row r="420" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B420" s="7"/>
-      <c r="C420" s="7"/>
+      <c r="C420" s="20"/>
     </row>
     <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A422" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B422" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C422" s="22"/>
+      <c r="B422" s="7"/>
+      <c r="C422" s="7"/>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C423" s="22"/>
     </row>
@@ -5741,16 +5764,16 @@
         <v>391</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C424" s="20"/>
+        <v>393</v>
+      </c>
+      <c r="C424" s="22"/>
     </row>
     <row r="425" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C425" s="20"/>
     </row>
@@ -5759,7 +5782,7 @@
         <v>391</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C426" s="20"/>
     </row>
@@ -5768,7 +5791,7 @@
         <v>391</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C427" s="20"/>
     </row>
@@ -5777,37 +5800,37 @@
         <v>391</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C428" s="22"/>
-      <c r="D428" t="s">
-        <v>463</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C428" s="20"/>
     </row>
     <row r="429" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="C429" s="22"/>
+      <c r="D429" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C430" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="C430" s="22"/>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C431" s="20"/>
     </row>
@@ -5816,7 +5839,7 @@
         <v>391</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C432" s="20"/>
     </row>
@@ -5825,7 +5848,7 @@
         <v>391</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C433" s="20"/>
     </row>
@@ -5834,7 +5857,7 @@
         <v>391</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C434" s="20"/>
     </row>
@@ -5843,43 +5866,43 @@
         <v>391</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C435" s="22"/>
+        <v>403</v>
+      </c>
+      <c r="C435" s="20"/>
     </row>
     <row r="436" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C436" s="20"/>
+        <v>404</v>
+      </c>
+      <c r="C436" s="22"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C437" s="22"/>
+        <v>405</v>
+      </c>
+      <c r="C437" s="20"/>
     </row>
     <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C438" s="20"/>
+        <v>406</v>
+      </c>
+      <c r="C438" s="22"/>
     </row>
     <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C439" s="20"/>
     </row>
@@ -5888,7 +5911,7 @@
         <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C440" s="20"/>
     </row>
@@ -5897,37 +5920,37 @@
         <v>391</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C441" s="23"/>
-      <c r="D441" t="s">
-        <v>465</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C441" s="20"/>
     </row>
     <row r="442" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C442" s="22"/>
+        <v>464</v>
+      </c>
+      <c r="C442" s="23"/>
+      <c r="D442" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C443" s="20"/>
+        <v>410</v>
+      </c>
+      <c r="C443" s="22"/>
     </row>
     <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C444" s="20"/>
     </row>
@@ -5936,7 +5959,7 @@
         <v>391</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C445" s="20"/>
     </row>
@@ -5945,7 +5968,7 @@
         <v>391</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C446" s="20"/>
     </row>
@@ -5954,7 +5977,7 @@
         <v>391</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C447" s="20"/>
     </row>
@@ -5963,7 +5986,7 @@
         <v>391</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C448" s="20"/>
     </row>
@@ -5972,7 +5995,7 @@
         <v>391</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C449" s="20"/>
     </row>
@@ -5981,7 +6004,7 @@
         <v>391</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C450" s="20"/>
     </row>
@@ -5990,7 +6013,7 @@
         <v>391</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C451" s="20"/>
     </row>
@@ -5999,7 +6022,7 @@
         <v>391</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C452" s="20"/>
     </row>
@@ -6008,7 +6031,7 @@
         <v>391</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C453" s="20"/>
     </row>
@@ -6017,7 +6040,7 @@
         <v>391</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C454" s="20"/>
     </row>
@@ -6026,7 +6049,7 @@
         <v>391</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C455" s="20"/>
     </row>
@@ -6035,7 +6058,7 @@
         <v>391</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C456" s="20"/>
     </row>
@@ -6044,7 +6067,7 @@
         <v>391</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C457" s="20"/>
     </row>
@@ -6053,7 +6076,7 @@
         <v>391</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C458" s="20"/>
     </row>
@@ -6062,7 +6085,7 @@
         <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C459" s="20"/>
     </row>
@@ -6071,7 +6094,7 @@
         <v>391</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C460" s="20"/>
     </row>
@@ -6080,7 +6103,7 @@
         <v>391</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C461" s="20"/>
     </row>
@@ -6089,7 +6112,7 @@
         <v>391</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C462" s="20"/>
     </row>
@@ -6098,7 +6121,7 @@
         <v>391</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C463" s="20"/>
     </row>
@@ -6107,7 +6130,7 @@
         <v>391</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C464" s="20"/>
     </row>
@@ -6116,7 +6139,7 @@
         <v>391</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C465" s="20"/>
     </row>
@@ -6125,7 +6148,7 @@
         <v>391</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C466" s="20"/>
     </row>
@@ -6134,7 +6157,7 @@
         <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C467" s="20"/>
     </row>
@@ -6143,7 +6166,7 @@
         <v>391</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C468" s="20"/>
     </row>
@@ -6152,7 +6175,7 @@
         <v>391</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C469" s="20"/>
     </row>
@@ -6161,7 +6184,7 @@
         <v>391</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C470" s="20"/>
     </row>
@@ -6170,7 +6193,7 @@
         <v>391</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C471" s="20"/>
     </row>
@@ -6179,7 +6202,7 @@
         <v>391</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C472" s="20"/>
     </row>
@@ -6188,7 +6211,7 @@
         <v>391</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C473" s="20"/>
     </row>
@@ -6197,7 +6220,7 @@
         <v>391</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C474" s="20"/>
     </row>
@@ -6206,7 +6229,7 @@
         <v>391</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C475" s="20"/>
     </row>
@@ -6215,7 +6238,7 @@
         <v>391</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C476" s="20"/>
     </row>
@@ -6224,7 +6247,7 @@
         <v>391</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C477" s="20"/>
     </row>
@@ -6233,7 +6256,7 @@
         <v>391</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C478" s="20"/>
     </row>
@@ -6242,7 +6265,7 @@
         <v>391</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C479" s="20"/>
     </row>
@@ -6251,7 +6274,7 @@
         <v>391</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C480" s="20"/>
     </row>
@@ -6260,7 +6283,7 @@
         <v>391</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C481" s="20"/>
     </row>
@@ -6269,7 +6292,7 @@
         <v>391</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C482" s="20"/>
     </row>
@@ -6278,34 +6301,34 @@
         <v>391</v>
       </c>
       <c r="B483" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C483" s="20"/>
+    </row>
+    <row r="484" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A484" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B484" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C483" s="20"/>
-    </row>
-    <row r="484" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A484" s="5"/>
-      <c r="B484" s="6"/>
-      <c r="C484" s="6"/>
+      <c r="C484" s="20"/>
     </row>
     <row r="485" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A485" s="8"/>
-      <c r="B485" s="7"/>
+      <c r="A485" s="5"/>
+      <c r="B485" s="6"/>
+      <c r="C485" s="6"/>
     </row>
     <row r="486" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A486" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B486" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C486" s="20"/>
+      <c r="A486" s="8"/>
+      <c r="B486" s="7"/>
     </row>
     <row r="487" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C487" s="20"/>
     </row>
@@ -6314,7 +6337,7 @@
         <v>451</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C488" s="20"/>
     </row>
@@ -6323,7 +6346,7 @@
         <v>451</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C489" s="20"/>
     </row>
@@ -6332,7 +6355,7 @@
         <v>451</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C490" s="20"/>
     </row>
@@ -6341,7 +6364,7 @@
         <v>451</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C491" s="20"/>
     </row>
@@ -6350,7 +6373,7 @@
         <v>451</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C492" s="20"/>
     </row>
@@ -6359,7 +6382,7 @@
         <v>451</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C493" s="20"/>
     </row>
@@ -6368,7 +6391,7 @@
         <v>451</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C494" s="20"/>
     </row>
@@ -6377,15 +6400,21 @@
         <v>451</v>
       </c>
       <c r="B495" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C495" s="20"/>
+    </row>
+    <row r="496" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A496" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B496" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C495" s="20"/>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C496" s="20"/>
     </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C511" s="4"/>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C497" s="20"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C512" s="4"/>
@@ -6593,6 +6622,9 @@
     </row>
     <row r="580" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C580" s="4"/>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C581" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6736,325 +6768,326 @@
     <hyperlink ref="B164" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
     <hyperlink ref="B165" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
     <hyperlink ref="B166" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B167" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B168" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B169" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B170" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B171" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B172" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B173" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B174" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B175" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B178" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B179" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B180" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B181" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B182" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B183" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B184" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B185" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B186" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B189" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B190" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B191" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B192" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B193" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B194" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B195" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B196" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B197" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B198" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B199" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B200" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B201" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B202" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B203" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B204" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B205" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B206" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B207" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B208" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B209" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B210" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B211" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B212" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B213" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B214" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B215" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B216" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B217" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B218" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B219" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B220" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B221" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B222" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B223" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B226" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B227" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B228" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B229" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B230" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B231" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B232" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B233" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B234" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B235" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B236" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B237" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B238" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B239" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B240" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B241" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B242" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B243" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B244" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B245" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B246" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B247" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B250" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B251" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B252" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B253" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B254" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B255" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B256" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B257" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B258" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B259" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B260" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B261" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B262" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B263" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B264" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B265" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B266" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B267" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B268" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B269" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B270" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B271" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B272" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B273" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B274" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B275" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B276" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B277" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B278" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B279" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B280" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B281" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B282" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B283" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B284" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B287" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B288" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B289" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B290" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B291" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B292" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B293" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B294" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B295" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B296" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B297" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B298" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B299" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B300" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B301" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B302" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B303" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B304" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B305" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B308" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B309" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B310" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B311" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B312" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B313" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B314" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B315" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B316" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B317" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B318" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B319" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B320" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B321" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B322" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B323" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B324" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B325" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B326" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B327" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B328" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B329" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B330" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B331" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B332" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B333" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B334" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B335" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B336" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B337" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B338" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B339" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B340" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B341" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B342" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B343" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B344" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B345" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B348" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B349" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B350" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B351" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B352" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B353" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B354" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B355" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B356" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B357" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B358" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B359" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B360" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B361" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B362" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B363" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B364" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B365" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B369" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B370" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B371" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B372" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B373" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B374" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B375" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B376" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B377" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B378" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B379" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B380" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B381" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B382" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B383" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B384" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B385" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B386" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B387" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B388" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B389" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B390" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B391" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B392" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B393" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B394" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B395" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B396" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B397" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B398" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B399" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B400" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B401" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B402" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B403" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B404" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B405" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B406" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B408" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B407" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B409" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B410" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B411" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B414" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B415" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B416" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B417" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B418" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B419" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B422" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B423" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B424" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B425" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B426" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B427" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B428" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B429" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B430" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B431" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B432" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B433" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B434" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B435" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B436" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B437" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B438" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B439" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B440" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B442" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B443" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B444" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B445" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B446" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B447" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B448" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B449" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B450" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B451" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B452" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B453" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B454" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B455" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B456" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B457" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B458" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B459" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B460" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B461" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B462" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B464" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B463" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B465" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B466" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B467" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B468" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B469" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B470" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B471" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B472" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B473" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B474" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B475" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B482" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B481" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B480" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B479" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B478" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B477" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B476" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B486" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B487" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B488" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B489" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B490" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B491" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B492" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B495" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B493" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B494" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B368" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B168" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B169" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B170" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B171" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B172" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B173" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B174" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B175" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B176" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B179" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B180" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B181" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B182" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B183" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B184" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B185" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B186" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B187" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B190" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B191" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B192" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B193" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B194" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B195" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B196" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B197" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B198" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B199" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B200" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B201" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B202" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B203" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B204" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B205" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B206" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B207" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B208" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B209" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B210" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B211" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B212" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B213" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B214" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B215" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B216" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B217" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B218" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B219" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B220" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B221" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B222" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B223" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B224" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B227" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B228" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B229" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B230" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B231" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B232" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B233" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B234" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B235" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B236" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B237" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B238" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B239" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B240" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B241" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B242" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B243" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B244" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B245" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B246" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B247" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B248" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B251" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B252" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B253" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B254" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B255" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B256" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B257" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B258" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B259" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B260" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B261" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B262" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B263" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B264" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B265" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B266" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B267" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B268" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B269" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B270" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B271" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B272" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B273" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B274" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B275" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B276" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B277" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B278" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B279" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B280" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B281" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B282" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B283" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B284" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B285" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B288" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B289" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B290" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B291" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B292" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B293" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B294" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B295" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B296" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B297" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B298" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B299" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B300" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B301" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B302" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B303" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B304" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B305" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B306" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B309" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B310" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B311" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B312" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B313" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B314" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B315" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B316" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B317" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B318" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B319" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B320" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B321" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B322" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B323" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B324" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B325" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B326" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B327" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B328" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B329" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B330" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B331" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B332" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B333" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B334" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B335" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B336" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B337" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B338" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B339" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B340" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B341" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B342" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B343" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B344" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B345" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B346" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B349" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B350" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B351" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B352" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B353" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B354" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B355" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B356" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B357" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B358" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B359" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B360" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B361" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B362" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B363" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B364" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B365" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B366" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B370" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B371" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B372" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B373" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B374" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B375" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B376" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B377" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B378" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B379" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B380" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B381" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B382" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B383" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B384" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B385" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B386" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B387" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B388" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B389" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B390" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B391" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B392" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B393" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B394" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B395" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B396" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B397" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B398" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B399" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B400" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B401" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B402" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B403" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B404" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B405" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B406" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B407" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B409" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B408" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B410" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B411" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B412" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B415" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B416" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B417" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B418" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B419" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B420" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B423" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B424" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B425" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B426" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B427" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B428" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B429" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B430" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B431" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B432" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B433" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B434" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B435" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B436" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B437" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B438" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B439" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B440" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B441" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B443" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B444" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B445" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B446" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B447" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B448" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B449" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B450" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B451" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B452" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B453" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B454" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B455" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B456" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B457" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B458" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B459" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B460" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B461" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B462" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B463" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B465" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B464" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B466" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B467" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B468" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B469" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B470" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B471" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B472" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B473" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B474" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B475" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B476" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B483" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B482" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B481" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B480" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B479" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B478" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B477" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B487" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B488" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B489" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B490" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B491" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B492" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B493" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B496" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B494" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B495" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B369" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B441" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B442" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
     <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B366" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B367" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
     <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
     <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
     <hyperlink ref="B47" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
     <hyperlink ref="B48" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B483" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B484" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
     <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
     <hyperlink ref="B108" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
     <hyperlink ref="B40" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>
     <hyperlink ref="B49" r:id="rId458" xr:uid="{213ED1AC-FD00-394C-90BF-99997A614249}"/>
     <hyperlink ref="B71" r:id="rId459" xr:uid="{FADD6000-58D0-D240-81EC-1D00F607DAE3}"/>
+    <hyperlink ref="B167" r:id="rId460" xr:uid="{B0A04F56-F47E-0241-AAE3-47CEDC638EF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0393E-96C9-C046-BF0D-89DD63690C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E0595-30CF-C740-9F4A-D7FF81A3243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="496">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1513,6 +1513,12 @@
   </si>
   <si>
     <t>Split LL In K Parts</t>
+  </si>
+  <si>
+    <t>HEAPS Related</t>
+  </si>
+  <si>
+    <t>Singly LL is not possible but doubly LL O(1) mein hota hai kuch iterator ka concept hai nhai samjha</t>
   </si>
 </sst>
 </file>
@@ -2026,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2476,7 @@
       </c>
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>4</v>
       </c>
@@ -3483,7 +3489,7 @@
       </c>
       <c r="C160" s="17"/>
     </row>
-    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>132</v>
       </c>
@@ -3492,7 +3498,7 @@
       </c>
       <c r="C161" s="17"/>
     </row>
-    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>132</v>
       </c>
@@ -3501,7 +3507,7 @@
       </c>
       <c r="C162" s="17"/>
     </row>
-    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>132</v>
       </c>
@@ -3510,7 +3516,7 @@
       </c>
       <c r="C163" s="20"/>
     </row>
-    <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>132</v>
       </c>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="C164" s="20"/>
     </row>
-    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>132</v>
       </c>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="C165" s="17"/>
     </row>
-    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>132</v>
       </c>
@@ -3537,7 +3543,7 @@
       </c>
       <c r="C166" s="17"/>
     </row>
-    <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>132</v>
       </c>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="C167" s="20"/>
     </row>
-    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>132</v>
       </c>
@@ -3555,52 +3561,52 @@
       </c>
       <c r="C168" s="20"/>
     </row>
-    <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C169" s="20"/>
-    </row>
-    <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C169" s="17"/>
+    </row>
+    <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C170" s="20"/>
-    </row>
-    <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C170" s="17"/>
+    </row>
+    <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C171" s="20"/>
-    </row>
-    <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C171" s="17"/>
+    </row>
+    <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C172" s="20"/>
-    </row>
-    <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C172" s="17"/>
+    </row>
+    <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C173" s="20"/>
-    </row>
-    <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C173" s="17"/>
+    </row>
+    <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>132</v>
       </c>
@@ -3608,26 +3614,29 @@
         <v>155</v>
       </c>
       <c r="C174" s="20"/>
-    </row>
-    <row r="175" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C175" s="20"/>
-    </row>
-    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C175" s="17"/>
+    </row>
+    <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C176" s="20"/>
-    </row>
-    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C176" s="17"/>
+    </row>
+    <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>132</v>
       </c>
@@ -3635,8 +3644,11 @@
         <v>158</v>
       </c>
       <c r="C177" s="20"/>
-    </row>
-    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>132</v>
       </c>
@@ -3645,7 +3657,7 @@
       </c>
       <c r="C178" s="20"/>
     </row>
-    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>132</v>
       </c>
@@ -3654,16 +3666,16 @@
       </c>
       <c r="C179" s="20"/>
     </row>
-    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C180" s="20"/>
-    </row>
-    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C180" s="17"/>
+    </row>
+    <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>132</v>
       </c>
@@ -3672,7 +3684,7 @@
       </c>
       <c r="C181" s="20"/>
     </row>
-    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>132</v>
       </c>
@@ -3681,7 +3693,7 @@
       </c>
       <c r="C182" s="20"/>
     </row>
-    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>132</v>
       </c>
@@ -3690,7 +3702,7 @@
       </c>
       <c r="C183" s="20"/>
     </row>
-    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>132</v>
       </c>
@@ -3699,7 +3711,7 @@
       </c>
       <c r="C184" s="20"/>
     </row>
-    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
         <v>132</v>
       </c>
@@ -3708,7 +3720,7 @@
       </c>
       <c r="C185" s="20"/>
     </row>
-    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
         <v>132</v>
       </c>
@@ -3717,7 +3729,7 @@
       </c>
       <c r="C186" s="20"/>
     </row>
-    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
         <v>132</v>
       </c>
@@ -3726,7 +3738,7 @@
       </c>
       <c r="C187" s="20"/>
     </row>
-    <row r="188" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>490</v>
       </c>
@@ -3737,10 +3749,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>169</v>
       </c>
@@ -3749,7 +3761,7 @@
       </c>
       <c r="C190" s="20"/>
     </row>
-    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>169</v>
       </c>
@@ -3758,7 +3770,7 @@
       </c>
       <c r="C191" s="20"/>
     </row>
-    <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>169</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E0595-30CF-C740-9F4A-D7FF81A3243D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E113AAC-6BD5-5B44-B418-0AE3778BE324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="498">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1519,6 +1519,12 @@
   </si>
   <si>
     <t>Singly LL is not possible but doubly LL O(1) mein hota hai kuch iterator ka concept hai nhai samjha</t>
+  </si>
+  <si>
+    <t>Abhi brute force wala bhi accept hogya but ek divide and conq and ek heaps wala hai optimized dekhna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code ache se nhi bana kisi aur din try karna hai </t>
   </si>
 </sst>
 </file>
@@ -2032,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A377" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3424,7 +3430,7 @@
       <c r="B153" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="20"/>
+      <c r="C153" s="17"/>
     </row>
     <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
@@ -3434,6 +3440,9 @@
         <v>136</v>
       </c>
       <c r="C154" s="20"/>
+      <c r="D154" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
@@ -3442,7 +3451,7 @@
       <c r="B155" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C155" s="20"/>
+      <c r="C155" s="17"/>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
@@ -3514,7 +3523,7 @@
       <c r="B163" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C163" s="20"/>
+      <c r="C163" s="17"/>
     </row>
     <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
@@ -3643,7 +3652,7 @@
       <c r="B177" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C177" s="20"/>
+      <c r="C177" s="19"/>
       <c r="D177" t="s">
         <v>495</v>
       </c>
@@ -3664,7 +3673,7 @@
       <c r="B179" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C179" s="20"/>
+      <c r="C179" s="17"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
@@ -3691,7 +3700,10 @@
       <c r="B182" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C182" s="20"/>
+      <c r="C182" s="19"/>
+      <c r="D182" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
@@ -3700,7 +3712,7 @@
       <c r="B183" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C183" s="20"/>
+      <c r="C183" s="17"/>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
@@ -3709,7 +3721,7 @@
       <c r="B184" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C184" s="20"/>
+      <c r="C184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
@@ -3718,7 +3730,7 @@
       <c r="B185" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C185" s="20"/>
+      <c r="C185" s="17"/>
     </row>
     <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
@@ -3727,7 +3739,7 @@
       <c r="B186" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C186" s="20"/>
+      <c r="C186" s="17"/>
     </row>
     <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
@@ -3736,7 +3748,7 @@
       <c r="B187" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="20"/>
+      <c r="C187" s="17"/>
     </row>
     <row r="188" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E113AAC-6BD5-5B44-B418-0AE3778BE324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9D987-D914-C145-B3E7-256193F998A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="503">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1525,13 +1525,28 @@
   </si>
   <si>
     <t xml:space="preserve">Code ache se nhi bana kisi aur din try karna hai </t>
+  </si>
+  <si>
+    <t>Erect the fence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks e related nahi hai but karna hai </t>
+  </si>
+  <si>
+    <t>Max earning from taxi</t>
+  </si>
+  <si>
+    <t>DP Wala hai Repeated Question</t>
+  </si>
+  <si>
+    <t>Minimum no. of operation to make array continous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1596,6 +1611,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1678,7 +1700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1721,6 +1743,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2036,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:F581"/>
+  <dimension ref="A1:F582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A377" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B326" sqref="B326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,7 +2186,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>502</v>
       </c>
       <c r="C14" s="20"/>
     </row>
@@ -2172,16 +2195,16 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="17"/>
     </row>
@@ -2190,25 +2213,25 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="17"/>
     </row>
@@ -2217,40 +2240,40 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>467</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17"/>
-      <c r="D20" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>472</v>
+      <c r="B21" s="6" t="s">
+        <v>467</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="20"/>
+      <c r="B22" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="17"/>
     </row>
@@ -2259,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="17"/>
     </row>
@@ -2268,7 +2291,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>474</v>
+        <v>21</v>
       </c>
       <c r="C25" s="17"/>
     </row>
@@ -2277,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>474</v>
       </c>
       <c r="C26" s="17"/>
     </row>
@@ -2286,7 +2309,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="17"/>
     </row>
@@ -2295,43 +2318,43 @@
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="20"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="C31" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>27</v>
+        <v>478</v>
       </c>
       <c r="C32" s="17"/>
     </row>
@@ -2340,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="17"/>
     </row>
@@ -2349,16 +2372,16 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="20"/>
     </row>
@@ -2367,16 +2390,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="17"/>
     </row>
@@ -2385,7 +2408,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="17"/>
     </row>
@@ -2394,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="17"/>
     </row>
@@ -2403,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="C40" s="17"/>
     </row>
@@ -2412,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
+        <v>480</v>
       </c>
       <c r="C41" s="17"/>
     </row>
@@ -2421,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="17"/>
     </row>
@@ -2430,46 +2453,46 @@
         <v>4</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" t="s">
-        <v>482</v>
-      </c>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="17"/>
+      <c r="D44" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>475</v>
+        <v>40</v>
       </c>
       <c r="C47" s="17"/>
     </row>
@@ -2478,27 +2501,30 @@
         <v>4</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B50" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="15" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="15" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
@@ -2507,20 +2533,17 @@
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="20"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="20"/>
     </row>
@@ -2529,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="20"/>
     </row>
@@ -2538,7 +2561,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="20"/>
     </row>
@@ -2547,7 +2570,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="20"/>
     </row>
@@ -2556,7 +2579,7 @@
         <v>41</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="20"/>
     </row>
@@ -2565,7 +2588,7 @@
         <v>41</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="20"/>
     </row>
@@ -2574,7 +2597,7 @@
         <v>41</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="20"/>
     </row>
@@ -2583,7 +2606,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="20"/>
     </row>
@@ -2592,32 +2615,32 @@
         <v>41</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C62" s="20"/>
     </row>
-    <row r="63" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="20"/>
     </row>
     <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="17"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="17"/>
     </row>
@@ -2626,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="17"/>
     </row>
@@ -2634,17 +2657,17 @@
       <c r="A67" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="20"/>
+      <c r="B67" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>57</v>
+      <c r="B68" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C68" s="20"/>
     </row>
@@ -2653,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="20"/>
     </row>
@@ -2662,7 +2685,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="20"/>
     </row>
@@ -2671,25 +2694,25 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="C71" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="20"/>
+        <v>484</v>
+      </c>
+      <c r="C72" s="17"/>
     </row>
     <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="20"/>
     </row>
@@ -2698,7 +2721,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="20"/>
     </row>
@@ -2707,7 +2730,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C75" s="20"/>
     </row>
@@ -2716,7 +2739,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="20"/>
     </row>
@@ -2725,7 +2748,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" s="20"/>
     </row>
@@ -2734,7 +2757,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C78" s="20"/>
     </row>
@@ -2743,7 +2766,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" s="20"/>
     </row>
@@ -2752,7 +2775,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="20"/>
     </row>
@@ -2761,7 +2784,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" s="20"/>
     </row>
@@ -2770,7 +2793,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="20"/>
     </row>
@@ -2779,7 +2802,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="20"/>
     </row>
@@ -2788,7 +2811,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C84" s="20"/>
     </row>
@@ -2797,7 +2820,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C85" s="20"/>
     </row>
@@ -2806,7 +2829,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="20"/>
     </row>
@@ -2815,7 +2838,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="20"/>
     </row>
@@ -2824,7 +2847,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C88" s="20"/>
     </row>
@@ -2833,7 +2856,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="20"/>
     </row>
@@ -2842,7 +2865,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C90" s="20"/>
     </row>
@@ -2851,7 +2874,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C91" s="20"/>
     </row>
@@ -2860,7 +2883,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="20"/>
     </row>
@@ -2869,7 +2892,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="20"/>
     </row>
@@ -2878,7 +2901,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="20"/>
     </row>
@@ -2887,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" s="20"/>
     </row>
@@ -2896,7 +2919,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="20"/>
     </row>
@@ -2905,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C97" s="20"/>
     </row>
@@ -2914,7 +2937,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="20"/>
     </row>
@@ -2923,7 +2946,7 @@
         <v>52</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" s="20"/>
     </row>
@@ -2932,7 +2955,7 @@
         <v>52</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C100" s="20"/>
     </row>
@@ -2941,7 +2964,7 @@
         <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C101" s="20"/>
     </row>
@@ -2950,7 +2973,7 @@
         <v>52</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="20"/>
     </row>
@@ -2959,7 +2982,7 @@
         <v>52</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="20"/>
     </row>
@@ -2968,7 +2991,7 @@
         <v>52</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="20"/>
     </row>
@@ -2977,7 +3000,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C105" s="20"/>
     </row>
@@ -2986,7 +3009,7 @@
         <v>52</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="20"/>
     </row>
@@ -2995,7 +3018,7 @@
         <v>52</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107" s="20"/>
     </row>
@@ -3004,15 +3027,17 @@
         <v>52</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C108" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="C108" s="20"/>
     </row>
     <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B109" s="6"/>
+      <c r="B109" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="C109" s="17"/>
     </row>
     <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -3030,24 +3055,22 @@
       <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="17"/>
     </row>
     <row r="113" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113" s="17"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C114" s="17"/>
     </row>
@@ -3056,7 +3079,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="17"/>
     </row>
@@ -3065,7 +3088,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C116" s="17"/>
     </row>
@@ -3074,7 +3097,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C117" s="17"/>
     </row>
@@ -3083,30 +3106,27 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C118" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="C118" s="17"/>
     </row>
     <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C119" s="20"/>
-      <c r="D119" t="s">
-        <v>486</v>
-      </c>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="17"/>
+        <v>103</v>
+      </c>
+      <c r="C120" s="20"/>
       <c r="D120" t="s">
         <v>486</v>
       </c>
@@ -3116,7 +3136,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" t="s">
@@ -3128,7 +3148,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" t="s">
@@ -3140,9 +3160,9 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C123" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="C123" s="17"/>
       <c r="D123" t="s">
         <v>486</v>
       </c>
@@ -3152,7 +3172,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" t="s">
@@ -3164,9 +3184,9 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C125" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="C125" s="20"/>
       <c r="D125" t="s">
         <v>486</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" t="s">
@@ -3188,9 +3208,9 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="C127" s="17"/>
       <c r="D127" t="s">
         <v>486</v>
       </c>
@@ -3200,9 +3220,9 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C128" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="C128" s="20"/>
       <c r="D128" t="s">
         <v>486</v>
       </c>
@@ -3212,37 +3232,40 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C129" s="20"/>
+        <v>112</v>
+      </c>
+      <c r="C129" s="17"/>
+      <c r="D129" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" s="19"/>
-      <c r="D130" t="s">
-        <v>487</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C130" s="20"/>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C132" s="20"/>
     </row>
@@ -3251,40 +3274,37 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="17"/>
-      <c r="D133" t="s">
-        <v>486</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C133" s="20"/>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C134" s="17"/>
+      <c r="D134" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>485</v>
+        <v>118</v>
       </c>
       <c r="C135" s="17"/>
-      <c r="D135" t="s">
-        <v>486</v>
-      </c>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>119</v>
+        <v>485</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" t="s">
@@ -3296,16 +3316,19 @@
         <v>96</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C137" s="17"/>
+      <c r="D137" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C138" s="17"/>
     </row>
@@ -3314,43 +3337,46 @@
         <v>96</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C139" s="20"/>
+        <v>121</v>
+      </c>
+      <c r="C139" s="17"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C140" s="17"/>
+        <v>122</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C141" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="C141" s="17"/>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C142" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="C142" s="20"/>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C143" s="17"/>
     </row>
@@ -3359,7 +3385,7 @@
         <v>96</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C144" s="17"/>
     </row>
@@ -3368,58 +3394,58 @@
         <v>96</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C145" s="20"/>
+        <v>127</v>
+      </c>
+      <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C146" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="C146" s="20"/>
     </row>
     <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C147" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="C147" s="17"/>
     </row>
     <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C148" s="20"/>
+    </row>
+    <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C148" s="19"/>
-      <c r="D148" t="s">
+      <c r="C149" s="19"/>
+      <c r="D149" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B150" s="7"/>
-    </row>
     <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C151" s="17"/>
+      <c r="B151" s="7"/>
     </row>
     <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C152" s="17"/>
     </row>
@@ -3428,7 +3454,7 @@
         <v>132</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C153" s="17"/>
     </row>
@@ -3437,28 +3463,28 @@
         <v>132</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C154" s="20"/>
-      <c r="D154" t="s">
-        <v>497</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C154" s="17"/>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="C155" s="20"/>
+      <c r="D155" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C156" s="17"/>
     </row>
@@ -3467,7 +3493,7 @@
         <v>132</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C157" s="17"/>
     </row>
@@ -3476,7 +3502,7 @@
         <v>132</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C158" s="17"/>
     </row>
@@ -3485,7 +3511,7 @@
         <v>132</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C159" s="17"/>
     </row>
@@ -3494,7 +3520,7 @@
         <v>132</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C160" s="17"/>
     </row>
@@ -3503,7 +3529,7 @@
         <v>132</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C161" s="17"/>
     </row>
@@ -3512,7 +3538,7 @@
         <v>132</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C162" s="17"/>
     </row>
@@ -3521,7 +3547,7 @@
         <v>132</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C163" s="17"/>
     </row>
@@ -3530,25 +3556,25 @@
         <v>132</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C164" s="20"/>
+        <v>145</v>
+      </c>
+      <c r="C164" s="17"/>
     </row>
     <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C165" s="17"/>
+        <v>146</v>
+      </c>
+      <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C166" s="17"/>
     </row>
@@ -3557,16 +3583,16 @@
         <v>132</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="C167" s="20"/>
+        <v>148</v>
+      </c>
+      <c r="C167" s="17"/>
     </row>
     <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>149</v>
+        <v>493</v>
       </c>
       <c r="C168" s="20"/>
     </row>
@@ -3575,16 +3601,16 @@
         <v>132</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C169" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="C169" s="20"/>
     </row>
     <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C170" s="17"/>
     </row>
@@ -3593,7 +3619,7 @@
         <v>132</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C171" s="17"/>
     </row>
@@ -3602,7 +3628,7 @@
         <v>132</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C172" s="17"/>
     </row>
@@ -3611,7 +3637,7 @@
         <v>132</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C173" s="17"/>
     </row>
@@ -3620,28 +3646,28 @@
         <v>132</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C174" s="20"/>
-      <c r="D174" t="s">
-        <v>494</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C175" s="17"/>
+        <v>155</v>
+      </c>
+      <c r="C175" s="20"/>
+      <c r="D175" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C176" s="17"/>
     </row>
@@ -3649,38 +3675,38 @@
       <c r="A177" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C177" s="19"/>
-      <c r="D177" t="s">
-        <v>495</v>
-      </c>
+      <c r="B177" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C178" s="20"/>
+        <v>158</v>
+      </c>
+      <c r="C178" s="19"/>
+      <c r="D178" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C179" s="17"/>
+      <c r="B179" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C179" s="20"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C180" s="17"/>
     </row>
@@ -3689,37 +3715,37 @@
         <v>132</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C181" s="20"/>
+        <v>161</v>
+      </c>
+      <c r="C181" s="17"/>
     </row>
     <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C182" s="19"/>
-      <c r="D182" t="s">
-        <v>496</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C182" s="20"/>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C183" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C184" s="17"/>
     </row>
@@ -3728,7 +3754,7 @@
         <v>132</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C185" s="17"/>
     </row>
@@ -3737,7 +3763,7 @@
         <v>132</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C186" s="17"/>
     </row>
@@ -3746,39 +3772,39 @@
         <v>132</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C187" s="17"/>
+    </row>
+    <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C187" s="17"/>
-    </row>
-    <row r="188" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
+      <c r="C188" s="17"/>
+    </row>
+    <row r="189" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>491</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B189" s="7"/>
-    </row>
     <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C190" s="20"/>
+      <c r="B190" s="7"/>
     </row>
     <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C191" s="20"/>
     </row>
@@ -3787,7 +3813,7 @@
         <v>169</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C192" s="20"/>
     </row>
@@ -3796,7 +3822,7 @@
         <v>169</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C193" s="20"/>
     </row>
@@ -3805,7 +3831,7 @@
         <v>169</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C194" s="20"/>
     </row>
@@ -3814,7 +3840,7 @@
         <v>169</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C195" s="20"/>
     </row>
@@ -3823,7 +3849,7 @@
         <v>169</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C196" s="20"/>
     </row>
@@ -3832,7 +3858,7 @@
         <v>169</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C197" s="20"/>
     </row>
@@ -3841,7 +3867,7 @@
         <v>169</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C198" s="20"/>
     </row>
@@ -3850,7 +3876,7 @@
         <v>169</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C199" s="20"/>
     </row>
@@ -3859,7 +3885,7 @@
         <v>169</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C200" s="20"/>
     </row>
@@ -3868,7 +3894,7 @@
         <v>169</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C201" s="20"/>
     </row>
@@ -3877,7 +3903,7 @@
         <v>169</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C202" s="20"/>
     </row>
@@ -3886,7 +3912,7 @@
         <v>169</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C203" s="20"/>
     </row>
@@ -3895,7 +3921,7 @@
         <v>169</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C204" s="20"/>
     </row>
@@ -3904,7 +3930,7 @@
         <v>169</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C205" s="20"/>
     </row>
@@ -3913,7 +3939,7 @@
         <v>169</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C206" s="20"/>
     </row>
@@ -3922,7 +3948,7 @@
         <v>169</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C207" s="20"/>
     </row>
@@ -3931,7 +3957,7 @@
         <v>169</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C208" s="20"/>
     </row>
@@ -3940,7 +3966,7 @@
         <v>169</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C209" s="20"/>
     </row>
@@ -3949,7 +3975,7 @@
         <v>169</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C210" s="20"/>
     </row>
@@ -3958,7 +3984,7 @@
         <v>169</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C211" s="20"/>
     </row>
@@ -3967,7 +3993,7 @@
         <v>169</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C212" s="20"/>
     </row>
@@ -3976,7 +4002,7 @@
         <v>169</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C213" s="20"/>
     </row>
@@ -3985,7 +4011,7 @@
         <v>169</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C214" s="20"/>
     </row>
@@ -3994,7 +4020,7 @@
         <v>169</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C215" s="20"/>
     </row>
@@ -4003,7 +4029,7 @@
         <v>169</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C216" s="20"/>
     </row>
@@ -4012,7 +4038,7 @@
         <v>169</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C217" s="20"/>
     </row>
@@ -4021,7 +4047,7 @@
         <v>169</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C218" s="20"/>
     </row>
@@ -4030,7 +4056,7 @@
         <v>169</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C219" s="20"/>
     </row>
@@ -4039,7 +4065,7 @@
         <v>169</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C220" s="20"/>
     </row>
@@ -4048,7 +4074,7 @@
         <v>169</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C221" s="20"/>
     </row>
@@ -4057,7 +4083,7 @@
         <v>169</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C222" s="20"/>
     </row>
@@ -4066,7 +4092,7 @@
         <v>169</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C223" s="20"/>
     </row>
@@ -4075,33 +4101,33 @@
         <v>169</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C224" s="20"/>
+    </row>
+    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A225" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B225" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C224" s="20"/>
-    </row>
-    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
-      <c r="B225" s="7"/>
+      <c r="C225" s="20"/>
     </row>
     <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="7"/>
     </row>
     <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A227" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C227" s="20"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="7"/>
     </row>
     <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" s="20"/>
     </row>
@@ -4110,7 +4136,7 @@
         <v>205</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C229" s="20"/>
     </row>
@@ -4119,7 +4145,7 @@
         <v>205</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C230" s="20"/>
     </row>
@@ -4128,7 +4154,7 @@
         <v>205</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C231" s="20"/>
     </row>
@@ -4137,7 +4163,7 @@
         <v>205</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C232" s="20"/>
     </row>
@@ -4145,8 +4171,8 @@
       <c r="A233" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B233" s="9" t="s">
-        <v>212</v>
+      <c r="B233" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C233" s="20"/>
     </row>
@@ -4154,8 +4180,8 @@
       <c r="A234" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B234" s="6" t="s">
-        <v>213</v>
+      <c r="B234" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C234" s="20"/>
     </row>
@@ -4164,7 +4190,7 @@
         <v>205</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C235" s="20"/>
     </row>
@@ -4173,7 +4199,7 @@
         <v>205</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C236" s="20"/>
     </row>
@@ -4182,7 +4208,7 @@
         <v>205</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C237" s="20"/>
     </row>
@@ -4191,7 +4217,7 @@
         <v>205</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C238" s="20"/>
     </row>
@@ -4200,7 +4226,7 @@
         <v>205</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C239" s="20"/>
     </row>
@@ -4209,7 +4235,7 @@
         <v>205</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C240" s="20"/>
     </row>
@@ -4218,7 +4244,7 @@
         <v>205</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C241" s="20"/>
     </row>
@@ -4227,7 +4253,7 @@
         <v>205</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C242" s="20"/>
     </row>
@@ -4236,7 +4262,7 @@
         <v>205</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C243" s="20"/>
     </row>
@@ -4245,7 +4271,7 @@
         <v>205</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C244" s="20"/>
     </row>
@@ -4254,7 +4280,7 @@
         <v>205</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C245" s="20"/>
     </row>
@@ -4263,7 +4289,7 @@
         <v>205</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C246" s="20"/>
     </row>
@@ -4272,7 +4298,7 @@
         <v>205</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C247" s="20"/>
     </row>
@@ -4281,31 +4307,31 @@
         <v>205</v>
       </c>
       <c r="B248" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C248" s="20"/>
+    </row>
+    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C248" s="20"/>
-    </row>
-    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B249" s="7"/>
+      <c r="C249" s="20"/>
     </row>
     <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
     </row>
     <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C251" s="20"/>
+      <c r="B251" s="7"/>
     </row>
     <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C252" s="20"/>
     </row>
@@ -4314,7 +4340,7 @@
         <v>228</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C253" s="20"/>
     </row>
@@ -4323,7 +4349,7 @@
         <v>228</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C254" s="20"/>
     </row>
@@ -4332,7 +4358,7 @@
         <v>228</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C255" s="20"/>
     </row>
@@ -4341,7 +4367,7 @@
         <v>228</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C256" s="20"/>
     </row>
@@ -4350,7 +4376,7 @@
         <v>228</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C257" s="20"/>
     </row>
@@ -4359,7 +4385,7 @@
         <v>228</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C258" s="20"/>
     </row>
@@ -4368,7 +4394,7 @@
         <v>228</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C259" s="20"/>
     </row>
@@ -4377,7 +4403,7 @@
         <v>228</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C260" s="20"/>
     </row>
@@ -4386,7 +4412,7 @@
         <v>228</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C261" s="20"/>
     </row>
@@ -4395,7 +4421,7 @@
         <v>228</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C262" s="20"/>
     </row>
@@ -4404,7 +4430,7 @@
         <v>228</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C263" s="20"/>
     </row>
@@ -4413,7 +4439,7 @@
         <v>228</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C264" s="20"/>
     </row>
@@ -4422,7 +4448,7 @@
         <v>228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C265" s="20"/>
     </row>
@@ -4431,7 +4457,7 @@
         <v>228</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C266" s="20"/>
     </row>
@@ -4440,7 +4466,7 @@
         <v>228</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C267" s="20"/>
     </row>
@@ -4449,7 +4475,7 @@
         <v>228</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C268" s="20"/>
     </row>
@@ -4458,7 +4484,7 @@
         <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C269" s="20"/>
     </row>
@@ -4467,7 +4493,7 @@
         <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C270" s="20"/>
     </row>
@@ -4476,7 +4502,7 @@
         <v>228</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C271" s="20"/>
     </row>
@@ -4485,7 +4511,7 @@
         <v>228</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C272" s="20"/>
     </row>
@@ -4494,7 +4520,7 @@
         <v>228</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C273" s="20"/>
     </row>
@@ -4503,7 +4529,7 @@
         <v>228</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C274" s="20"/>
     </row>
@@ -4512,7 +4538,7 @@
         <v>228</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C275" s="20"/>
     </row>
@@ -4521,7 +4547,7 @@
         <v>228</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C276" s="20"/>
     </row>
@@ -4530,7 +4556,7 @@
         <v>228</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C277" s="20"/>
     </row>
@@ -4539,7 +4565,7 @@
         <v>228</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C278" s="20"/>
     </row>
@@ -4548,7 +4574,7 @@
         <v>228</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C279" s="20"/>
     </row>
@@ -4557,7 +4583,7 @@
         <v>228</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C280" s="20"/>
     </row>
@@ -4566,7 +4592,7 @@
         <v>228</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C281" s="20"/>
     </row>
@@ -4575,7 +4601,7 @@
         <v>228</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C282" s="20"/>
     </row>
@@ -4584,7 +4610,7 @@
         <v>228</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C283" s="20"/>
     </row>
@@ -4593,7 +4619,7 @@
         <v>228</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C284" s="20"/>
     </row>
@@ -4602,31 +4628,31 @@
         <v>228</v>
       </c>
       <c r="B285" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C285" s="20"/>
+    </row>
+    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C285" s="20"/>
-    </row>
-    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B286" s="7"/>
+      <c r="C286" s="20"/>
     </row>
     <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B287" s="7"/>
     </row>
     <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C288" s="20"/>
+      <c r="B288" s="7"/>
     </row>
     <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>263</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C289" s="20"/>
     </row>
@@ -4635,7 +4661,7 @@
         <v>263</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C290" s="20"/>
     </row>
@@ -4644,7 +4670,7 @@
         <v>263</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C291" s="20"/>
     </row>
@@ -4653,7 +4679,7 @@
         <v>263</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C292" s="20"/>
     </row>
@@ -4662,7 +4688,7 @@
         <v>263</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C293" s="20"/>
     </row>
@@ -4671,7 +4697,7 @@
         <v>263</v>
       </c>
       <c r="B294" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C294" s="20"/>
     </row>
@@ -4680,7 +4706,7 @@
         <v>263</v>
       </c>
       <c r="B295" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C295" s="20"/>
     </row>
@@ -4689,7 +4715,7 @@
         <v>263</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C296" s="20"/>
     </row>
@@ -4698,7 +4724,7 @@
         <v>263</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C297" s="20"/>
     </row>
@@ -4707,7 +4733,7 @@
         <v>263</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C298" s="20"/>
     </row>
@@ -4716,7 +4742,7 @@
         <v>263</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C299" s="20"/>
     </row>
@@ -4725,7 +4751,7 @@
         <v>263</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C300" s="20"/>
     </row>
@@ -4734,7 +4760,7 @@
         <v>263</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C301" s="20"/>
     </row>
@@ -4743,7 +4769,7 @@
         <v>263</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C302" s="20"/>
     </row>
@@ -4752,7 +4778,7 @@
         <v>263</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C303" s="20"/>
     </row>
@@ -4761,7 +4787,7 @@
         <v>263</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C304" s="20"/>
     </row>
@@ -4770,7 +4796,7 @@
         <v>263</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C305" s="20"/>
     </row>
@@ -4779,40 +4805,40 @@
         <v>263</v>
       </c>
       <c r="B306" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C306" s="20"/>
+    </row>
+    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A307" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C306" s="20"/>
-    </row>
-    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B307" s="7"/>
+      <c r="C307" s="20"/>
     </row>
     <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B308" s="7"/>
     </row>
     <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C309" s="20"/>
+      <c r="B309" s="7"/>
     </row>
     <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C310" s="20"/>
+        <v>284</v>
+      </c>
+      <c r="C310" s="24"/>
     </row>
     <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C311" s="20"/>
     </row>
@@ -4821,7 +4847,7 @@
         <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C312" s="20"/>
     </row>
@@ -4830,7 +4856,7 @@
         <v>283</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C313" s="20"/>
     </row>
@@ -4839,7 +4865,7 @@
         <v>283</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C314" s="20"/>
     </row>
@@ -4848,7 +4874,7 @@
         <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C315" s="20"/>
     </row>
@@ -4857,7 +4883,7 @@
         <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C316" s="20"/>
     </row>
@@ -4866,7 +4892,7 @@
         <v>283</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C317" s="20"/>
     </row>
@@ -4875,16 +4901,16 @@
         <v>283</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C318" s="20"/>
+        <v>292</v>
+      </c>
+      <c r="C318" s="17"/>
     </row>
     <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C319" s="20"/>
     </row>
@@ -4893,7 +4919,7 @@
         <v>283</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C320" s="20"/>
     </row>
@@ -4902,7 +4928,7 @@
         <v>283</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C321" s="20"/>
     </row>
@@ -4910,8 +4936,8 @@
       <c r="A322" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B322" s="9" t="s">
-        <v>297</v>
+      <c r="B322" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C322" s="20"/>
     </row>
@@ -4919,8 +4945,8 @@
       <c r="A323" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B323" s="6" t="s">
-        <v>298</v>
+      <c r="B323" s="9" t="s">
+        <v>297</v>
       </c>
       <c r="C323" s="20"/>
     </row>
@@ -4929,7 +4955,7 @@
         <v>283</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C324" s="20"/>
     </row>
@@ -4938,7 +4964,7 @@
         <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C325" s="20"/>
     </row>
@@ -4947,16 +4973,16 @@
         <v>283</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C326" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="C326" s="17"/>
     </row>
     <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C327" s="20"/>
     </row>
@@ -4965,7 +4991,7 @@
         <v>283</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C328" s="20"/>
     </row>
@@ -4974,7 +5000,7 @@
         <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C329" s="20"/>
     </row>
@@ -4983,7 +5009,7 @@
         <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C330" s="20"/>
     </row>
@@ -4992,7 +5018,7 @@
         <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C331" s="20"/>
     </row>
@@ -5001,7 +5027,7 @@
         <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C332" s="20"/>
     </row>
@@ -5010,7 +5036,7 @@
         <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C333" s="20"/>
     </row>
@@ -5019,7 +5045,7 @@
         <v>283</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C334" s="20"/>
     </row>
@@ -5028,7 +5054,7 @@
         <v>283</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C335" s="20"/>
     </row>
@@ -5037,139 +5063,146 @@
         <v>283</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C336" s="20"/>
     </row>
-    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C337" s="20"/>
     </row>
-    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C338" s="20"/>
     </row>
-    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C339" s="20"/>
     </row>
-    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C340" s="20"/>
     </row>
-    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C341" s="20"/>
     </row>
-    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C342" s="20"/>
     </row>
-    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C343" s="20"/>
     </row>
-    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C344" s="20"/>
     </row>
-    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C345" s="20"/>
     </row>
-    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B346" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C346" s="17"/>
+    </row>
+    <row r="347" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B347" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C346" s="20"/>
-    </row>
-    <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B347" s="7"/>
-    </row>
-    <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B348" s="7"/>
-    </row>
-    <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A349" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="C349" s="20"/>
-    </row>
-    <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C347" s="17"/>
+    </row>
+    <row r="348" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A348" s="5"/>
+      <c r="B348" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C348" s="20"/>
+      <c r="D348" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B349" s="7"/>
+    </row>
+    <row r="350" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C350" s="20"/>
     </row>
-    <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C351" s="20"/>
     </row>
-    <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
         <v>322</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C352" s="20"/>
     </row>
@@ -5178,7 +5211,7 @@
         <v>322</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C353" s="20"/>
     </row>
@@ -5187,7 +5220,7 @@
         <v>322</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C354" s="20"/>
     </row>
@@ -5196,7 +5229,7 @@
         <v>322</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C355" s="20"/>
     </row>
@@ -5205,7 +5238,7 @@
         <v>322</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C356" s="20"/>
     </row>
@@ -5213,8 +5246,8 @@
       <c r="A357" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B357" s="9" t="s">
-        <v>331</v>
+      <c r="B357" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C357" s="20"/>
     </row>
@@ -5222,8 +5255,8 @@
       <c r="A358" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B358" s="6" t="s">
-        <v>332</v>
+      <c r="B358" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="C358" s="20"/>
     </row>
@@ -5232,7 +5265,7 @@
         <v>322</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C359" s="20"/>
     </row>
@@ -5241,7 +5274,7 @@
         <v>322</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C360" s="20"/>
     </row>
@@ -5250,7 +5283,7 @@
         <v>322</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C361" s="20"/>
     </row>
@@ -5259,7 +5292,7 @@
         <v>322</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C362" s="20"/>
     </row>
@@ -5268,7 +5301,7 @@
         <v>322</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C363" s="20"/>
     </row>
@@ -5277,7 +5310,7 @@
         <v>322</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C364" s="20"/>
     </row>
@@ -5286,7 +5319,7 @@
         <v>322</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C365" s="20"/>
     </row>
@@ -5295,7 +5328,7 @@
         <v>322</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C366" s="20"/>
     </row>
@@ -5304,27 +5337,27 @@
         <v>322</v>
       </c>
       <c r="B367" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C367" s="20"/>
+    </row>
+    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A368" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B368" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B368" s="7"/>
-    </row>
     <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B369" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C369" s="20"/>
+      <c r="B369" s="7"/>
     </row>
     <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="s">
         <v>341</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C370" s="20"/>
     </row>
@@ -5333,7 +5366,7 @@
         <v>341</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C371" s="20"/>
     </row>
@@ -5342,7 +5375,7 @@
         <v>341</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C372" s="20"/>
     </row>
@@ -5351,7 +5384,7 @@
         <v>341</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C373" s="20"/>
     </row>
@@ -5360,7 +5393,7 @@
         <v>341</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C374" s="20"/>
     </row>
@@ -5369,7 +5402,7 @@
         <v>341</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C375" s="20"/>
     </row>
@@ -5378,7 +5411,7 @@
         <v>341</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C376" s="20"/>
     </row>
@@ -5387,7 +5420,7 @@
         <v>341</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C377" s="20"/>
     </row>
@@ -5396,7 +5429,7 @@
         <v>341</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C378" s="20"/>
     </row>
@@ -5405,7 +5438,7 @@
         <v>341</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C379" s="20"/>
     </row>
@@ -5414,7 +5447,7 @@
         <v>341</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C380" s="20"/>
     </row>
@@ -5423,7 +5456,7 @@
         <v>341</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C381" s="20"/>
     </row>
@@ -5432,7 +5465,7 @@
         <v>341</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C382" s="20"/>
     </row>
@@ -5441,7 +5474,7 @@
         <v>341</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C383" s="20"/>
     </row>
@@ -5450,7 +5483,7 @@
         <v>341</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C384" s="20"/>
     </row>
@@ -5459,7 +5492,7 @@
         <v>341</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C385" s="20"/>
     </row>
@@ -5468,7 +5501,7 @@
         <v>341</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C386" s="20"/>
     </row>
@@ -5477,7 +5510,7 @@
         <v>341</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C387" s="20"/>
     </row>
@@ -5486,7 +5519,7 @@
         <v>341</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C388" s="20"/>
     </row>
@@ -5495,7 +5528,7 @@
         <v>341</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C389" s="20"/>
     </row>
@@ -5504,7 +5537,7 @@
         <v>341</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C390" s="20"/>
     </row>
@@ -5513,7 +5546,7 @@
         <v>341</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C391" s="20"/>
     </row>
@@ -5522,7 +5555,7 @@
         <v>341</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C392" s="20"/>
     </row>
@@ -5531,7 +5564,7 @@
         <v>341</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C393" s="20"/>
     </row>
@@ -5540,7 +5573,7 @@
         <v>341</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C394" s="20"/>
     </row>
@@ -5549,7 +5582,7 @@
         <v>341</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C395" s="20"/>
     </row>
@@ -5558,7 +5591,7 @@
         <v>341</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C396" s="20"/>
     </row>
@@ -5567,7 +5600,7 @@
         <v>341</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C397" s="20"/>
     </row>
@@ -5576,7 +5609,7 @@
         <v>341</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C398" s="20"/>
     </row>
@@ -5585,7 +5618,7 @@
         <v>341</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C399" s="20"/>
     </row>
@@ -5594,7 +5627,7 @@
         <v>341</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C400" s="20"/>
     </row>
@@ -5603,7 +5636,7 @@
         <v>341</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C401" s="20"/>
     </row>
@@ -5612,7 +5645,7 @@
         <v>341</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C402" s="20"/>
     </row>
@@ -5630,7 +5663,7 @@
         <v>341</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C404" s="20"/>
     </row>
@@ -5639,7 +5672,7 @@
         <v>341</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C405" s="20"/>
     </row>
@@ -5648,7 +5681,7 @@
         <v>341</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C406" s="20"/>
     </row>
@@ -5657,7 +5690,7 @@
         <v>341</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C407" s="20"/>
     </row>
@@ -5666,7 +5699,7 @@
         <v>341</v>
       </c>
       <c r="B408" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C408" s="20"/>
     </row>
@@ -5675,7 +5708,7 @@
         <v>341</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C409" s="20"/>
     </row>
@@ -5684,7 +5717,7 @@
         <v>341</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C410" s="20"/>
     </row>
@@ -5693,7 +5726,7 @@
         <v>341</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C411" s="20"/>
     </row>
@@ -5702,31 +5735,31 @@
         <v>341</v>
       </c>
       <c r="B412" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C412" s="20"/>
+    </row>
+    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B413" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C412" s="20"/>
-    </row>
-    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B413" s="7"/>
+      <c r="C413" s="20"/>
     </row>
     <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B414" s="7"/>
     </row>
     <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A415" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B415" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C415" s="20"/>
+      <c r="B415" s="7"/>
     </row>
     <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="s">
         <v>385</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C416" s="20"/>
     </row>
@@ -5735,7 +5768,7 @@
         <v>385</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C417" s="20"/>
     </row>
@@ -5744,7 +5777,7 @@
         <v>385</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C418" s="20"/>
     </row>
@@ -5753,7 +5786,7 @@
         <v>385</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>389</v>
+        <v>88</v>
       </c>
       <c r="C419" s="20"/>
     </row>
@@ -5762,33 +5795,33 @@
         <v>385</v>
       </c>
       <c r="B420" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C420" s="20"/>
+    </row>
+    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A421" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B421" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C420" s="20"/>
-    </row>
-    <row r="421" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B421" s="7"/>
-      <c r="C421" s="7"/>
+      <c r="C421" s="20"/>
     </row>
     <row r="422" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
     </row>
     <row r="423" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="A423" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B423" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="C423" s="22"/>
+      <c r="B423" s="7"/>
+      <c r="C423" s="7"/>
     </row>
     <row r="424" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C424" s="22"/>
     </row>
@@ -5797,16 +5830,16 @@
         <v>391</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C425" s="20"/>
+        <v>393</v>
+      </c>
+      <c r="C425" s="22"/>
     </row>
     <row r="426" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C426" s="20"/>
     </row>
@@ -5815,7 +5848,7 @@
         <v>391</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C427" s="20"/>
     </row>
@@ -5824,7 +5857,7 @@
         <v>391</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C428" s="20"/>
     </row>
@@ -5833,37 +5866,37 @@
         <v>391</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="C429" s="22"/>
-      <c r="D429" t="s">
-        <v>463</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C429" s="20"/>
     </row>
     <row r="430" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>271</v>
+        <v>398</v>
       </c>
       <c r="C430" s="22"/>
+      <c r="D430" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="431" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C431" s="20"/>
+        <v>271</v>
+      </c>
+      <c r="C431" s="22"/>
     </row>
     <row r="432" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C432" s="20"/>
     </row>
@@ -5872,7 +5905,7 @@
         <v>391</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C433" s="20"/>
     </row>
@@ -5881,7 +5914,7 @@
         <v>391</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C434" s="20"/>
     </row>
@@ -5890,7 +5923,7 @@
         <v>391</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C435" s="20"/>
     </row>
@@ -5899,43 +5932,43 @@
         <v>391</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="C436" s="22"/>
+        <v>403</v>
+      </c>
+      <c r="C436" s="20"/>
     </row>
     <row r="437" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C437" s="20"/>
+        <v>404</v>
+      </c>
+      <c r="C437" s="22"/>
     </row>
     <row r="438" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="C438" s="22"/>
+        <v>405</v>
+      </c>
+      <c r="C438" s="20"/>
     </row>
     <row r="439" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C439" s="20"/>
+        <v>406</v>
+      </c>
+      <c r="C439" s="22"/>
     </row>
     <row r="440" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C440" s="20"/>
     </row>
@@ -5944,7 +5977,7 @@
         <v>391</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C441" s="20"/>
     </row>
@@ -5953,37 +5986,37 @@
         <v>391</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C442" s="23"/>
-      <c r="D442" t="s">
-        <v>465</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="C442" s="20"/>
     </row>
     <row r="443" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C443" s="22"/>
+        <v>464</v>
+      </c>
+      <c r="C443" s="23"/>
+      <c r="D443" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="444" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C444" s="20"/>
+        <v>410</v>
+      </c>
+      <c r="C444" s="22"/>
     </row>
     <row r="445" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C445" s="20"/>
     </row>
@@ -5992,7 +6025,7 @@
         <v>391</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C446" s="20"/>
     </row>
@@ -6001,7 +6034,7 @@
         <v>391</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C447" s="20"/>
     </row>
@@ -6010,7 +6043,7 @@
         <v>391</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C448" s="20"/>
     </row>
@@ -6019,7 +6052,7 @@
         <v>391</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C449" s="20"/>
     </row>
@@ -6028,7 +6061,7 @@
         <v>391</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C450" s="20"/>
     </row>
@@ -6037,7 +6070,7 @@
         <v>391</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C451" s="20"/>
     </row>
@@ -6046,7 +6079,7 @@
         <v>391</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C452" s="20"/>
     </row>
@@ -6055,7 +6088,7 @@
         <v>391</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C453" s="20"/>
     </row>
@@ -6064,7 +6097,7 @@
         <v>391</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C454" s="20"/>
     </row>
@@ -6073,7 +6106,7 @@
         <v>391</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C455" s="20"/>
     </row>
@@ -6082,7 +6115,7 @@
         <v>391</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C456" s="20"/>
     </row>
@@ -6091,7 +6124,7 @@
         <v>391</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C457" s="20"/>
     </row>
@@ -6100,7 +6133,7 @@
         <v>391</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C458" s="20"/>
     </row>
@@ -6109,7 +6142,7 @@
         <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C459" s="20"/>
     </row>
@@ -6118,7 +6151,7 @@
         <v>391</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C460" s="20"/>
     </row>
@@ -6127,7 +6160,7 @@
         <v>391</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C461" s="20"/>
     </row>
@@ -6136,7 +6169,7 @@
         <v>391</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C462" s="20"/>
     </row>
@@ -6145,7 +6178,7 @@
         <v>391</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C463" s="20"/>
     </row>
@@ -6154,7 +6187,7 @@
         <v>391</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C464" s="20"/>
     </row>
@@ -6163,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C465" s="20"/>
     </row>
@@ -6172,7 +6205,7 @@
         <v>391</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C466" s="20"/>
     </row>
@@ -6181,7 +6214,7 @@
         <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C467" s="20"/>
     </row>
@@ -6190,7 +6223,7 @@
         <v>391</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C468" s="20"/>
     </row>
@@ -6199,7 +6232,7 @@
         <v>391</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C469" s="20"/>
     </row>
@@ -6208,7 +6241,7 @@
         <v>391</v>
       </c>
       <c r="B470" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C470" s="20"/>
     </row>
@@ -6217,7 +6250,7 @@
         <v>391</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C471" s="20"/>
     </row>
@@ -6226,7 +6259,7 @@
         <v>391</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C472" s="20"/>
     </row>
@@ -6235,7 +6268,7 @@
         <v>391</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C473" s="20"/>
     </row>
@@ -6244,7 +6277,7 @@
         <v>391</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C474" s="20"/>
     </row>
@@ -6253,7 +6286,7 @@
         <v>391</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C475" s="20"/>
     </row>
@@ -6262,7 +6295,7 @@
         <v>391</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C476" s="20"/>
     </row>
@@ -6271,7 +6304,7 @@
         <v>391</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C477" s="20"/>
     </row>
@@ -6280,7 +6313,7 @@
         <v>391</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C478" s="20"/>
     </row>
@@ -6289,7 +6322,7 @@
         <v>391</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C479" s="20"/>
     </row>
@@ -6298,7 +6331,7 @@
         <v>391</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C480" s="20"/>
     </row>
@@ -6307,7 +6340,7 @@
         <v>391</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C481" s="20"/>
     </row>
@@ -6316,7 +6349,7 @@
         <v>391</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C482" s="20"/>
     </row>
@@ -6325,7 +6358,7 @@
         <v>391</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C483" s="20"/>
     </row>
@@ -6334,34 +6367,38 @@
         <v>391</v>
       </c>
       <c r="B484" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C484" s="20"/>
+    </row>
+    <row r="485" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A485" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B485" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C484" s="20"/>
-    </row>
-    <row r="485" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A485" s="5"/>
-      <c r="B485" s="6"/>
-      <c r="C485" s="6"/>
+      <c r="C485" s="20"/>
     </row>
     <row r="486" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A486" s="8"/>
-      <c r="B486" s="7"/>
+      <c r="A486" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C486" s="20"/>
     </row>
     <row r="487" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A487" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B487" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C487" s="20"/>
+      <c r="A487" s="8"/>
+      <c r="B487" s="7"/>
     </row>
     <row r="488" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C488" s="20"/>
     </row>
@@ -6370,7 +6407,7 @@
         <v>451</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C489" s="20"/>
     </row>
@@ -6379,7 +6416,7 @@
         <v>451</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C490" s="20"/>
     </row>
@@ -6388,7 +6425,7 @@
         <v>451</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C491" s="20"/>
     </row>
@@ -6397,7 +6434,7 @@
         <v>451</v>
       </c>
       <c r="B492" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C492" s="20"/>
     </row>
@@ -6406,7 +6443,7 @@
         <v>451</v>
       </c>
       <c r="B493" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C493" s="20"/>
     </row>
@@ -6415,7 +6452,7 @@
         <v>451</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C494" s="20"/>
     </row>
@@ -6424,7 +6461,7 @@
         <v>451</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C495" s="20"/>
     </row>
@@ -6433,15 +6470,21 @@
         <v>451</v>
       </c>
       <c r="B496" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C496" s="20"/>
+    </row>
+    <row r="497" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A497" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B497" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C496" s="20"/>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C497" s="20"/>
     </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C512" s="4"/>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C498" s="20"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C513" s="4"/>
@@ -6649,6 +6692,9 @@
     </row>
     <row r="581" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C581" s="4"/>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C582" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6660,458 +6706,461 @@
     <hyperlink ref="B11" r:id="rId6" xr:uid="{0D55765B-95A7-154F-96F3-B7E4C581021F}"/>
     <hyperlink ref="B12" r:id="rId7" xr:uid="{6F687ABA-C04B-AF4F-9F11-A038DCB20FB9}"/>
     <hyperlink ref="B13" r:id="rId8" xr:uid="{11C9D8CC-9F1E-004E-8EC2-C758DC9C8CAB}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
-    <hyperlink ref="B16" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
-    <hyperlink ref="B17" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
-    <hyperlink ref="B18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
-    <hyperlink ref="B19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="B24" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="B26" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="B27" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="B28" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="B29" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="B30" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="B32" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B33" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B34" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="B35" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="B36" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="B37" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="B38" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="B39" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B41" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B42" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B43" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B44" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B45" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B46" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B52" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B53" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B54" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B55" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B56" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B57" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B58" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B59" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B60" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B61" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B64" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B65" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B66" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B68" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B69" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B70" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B72" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B73" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B74" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B75" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B76" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B77" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B78" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B79" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B80" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B81" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B82" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B83" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B84" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B85" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B86" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B87" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B88" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B89" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B90" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B91" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B92" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B93" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B94" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B95" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B96" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B97" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B98" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B99" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B100" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B101" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B102" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B103" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B104" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B105" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B106" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B107" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B113" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B114" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B115" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B116" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B118" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B119" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B120" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B121" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B122" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B123" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B125" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B126" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B127" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B128" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B129" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B130" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B131" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B132" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B133" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B134" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B135" r:id="rId109" display="K-th Element of Two Sorted Arrays" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B136" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B137" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B138" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B139" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B140" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B141" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B142" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B143" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B144" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B145" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B146" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B147" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B148" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B117" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B124" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B151" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B152" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B153" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B154" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B155" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B156" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B157" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B158" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B159" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B160" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B161" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B162" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B163" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B164" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B165" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B166" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B168" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B169" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B170" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B171" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B172" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B173" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B174" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B175" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B176" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B179" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B180" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B181" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B182" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B183" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B184" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B185" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B186" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B187" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B190" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B191" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B192" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B193" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B194" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B195" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B196" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B197" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B198" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B199" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B200" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B201" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B202" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B203" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B204" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B205" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B206" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B207" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B208" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B209" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B210" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B211" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B212" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B213" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B214" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B215" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B216" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B217" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B218" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B219" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B220" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B221" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B222" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B223" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B224" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B227" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B228" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B229" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B230" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B231" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B232" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B233" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B234" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B235" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B236" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B237" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B238" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B239" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B240" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B241" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B242" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B243" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B244" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B245" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B246" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B247" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B248" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B251" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B252" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B253" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B254" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B255" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B256" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B257" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B258" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B259" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B260" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B261" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B262" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B263" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B264" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B265" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B266" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B267" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B268" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B269" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B270" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B271" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B272" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B273" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B274" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B275" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B276" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B277" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B278" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B279" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B280" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B281" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B282" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B283" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B284" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B285" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B288" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B289" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B290" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B291" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B292" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B293" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B294" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B295" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B296" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B297" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B298" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B299" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B300" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B301" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B302" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B303" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B304" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B305" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B306" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B309" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B310" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B311" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B312" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B313" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B314" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B315" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B316" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B317" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B318" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B319" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B320" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B321" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B322" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B323" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B324" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B325" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B326" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B327" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B328" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B329" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B330" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B331" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B332" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B333" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B334" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B335" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B336" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B337" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B338" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B339" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B340" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B341" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B342" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B343" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B344" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B345" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B346" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B349" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B350" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B351" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B352" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B353" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B354" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B355" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B356" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B357" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B358" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B359" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B360" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B361" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B362" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B363" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B364" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B365" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B366" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B370" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B371" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B372" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B373" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B374" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B375" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B376" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B377" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B378" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B379" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B380" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B381" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B382" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B383" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B384" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B385" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B386" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B387" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B388" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B389" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B390" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B391" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B392" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B393" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B394" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B395" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B396" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B397" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B398" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B399" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B400" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B401" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B402" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B403" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B404" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B405" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B406" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B407" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B409" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B408" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B410" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B411" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B412" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B415" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B416" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B417" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B418" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B419" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B420" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B423" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B424" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B425" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B426" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B427" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B428" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B429" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B430" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B431" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B432" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B433" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B434" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B435" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B436" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B437" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B438" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B439" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B440" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B441" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B443" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B444" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B445" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B446" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B447" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B448" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B449" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B450" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B451" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B452" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B453" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B454" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B455" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B456" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B457" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B458" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B459" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B460" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B461" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B462" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B463" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B465" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B464" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B466" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B467" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B468" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B469" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B470" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B471" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B472" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B473" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B474" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B475" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B476" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B483" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B482" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B481" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B480" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B479" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B478" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B477" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B487" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B488" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B489" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B490" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B491" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B492" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B493" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B496" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B494" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B495" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B369" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{56E4962F-CB3D-9E48-A26E-19A1F5C800C9}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{899DDBD9-9ED6-3A4D-8AFE-8FAA6DA88DBC}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{76D41EAC-A28A-2845-8515-CA3C70D823B7}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{828948BE-DD97-DE4A-BAD6-B415E29198F0}"/>
+    <hyperlink ref="B19" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
+    <hyperlink ref="B20" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
+    <hyperlink ref="B24" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
+    <hyperlink ref="B25" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="B27" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="B28" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="B29" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="B30" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="B31" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="B33" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="B34" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="B35" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="B36" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="B37" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="B38" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="B39" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="B40" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="B42" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="B43" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="B44" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="B45" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B46" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B47" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B53" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B54" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B55" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B56" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B57" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B58" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B59" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B60" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B61" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B62" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B65" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B66" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B67" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B69" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B70" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B71" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B73" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B74" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B75" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B76" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B77" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B78" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B79" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B80" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B81" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B82" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B83" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B84" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B85" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B86" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B87" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B88" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B89" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B90" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B91" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B92" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B93" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B94" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B95" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B96" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B97" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B98" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B99" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B100" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B101" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B102" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B103" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B104" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B105" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B106" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B107" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B108" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B114" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B115" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B116" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B117" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B119" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B120" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B121" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B122" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B123" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B124" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B126" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B127" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B128" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B129" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B130" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B131" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B132" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B133" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B134" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B135" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B136" r:id="rId109" display="K-th Element of Two Sorted Arrays" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B137" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B138" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B139" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B140" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B141" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B142" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B143" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B144" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B145" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B146" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B147" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B148" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B149" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B118" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B152" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B153" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B154" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B155" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B156" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B157" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B158" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B159" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B160" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B161" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B162" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B163" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B164" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B165" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B166" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B167" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B169" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B170" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B171" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B172" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B173" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B174" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B175" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B176" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B177" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B180" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B181" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B182" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B183" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B184" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B185" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B186" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B187" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B188" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B191" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B192" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B193" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B194" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B195" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B196" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B197" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B198" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B199" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B200" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B201" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B202" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B203" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B204" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B205" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B206" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B207" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B208" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B209" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B210" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B211" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B212" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B213" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B214" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B215" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B216" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B217" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B218" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B219" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B220" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B221" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B222" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B223" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B224" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B225" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B228" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B229" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B230" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B231" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B232" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B233" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B234" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B235" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B236" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B237" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B238" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B239" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B240" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B241" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B242" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B243" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B244" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B245" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B246" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B247" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B248" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B249" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B252" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B253" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B254" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B255" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B256" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B257" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B258" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B259" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B260" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B261" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B262" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B263" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B264" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B265" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B266" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B267" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B268" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B269" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B270" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B271" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B272" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B273" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B274" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B275" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B276" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B277" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B278" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B279" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B280" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B281" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B282" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B283" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B284" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B285" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B286" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B289" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B290" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B291" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B292" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B293" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B294" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B295" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B296" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B297" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B298" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B299" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B300" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B301" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B302" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B303" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B304" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B305" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B306" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B307" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B310" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B311" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B312" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B313" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B314" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B315" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B316" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B317" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B318" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B319" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B320" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B321" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B322" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B323" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B324" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B325" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B326" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B327" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B328" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B329" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B330" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B331" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B332" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B333" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B334" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B335" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B336" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B337" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B338" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B339" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B340" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B341" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B342" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B343" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B344" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B345" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B346" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B347" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B350" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B351" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B352" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B353" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B354" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B355" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B356" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B357" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B358" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B359" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B360" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B361" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B362" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B363" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B364" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B365" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B366" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B367" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B371" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B372" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B373" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B374" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B375" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B376" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B377" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B378" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B379" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B380" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B381" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B382" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B383" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B384" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B385" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B386" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B387" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B388" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B389" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B390" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B391" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B392" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B393" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B394" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B395" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B396" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B397" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B398" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B399" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B400" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B401" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B402" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B403" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B404" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B405" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B406" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B407" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B408" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B410" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B409" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B411" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B412" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B413" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B416" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B417" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B418" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B419" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B420" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B421" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B424" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B425" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B426" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B427" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B428" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B429" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B430" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B431" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B432" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B433" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B434" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B435" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B436" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B437" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B438" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B439" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B440" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B441" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B442" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B444" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B445" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B446" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B447" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B448" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B449" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B450" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B451" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B452" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B453" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B454" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B455" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B456" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B457" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B458" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B459" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B460" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B461" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B462" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B463" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B464" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B466" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B465" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B467" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B468" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B469" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B470" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B471" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B472" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B473" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B474" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B475" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B476" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B477" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B484" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B483" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B482" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B481" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B480" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B479" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B478" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B488" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B489" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B490" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B491" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B492" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B493" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B494" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B497" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B495" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B496" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B370" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
-    <hyperlink ref="B442" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
-    <hyperlink ref="B20" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
-    <hyperlink ref="B367" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
-    <hyperlink ref="B25" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
-    <hyperlink ref="B21" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
-    <hyperlink ref="B47" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
-    <hyperlink ref="B48" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
-    <hyperlink ref="B484" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
-    <hyperlink ref="B31" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
-    <hyperlink ref="B108" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
-    <hyperlink ref="B40" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>
-    <hyperlink ref="B49" r:id="rId458" xr:uid="{213ED1AC-FD00-394C-90BF-99997A614249}"/>
-    <hyperlink ref="B71" r:id="rId459" xr:uid="{FADD6000-58D0-D240-81EC-1D00F607DAE3}"/>
-    <hyperlink ref="B167" r:id="rId460" xr:uid="{B0A04F56-F47E-0241-AAE3-47CEDC638EF4}"/>
+    <hyperlink ref="B443" r:id="rId447" xr:uid="{61650621-1868-8E4A-8524-F3C28E945BED}"/>
+    <hyperlink ref="B21" r:id="rId448" xr:uid="{E44E9098-C8D9-4B45-A914-412C49E2EA36}"/>
+    <hyperlink ref="B368" r:id="rId449" xr:uid="{937AAC08-F9C3-8846-AA1C-629CA25C02BE}"/>
+    <hyperlink ref="B26" r:id="rId450" xr:uid="{29F9D0A1-F725-A243-9BD6-1B0B749F7797}"/>
+    <hyperlink ref="B22" r:id="rId451" xr:uid="{F3911F0D-A6A4-9F45-8FDA-CA35D11C8B49}"/>
+    <hyperlink ref="B48" r:id="rId452" xr:uid="{264D1846-99AB-0146-94AE-3C4226478DAB}"/>
+    <hyperlink ref="B49" r:id="rId453" xr:uid="{7C631E14-3868-4945-8EFF-6BF0699C85F2}"/>
+    <hyperlink ref="B485" r:id="rId454" xr:uid="{7CBCA6A4-691C-E34A-8835-618E75D9F46D}"/>
+    <hyperlink ref="B32" r:id="rId455" xr:uid="{84935032-C988-5849-8D74-7CC58D0AAD60}"/>
+    <hyperlink ref="B109" r:id="rId456" xr:uid="{9EE1267B-0AB4-D246-89DD-CEABE314A540}"/>
+    <hyperlink ref="B41" r:id="rId457" xr:uid="{5E46F8D3-CBAE-9D45-B443-E40C12619EF6}"/>
+    <hyperlink ref="B50" r:id="rId458" xr:uid="{213ED1AC-FD00-394C-90BF-99997A614249}"/>
+    <hyperlink ref="B72" r:id="rId459" xr:uid="{FADD6000-58D0-D240-81EC-1D00F607DAE3}"/>
+    <hyperlink ref="B168" r:id="rId460" xr:uid="{B0A04F56-F47E-0241-AAE3-47CEDC638EF4}"/>
+    <hyperlink ref="B348" r:id="rId461" xr:uid="{4EB33AED-6714-AE43-A82A-5134C5A772DA}"/>
+    <hyperlink ref="B486" r:id="rId462" xr:uid="{091F1344-7B2A-454D-8D0F-E63D04E97451}"/>
+    <hyperlink ref="B14" r:id="rId463" xr:uid="{134D97AD-D887-C84A-8C51-93B7C88B5BD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D9D987-D914-C145-B3E7-256193F998A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC632C5B-BEBF-954C-8D43-7589A93C3E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="513">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1540,6 +1540,36 @@
   </si>
   <si>
     <t>Minimum no. of operation to make array continous</t>
+  </si>
+  <si>
+    <t> Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>SLIDING WINDOW MAXIMUM WALA HAI (Explanation pending)</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>graph dfs</t>
+  </si>
+  <si>
+    <t>Heap ka question</t>
+  </si>
+  <si>
+    <t>Queue + tree (college mein kiya hai)</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>How it is different from below question</t>
+  </si>
+  <si>
+    <t>Quick partition</t>
   </si>
 </sst>
 </file>
@@ -2061,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B326" sqref="B326"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2456,6 +2486,9 @@
         <v>36</v>
       </c>
       <c r="C43" s="17"/>
+      <c r="D43" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
@@ -2486,6 +2519,9 @@
         <v>39</v>
       </c>
       <c r="C46" s="20"/>
+      <c r="D46" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -3806,7 +3842,7 @@
       <c r="B191" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C191" s="20"/>
+      <c r="C191" s="17"/>
     </row>
     <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
@@ -3815,7 +3851,7 @@
       <c r="B192" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C192" s="20"/>
+      <c r="C192" s="17"/>
     </row>
     <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
@@ -3851,7 +3887,7 @@
       <c r="B196" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C196" s="20"/>
+      <c r="C196" s="17"/>
     </row>
     <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
@@ -3860,7 +3896,7 @@
       <c r="B197" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C197" s="20"/>
+      <c r="C197" s="17"/>
     </row>
     <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
@@ -3869,7 +3905,7 @@
       <c r="B198" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C198" s="20"/>
+      <c r="C198" s="17"/>
     </row>
     <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
@@ -3914,7 +3950,7 @@
       <c r="B203" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C203" s="20"/>
+      <c r="C203" s="17"/>
     </row>
     <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
@@ -4642,7 +4678,13 @@
       <c r="C286" s="20"/>
     </row>
     <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="B287" s="7"/>
+      <c r="A287" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C287" s="24"/>
     </row>
     <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B288" s="7"/>
@@ -4791,7 +4833,7 @@
       </c>
       <c r="C304" s="20"/>
     </row>
-    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>263</v>
       </c>
@@ -4800,7 +4842,7 @@
       </c>
       <c r="C305" s="20"/>
     </row>
-    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>263</v>
       </c>
@@ -4809,7 +4851,7 @@
       </c>
       <c r="C306" s="20"/>
     </row>
-    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>263</v>
       </c>
@@ -4818,13 +4860,13 @@
       </c>
       <c r="C307" s="20"/>
     </row>
-    <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B308" s="7"/>
     </row>
-    <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B309" s="7"/>
     </row>
-    <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>283</v>
       </c>
@@ -4833,25 +4875,25 @@
       </c>
       <c r="C310" s="24"/>
     </row>
-    <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C311" s="20"/>
-    </row>
-    <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C311" s="24"/>
+    </row>
+    <row r="312" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C312" s="20"/>
-    </row>
-    <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C312" s="24"/>
+    </row>
+    <row r="313" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>283</v>
       </c>
@@ -4859,8 +4901,11 @@
         <v>287</v>
       </c>
       <c r="C313" s="20"/>
-    </row>
-    <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D313" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>283</v>
       </c>
@@ -4869,25 +4914,25 @@
       </c>
       <c r="C314" s="20"/>
     </row>
-    <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C315" s="20"/>
-    </row>
-    <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C315" s="24"/>
+    </row>
+    <row r="316" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C316" s="20"/>
-    </row>
-    <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C316" s="24"/>
+    </row>
+    <row r="317" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>283</v>
       </c>
@@ -4895,8 +4940,11 @@
         <v>291</v>
       </c>
       <c r="C317" s="20"/>
-    </row>
-    <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D317" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>283</v>
       </c>
@@ -4905,7 +4953,7 @@
       </c>
       <c r="C318" s="17"/>
     </row>
-    <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>283</v>
       </c>
@@ -4913,8 +4961,11 @@
         <v>293</v>
       </c>
       <c r="C319" s="20"/>
-    </row>
-    <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D319" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>283</v>
       </c>
@@ -4922,8 +4973,11 @@
         <v>294</v>
       </c>
       <c r="C320" s="20"/>
-    </row>
-    <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D320" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>283</v>
       </c>
@@ -4931,8 +4985,11 @@
         <v>295</v>
       </c>
       <c r="C321" s="20"/>
-    </row>
-    <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>283</v>
       </c>
@@ -4940,8 +4997,11 @@
         <v>296</v>
       </c>
       <c r="C322" s="20"/>
-    </row>
-    <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D322" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>283</v>
       </c>
@@ -4950,7 +5010,7 @@
       </c>
       <c r="C323" s="20"/>
     </row>
-    <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>283</v>
       </c>
@@ -4959,16 +5019,16 @@
       </c>
       <c r="C324" s="20"/>
     </row>
-    <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C325" s="20"/>
-    </row>
-    <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="C325" s="17"/>
+    </row>
+    <row r="326" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>283</v>
       </c>
@@ -4977,7 +5037,7 @@
       </c>
       <c r="C326" s="17"/>
     </row>
-    <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>283</v>
       </c>
@@ -4985,8 +5045,11 @@
         <v>301</v>
       </c>
       <c r="C327" s="20"/>
-    </row>
-    <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D327" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>283</v>
       </c>
@@ -4994,85 +5057,94 @@
         <v>302</v>
       </c>
       <c r="C328" s="20"/>
-    </row>
-    <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="C329" s="20"/>
-    </row>
-    <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="D329" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C330" s="20"/>
     </row>
-    <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C331" s="20"/>
     </row>
-    <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C332" s="20"/>
     </row>
-    <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C333" s="20"/>
     </row>
-    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C334" s="20"/>
     </row>
-    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B335" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C335" s="20"/>
     </row>
-    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C336" s="20"/>
+        <v>309</v>
+      </c>
+      <c r="C336" s="17"/>
+      <c r="D336" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="337" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C337" s="20"/>
     </row>
@@ -5081,18 +5153,24 @@
         <v>283</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C338" s="20"/>
+        <v>311</v>
+      </c>
+      <c r="C338" s="17"/>
+      <c r="D338" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="339" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>283</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C339" s="20"/>
+        <v>312</v>
+      </c>
+      <c r="C339" s="19"/>
+      <c r="D339" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="340" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
@@ -5102,6 +5180,9 @@
         <v>314</v>
       </c>
       <c r="C340" s="20"/>
+      <c r="D340" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="341" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
@@ -5111,6 +5192,9 @@
         <v>315</v>
       </c>
       <c r="C341" s="20"/>
+      <c r="D341" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="342" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
@@ -5119,7 +5203,7 @@
       <c r="B342" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C342" s="20"/>
+      <c r="C342" s="17"/>
     </row>
     <row r="343" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
@@ -5129,6 +5213,9 @@
         <v>317</v>
       </c>
       <c r="C343" s="20"/>
+      <c r="D343" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="344" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
@@ -5137,7 +5224,10 @@
       <c r="B344" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C344" s="20"/>
+      <c r="C344" s="17"/>
+      <c r="D344" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="345" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
@@ -5147,6 +5237,9 @@
         <v>319</v>
       </c>
       <c r="C345" s="20"/>
+      <c r="D345" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="346" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
@@ -6986,17 +7079,17 @@
     <hyperlink ref="B326" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
     <hyperlink ref="B327" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
     <hyperlink ref="B328" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B329" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B330" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B331" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B332" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B333" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B334" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B335" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B336" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B337" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B338" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B339" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B330" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B331" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B332" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B333" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B334" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B335" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B336" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B337" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B338" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B339" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B287" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
     <hyperlink ref="B340" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
     <hyperlink ref="B341" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
     <hyperlink ref="B342" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
@@ -7161,6 +7254,7 @@
     <hyperlink ref="B348" r:id="rId461" xr:uid="{4EB33AED-6714-AE43-A82A-5134C5A772DA}"/>
     <hyperlink ref="B486" r:id="rId462" xr:uid="{091F1344-7B2A-454D-8D0F-E63D04E97451}"/>
     <hyperlink ref="B14" r:id="rId463" xr:uid="{134D97AD-D887-C84A-8C51-93B7C88B5BD1}"/>
+    <hyperlink ref="B329" r:id="rId464" xr:uid="{F1CB5128-50CE-BA41-A8A4-114D59F574CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitsingh/Documents/GitHub/Python-Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC632C5B-BEBF-954C-8D43-7589A93C3E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CB55F-56A1-274F-8FE4-51695524F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20500" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="513">
-  <si>
-    <t>Questions by Love Babbar:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="512">
   <si>
     <t>Topic:</t>
   </si>
@@ -1419,9 +1416,6 @@
     <t>Power Set</t>
   </si>
   <si>
-    <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
-  </si>
-  <si>
     <t>Needs to be revised</t>
   </si>
   <si>
@@ -1570,6 +1564,9 @@
   </si>
   <si>
     <t>Quick partition</t>
+  </si>
+  <si>
+    <t>Notes pending</t>
   </si>
 </sst>
 </file>
@@ -2091,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:F582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2104,462 +2101,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>462</v>
-      </c>
+      <c r="B2" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="17"/>
       <c r="E6" s="13"/>
       <c r="F6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="17"/>
       <c r="E7" s="12"/>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="18"/>
       <c r="E8" s="11"/>
       <c r="F8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -2576,91 +2569,91 @@
     </row>
     <row r="53" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="20"/>
     </row>
     <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="20"/>
     </row>
     <row r="59" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="20"/>
     </row>
     <row r="60" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="20"/>
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="20"/>
     </row>
     <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="20"/>
     </row>
@@ -2673,426 +2666,426 @@
     </row>
     <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C65" s="17"/>
     </row>
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="17"/>
     </row>
     <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="17"/>
     </row>
     <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="20"/>
     </row>
     <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="20"/>
     </row>
     <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C72" s="17"/>
     </row>
     <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C73" s="20"/>
     </row>
     <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C74" s="20"/>
     </row>
     <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="20"/>
     </row>
     <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C76" s="20"/>
     </row>
     <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="20"/>
     </row>
     <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C78" s="20"/>
     </row>
     <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="20"/>
     </row>
     <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C81" s="20"/>
     </row>
     <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="20"/>
     </row>
     <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="20"/>
     </row>
     <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="20"/>
     </row>
     <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" s="20"/>
     </row>
     <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C86" s="20"/>
     </row>
     <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="20"/>
     </row>
     <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="20"/>
     </row>
     <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="20"/>
     </row>
     <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="20"/>
     </row>
     <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C91" s="20"/>
     </row>
     <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C92" s="20"/>
     </row>
     <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="20"/>
     </row>
     <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="20"/>
     </row>
     <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95" s="20"/>
     </row>
     <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" s="20"/>
     </row>
     <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C97" s="20"/>
     </row>
     <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C98" s="20"/>
     </row>
     <row r="99" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="20"/>
     </row>
     <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C100" s="20"/>
     </row>
     <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C101" s="20"/>
     </row>
     <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C102" s="20"/>
     </row>
     <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="20"/>
     </row>
     <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C104" s="20"/>
     </row>
     <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="20"/>
     </row>
     <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C106" s="20"/>
     </row>
     <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="20"/>
     </row>
     <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108" s="20"/>
     </row>
     <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C109" s="17"/>
     </row>
     <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="17"/>
     </row>
     <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="17"/>
     </row>
     <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="17"/>
@@ -3103,374 +3096,374 @@
     </row>
     <row r="114" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="C114" s="17"/>
     </row>
     <row r="115" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C115" s="17"/>
     </row>
     <row r="116" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="17"/>
     </row>
     <row r="117" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C117" s="17"/>
     </row>
     <row r="118" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C118" s="17"/>
     </row>
     <row r="119" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C119" s="20"/>
     </row>
     <row r="120" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121" s="17"/>
       <c r="D121" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C122" s="17"/>
       <c r="D122" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C128" s="20"/>
       <c r="D128" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C130" s="20"/>
     </row>
     <row r="131" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C132" s="20"/>
     </row>
     <row r="133" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C133" s="20"/>
     </row>
     <row r="134" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C134" s="17"/>
       <c r="D134" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C135" s="17"/>
     </row>
     <row r="136" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C139" s="17"/>
     </row>
     <row r="140" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C141" s="17"/>
     </row>
     <row r="142" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C142" s="20"/>
     </row>
     <row r="143" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C143" s="17"/>
     </row>
     <row r="144" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C144" s="17"/>
     </row>
     <row r="145" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C145" s="17"/>
     </row>
     <row r="146" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" s="20"/>
     </row>
     <row r="147" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147" s="17"/>
     </row>
     <row r="148" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C148" s="20"/>
     </row>
     <row r="149" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C149" s="19"/>
       <c r="D149" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3478,358 +3471,358 @@
     </row>
     <row r="152" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="C152" s="17"/>
     </row>
     <row r="153" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C153" s="17"/>
     </row>
     <row r="154" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C154" s="17"/>
     </row>
     <row r="155" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C155" s="20"/>
       <c r="D155" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C156" s="17"/>
     </row>
     <row r="157" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C157" s="17"/>
     </row>
     <row r="158" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C158" s="17"/>
     </row>
     <row r="159" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C159" s="17"/>
     </row>
     <row r="160" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C160" s="17"/>
     </row>
     <row r="161" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C161" s="17"/>
     </row>
     <row r="162" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C162" s="17"/>
     </row>
     <row r="163" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C163" s="17"/>
     </row>
     <row r="164" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C164" s="17"/>
     </row>
     <row r="165" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C165" s="20"/>
     </row>
     <row r="166" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C166" s="17"/>
     </row>
     <row r="167" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C167" s="17"/>
     </row>
     <row r="168" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C168" s="20"/>
     </row>
     <row r="169" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C169" s="20"/>
     </row>
     <row r="170" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C170" s="17"/>
     </row>
     <row r="171" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C171" s="17"/>
     </row>
     <row r="172" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C172" s="17"/>
     </row>
     <row r="173" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C173" s="17"/>
     </row>
     <row r="174" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C174" s="17"/>
     </row>
     <row r="175" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C175" s="20"/>
       <c r="D175" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C176" s="17"/>
     </row>
     <row r="177" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C177" s="17"/>
     </row>
     <row r="178" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C179" s="20"/>
     </row>
     <row r="180" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" s="17"/>
     </row>
     <row r="181" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C181" s="17"/>
     </row>
     <row r="182" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C182" s="20"/>
     </row>
     <row r="183" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="17"/>
     </row>
     <row r="185" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="17"/>
     </row>
     <row r="186" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C186" s="17"/>
     </row>
     <row r="187" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C187" s="17"/>
     </row>
     <row r="188" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C188" s="17"/>
     </row>
     <row r="189" spans="1:4" ht="20" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B189" t="s">
+        <v>489</v>
+      </c>
+      <c r="C189" t="s">
         <v>490</v>
-      </c>
-      <c r="B189" t="s">
-        <v>491</v>
-      </c>
-      <c r="C189" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -3837,316 +3830,319 @@
     </row>
     <row r="191" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="C191" s="17"/>
     </row>
     <row r="192" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192" s="17"/>
+    </row>
+    <row r="193" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B193" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C192" s="17"/>
-    </row>
-    <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="17"/>
+    </row>
+    <row r="194" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B194" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C193" s="20"/>
-    </row>
-    <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="17"/>
+    </row>
+    <row r="195" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C194" s="20"/>
-    </row>
-    <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="17"/>
+      <c r="D195" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A196" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C195" s="20"/>
-    </row>
-    <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="17"/>
+    </row>
+    <row r="197" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B197" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C196" s="17"/>
-    </row>
-    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="17"/>
+    </row>
+    <row r="198" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B198" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C197" s="17"/>
-    </row>
-    <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="17"/>
+    </row>
+    <row r="199" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B199" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C198" s="17"/>
-    </row>
-    <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B199" s="6" t="s">
+      <c r="C199" s="20"/>
+    </row>
+    <row r="200" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A200" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C199" s="20"/>
-    </row>
-    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A200" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="20"/>
+    </row>
+    <row r="201" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B201" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C200" s="20"/>
-    </row>
-    <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B201" s="6" t="s">
+      <c r="C201" s="20"/>
+    </row>
+    <row r="202" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B202" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C201" s="20"/>
-    </row>
-    <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B202" s="6" t="s">
+      <c r="C202" s="20"/>
+    </row>
+    <row r="203" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C202" s="20"/>
-    </row>
-    <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B203" s="6" t="s">
+      <c r="C203" s="17"/>
+    </row>
+    <row r="204" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A204" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C203" s="17"/>
-    </row>
-    <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A204" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B204" s="6" t="s">
+      <c r="C204" s="20"/>
+    </row>
+    <row r="205" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A205" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C204" s="20"/>
-    </row>
-    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A205" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="20"/>
+    </row>
+    <row r="206" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B206" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C205" s="20"/>
-    </row>
-    <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B206" s="6" t="s">
+      <c r="C206" s="20"/>
+    </row>
+    <row r="207" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A207" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B207" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C206" s="20"/>
-    </row>
-    <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A207" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B207" s="6" t="s">
+      <c r="C207" s="20"/>
+    </row>
+    <row r="208" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B208" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="C207" s="20"/>
-    </row>
-    <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A208" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="C208" s="20"/>
     </row>
     <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C209" s="20"/>
     </row>
     <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C210" s="20"/>
     </row>
     <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C211" s="20"/>
     </row>
     <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C212" s="20"/>
     </row>
     <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C213" s="20"/>
   